--- a/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
+++ b/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1111"/>
+  <dimension ref="A1:AP1112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="63">
       <c r="A5" s="77" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1135,18 +1135,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1778.78</v>
+        <v>1785.625</v>
       </c>
       <c r="F5" t="n">
-        <v>1778.78</v>
+        <v>7193.09</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43.45</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1220,8 +1226,8 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" s="63">
-      <c r="A8" s="74" t="n">
-        <v>46057</v>
+      <c r="A8" s="77" t="n">
+        <v>46059</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1237,21 +1243,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1747.4</v>
+        <v>1778.78</v>
       </c>
       <c r="F8" t="n">
-        <v>1759.78</v>
+        <v>1778.78</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.63</v>
+      <c r="J8">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="63">
@@ -1269,13 +1273,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1747.6</v>
+        <v>1747.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3519.99</v>
+        <v>1759.78</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1283,15 +1287,15 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="I9" t="n">
-        <v>21.29</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="63">
       <c r="A10" s="74" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1304,13 +1308,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1796.4</v>
+        <v>1747.6</v>
       </c>
       <c r="F10" t="n">
-        <v>1809.15</v>
+        <v>3519.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1318,10 +1322,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>10.95</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="63">
@@ -1339,13 +1343,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1796.8</v>
+        <v>1796.4</v>
       </c>
       <c r="F11" t="n">
-        <v>7238.12</v>
+        <v>1809.15</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1353,15 +1357,15 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="I11" t="n">
-        <v>43.72</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="63">
       <c r="A12" s="74" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1374,13 +1378,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1890.8</v>
+        <v>1796.8</v>
       </c>
       <c r="F12" t="n">
-        <v>5712.56</v>
+        <v>7238.12</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1388,15 +1392,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5.65</v>
+        <v>7.2</v>
       </c>
       <c r="I12" t="n">
-        <v>34.51</v>
+        <v>43.72</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="63">
       <c r="A13" s="74" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1409,13 +1413,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>1829.9</v>
+        <v>1890.8</v>
       </c>
       <c r="F13" t="n">
-        <v>1842.89</v>
+        <v>5712.56</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1423,10 +1427,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.84</v>
+        <v>5.65</v>
       </c>
       <c r="I13" t="n">
-        <v>11.15</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="63">
@@ -1501,7 +1505,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" s="63">
       <c r="A16" s="74" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1514,13 +1518,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1862.4</v>
+        <v>1829.9</v>
       </c>
       <c r="F16" t="n">
-        <v>5626.82</v>
+        <v>1842.89</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1528,15 +1532,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5.61</v>
+        <v>1.84</v>
       </c>
       <c r="I16" t="n">
-        <v>34.01</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="63">
       <c r="A17" s="74" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1552,10 +1556,10 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>1880.1</v>
+        <v>1862.4</v>
       </c>
       <c r="F17" t="n">
-        <v>5680.29</v>
+        <v>5626.82</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1563,19 +1567,19 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="I17" t="n">
-        <v>34.37</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="63">
       <c r="A18" s="74" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1584,13 +1588,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1915.15</v>
+        <v>1880.1</v>
       </c>
       <c r="F18" t="n">
-        <v>3857.43</v>
+        <v>5680.29</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1598,15 +1602,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3.81</v>
+        <v>5.62</v>
       </c>
       <c r="I18" t="n">
-        <v>23.32</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="63">
       <c r="A19" s="74" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1622,10 +1626,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1872.65</v>
+        <v>1915.15</v>
       </c>
       <c r="F19" t="n">
-        <v>3771.85</v>
+        <v>3857.43</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1633,15 +1637,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="I19" t="n">
-        <v>22.79</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="63">
       <c r="A20" s="74" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1657,10 +1661,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1902.35</v>
+        <v>1872.65</v>
       </c>
       <c r="F20" t="n">
-        <v>3831.67</v>
+        <v>3771.85</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1668,19 +1672,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="I20" t="n">
-        <v>23.18</v>
+        <v>22.79</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="63">
       <c r="A21" s="74" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1689,13 +1693,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1894</v>
+        <v>1902.35</v>
       </c>
       <c r="F21" t="n">
-        <v>5722.3</v>
+        <v>3831.67</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1703,19 +1707,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5.7</v>
+        <v>3.79</v>
       </c>
       <c r="I21" t="n">
-        <v>34.6</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="63">
       <c r="A22" s="74" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1724,13 +1728,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1834.95</v>
+        <v>1894</v>
       </c>
       <c r="F22" t="n">
-        <v>3695.91</v>
+        <v>5722.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1738,10 +1742,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="I22" t="n">
-        <v>22.36</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="63">
@@ -1759,13 +1763,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1835</v>
+        <v>1834.95</v>
       </c>
       <c r="F23" t="n">
-        <v>1848.04</v>
+        <v>3695.91</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1773,15 +1777,15 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.82</v>
+        <v>3.65</v>
       </c>
       <c r="I23" t="n">
-        <v>11.22</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="63">
       <c r="A24" s="74" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1794,13 +1798,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1878.35</v>
+        <v>1835</v>
       </c>
       <c r="F24" t="n">
-        <v>5675.05</v>
+        <v>1848.04</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1808,15 +1812,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.58</v>
+        <v>1.82</v>
       </c>
       <c r="I24" t="n">
-        <v>34.42</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="63">
       <c r="A25" s="74" t="n">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1832,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1834.9</v>
+        <v>1878.35</v>
       </c>
       <c r="F25" t="n">
-        <v>5543.8</v>
+        <v>5675.05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1843,19 +1847,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5.53</v>
+        <v>5.58</v>
       </c>
       <c r="I25" t="n">
-        <v>33.57</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
       <c r="A26" s="74" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1867,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1834.3</v>
+        <v>1834.9</v>
       </c>
       <c r="F26" t="n">
-        <v>5541.96</v>
+        <v>5543.8</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1878,7 +1882,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.49</v>
+        <v>5.53</v>
       </c>
       <c r="I26" t="n">
         <v>33.57</v>
@@ -1886,7 +1890,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
       <c r="A27" s="74" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1899,13 +1903,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1844.9</v>
+        <v>1834.3</v>
       </c>
       <c r="F27" t="n">
-        <v>3715.93</v>
+        <v>5541.96</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1913,10 +1917,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3.68</v>
+        <v>5.49</v>
       </c>
       <c r="I27" t="n">
-        <v>22.45</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
@@ -1934,13 +1938,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1845.5</v>
+        <v>1844.9</v>
       </c>
       <c r="F28" t="n">
-        <v>7434.33</v>
+        <v>3715.93</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1948,15 +1952,15 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7.35</v>
+        <v>3.68</v>
       </c>
       <c r="I28" t="n">
-        <v>44.98</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
       <c r="A29" s="74" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1969,13 +1973,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>1887.8</v>
+        <v>1845.5</v>
       </c>
       <c r="F29" t="n">
-        <v>3802.36</v>
+        <v>7434.33</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1983,19 +1987,19 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.78</v>
+        <v>7.35</v>
       </c>
       <c r="I29" t="n">
-        <v>22.98</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="63">
       <c r="A30" s="74" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2007,10 +2011,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>1941.05</v>
+        <v>1887.8</v>
       </c>
       <c r="F30" t="n">
-        <v>3909.65</v>
+        <v>3802.36</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2018,19 +2022,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="63">
       <c r="A31" s="74" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2039,13 +2043,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1907.1</v>
+        <v>1941.05</v>
       </c>
       <c r="F31" t="n">
-        <v>1920.65</v>
+        <v>3909.65</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2053,10 +2057,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.92</v>
+        <v>3.86</v>
       </c>
       <c r="I31" t="n">
-        <v>11.63</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="63">
@@ -2096,7 +2100,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1" s="63">
       <c r="A33" s="74" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2112,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1848.4</v>
+        <v>1907.1</v>
       </c>
       <c r="F33" t="n">
-        <v>1861.52</v>
+        <v>1920.65</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2123,10 +2127,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I33" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="63">
@@ -2166,11 +2170,11 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="63">
       <c r="A35" s="74" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2179,13 +2183,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1879.45</v>
+        <v>1848.4</v>
       </c>
       <c r="F35" t="n">
-        <v>5678.37</v>
+        <v>1861.52</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2193,19 +2197,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5.64</v>
+        <v>1.86</v>
       </c>
       <c r="I35" t="n">
-        <v>34.38</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="63">
       <c r="A36" s="74" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2214,13 +2218,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>1874.9</v>
+        <v>1879.45</v>
       </c>
       <c r="F36" t="n">
-        <v>3776.36</v>
+        <v>5678.37</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2228,15 +2232,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3.73</v>
+        <v>5.64</v>
       </c>
       <c r="I36" t="n">
-        <v>22.83</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="63">
       <c r="A37" s="74" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2249,13 +2253,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>1884.9</v>
+        <v>1874.9</v>
       </c>
       <c r="F37" t="n">
-        <v>5694.76</v>
+        <v>3776.36</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2263,15 +2267,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5.61</v>
+        <v>3.73</v>
       </c>
       <c r="I37" t="n">
-        <v>34.45</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="63">
       <c r="A38" s="74" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2284,13 +2288,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1932.5</v>
+        <v>1884.9</v>
       </c>
       <c r="F38" t="n">
-        <v>3892.35</v>
+        <v>5694.76</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2298,15 +2302,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3.85</v>
+        <v>5.61</v>
       </c>
       <c r="I38" t="n">
-        <v>23.5</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="63">
       <c r="A39" s="74" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2322,10 +2326,10 @@
         <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1883.2</v>
+        <v>1932.5</v>
       </c>
       <c r="F39" t="n">
-        <v>3793.12</v>
+        <v>3892.35</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2333,19 +2337,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="I39" t="n">
-        <v>22.95</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="63">
       <c r="A40" s="74" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2357,10 +2361,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1913</v>
+        <v>1883.2</v>
       </c>
       <c r="F40" t="n">
-        <v>3853.18</v>
+        <v>3793.12</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2368,19 +2372,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3.86</v>
+        <v>3.77</v>
       </c>
       <c r="I40" t="n">
-        <v>23.32</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="63">
       <c r="A41" s="74" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2392,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1979</v>
+        <v>1913</v>
       </c>
       <c r="F41" t="n">
-        <v>3986.03</v>
+        <v>3853.18</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2403,15 +2407,15 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="I41" t="n">
-        <v>24.08</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="63">
       <c r="A42" s="74" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2424,13 +2428,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2017.4</v>
+        <v>1979</v>
       </c>
       <c r="F42" t="n">
-        <v>2031.71</v>
+        <v>3986.03</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2438,10 +2442,10 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="I42" t="n">
-        <v>12.29</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="63">
@@ -2462,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>2017.5</v>
+        <v>2017.4</v>
       </c>
       <c r="F43" t="n">
-        <v>2031.82</v>
+        <v>2031.71</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2476,12 +2480,12 @@
         <v>2.02</v>
       </c>
       <c r="I43" t="n">
-        <v>12.3</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="63">
       <c r="A44" s="74" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2494,13 +2498,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>2035</v>
+        <v>2017.5</v>
       </c>
       <c r="F44" t="n">
-        <v>6148.35</v>
+        <v>2031.82</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2508,19 +2512,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6.13</v>
+        <v>2.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37.22</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="63">
       <c r="A45" s="74" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2529,13 +2533,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>2073.3</v>
+        <v>2035</v>
       </c>
       <c r="F45" t="n">
-        <v>4176.03</v>
+        <v>6148.35</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2543,15 +2547,15 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4.15</v>
+        <v>6.13</v>
       </c>
       <c r="I45" t="n">
-        <v>25.28</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="63">
       <c r="A46" s="74" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2567,10 +2571,10 @@
         <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>2049</v>
+        <v>2073.3</v>
       </c>
       <c r="F46" t="n">
-        <v>4127.07</v>
+        <v>4176.03</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2578,19 +2582,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
       <c r="I46" t="n">
-        <v>24.98</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="63">
       <c r="A47" s="74" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,13 +2603,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>2031.6</v>
+        <v>2049</v>
       </c>
       <c r="F47" t="n">
-        <v>6138.01</v>
+        <v>4127.07</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2613,10 +2617,10 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6.09</v>
+        <v>4.09</v>
       </c>
       <c r="I47" t="n">
-        <v>37.12</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="63">
@@ -2634,13 +2638,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="n">
-        <v>2032</v>
+        <v>2031.6</v>
       </c>
       <c r="F48" t="n">
-        <v>2046.39</v>
+        <v>6138.01</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2648,10 +2652,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.03</v>
+        <v>6.09</v>
       </c>
       <c r="I48" t="n">
-        <v>12.36</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="63">
@@ -2672,10 +2676,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>2031.9</v>
+        <v>2032</v>
       </c>
       <c r="F49" t="n">
-        <v>2046.29</v>
+        <v>2046.39</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2691,7 +2695,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1" s="63">
       <c r="A50" s="74" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2707,10 +2711,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1952.1</v>
+        <v>2031.9</v>
       </c>
       <c r="F50" t="n">
-        <v>1965.94</v>
+        <v>2046.29</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2718,10 +2722,10 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="I50" t="n">
-        <v>11.89</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="63">
@@ -2739,13 +2743,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1952</v>
+        <v>1952.1</v>
       </c>
       <c r="F51" t="n">
-        <v>7863.33</v>
+        <v>1965.94</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2753,15 +2757,15 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>7.82</v>
+        <v>1.95</v>
       </c>
       <c r="I51" t="n">
-        <v>47.51</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="63">
       <c r="A52" s="74" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2777,10 +2781,10 @@
         <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>1808.8</v>
+        <v>1952</v>
       </c>
       <c r="F52" t="n">
-        <v>7286.58</v>
+        <v>7863.33</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2788,10 +2792,10 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7.45</v>
+        <v>7.82</v>
       </c>
       <c r="I52" t="n">
-        <v>43.93</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="63">
@@ -2809,13 +2813,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
         <v>1808.8</v>
       </c>
       <c r="F53" t="n">
-        <v>1821.66</v>
+        <v>7286.58</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2823,19 +2827,19 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1.87</v>
+        <v>7.45</v>
       </c>
       <c r="I53" t="n">
-        <v>10.99</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="63">
       <c r="A54" s="74" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2844,13 +2848,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1880.95</v>
+        <v>1808.8</v>
       </c>
       <c r="F54" t="n">
-        <v>9471.4</v>
+        <v>1821.66</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2858,15 +2862,15 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9.359999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="I54" t="n">
-        <v>57.29</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="63">
       <c r="A55" s="74" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2879,13 +2883,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>1829.5</v>
+        <v>1880.95</v>
       </c>
       <c r="F55" t="n">
-        <v>1842.48</v>
+        <v>9471.4</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2893,10 +2897,10 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1.83</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I55" t="n">
-        <v>11.15</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="63">
@@ -2914,13 +2918,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1829</v>
+        <v>1829.5</v>
       </c>
       <c r="F56" t="n">
-        <v>7367.94</v>
+        <v>1842.48</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2928,19 +2932,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7.34</v>
+        <v>1.83</v>
       </c>
       <c r="I56" t="n">
-        <v>44.6</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="63">
       <c r="A57" s="74" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2949,13 +2953,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>1753.7</v>
+        <v>1829</v>
       </c>
       <c r="F57" t="n">
-        <v>5298.24</v>
+        <v>7367.94</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2963,15 +2967,15 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5.24</v>
+        <v>7.34</v>
       </c>
       <c r="I57" t="n">
-        <v>31.9</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="63">
       <c r="A58" s="74" t="n">
-        <v>45873</v>
+        <v>45901</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2984,13 +2988,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>1902</v>
+        <v>1753.7</v>
       </c>
       <c r="F58" t="n">
-        <v>1915.54</v>
+        <v>5298.24</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2998,10 +3002,10 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.93</v>
+        <v>5.24</v>
       </c>
       <c r="I58" t="n">
-        <v>11.61</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" s="63">
@@ -3019,13 +3023,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1902.1</v>
+        <v>1902</v>
       </c>
       <c r="F59" t="n">
-        <v>3831.19</v>
+        <v>1915.54</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3033,10 +3037,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3.84</v>
+        <v>1.93</v>
       </c>
       <c r="I59" t="n">
-        <v>23.15</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" s="63">
@@ -3054,13 +3058,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
         <v>1902.1</v>
       </c>
       <c r="F60" t="n">
-        <v>1915.64</v>
+        <v>3831.19</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3068,10 +3072,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.93</v>
+        <v>3.84</v>
       </c>
       <c r="I60" t="n">
-        <v>11.61</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="61" ht="13" customHeight="1" s="63">
@@ -3095,7 +3099,7 @@
         <v>1902.1</v>
       </c>
       <c r="F61" t="n">
-        <v>1915.65</v>
+        <v>1915.64</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3106,121 +3110,43 @@
         <v>1.93</v>
       </c>
       <c r="I61" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="62" ht="13" customHeight="1" s="63">
+      <c r="A62" s="74" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1915.65</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I62" t="n">
         <v>11.62</v>
       </c>
-    </row>
-    <row r="62" ht="13" customHeight="1" s="63">
-      <c r="A62" s="75" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B62" s="17" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C62" s="17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D62" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E62" s="19" t="n">
-        <v>2024.27</v>
-      </c>
-      <c r="F62" s="19" t="n">
-        <v>8097.06</v>
-      </c>
-      <c r="G62" s="17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H62" s="19" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="I62" s="19" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="J62" s="20">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K62" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L62" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M62" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N62" s="23">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O62" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P62" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q62" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R62" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S62" s="24">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T62" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U62" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V62" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W62" s="25" t="n"/>
-      <c r="X62" s="25" t="n"/>
-      <c r="Y62" s="24">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z62" s="25" t="n"/>
-      <c r="AA62" s="25" t="n"/>
-      <c r="AB62" s="25" t="n"/>
-      <c r="AC62" s="22">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD62" s="26" t="n"/>
-      <c r="AE62" s="1" t="n"/>
-      <c r="AF62" s="1" t="n"/>
-      <c r="AG62" s="1" t="n"/>
-      <c r="AH62" s="1" t="n"/>
-      <c r="AI62" s="1" t="n"/>
-      <c r="AJ62" s="1" t="n"/>
-      <c r="AK62" s="1" t="n"/>
-      <c r="AL62" s="1" t="n"/>
-      <c r="AM62" s="1" t="n"/>
-      <c r="AN62" s="1" t="n"/>
-      <c r="AO62" s="1" t="n"/>
-      <c r="AP62" s="1" t="n"/>
     </row>
     <row r="63" ht="13" customHeight="1" s="63">
       <c r="A63" s="75" t="n">
@@ -3237,13 +3163,13 @@
         </is>
       </c>
       <c r="D63" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" s="19" t="n">
-        <v>2024.91</v>
+        <v>2024.27</v>
       </c>
       <c r="F63" s="19" t="n">
-        <v>2024.91</v>
+        <v>8097.06</v>
       </c>
       <c r="G63" s="17" t="inlineStr">
         <is>
@@ -3251,74 +3177,74 @@
         </is>
       </c>
       <c r="H63" s="19" t="n">
-        <v>2.01</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I63" s="19" t="n">
-        <v>12.25</v>
+        <v>49.02</v>
       </c>
       <c r="J63" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L63" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M63" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N63" s="23">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O63" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P63" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R63" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S63" s="24">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T63" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U63" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V63" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W63" s="25" t="n"/>
       <c r="X63" s="25" t="n"/>
       <c r="Y63" s="24">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z63" s="25" t="n"/>
       <c r="AA63" s="25" t="n"/>
       <c r="AB63" s="25" t="n"/>
       <c r="AC63" s="22">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD63" s="26" t="n"/>
@@ -3337,11 +3263,11 @@
     </row>
     <row r="64" ht="13" customHeight="1" s="63">
       <c r="A64" s="75" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B64" s="17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C64" s="17" t="inlineStr">
@@ -3350,13 +3276,13 @@
         </is>
       </c>
       <c r="D64" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" s="19" t="n">
-        <v>1965.93</v>
+        <v>2024.91</v>
       </c>
       <c r="F64" s="19" t="n">
-        <v>5897.78</v>
+        <v>2024.91</v>
       </c>
       <c r="G64" s="17" t="inlineStr">
         <is>
@@ -3364,74 +3290,74 @@
         </is>
       </c>
       <c r="H64" s="19" t="n">
-        <v>5.84</v>
+        <v>2.01</v>
       </c>
       <c r="I64" s="19" t="n">
-        <v>35.64</v>
+        <v>12.25</v>
       </c>
       <c r="J64" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L64" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M64" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N64" s="23">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O64" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P64" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R64" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S64" s="24">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T64" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U64" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V64" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W64" s="25" t="n"/>
       <c r="X64" s="25" t="n"/>
       <c r="Y64" s="24">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z64" s="25" t="n"/>
       <c r="AA64" s="25" t="n"/>
       <c r="AB64" s="25" t="n"/>
       <c r="AC64" s="22">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD64" s="26" t="n"/>
@@ -3463,13 +3389,13 @@
         </is>
       </c>
       <c r="D65" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65" s="19" t="n">
-        <v>1965.92</v>
+        <v>1965.93</v>
       </c>
       <c r="F65" s="19" t="n">
-        <v>3931.84</v>
+        <v>5897.78</v>
       </c>
       <c r="G65" s="17" t="inlineStr">
         <is>
@@ -3477,74 +3403,74 @@
         </is>
       </c>
       <c r="H65" s="19" t="n">
-        <v>3.89</v>
+        <v>5.84</v>
       </c>
       <c r="I65" s="19" t="n">
-        <v>23.75</v>
+        <v>35.64</v>
       </c>
       <c r="J65" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L65" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M65" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N65" s="23">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O65" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P65" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R65" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S65" s="24">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T65" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U65" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V65" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W65" s="25" t="n"/>
       <c r="X65" s="25" t="n"/>
       <c r="Y65" s="24">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z65" s="25" t="n"/>
       <c r="AA65" s="25" t="n"/>
       <c r="AB65" s="25" t="n"/>
       <c r="AC65" s="22">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD65" s="26" t="n"/>
@@ -3576,13 +3502,13 @@
         </is>
       </c>
       <c r="D66" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="19" t="n">
-        <v>1965.82</v>
+        <v>1965.92</v>
       </c>
       <c r="F66" s="19" t="n">
-        <v>1965.82</v>
+        <v>3931.84</v>
       </c>
       <c r="G66" s="17" t="inlineStr">
         <is>
@@ -3590,74 +3516,74 @@
         </is>
       </c>
       <c r="H66" s="19" t="n">
-        <v>1.94</v>
+        <v>3.89</v>
       </c>
       <c r="I66" s="19" t="n">
-        <v>11.88</v>
+        <v>23.75</v>
       </c>
       <c r="J66" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L66" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M66" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N66" s="23">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O66" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P66" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R66" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S66" s="24">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T66" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U66" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V66" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W66" s="25" t="n"/>
       <c r="X66" s="25" t="n"/>
       <c r="Y66" s="24">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z66" s="25" t="n"/>
       <c r="AA66" s="25" t="n"/>
       <c r="AB66" s="25" t="n"/>
       <c r="AC66" s="22">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD66" s="26" t="n"/>
@@ -3689,13 +3615,13 @@
         </is>
       </c>
       <c r="D67" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" s="19" t="n">
-        <v>1965.83</v>
+        <v>1965.82</v>
       </c>
       <c r="F67" s="19" t="n">
-        <v>5897.48</v>
+        <v>1965.82</v>
       </c>
       <c r="G67" s="17" t="inlineStr">
         <is>
@@ -3703,74 +3629,74 @@
         </is>
       </c>
       <c r="H67" s="19" t="n">
-        <v>5.84</v>
+        <v>1.94</v>
       </c>
       <c r="I67" s="19" t="n">
-        <v>35.64</v>
+        <v>11.88</v>
       </c>
       <c r="J67" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L67" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M67" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N67" s="23">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O67" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P67" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R67" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S67" s="24">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T67" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U67" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V67" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W67" s="25" t="n"/>
       <c r="X67" s="25" t="n"/>
       <c r="Y67" s="24">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z67" s="25" t="n"/>
       <c r="AA67" s="25" t="n"/>
       <c r="AB67" s="25" t="n"/>
       <c r="AC67" s="22">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD67" s="26" t="n"/>
@@ -3802,13 +3728,13 @@
         </is>
       </c>
       <c r="D68" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68" s="19" t="n">
-        <v>1965.62</v>
+        <v>1965.83</v>
       </c>
       <c r="F68" s="19" t="n">
-        <v>1965.62</v>
+        <v>5897.48</v>
       </c>
       <c r="G68" s="17" t="inlineStr">
         <is>
@@ -3816,74 +3742,74 @@
         </is>
       </c>
       <c r="H68" s="19" t="n">
-        <v>1.94</v>
+        <v>5.84</v>
       </c>
       <c r="I68" s="19" t="n">
-        <v>11.88</v>
+        <v>35.64</v>
       </c>
       <c r="J68" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L68" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M68" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N68" s="23">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O68" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P68" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R68" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S68" s="24">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T68" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U68" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V68" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W68" s="25" t="n"/>
       <c r="X68" s="25" t="n"/>
       <c r="Y68" s="24">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z68" s="25" t="n"/>
       <c r="AA68" s="25" t="n"/>
       <c r="AB68" s="25" t="n"/>
       <c r="AC68" s="22">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD68" s="26" t="n"/>
@@ -3902,7 +3828,7 @@
     </row>
     <row r="69" ht="13" customHeight="1" s="63">
       <c r="A69" s="75" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B69" s="17" t="inlineStr">
         <is>
@@ -3915,13 +3841,13 @@
         </is>
       </c>
       <c r="D69" s="18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E69" s="19" t="n">
-        <v>1961.06</v>
+        <v>1965.62</v>
       </c>
       <c r="F69" s="19" t="n">
-        <v>7844.24</v>
+        <v>1965.62</v>
       </c>
       <c r="G69" s="17" t="inlineStr">
         <is>
@@ -3929,74 +3855,74 @@
         </is>
       </c>
       <c r="H69" s="19" t="n">
-        <v>7.86</v>
+        <v>1.94</v>
       </c>
       <c r="I69" s="19" t="n">
-        <v>47.58</v>
+        <v>11.88</v>
       </c>
       <c r="J69" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L69" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M69" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N69" s="23">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O69" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P69" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R69" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S69" s="24">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T69" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U69" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V69" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W69" s="25" t="n"/>
       <c r="X69" s="25" t="n"/>
       <c r="Y69" s="24">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z69" s="25" t="n"/>
       <c r="AA69" s="25" t="n"/>
       <c r="AB69" s="25" t="n"/>
       <c r="AC69" s="22">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD69" s="26" t="n"/>
@@ -4028,13 +3954,13 @@
         </is>
       </c>
       <c r="D70" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E70" s="19" t="n">
-        <v>1960.97</v>
+        <v>1961.06</v>
       </c>
       <c r="F70" s="19" t="n">
-        <v>1960.97</v>
+        <v>7844.24</v>
       </c>
       <c r="G70" s="17" t="inlineStr">
         <is>
@@ -4042,74 +3968,74 @@
         </is>
       </c>
       <c r="H70" s="19" t="n">
-        <v>1.97</v>
+        <v>7.86</v>
       </c>
       <c r="I70" s="19" t="n">
-        <v>11.9</v>
+        <v>47.58</v>
       </c>
       <c r="J70" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L70" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M70" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N70" s="23">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O70" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P70" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R70" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S70" s="24">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T70" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U70" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V70" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W70" s="25" t="n"/>
       <c r="X70" s="25" t="n"/>
       <c r="Y70" s="24">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z70" s="25" t="n"/>
       <c r="AA70" s="25" t="n"/>
       <c r="AB70" s="25" t="n"/>
       <c r="AC70" s="22">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD70" s="26" t="n"/>
@@ -4128,7 +4054,7 @@
     </row>
     <row r="71" ht="13" customHeight="1" s="63">
       <c r="A71" s="75" t="n">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="B71" s="17" t="inlineStr">
         <is>
@@ -4141,13 +4067,13 @@
         </is>
       </c>
       <c r="D71" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="19" t="n">
-        <v>2090.3</v>
+        <v>1960.97</v>
       </c>
       <c r="F71" s="19" t="n">
-        <v>4180.6</v>
+        <v>1960.97</v>
       </c>
       <c r="G71" s="17" t="inlineStr">
         <is>
@@ -4155,74 +4081,74 @@
         </is>
       </c>
       <c r="H71" s="19" t="n">
-        <v>4.14</v>
+        <v>1.97</v>
       </c>
       <c r="I71" s="19" t="n">
-        <v>25.26</v>
+        <v>11.9</v>
       </c>
       <c r="J71" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L71" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M71" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N71" s="23">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O71" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P71" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R71" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S71" s="24">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T71" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U71" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V71" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W71" s="25" t="n"/>
       <c r="X71" s="25" t="n"/>
       <c r="Y71" s="24">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z71" s="25" t="n"/>
       <c r="AA71" s="25" t="n"/>
       <c r="AB71" s="25" t="n"/>
       <c r="AC71" s="22">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD71" s="26" t="n"/>
@@ -4254,13 +4180,13 @@
         </is>
       </c>
       <c r="D72" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" s="19" t="n">
-        <v>2090.31</v>
+        <v>2090.3</v>
       </c>
       <c r="F72" s="19" t="n">
-        <v>6270.92</v>
+        <v>4180.6</v>
       </c>
       <c r="G72" s="17" t="inlineStr">
         <is>
@@ -4268,74 +4194,74 @@
         </is>
       </c>
       <c r="H72" s="19" t="n">
-        <v>6.22</v>
+        <v>4.14</v>
       </c>
       <c r="I72" s="19" t="n">
-        <v>37.9</v>
+        <v>25.26</v>
       </c>
       <c r="J72" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L72" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M72" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N72" s="23">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O72" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P72" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R72" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S72" s="24">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T72" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U72" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V72" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W72" s="25" t="n"/>
       <c r="X72" s="25" t="n"/>
       <c r="Y72" s="24">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z72" s="25" t="n"/>
       <c r="AA72" s="25" t="n"/>
       <c r="AB72" s="25" t="n"/>
       <c r="AC72" s="22">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD72" s="26" t="n"/>
@@ -4354,7 +4280,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="63">
       <c r="A73" s="75" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B73" s="17" t="inlineStr">
         <is>
@@ -4367,13 +4293,13 @@
         </is>
       </c>
       <c r="D73" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73" s="19" t="n">
-        <v>2024.55</v>
+        <v>2090.31</v>
       </c>
       <c r="F73" s="19" t="n">
-        <v>4049.1</v>
+        <v>6270.92</v>
       </c>
       <c r="G73" s="17" t="inlineStr">
         <is>
@@ -4381,74 +4307,74 @@
         </is>
       </c>
       <c r="H73" s="19" t="n">
-        <v>4.05</v>
+        <v>6.22</v>
       </c>
       <c r="I73" s="19" t="n">
-        <v>24.45</v>
+        <v>37.9</v>
       </c>
       <c r="J73" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L73" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M73" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N73" s="23">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O73" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P73" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R73" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S73" s="24">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T73" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U73" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V73" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W73" s="25" t="n"/>
       <c r="X73" s="25" t="n"/>
       <c r="Y73" s="24">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z73" s="25" t="n"/>
       <c r="AA73" s="25" t="n"/>
       <c r="AB73" s="25" t="n"/>
       <c r="AC73" s="22">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD73" s="26" t="n"/>
@@ -4480,13 +4406,13 @@
         </is>
       </c>
       <c r="D74" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.55</v>
       </c>
       <c r="F74" s="19" t="n">
-        <v>2024.05</v>
+        <v>4049.1</v>
       </c>
       <c r="G74" s="17" t="inlineStr">
         <is>
@@ -4494,74 +4420,74 @@
         </is>
       </c>
       <c r="H74" s="19" t="n">
-        <v>2.02</v>
+        <v>4.05</v>
       </c>
       <c r="I74" s="19" t="n">
-        <v>12.23</v>
+        <v>24.45</v>
       </c>
       <c r="J74" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L74" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M74" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N74" s="23">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O74" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P74" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R74" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S74" s="24">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T74" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U74" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V74" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W74" s="25" t="n"/>
       <c r="X74" s="25" t="n"/>
       <c r="Y74" s="24">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z74" s="25" t="n"/>
       <c r="AA74" s="25" t="n"/>
       <c r="AB74" s="25" t="n"/>
       <c r="AC74" s="22">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD74" s="26" t="n"/>
@@ -4596,10 +4522,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="F75" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="G75" s="17" t="inlineStr">
         <is>
@@ -4617,64 +4543,64 @@
         <v/>
       </c>
       <c r="K75" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L75" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M75" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N75" s="23">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O75" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P75" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R75" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S75" s="24">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T75" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U75" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V75" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W75" s="25" t="n"/>
       <c r="X75" s="25" t="n"/>
       <c r="Y75" s="24">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z75" s="25" t="n"/>
       <c r="AA75" s="25" t="n"/>
       <c r="AB75" s="25" t="n"/>
       <c r="AC75" s="22">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD75" s="26" t="n"/>
@@ -4709,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="F76" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="G76" s="17" t="inlineStr">
         <is>
@@ -4730,64 +4656,64 @@
         <v/>
       </c>
       <c r="K76" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L76" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M76" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N76" s="23">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O76" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P76" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R76" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S76" s="24">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T76" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U76" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V76" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W76" s="25" t="n"/>
       <c r="X76" s="25" t="n"/>
       <c r="Y76" s="24">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z76" s="25" t="n"/>
       <c r="AA76" s="25" t="n"/>
       <c r="AB76" s="25" t="n"/>
       <c r="AC76" s="22">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD76" s="26" t="n"/>
@@ -4806,7 +4732,7 @@
     </row>
     <row r="77" ht="13" customHeight="1" s="63">
       <c r="A77" s="75" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B77" s="17" t="inlineStr">
         <is>
@@ -4819,13 +4745,13 @@
         </is>
       </c>
       <c r="D77" s="18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E77" s="19" t="n">
-        <v>2060.9</v>
+        <v>2024.05</v>
       </c>
       <c r="F77" s="19" t="n">
-        <v>10304.51</v>
+        <v>2024.05</v>
       </c>
       <c r="G77" s="17" t="inlineStr">
         <is>
@@ -4833,74 +4759,74 @@
         </is>
       </c>
       <c r="H77" s="19" t="n">
-        <v>10.23</v>
+        <v>2.02</v>
       </c>
       <c r="I77" s="19" t="n">
-        <v>62.28</v>
+        <v>12.23</v>
       </c>
       <c r="J77" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L77" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M77" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N77" s="23">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O77" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P77" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R77" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S77" s="24">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T77" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U77" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V77" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W77" s="25" t="n"/>
       <c r="X77" s="25" t="n"/>
       <c r="Y77" s="24">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z77" s="25" t="n"/>
       <c r="AA77" s="25" t="n"/>
       <c r="AB77" s="25" t="n"/>
       <c r="AC77" s="22">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD77" s="26" t="n"/>
@@ -4919,11 +4845,11 @@
     </row>
     <row r="78" ht="13" customHeight="1" s="63">
       <c r="A78" s="75" t="n">
-        <v>45743</v>
+        <v>45811</v>
       </c>
       <c r="B78" s="17" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C78" s="17" t="inlineStr">
@@ -4932,88 +4858,88 @@
         </is>
       </c>
       <c r="D78" s="18" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E78" s="19" t="n">
-        <v>4</v>
+        <v>2060.9</v>
       </c>
       <c r="F78" s="19" t="n">
-        <v>220</v>
+        <v>10304.51</v>
       </c>
       <c r="G78" s="17" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H78" s="19" t="n">
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="I78" s="19" t="n">
-        <v>0</v>
+        <v>62.28</v>
       </c>
       <c r="J78" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L78" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M78" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N78" s="23">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O78" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P78" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R78" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S78" s="24">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T78" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U78" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V78" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W78" s="25" t="n"/>
       <c r="X78" s="25" t="n"/>
       <c r="Y78" s="24">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z78" s="25" t="n"/>
       <c r="AA78" s="25" t="n"/>
       <c r="AB78" s="25" t="n"/>
       <c r="AC78" s="22">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD78" s="26" t="n"/>
@@ -5031,101 +4957,102 @@
       <c r="AP78" s="1" t="n"/>
     </row>
     <row r="79" ht="13" customHeight="1" s="63">
-      <c r="A79" s="76" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B79" s="29" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C79" s="29" t="inlineStr">
+      <c r="A79" s="75" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B79" s="17" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C79" s="17" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D79" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E79" s="31" t="n">
-        <v>1703.49</v>
-      </c>
-      <c r="F79" s="3">
-        <f>E34*D34 + SUM(H34:I34)</f>
-        <v/>
-      </c>
-      <c r="G79" s="29" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H79" s="31" t="n"/>
-      <c r="I79" s="31" t="n">
-        <v>23.99</v>
+      <c r="D79" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E79" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" s="19" t="n">
+        <v>220</v>
+      </c>
+      <c r="G79" s="17" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+        </is>
+      </c>
+      <c r="H79" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="J79" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L79" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M79" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N79" s="23">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O79" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P79" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R79" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S79" s="24">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T79" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U79" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V79" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W79" s="25" t="n"/>
       <c r="X79" s="25" t="n"/>
       <c r="Y79" s="24">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z79" s="25" t="n"/>
       <c r="AA79" s="25" t="n"/>
       <c r="AB79" s="25" t="n"/>
       <c r="AC79" s="22">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD79" s="26" t="n"/>
@@ -5160,10 +5087,10 @@
         <v>2</v>
       </c>
       <c r="E80" s="31" t="n">
-        <v>1703.55</v>
-      </c>
-      <c r="F80" s="32">
-        <f>E35*D35 + SUM(H35:I35)</f>
+        <v>1703.49</v>
+      </c>
+      <c r="F80" s="3">
+        <f>E34*D34 + SUM(H34:I34)</f>
         <v/>
       </c>
       <c r="G80" s="29" t="inlineStr">
@@ -5180,64 +5107,64 @@
         <v/>
       </c>
       <c r="K80" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L80" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M80" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N80" s="23">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O80" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P80" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R80" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S80" s="24">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T80" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U80" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V80" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W80" s="25" t="n"/>
       <c r="X80" s="25" t="n"/>
       <c r="Y80" s="24">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z80" s="25" t="n"/>
       <c r="AA80" s="25" t="n"/>
       <c r="AB80" s="25" t="n"/>
       <c r="AC80" s="22">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD80" s="26" t="n"/>
@@ -5269,13 +5196,13 @@
         </is>
       </c>
       <c r="D81" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E81" s="31" t="n">
-        <v>1703.48</v>
+        <v>1703.55</v>
       </c>
       <c r="F81" s="32">
-        <f>E36*D36 + SUM(H36:I36)</f>
+        <f>E35*D35 + SUM(H35:I35)</f>
         <v/>
       </c>
       <c r="G81" s="29" t="inlineStr">
@@ -5285,71 +5212,71 @@
       </c>
       <c r="H81" s="31" t="n"/>
       <c r="I81" s="31" t="n">
-        <v>11.98</v>
+        <v>23.99</v>
       </c>
       <c r="J81" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L81" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M81" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N81" s="23">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O81" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P81" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R81" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S81" s="24">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T81" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U81" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V81" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W81" s="25" t="n"/>
       <c r="X81" s="25" t="n"/>
       <c r="Y81" s="24">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z81" s="25" t="n"/>
       <c r="AA81" s="25" t="n"/>
       <c r="AB81" s="25" t="n"/>
       <c r="AC81" s="22">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD81" s="26" t="n"/>
@@ -5368,7 +5295,7 @@
     </row>
     <row r="82" ht="13" customHeight="1" s="63">
       <c r="A82" s="76" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B82" s="29" t="inlineStr">
         <is>
@@ -5381,88 +5308,87 @@
         </is>
       </c>
       <c r="D82" s="30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E82" s="31" t="n">
-        <v>1799.56</v>
-      </c>
-      <c r="F82" s="15" t="n">
-        <v>8997.790000000001</v>
+        <v>1703.48</v>
+      </c>
+      <c r="F82" s="32">
+        <f>E36*D36 + SUM(H36:I36)</f>
+        <v/>
       </c>
       <c r="G82" s="29" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H82" s="31" t="n">
-        <v>8.98</v>
-      </c>
+      <c r="H82" s="31" t="n"/>
       <c r="I82" s="31" t="n">
-        <v>54.31</v>
+        <v>11.98</v>
       </c>
       <c r="J82" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L82" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M82" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N82" s="23">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O82" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P82" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R82" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S82" s="24">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T82" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U82" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V82" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W82" s="25" t="n"/>
       <c r="X82" s="25" t="n"/>
       <c r="Y82" s="24">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z82" s="25" t="n"/>
       <c r="AA82" s="25" t="n"/>
       <c r="AB82" s="25" t="n"/>
       <c r="AC82" s="22">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD82" s="26" t="n"/>
@@ -5481,7 +5407,7 @@
     </row>
     <row r="83" ht="13" customHeight="1" s="63">
       <c r="A83" s="76" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B83" s="29" t="inlineStr">
         <is>
@@ -5497,10 +5423,10 @@
         <v>5</v>
       </c>
       <c r="E83" s="31" t="n">
-        <v>1658.51</v>
-      </c>
-      <c r="F83" s="25" t="n">
-        <v>8292.540000000001</v>
+        <v>1799.56</v>
+      </c>
+      <c r="F83" s="15" t="n">
+        <v>8997.790000000001</v>
       </c>
       <c r="G83" s="29" t="inlineStr">
         <is>
@@ -5508,74 +5434,74 @@
         </is>
       </c>
       <c r="H83" s="31" t="n">
-        <v>8.220000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="I83" s="31" t="n">
-        <v>50.07</v>
+        <v>54.31</v>
       </c>
       <c r="J83" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L83" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M83" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N83" s="23">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O83" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P83" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R83" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S83" s="24">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T83" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U83" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V83" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W83" s="25" t="n"/>
       <c r="X83" s="25" t="n"/>
       <c r="Y83" s="24">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z83" s="25" t="n"/>
       <c r="AA83" s="25" t="n"/>
       <c r="AB83" s="25" t="n"/>
       <c r="AC83" s="22">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD83" s="26" t="n"/>
@@ -5594,7 +5520,7 @@
     </row>
     <row r="84" ht="13" customHeight="1" s="63">
       <c r="A84" s="76" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B84" s="29" t="inlineStr">
         <is>
@@ -5610,10 +5536,10 @@
         <v>5</v>
       </c>
       <c r="E84" s="31" t="n">
-        <v>1804.35</v>
+        <v>1658.51</v>
       </c>
       <c r="F84" s="25" t="n">
-        <v>9021.76</v>
+        <v>8292.540000000001</v>
       </c>
       <c r="G84" s="29" t="inlineStr">
         <is>
@@ -5621,74 +5547,74 @@
         </is>
       </c>
       <c r="H84" s="31" t="n">
-        <v>8.94</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I84" s="31" t="n">
-        <v>54.57</v>
+        <v>50.07</v>
       </c>
       <c r="J84" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L84" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M84" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N84" s="23">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O84" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P84" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R84" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S84" s="24">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T84" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U84" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V84" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W84" s="25" t="n"/>
       <c r="X84" s="25" t="n"/>
       <c r="Y84" s="24">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z84" s="25" t="n"/>
       <c r="AA84" s="25" t="n"/>
       <c r="AB84" s="25" t="n"/>
       <c r="AC84" s="22">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD84" s="26" t="n"/>
@@ -5726,7 +5652,7 @@
         <v>1804.35</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>9021.77</v>
+        <v>9021.76</v>
       </c>
       <c r="G85" s="29" t="inlineStr">
         <is>
@@ -5737,71 +5663,71 @@
         <v>8.94</v>
       </c>
       <c r="I85" s="31" t="n">
-        <v>54.58</v>
+        <v>54.57</v>
       </c>
       <c r="J85" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L85" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M85" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N85" s="23">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O85" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P85" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R85" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S85" s="24">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T85" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U85" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V85" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W85" s="25" t="n"/>
       <c r="X85" s="25" t="n"/>
       <c r="Y85" s="24">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z85" s="25" t="n"/>
       <c r="AA85" s="25" t="n"/>
       <c r="AB85" s="25" t="n"/>
       <c r="AC85" s="22">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD85" s="26" t="n"/>
@@ -5820,11 +5746,11 @@
     </row>
     <row r="86" ht="13" customHeight="1" s="63">
       <c r="A86" s="76" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B86" s="29" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C86" s="29" t="inlineStr">
@@ -5833,88 +5759,88 @@
         </is>
       </c>
       <c r="D86" s="30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E86" s="31" t="n">
-        <v>13</v>
+        <v>1804.35</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>390</v>
+        <v>9021.77</v>
       </c>
       <c r="G86" s="29" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H86" s="31" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="I86" s="31" t="n">
-        <v>0</v>
+        <v>54.58</v>
       </c>
       <c r="J86" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L86" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M86" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N86" s="23">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O86" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P86" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R86" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S86" s="24">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T86" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U86" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V86" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W86" s="25" t="n"/>
       <c r="X86" s="25" t="n"/>
       <c r="Y86" s="24">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z86" s="25" t="n"/>
       <c r="AA86" s="25" t="n"/>
       <c r="AB86" s="25" t="n"/>
       <c r="AC86" s="22">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD86" s="26" t="n"/>
@@ -5933,11 +5859,11 @@
     </row>
     <row r="87" ht="13" customHeight="1" s="63">
       <c r="A87" s="76" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="B87" s="29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C87" s="29" t="inlineStr">
@@ -5946,88 +5872,88 @@
         </is>
       </c>
       <c r="D87" s="30" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>1877.21</v>
+        <v>13</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>9386.049999999999</v>
+        <v>390</v>
       </c>
       <c r="G87" s="29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
         </is>
       </c>
       <c r="H87" s="31" t="n">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="I87" s="31" t="n">
-        <v>56.74</v>
+        <v>0</v>
       </c>
       <c r="J87" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L87" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M87" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N87" s="23">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O87" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P87" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R87" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S87" s="24">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T87" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U87" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V87" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W87" s="25" t="n"/>
       <c r="X87" s="25" t="n"/>
       <c r="Y87" s="24">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z87" s="25" t="n"/>
       <c r="AA87" s="25" t="n"/>
       <c r="AB87" s="25" t="n"/>
       <c r="AC87" s="22">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD87" s="26" t="n"/>
@@ -6059,13 +5985,13 @@
         </is>
       </c>
       <c r="D88" s="30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E88" s="31" t="n">
         <v>1877.21</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>18772.07</v>
+        <v>9386.049999999999</v>
       </c>
       <c r="G88" s="29" t="inlineStr">
         <is>
@@ -6073,74 +5999,74 @@
         </is>
       </c>
       <c r="H88" s="31" t="n">
-        <v>18.61</v>
+        <v>9.31</v>
       </c>
       <c r="I88" s="31" t="n">
-        <v>113.46</v>
+        <v>56.74</v>
       </c>
       <c r="J88" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L88" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M88" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N88" s="23">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O88" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P88" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R88" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S88" s="24">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T88" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U88" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V88" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W88" s="25" t="n"/>
       <c r="X88" s="25" t="n"/>
       <c r="Y88" s="24">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z88" s="25" t="n"/>
       <c r="AA88" s="25" t="n"/>
       <c r="AB88" s="25" t="n"/>
       <c r="AC88" s="22">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD88" s="26" t="n"/>
@@ -6159,7 +6085,7 @@
     </row>
     <row r="89" ht="13" customHeight="1" s="63">
       <c r="A89" s="76" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B89" s="29" t="inlineStr">
         <is>
@@ -6172,13 +6098,13 @@
         </is>
       </c>
       <c r="D89" s="30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>1867.85</v>
+        <v>1877.21</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>1867.85</v>
+        <v>18772.07</v>
       </c>
       <c r="G89" s="29" t="inlineStr">
         <is>
@@ -6186,74 +6112,74 @@
         </is>
       </c>
       <c r="H89" s="31" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="I89" s="31" t="n">
-        <v>11.29</v>
+        <v>113.46</v>
       </c>
       <c r="J89" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L89" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M89" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N89" s="23">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O89" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P89" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R89" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S89" s="24">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T89" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U89" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V89" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W89" s="25" t="n"/>
       <c r="X89" s="25" t="n"/>
       <c r="Y89" s="24">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z89" s="25" t="n"/>
       <c r="AA89" s="25" t="n"/>
       <c r="AB89" s="25" t="n"/>
       <c r="AC89" s="22">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD89" s="26" t="n"/>
@@ -6288,10 +6214,10 @@
         <v>1</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="G90" s="29" t="inlineStr">
         <is>
@@ -6302,71 +6228,71 @@
         <v>1.86</v>
       </c>
       <c r="I90" s="31" t="n">
-        <v>11.32</v>
+        <v>11.29</v>
       </c>
       <c r="J90" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L90" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M90" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N90" s="23">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O90" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P90" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R90" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S90" s="24">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T90" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U90" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V90" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W90" s="25" t="n"/>
       <c r="X90" s="25" t="n"/>
       <c r="Y90" s="24">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z90" s="25" t="n"/>
       <c r="AA90" s="25" t="n"/>
       <c r="AB90" s="25" t="n"/>
       <c r="AC90" s="22">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD90" s="26" t="n"/>
@@ -6398,13 +6324,13 @@
         </is>
       </c>
       <c r="D91" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>1869.19</v>
+        <v>1869.08</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>3738.39</v>
+        <v>1869.08</v>
       </c>
       <c r="G91" s="29" t="inlineStr">
         <is>
@@ -6412,74 +6338,74 @@
         </is>
       </c>
       <c r="H91" s="31" t="n">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
       <c r="I91" s="31" t="n">
-        <v>22.58</v>
+        <v>11.32</v>
       </c>
       <c r="J91" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L91" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M91" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N91" s="23">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O91" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P91" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R91" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S91" s="24">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T91" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U91" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V91" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W91" s="25" t="n"/>
       <c r="X91" s="25" t="n"/>
       <c r="Y91" s="24">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z91" s="25" t="n"/>
       <c r="AA91" s="25" t="n"/>
       <c r="AB91" s="25" t="n"/>
       <c r="AC91" s="22">
-        <f>IF(B46="DIV", F46,"")</f>
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD91" s="26" t="n"/>
@@ -6514,10 +6440,10 @@
         <v>2</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>1869.1</v>
+        <v>1869.19</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>3738.19</v>
+        <v>3738.39</v>
       </c>
       <c r="G92" s="29" t="inlineStr">
         <is>
@@ -6535,64 +6461,64 @@
         <v/>
       </c>
       <c r="K92" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L92" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M92" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N92" s="23">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O92" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P92" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R92" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S92" s="24">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T92" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U92" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V92" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W92" s="25" t="n"/>
       <c r="X92" s="25" t="n"/>
       <c r="Y92" s="24">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z92" s="25" t="n"/>
       <c r="AA92" s="25" t="n"/>
       <c r="AB92" s="25" t="n"/>
       <c r="AC92" s="22">
-        <f>IF(B47="DIV", F47,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD92" s="26" t="n"/>
@@ -6624,13 +6550,13 @@
         </is>
       </c>
       <c r="D93" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>1867.85</v>
+        <v>1869.1</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>1867.85</v>
+        <v>3738.19</v>
       </c>
       <c r="G93" s="29" t="inlineStr">
         <is>
@@ -6638,74 +6564,74 @@
         </is>
       </c>
       <c r="H93" s="31" t="n">
-        <v>1.86</v>
+        <v>3.71</v>
       </c>
       <c r="I93" s="31" t="n">
-        <v>11.29</v>
+        <v>22.58</v>
       </c>
       <c r="J93" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L93" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M93" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N93" s="23">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O93" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P93" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R93" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S93" s="24">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T93" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U93" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V93" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W93" s="25" t="n"/>
       <c r="X93" s="25" t="n"/>
       <c r="Y93" s="24">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z93" s="25" t="n"/>
       <c r="AA93" s="25" t="n"/>
       <c r="AB93" s="25" t="n"/>
       <c r="AC93" s="22">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD93" s="26" t="n"/>
@@ -6761,64 +6687,64 @@
         <v/>
       </c>
       <c r="K94" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L94" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M94" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N94" s="23">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O94" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P94" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R94" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S94" s="24">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T94" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U94" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V94" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W94" s="25" t="n"/>
       <c r="X94" s="25" t="n"/>
       <c r="Y94" s="24">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z94" s="25" t="n"/>
       <c r="AA94" s="25" t="n"/>
       <c r="AB94" s="25" t="n"/>
       <c r="AC94" s="22">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD94" s="26" t="n"/>
@@ -6874,64 +6800,64 @@
         <v/>
       </c>
       <c r="K95" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L95" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M95" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N95" s="23">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O95" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P95" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R95" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S95" s="24">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T95" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U95" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V95" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W95" s="25" t="n"/>
       <c r="X95" s="25" t="n"/>
       <c r="Y95" s="24">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z95" s="25" t="n"/>
       <c r="AA95" s="25" t="n"/>
       <c r="AB95" s="25" t="n"/>
       <c r="AC95" s="22">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD95" s="26" t="n"/>
@@ -6987,64 +6913,64 @@
         <v/>
       </c>
       <c r="K96" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L96" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M96" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N96" s="23">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O96" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P96" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R96" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S96" s="24">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T96" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U96" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V96" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W96" s="25" t="n"/>
       <c r="X96" s="25" t="n"/>
       <c r="Y96" s="24">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z96" s="25" t="n"/>
       <c r="AA96" s="25" t="n"/>
       <c r="AB96" s="25" t="n"/>
       <c r="AC96" s="22">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD96" s="26" t="n"/>
@@ -7063,7 +6989,7 @@
     </row>
     <row r="97" ht="13" customHeight="1" s="63">
       <c r="A97" s="76" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B97" s="29" t="inlineStr">
         <is>
@@ -7076,13 +7002,13 @@
         </is>
       </c>
       <c r="D97" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>2069.76</v>
+        <v>1867.85</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>4139.53</v>
+        <v>1867.85</v>
       </c>
       <c r="G97" s="29" t="inlineStr">
         <is>
@@ -7090,74 +7016,74 @@
         </is>
       </c>
       <c r="H97" s="31" t="n">
-        <v>4.11</v>
+        <v>1.86</v>
       </c>
       <c r="I97" s="31" t="n">
-        <v>25.02</v>
+        <v>11.29</v>
       </c>
       <c r="J97" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K97" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L97" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M97" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N97" s="23">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O97" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P97" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R97" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S97" s="24">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T97" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U97" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V97" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W97" s="25" t="n"/>
       <c r="X97" s="25" t="n"/>
       <c r="Y97" s="24">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z97" s="25" t="n"/>
       <c r="AA97" s="25" t="n"/>
       <c r="AB97" s="25" t="n"/>
       <c r="AC97" s="22">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD97" s="26" t="n"/>
@@ -7176,7 +7102,7 @@
     </row>
     <row r="98" ht="13" customHeight="1" s="63">
       <c r="A98" s="76" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B98" s="29" t="inlineStr">
         <is>
@@ -7192,10 +7118,10 @@
         <v>2</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>2159.18</v>
+        <v>2069.76</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>4318.37</v>
+        <v>4139.53</v>
       </c>
       <c r="G98" s="29" t="inlineStr">
         <is>
@@ -7203,74 +7129,74 @@
         </is>
       </c>
       <c r="H98" s="31" t="n">
-        <v>4.28</v>
+        <v>4.11</v>
       </c>
       <c r="I98" s="31" t="n">
-        <v>26.09</v>
+        <v>25.02</v>
       </c>
       <c r="J98" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K98" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L98" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M98" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N98" s="23">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O98" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P98" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R98" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S98" s="24">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T98" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U98" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V98" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W98" s="25" t="n"/>
       <c r="X98" s="25" t="n"/>
       <c r="Y98" s="24">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z98" s="25" t="n"/>
       <c r="AA98" s="25" t="n"/>
       <c r="AB98" s="25" t="n"/>
       <c r="AC98" s="22">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD98" s="26" t="n"/>
@@ -7289,7 +7215,7 @@
     </row>
     <row r="99" ht="13" customHeight="1" s="63">
       <c r="A99" s="76" t="n">
-        <v>45621</v>
+        <v>45694</v>
       </c>
       <c r="B99" s="29" t="inlineStr">
         <is>
@@ -7302,13 +7228,13 @@
         </is>
       </c>
       <c r="D99" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>2566.68</v>
+        <v>2159.18</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>2566.68</v>
+        <v>4318.37</v>
       </c>
       <c r="G99" s="29" t="inlineStr">
         <is>
@@ -7316,74 +7242,74 @@
         </is>
       </c>
       <c r="H99" s="31" t="n">
-        <v>2.59</v>
+        <v>4.28</v>
       </c>
       <c r="I99" s="31" t="n">
-        <v>15.54</v>
+        <v>26.09</v>
       </c>
       <c r="J99" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L99" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M99" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N99" s="23">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O99" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P99" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R99" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S99" s="24">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T99" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U99" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V99" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W99" s="25" t="n"/>
       <c r="X99" s="25" t="n"/>
       <c r="Y99" s="24">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z99" s="25" t="n"/>
       <c r="AA99" s="25" t="n"/>
       <c r="AB99" s="25" t="n"/>
       <c r="AC99" s="22">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD99" s="26" t="n"/>
@@ -7402,7 +7328,7 @@
     </row>
     <row r="100" ht="13" customHeight="1" s="63">
       <c r="A100" s="76" t="n">
-        <v>45483</v>
+        <v>45621</v>
       </c>
       <c r="B100" s="29" t="inlineStr">
         <is>
@@ -7411,17 +7337,17 @@
       </c>
       <c r="C100" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D100" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>2257.84</v>
+        <v>2566.68</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>9031.379999999999</v>
+        <v>2566.68</v>
       </c>
       <c r="G100" s="29" t="inlineStr">
         <is>
@@ -7429,74 +7355,74 @@
         </is>
       </c>
       <c r="H100" s="31" t="n">
-        <v>9.19</v>
+        <v>2.59</v>
       </c>
       <c r="I100" s="31" t="n">
-        <v>54.03</v>
+        <v>15.54</v>
       </c>
       <c r="J100" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L100" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M100" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N100" s="23">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O100" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P100" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R100" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S100" s="24">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T100" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U100" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V100" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W100" s="25" t="n"/>
       <c r="X100" s="25" t="n"/>
       <c r="Y100" s="24">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z100" s="25" t="n"/>
       <c r="AA100" s="25" t="n"/>
       <c r="AB100" s="25" t="n"/>
       <c r="AC100" s="22">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD100" s="26" t="n"/>
@@ -7515,7 +7441,7 @@
     </row>
     <row r="101" ht="13" customHeight="1" s="63">
       <c r="A101" s="76" t="n">
-        <v>45278</v>
+        <v>45483</v>
       </c>
       <c r="B101" s="29" t="inlineStr">
         <is>
@@ -7524,17 +7450,17 @@
       </c>
       <c r="C101" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D101" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E101" s="20" t="n">
-        <v>1358.29667</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D101" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E101" s="31" t="n">
+        <v>2257.84</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>4103.74</v>
+        <v>9031.379999999999</v>
       </c>
       <c r="G101" s="29" t="inlineStr">
         <is>
@@ -7542,82 +7468,77 @@
         </is>
       </c>
       <c r="H101" s="31" t="n">
-        <v>4.06</v>
+        <v>9.19</v>
       </c>
       <c r="I101" s="31" t="n">
-        <v>24.78</v>
+        <v>54.03</v>
       </c>
       <c r="J101" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K101" s="25" t="n"/>
-      <c r="L101" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="M101" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
-        <v/>
-      </c>
-      <c r="N101" s="35">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
-        <v/>
-      </c>
-      <c r="O101" s="34" t="n"/>
-      <c r="P101" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="Q101" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
-        <v/>
-      </c>
-      <c r="R101" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="S101" s="34" t="n"/>
-      <c r="T101" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
-        <v/>
-      </c>
-      <c r="U101" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
-        <v/>
-      </c>
-      <c r="V101" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="W101" s="31" t="n">
-        <v>2257.84</v>
-      </c>
-      <c r="X101" s="76" t="n">
-        <v>45483</v>
-      </c>
+      <c r="K101" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="L101" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="M101" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <v/>
+      </c>
+      <c r="N101" s="23">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <v/>
+      </c>
+      <c r="O101" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="P101" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="Q101" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <v/>
+      </c>
+      <c r="R101" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="S101" s="24">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="T101" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="U101" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <v/>
+      </c>
+      <c r="V101" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="W101" s="25" t="n"/>
+      <c r="X101" s="25" t="n"/>
       <c r="Y101" s="24">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
-        <v/>
-      </c>
-      <c r="Z101" s="36" t="n">
-        <v>-3750.9412</v>
-      </c>
-      <c r="AA101" s="36" t="n">
-        <v>3804.2</v>
-      </c>
-      <c r="AB101" s="37" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="Z101" s="25" t="n"/>
+      <c r="AA101" s="25" t="n"/>
+      <c r="AB101" s="25" t="n"/>
       <c r="AC101" s="22">
-        <f>IF(B56="DIV", F56,"")</f>
-        <v/>
-      </c>
-      <c r="AD101" s="38" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(B55="DIV", F55,"")</f>
+        <v/>
+      </c>
+      <c r="AD101" s="26" t="n"/>
       <c r="AE101" s="1" t="n"/>
       <c r="AF101" s="1" t="n"/>
       <c r="AG101" s="1" t="n"/>
@@ -7633,7 +7554,7 @@
     </row>
     <row r="102" ht="13" customHeight="1" s="63">
       <c r="A102" s="76" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B102" s="29" t="inlineStr">
         <is>
@@ -7646,13 +7567,13 @@
         </is>
       </c>
       <c r="D102" s="33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102" s="20" t="n">
-        <v>1435</v>
+        <v>1358.29667</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>1445.2</v>
+        <v>4103.74</v>
       </c>
       <c r="G102" s="29" t="inlineStr">
         <is>
@@ -7660,10 +7581,10 @@
         </is>
       </c>
       <c r="H102" s="31" t="n">
-        <v>1.44</v>
+        <v>4.06</v>
       </c>
       <c r="I102" s="31" t="n">
-        <v>8.76</v>
+        <v>24.78</v>
       </c>
       <c r="J102" s="20">
         <f>Index!$C$2</f>
@@ -7671,41 +7592,41 @@
       </c>
       <c r="K102" s="25" t="n"/>
       <c r="L102" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M102" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N102" s="35">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O102" s="34" t="n"/>
       <c r="P102" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R102" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S102" s="34" t="n"/>
       <c r="T102" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U102" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V102" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W102" s="31" t="n">
@@ -7715,20 +7636,20 @@
         <v>45483</v>
       </c>
       <c r="Y102" s="24">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z102" s="36" t="n">
-        <v>-1875.4706</v>
+        <v>-3750.9412</v>
       </c>
       <c r="AA102" s="36" t="n">
-        <v>1902.1</v>
+        <v>3804.2</v>
       </c>
       <c r="AB102" s="37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC102" s="22">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD102" s="38" t="inlineStr">
@@ -7751,7 +7672,7 @@
     </row>
     <row r="103" ht="13" customHeight="1" s="63">
       <c r="A103" s="76" t="n">
-        <v>44315</v>
+        <v>45258</v>
       </c>
       <c r="B103" s="29" t="inlineStr">
         <is>
@@ -7760,17 +7681,17 @@
       </c>
       <c r="C103" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D103" s="33" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E103" s="20" t="n">
-        <v>1132.405</v>
+        <v>1435</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>13668.46</v>
+        <v>1445.2</v>
       </c>
       <c r="G103" s="29" t="inlineStr">
         <is>
@@ -7778,10 +7699,10 @@
         </is>
       </c>
       <c r="H103" s="31" t="n">
-        <v>11.51</v>
+        <v>1.44</v>
       </c>
       <c r="I103" s="31" t="n">
-        <v>68.11</v>
+        <v>8.76</v>
       </c>
       <c r="J103" s="20">
         <f>Index!$C$2</f>
@@ -7789,54 +7710,64 @@
       </c>
       <c r="K103" s="25" t="n"/>
       <c r="L103" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M103" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N103" s="35">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O103" s="34" t="n"/>
       <c r="P103" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q103" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R103" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S103" s="34" t="n"/>
       <c r="T103" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U103" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V103" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
-        <v/>
-      </c>
-      <c r="W103" s="25" t="n"/>
-      <c r="X103" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="W103" s="31" t="n">
+        <v>2257.84</v>
+      </c>
+      <c r="X103" s="76" t="n">
+        <v>45483</v>
+      </c>
       <c r="Y103" s="24">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
-        <v/>
-      </c>
-      <c r="Z103" s="25" t="n"/>
-      <c r="AA103" s="25" t="n"/>
-      <c r="AB103" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <v/>
+      </c>
+      <c r="Z103" s="36" t="n">
+        <v>-1875.4706</v>
+      </c>
+      <c r="AA103" s="36" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="AB103" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="AC103" s="22">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD103" s="38" t="inlineStr">
@@ -7859,7 +7790,7 @@
     </row>
     <row r="104" ht="13" customHeight="1" s="63">
       <c r="A104" s="76" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B104" s="29" t="inlineStr">
         <is>
@@ -7872,13 +7803,13 @@
         </is>
       </c>
       <c r="D104" s="33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E104" s="20" t="n">
-        <v>1126.853</v>
+        <v>1132.405</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>11347.53</v>
+        <v>13668.46</v>
       </c>
       <c r="G104" s="29" t="inlineStr">
         <is>
@@ -7886,10 +7817,10 @@
         </is>
       </c>
       <c r="H104" s="31" t="n">
-        <v>11.2</v>
+        <v>11.51</v>
       </c>
       <c r="I104" s="31" t="n">
-        <v>67.77</v>
+        <v>68.11</v>
       </c>
       <c r="J104" s="20">
         <f>Index!$C$2</f>
@@ -7897,53 +7828,54 @@
       </c>
       <c r="K104" s="25" t="n"/>
       <c r="L104" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M104" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N104" s="35">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O104" s="34" t="n"/>
       <c r="P104" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q104" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R104" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S104" s="34" t="n"/>
       <c r="T104" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U104" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V104" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W104" s="25" t="n"/>
       <c r="X104" s="25" t="n"/>
-      <c r="Y104" s="24" t="e">
-        <v>#REF!</v>
+      <c r="Y104" s="24">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
+        <v/>
       </c>
       <c r="Z104" s="25" t="n"/>
       <c r="AA104" s="25" t="n"/>
       <c r="AB104" s="25" t="n"/>
       <c r="AC104" s="22">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD104" s="38" t="inlineStr">
@@ -7966,7 +7898,7 @@
     </row>
     <row r="105" ht="13" customHeight="1" s="63">
       <c r="A105" s="76" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B105" s="29" t="inlineStr">
         <is>
@@ -7982,10 +7914,10 @@
         <v>10</v>
       </c>
       <c r="E105" s="20" t="n">
-        <v>1126.567</v>
-      </c>
-      <c r="F105" s="37" t="n">
-        <v>11344.57</v>
+        <v>1126.853</v>
+      </c>
+      <c r="F105" s="25" t="n">
+        <v>11347.53</v>
       </c>
       <c r="G105" s="29" t="inlineStr">
         <is>
@@ -7993,10 +7925,10 @@
         </is>
       </c>
       <c r="H105" s="31" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="I105" s="31" t="n">
-        <v>67.76000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="J105" s="20">
         <f>Index!$C$2</f>
@@ -8073,7 +8005,7 @@
     </row>
     <row r="106" ht="13" customHeight="1" s="63">
       <c r="A106" s="76" t="n">
-        <v>44221</v>
+        <v>44313</v>
       </c>
       <c r="B106" s="29" t="inlineStr">
         <is>
@@ -8082,17 +8014,17 @@
       </c>
       <c r="C106" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D106" s="33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E106" s="20" t="n">
-        <v>1244.655</v>
+        <v>1126.567</v>
       </c>
       <c r="F106" s="37" t="n">
-        <v>2506.59</v>
+        <v>11344.57</v>
       </c>
       <c r="G106" s="29" t="inlineStr">
         <is>
@@ -8100,10 +8032,10 @@
         </is>
       </c>
       <c r="H106" s="31" t="n">
-        <v>2.13</v>
+        <v>11.17</v>
       </c>
       <c r="I106" s="31" t="n">
-        <v>15.16</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="J106" s="20">
         <f>Index!$C$2</f>
@@ -8148,25 +8080,15 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W106" s="39" t="n">
-        <v>1128.61</v>
-      </c>
-      <c r="X106" s="76" t="n">
-        <v>44315</v>
-      </c>
+      <c r="W106" s="25" t="n"/>
+      <c r="X106" s="25" t="n"/>
       <c r="Y106" s="24" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z106" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA106" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB106" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC106" s="40">
+      <c r="Z106" s="25" t="n"/>
+      <c r="AA106" s="25" t="n"/>
+      <c r="AB106" s="25" t="n"/>
+      <c r="AC106" s="22">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
@@ -8190,7 +8112,7 @@
     </row>
     <row r="107" ht="13" customHeight="1" s="63">
       <c r="A107" s="76" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="B107" s="29" t="inlineStr">
         <is>
@@ -8206,10 +8128,10 @@
         <v>2</v>
       </c>
       <c r="E107" s="20" t="n">
-        <v>1253.05</v>
-      </c>
-      <c r="F107" s="25" t="n">
-        <v>2523.32</v>
+        <v>1244.655</v>
+      </c>
+      <c r="F107" s="37" t="n">
+        <v>2506.59</v>
       </c>
       <c r="G107" s="29" t="inlineStr">
         <is>
@@ -8217,10 +8139,10 @@
         </is>
       </c>
       <c r="H107" s="31" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="I107" s="31" t="n">
-        <v>15.26</v>
+        <v>15.16</v>
       </c>
       <c r="J107" s="20">
         <f>Index!$C$2</f>
@@ -8307,7 +8229,7 @@
     </row>
     <row r="108" ht="13" customHeight="1" s="63">
       <c r="A108" s="76" t="n">
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="B108" s="29" t="inlineStr">
         <is>
@@ -8320,13 +8242,13 @@
         </is>
       </c>
       <c r="D108" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" s="20" t="n">
-        <v>1314.89667</v>
+        <v>1253.05</v>
       </c>
       <c r="F108" s="25" t="n">
-        <v>3971.32</v>
+        <v>2523.32</v>
       </c>
       <c r="G108" s="29" t="inlineStr">
         <is>
@@ -8334,10 +8256,10 @@
         </is>
       </c>
       <c r="H108" s="31" t="n">
-        <v>2.64</v>
+        <v>1.96</v>
       </c>
       <c r="I108" s="31" t="n">
-        <v>23.98</v>
+        <v>15.26</v>
       </c>
       <c r="J108" s="20">
         <f>Index!$C$2</f>
@@ -8424,7 +8346,7 @@
     </row>
     <row r="109" ht="13" customHeight="1" s="63">
       <c r="A109" s="76" t="n">
-        <v>44207</v>
+        <v>44210</v>
       </c>
       <c r="B109" s="29" t="inlineStr">
         <is>
@@ -8440,10 +8362,10 @@
         <v>3</v>
       </c>
       <c r="E109" s="20" t="n">
-        <v>1285.52</v>
+        <v>1314.89667</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>3883.19</v>
+        <v>3971.32</v>
       </c>
       <c r="G109" s="29" t="inlineStr">
         <is>
@@ -8451,10 +8373,10 @@
         </is>
       </c>
       <c r="H109" s="31" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="I109" s="31" t="n">
-        <v>23.39</v>
+        <v>23.98</v>
       </c>
       <c r="J109" s="20">
         <f>Index!$C$2</f>
@@ -8541,7 +8463,7 @@
     </row>
     <row r="110" ht="13" customHeight="1" s="63">
       <c r="A110" s="76" t="n">
-        <v>44201</v>
+        <v>44207</v>
       </c>
       <c r="B110" s="29" t="inlineStr">
         <is>
@@ -8554,13 +8476,13 @@
         </is>
       </c>
       <c r="D110" s="33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E110" s="20" t="n">
-        <v>1300.85</v>
-      </c>
-      <c r="F110" s="37" t="n">
-        <v>2619.64</v>
+        <v>1285.52</v>
+      </c>
+      <c r="F110" s="25" t="n">
+        <v>3883.19</v>
       </c>
       <c r="G110" s="29" t="inlineStr">
         <is>
@@ -8568,10 +8490,10 @@
         </is>
       </c>
       <c r="H110" s="31" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="I110" s="31" t="n">
-        <v>15.84</v>
+        <v>23.39</v>
       </c>
       <c r="J110" s="20">
         <f>Index!$C$2</f>
@@ -8658,7 +8580,7 @@
     </row>
     <row r="111" ht="13" customHeight="1" s="63">
       <c r="A111" s="76" t="n">
-        <v>44180</v>
+        <v>44201</v>
       </c>
       <c r="B111" s="29" t="inlineStr">
         <is>
@@ -8671,13 +8593,13 @@
         </is>
       </c>
       <c r="D111" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111" s="20" t="n">
-        <v>1334.504</v>
+        <v>1300.85</v>
       </c>
       <c r="F111" s="37" t="n">
-        <v>6718.68</v>
+        <v>2619.64</v>
       </c>
       <c r="G111" s="29" t="inlineStr">
         <is>
@@ -8685,10 +8607,10 @@
         </is>
       </c>
       <c r="H111" s="31" t="n">
-        <v>6.13</v>
+        <v>2.1</v>
       </c>
       <c r="I111" s="31" t="n">
-        <v>40.05</v>
+        <v>15.84</v>
       </c>
       <c r="J111" s="20">
         <f>Index!$C$2</f>
@@ -8775,7 +8697,7 @@
     </row>
     <row r="112" ht="13" customHeight="1" s="63">
       <c r="A112" s="76" t="n">
-        <v>44172</v>
+        <v>44180</v>
       </c>
       <c r="B112" s="29" t="inlineStr">
         <is>
@@ -8788,13 +8710,13 @@
         </is>
       </c>
       <c r="D112" s="33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E112" s="20" t="n">
-        <v>1363.945</v>
+        <v>1334.504</v>
       </c>
       <c r="F112" s="37" t="n">
-        <v>2746.81</v>
+        <v>6718.68</v>
       </c>
       <c r="G112" s="29" t="inlineStr">
         <is>
@@ -8802,10 +8724,10 @@
         </is>
       </c>
       <c r="H112" s="31" t="n">
-        <v>2.53</v>
+        <v>6.13</v>
       </c>
       <c r="I112" s="31" t="n">
-        <v>16.38</v>
+        <v>40.05</v>
       </c>
       <c r="J112" s="20">
         <f>Index!$C$2</f>
@@ -8892,7 +8814,7 @@
     </row>
     <row r="113" ht="13" customHeight="1" s="63">
       <c r="A113" s="76" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B113" s="29" t="inlineStr">
         <is>
@@ -8905,13 +8827,13 @@
         </is>
       </c>
       <c r="D113" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E113" s="20" t="n">
-        <v>1279.402</v>
+        <v>1363.945</v>
       </c>
       <c r="F113" s="37" t="n">
-        <v>6441.39</v>
+        <v>2746.81</v>
       </c>
       <c r="G113" s="29" t="inlineStr">
         <is>
@@ -8919,10 +8841,10 @@
         </is>
       </c>
       <c r="H113" s="31" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="I113" s="31" t="n">
-        <v>38.44</v>
+        <v>16.38</v>
       </c>
       <c r="J113" s="20">
         <f>Index!$C$2</f>
@@ -9009,7 +8931,7 @@
     </row>
     <row r="114" ht="13" customHeight="1" s="63">
       <c r="A114" s="76" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B114" s="29" t="inlineStr">
         <is>
@@ -9022,13 +8944,13 @@
         </is>
       </c>
       <c r="D114" s="33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E114" s="20" t="n">
-        <v>1304.71333</v>
+        <v>1279.402</v>
       </c>
       <c r="F114" s="37" t="n">
-        <v>3941.23</v>
+        <v>6441.39</v>
       </c>
       <c r="G114" s="29" t="inlineStr">
         <is>
@@ -9036,10 +8958,10 @@
         </is>
       </c>
       <c r="H114" s="31" t="n">
-        <v>3.6</v>
+        <v>5.95</v>
       </c>
       <c r="I114" s="31" t="n">
-        <v>23.48</v>
+        <v>38.44</v>
       </c>
       <c r="J114" s="20">
         <f>Index!$C$2</f>
@@ -9126,7 +9048,7 @@
     </row>
     <row r="115" ht="13" customHeight="1" s="63">
       <c r="A115" s="76" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B115" s="29" t="inlineStr">
         <is>
@@ -9139,13 +9061,13 @@
         </is>
       </c>
       <c r="D115" s="33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E115" s="20" t="n">
-        <v>1308.702</v>
+        <v>1304.71333</v>
       </c>
       <c r="F115" s="37" t="n">
-        <v>6587.84</v>
+        <v>3941.23</v>
       </c>
       <c r="G115" s="29" t="inlineStr">
         <is>
@@ -9153,10 +9075,10 @@
         </is>
       </c>
       <c r="H115" s="31" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="I115" s="31" t="n">
-        <v>39.67</v>
+        <v>23.48</v>
       </c>
       <c r="J115" s="20">
         <f>Index!$C$2</f>
@@ -9243,7 +9165,7 @@
     </row>
     <row r="116" ht="13" customHeight="1" s="63">
       <c r="A116" s="76" t="n">
-        <v>41730</v>
+        <v>44166</v>
       </c>
       <c r="B116" s="29" t="inlineStr">
         <is>
@@ -9252,17 +9174,17 @@
       </c>
       <c r="C116" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D116" s="33" t="n">
         <v>5</v>
       </c>
       <c r="E116" s="20" t="n">
-        <v>97.214</v>
+        <v>1308.702</v>
       </c>
       <c r="F116" s="37" t="n">
-        <v>489.42</v>
+        <v>6587.84</v>
       </c>
       <c r="G116" s="29" t="inlineStr">
         <is>
@@ -9270,10 +9192,10 @@
         </is>
       </c>
       <c r="H116" s="31" t="n">
-        <v>0.53</v>
+        <v>4.67</v>
       </c>
       <c r="I116" s="31" t="n">
-        <v>2.8</v>
+        <v>39.67</v>
       </c>
       <c r="J116" s="20">
         <f>Index!$C$2</f>
@@ -9281,54 +9203,63 @@
       </c>
       <c r="K116" s="25" t="n"/>
       <c r="L116" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M116" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N116" s="35">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O116" s="34" t="n"/>
       <c r="P116" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q116" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R116" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S116" s="34" t="n"/>
       <c r="T116" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
         <v/>
       </c>
       <c r="U116" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V116" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W116" s="25" t="n"/>
-      <c r="X116" s="25" t="n"/>
-      <c r="Y116" s="24">
-        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
-        <v/>
-      </c>
-      <c r="Z116" s="25" t="n"/>
-      <c r="AA116" s="25" t="n"/>
-      <c r="AB116" s="25" t="n"/>
-      <c r="AC116" s="22">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W116" s="39" t="n">
+        <v>1128.61</v>
+      </c>
+      <c r="X116" s="76" t="n">
+        <v>44315</v>
+      </c>
+      <c r="Y116" s="24" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z116" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA116" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB116" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC116" s="40">
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD116" s="38" t="inlineStr">
@@ -9351,7 +9282,7 @@
     </row>
     <row r="117" ht="13" customHeight="1" s="63">
       <c r="A117" s="76" t="n">
-        <v>41611</v>
+        <v>41730</v>
       </c>
       <c r="B117" s="29" t="inlineStr">
         <is>
@@ -9360,17 +9291,17 @@
       </c>
       <c r="C117" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D117" s="33" t="n">
         <v>5</v>
       </c>
       <c r="E117" s="20" t="n">
-        <v>123</v>
+        <v>97.214</v>
       </c>
       <c r="F117" s="37" t="n">
-        <v>619.2</v>
+        <v>489.42</v>
       </c>
       <c r="G117" s="29" t="inlineStr">
         <is>
@@ -9378,10 +9309,10 @@
         </is>
       </c>
       <c r="H117" s="31" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="I117" s="31" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="J117" s="20">
         <f>Index!$C$2</f>
@@ -9389,64 +9320,54 @@
       </c>
       <c r="K117" s="25" t="n"/>
       <c r="L117" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M117" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N117" s="35">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O117" s="34" t="n"/>
       <c r="P117" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q117" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R117" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S117" s="34" t="n"/>
       <c r="T117" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
         <v/>
       </c>
       <c r="U117" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V117" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
-        <v/>
-      </c>
-      <c r="W117" s="39" t="n">
-        <v>97.214</v>
-      </c>
-      <c r="X117" s="76" t="n">
-        <v>41730</v>
-      </c>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W117" s="25" t="n"/>
+      <c r="X117" s="25" t="n"/>
       <c r="Y117" s="24">
-        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
-        <v/>
-      </c>
-      <c r="Z117" s="36" t="n">
-        <v>-1996.56126</v>
-      </c>
-      <c r="AA117" s="36" t="n">
-        <v>2024.91</v>
-      </c>
-      <c r="AB117" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC117" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
+        <v/>
+      </c>
+      <c r="Z117" s="25" t="n"/>
+      <c r="AA117" s="25" t="n"/>
+      <c r="AB117" s="25" t="n"/>
+      <c r="AC117" s="22">
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD117" s="38" t="inlineStr">
@@ -9468,36 +9389,110 @@
       <c r="AP117" s="1" t="n"/>
     </row>
     <row r="118" ht="13" customHeight="1" s="63">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="n"/>
-      <c r="C118" s="1" t="n"/>
-      <c r="D118" s="2" t="n"/>
-      <c r="E118" s="3" t="n"/>
-      <c r="F118" s="37" t="n"/>
-      <c r="G118" s="3" t="n"/>
-      <c r="H118" s="3" t="n"/>
-      <c r="I118" s="3" t="n"/>
-      <c r="J118" s="3" t="n"/>
-      <c r="K118" s="3" t="n"/>
-      <c r="L118" s="3" t="n"/>
-      <c r="M118" s="1" t="n"/>
-      <c r="N118" s="1" t="n"/>
-      <c r="O118" s="3" t="n"/>
-      <c r="P118" s="3" t="n"/>
-      <c r="Q118" s="1" t="n"/>
-      <c r="R118" s="1" t="n"/>
-      <c r="S118" s="3" t="n"/>
-      <c r="T118" s="3" t="n"/>
-      <c r="U118" s="1" t="n"/>
-      <c r="V118" s="1" t="n"/>
-      <c r="W118" s="3" t="n"/>
-      <c r="X118" s="3" t="n"/>
-      <c r="Y118" s="3" t="n"/>
-      <c r="Z118" s="3" t="n"/>
-      <c r="AA118" s="3" t="n"/>
-      <c r="AB118" s="3" t="n"/>
-      <c r="AC118" s="3" t="n"/>
-      <c r="AD118" s="1" t="n"/>
+      <c r="A118" s="76" t="n">
+        <v>41611</v>
+      </c>
+      <c r="B118" s="29" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C118" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D118" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E118" s="20" t="n">
+        <v>123</v>
+      </c>
+      <c r="F118" s="37" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="G118" s="29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H118" s="31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I118" s="31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J118" s="20">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K118" s="25" t="n"/>
+      <c r="L118" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="M118" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <v/>
+      </c>
+      <c r="N118" s="35">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <v/>
+      </c>
+      <c r="O118" s="34" t="n"/>
+      <c r="P118" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="Q118" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <v/>
+      </c>
+      <c r="R118" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="S118" s="34" t="n"/>
+      <c r="T118" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <v/>
+      </c>
+      <c r="U118" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <v/>
+      </c>
+      <c r="V118" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="W118" s="39" t="n">
+        <v>97.214</v>
+      </c>
+      <c r="X118" s="76" t="n">
+        <v>41730</v>
+      </c>
+      <c r="Y118" s="24">
+        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
+        <v/>
+      </c>
+      <c r="Z118" s="36" t="n">
+        <v>-1996.56126</v>
+      </c>
+      <c r="AA118" s="36" t="n">
+        <v>2024.91</v>
+      </c>
+      <c r="AB118" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="40">
+        <f>IF(B60="DIV", F60,"")</f>
+        <v/>
+      </c>
+      <c r="AD118" s="38" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
       <c r="AE118" s="1" t="n"/>
       <c r="AF118" s="1" t="n"/>
       <c r="AG118" s="1" t="n"/>
@@ -9561,7 +9556,7 @@
       <c r="C120" s="1" t="n"/>
       <c r="D120" s="2" t="n"/>
       <c r="E120" s="3" t="n"/>
-      <c r="F120" s="25" t="n"/>
+      <c r="F120" s="37" t="n"/>
       <c r="G120" s="3" t="n"/>
       <c r="H120" s="3" t="n"/>
       <c r="I120" s="3" t="n"/>
@@ -9605,7 +9600,7 @@
       <c r="C121" s="1" t="n"/>
       <c r="D121" s="2" t="n"/>
       <c r="E121" s="3" t="n"/>
-      <c r="F121" s="37" t="n"/>
+      <c r="F121" s="25" t="n"/>
       <c r="G121" s="3" t="n"/>
       <c r="H121" s="3" t="n"/>
       <c r="I121" s="3" t="n"/>
@@ -9649,7 +9644,7 @@
       <c r="C122" s="1" t="n"/>
       <c r="D122" s="2" t="n"/>
       <c r="E122" s="3" t="n"/>
-      <c r="F122" s="3" t="n"/>
+      <c r="F122" s="37" t="n"/>
       <c r="G122" s="3" t="n"/>
       <c r="H122" s="3" t="n"/>
       <c r="I122" s="3" t="n"/>
@@ -11407,7 +11402,7 @@
       <c r="A162" s="1" t="n"/>
       <c r="B162" s="1" t="n"/>
       <c r="C162" s="1" t="n"/>
-      <c r="D162" s="1" t="n"/>
+      <c r="D162" s="2" t="n"/>
       <c r="E162" s="3" t="n"/>
       <c r="F162" s="3" t="n"/>
       <c r="G162" s="3" t="n"/>
@@ -11454,9 +11449,9 @@
       <c r="D163" s="1" t="n"/>
       <c r="E163" s="3" t="n"/>
       <c r="F163" s="3" t="n"/>
-      <c r="G163" s="41" t="n"/>
+      <c r="G163" s="3" t="n"/>
       <c r="H163" s="3" t="n"/>
-      <c r="I163" s="1" t="n"/>
+      <c r="I163" s="3" t="n"/>
       <c r="J163" s="3" t="n"/>
       <c r="K163" s="3" t="n"/>
       <c r="L163" s="3" t="n"/>
@@ -53202,6 +53197,50 @@
       <c r="AN1111" s="1" t="n"/>
       <c r="AO1111" s="1" t="n"/>
       <c r="AP1111" s="1" t="n"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n"/>
+      <c r="B1112" s="1" t="n"/>
+      <c r="C1112" s="1" t="n"/>
+      <c r="D1112" s="1" t="n"/>
+      <c r="E1112" s="3" t="n"/>
+      <c r="F1112" s="3" t="n"/>
+      <c r="G1112" s="41" t="n"/>
+      <c r="H1112" s="3" t="n"/>
+      <c r="I1112" s="1" t="n"/>
+      <c r="J1112" s="3" t="n"/>
+      <c r="K1112" s="3" t="n"/>
+      <c r="L1112" s="3" t="n"/>
+      <c r="M1112" s="1" t="n"/>
+      <c r="N1112" s="1" t="n"/>
+      <c r="O1112" s="3" t="n"/>
+      <c r="P1112" s="3" t="n"/>
+      <c r="Q1112" s="1" t="n"/>
+      <c r="R1112" s="1" t="n"/>
+      <c r="S1112" s="3" t="n"/>
+      <c r="T1112" s="3" t="n"/>
+      <c r="U1112" s="1" t="n"/>
+      <c r="V1112" s="1" t="n"/>
+      <c r="W1112" s="3" t="n"/>
+      <c r="X1112" s="3" t="n"/>
+      <c r="Y1112" s="3" t="n"/>
+      <c r="Z1112" s="3" t="n"/>
+      <c r="AA1112" s="3" t="n"/>
+      <c r="AB1112" s="3" t="n"/>
+      <c r="AC1112" s="3" t="n"/>
+      <c r="AD1112" s="1" t="n"/>
+      <c r="AE1112" s="1" t="n"/>
+      <c r="AF1112" s="1" t="n"/>
+      <c r="AG1112" s="1" t="n"/>
+      <c r="AH1112" s="1" t="n"/>
+      <c r="AI1112" s="1" t="n"/>
+      <c r="AJ1112" s="1" t="n"/>
+      <c r="AK1112" s="1" t="n"/>
+      <c r="AL1112" s="1" t="n"/>
+      <c r="AM1112" s="1" t="n"/>
+      <c r="AN1112" s="1" t="n"/>
+      <c r="AO1112" s="1" t="n"/>
+      <c r="AP1112" s="1" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO1054"/>

--- a/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
+++ b/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1112"/>
+  <dimension ref="A1:AP1113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="63">
       <c r="A5" s="77" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1138,21 +1138,21 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1785.625</v>
+        <v>1797</v>
       </c>
       <c r="F5" t="n">
-        <v>7193.09</v>
+        <v>7238.96</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7.14</v>
+        <v>7.18</v>
       </c>
       <c r="I5" t="n">
-        <v>43.45</v>
+        <v>43.78</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="63">
       <c r="A6" s="77" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1174,18 +1174,24 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1778.78</v>
+        <v>1785.625</v>
       </c>
       <c r="F6" t="n">
-        <v>1778.78</v>
+        <v>7193.09</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>43.45</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1259,8 +1265,8 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" s="63">
-      <c r="A9" s="74" t="n">
-        <v>46057</v>
+      <c r="A9" s="77" t="n">
+        <v>46059</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1276,21 +1282,19 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1747.4</v>
+        <v>1778.78</v>
       </c>
       <c r="F9" t="n">
-        <v>1759.78</v>
+        <v>1778.78</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I9" t="n">
-        <v>10.63</v>
+      <c r="J9">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="63">
@@ -1308,13 +1312,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1747.6</v>
+        <v>1747.4</v>
       </c>
       <c r="F10" t="n">
-        <v>3519.99</v>
+        <v>1759.78</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1322,15 +1326,15 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="I10" t="n">
-        <v>21.29</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="63">
       <c r="A11" s="74" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1343,13 +1347,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1796.4</v>
+        <v>1747.6</v>
       </c>
       <c r="F11" t="n">
-        <v>1809.15</v>
+        <v>3519.99</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1357,10 +1361,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>10.95</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="63">
@@ -1378,13 +1382,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1796.8</v>
+        <v>1796.4</v>
       </c>
       <c r="F12" t="n">
-        <v>7238.12</v>
+        <v>1809.15</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1392,15 +1396,15 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="I12" t="n">
-        <v>43.72</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="63">
       <c r="A13" s="74" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1413,13 +1417,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1890.8</v>
+        <v>1796.8</v>
       </c>
       <c r="F13" t="n">
-        <v>5712.56</v>
+        <v>7238.12</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1427,15 +1431,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5.65</v>
+        <v>7.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.51</v>
+        <v>43.72</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="63">
       <c r="A14" s="74" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1448,13 +1452,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>1829.9</v>
+        <v>1890.8</v>
       </c>
       <c r="F14" t="n">
-        <v>1842.89</v>
+        <v>5712.56</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1462,10 +1466,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.84</v>
+        <v>5.65</v>
       </c>
       <c r="I14" t="n">
-        <v>11.15</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="63">
@@ -1540,7 +1544,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" s="63">
       <c r="A17" s="74" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1553,13 +1557,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1862.4</v>
+        <v>1829.9</v>
       </c>
       <c r="F17" t="n">
-        <v>5626.82</v>
+        <v>1842.89</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1567,15 +1571,15 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5.61</v>
+        <v>1.84</v>
       </c>
       <c r="I17" t="n">
-        <v>34.01</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="63">
       <c r="A18" s="74" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1591,10 +1595,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1880.1</v>
+        <v>1862.4</v>
       </c>
       <c r="F18" t="n">
-        <v>5680.29</v>
+        <v>5626.82</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1602,19 +1606,19 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="I18" t="n">
-        <v>34.37</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="63">
       <c r="A19" s="74" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1623,13 +1627,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1915.15</v>
+        <v>1880.1</v>
       </c>
       <c r="F19" t="n">
-        <v>3857.43</v>
+        <v>5680.29</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1637,15 +1641,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.81</v>
+        <v>5.62</v>
       </c>
       <c r="I19" t="n">
-        <v>23.32</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="63">
       <c r="A20" s="74" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1661,10 +1665,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1872.65</v>
+        <v>1915.15</v>
       </c>
       <c r="F20" t="n">
-        <v>3771.85</v>
+        <v>3857.43</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1672,15 +1676,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="I20" t="n">
-        <v>22.79</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="63">
       <c r="A21" s="74" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1696,10 +1700,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1902.35</v>
+        <v>1872.65</v>
       </c>
       <c r="F21" t="n">
-        <v>3831.67</v>
+        <v>3771.85</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1707,19 +1711,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="I21" t="n">
-        <v>23.18</v>
+        <v>22.79</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="63">
       <c r="A22" s="74" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1728,13 +1732,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1894</v>
+        <v>1902.35</v>
       </c>
       <c r="F22" t="n">
-        <v>5722.3</v>
+        <v>3831.67</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1742,19 +1746,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5.7</v>
+        <v>3.79</v>
       </c>
       <c r="I22" t="n">
-        <v>34.6</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="63">
       <c r="A23" s="74" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1763,13 +1767,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1834.95</v>
+        <v>1894</v>
       </c>
       <c r="F23" t="n">
-        <v>3695.91</v>
+        <v>5722.3</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1777,10 +1781,10 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>22.36</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="63">
@@ -1798,13 +1802,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1835</v>
+        <v>1834.95</v>
       </c>
       <c r="F24" t="n">
-        <v>1848.04</v>
+        <v>3695.91</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1812,15 +1816,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.82</v>
+        <v>3.65</v>
       </c>
       <c r="I24" t="n">
-        <v>11.22</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="63">
       <c r="A25" s="74" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1833,13 +1837,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1878.35</v>
+        <v>1835</v>
       </c>
       <c r="F25" t="n">
-        <v>5675.05</v>
+        <v>1848.04</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1847,15 +1851,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5.58</v>
+        <v>1.82</v>
       </c>
       <c r="I25" t="n">
-        <v>34.42</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
       <c r="A26" s="74" t="n">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1871,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1834.9</v>
+        <v>1878.35</v>
       </c>
       <c r="F26" t="n">
-        <v>5543.8</v>
+        <v>5675.05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1882,19 +1886,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.53</v>
+        <v>5.58</v>
       </c>
       <c r="I26" t="n">
-        <v>33.57</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
       <c r="A27" s="74" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1906,10 +1910,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1834.3</v>
+        <v>1834.9</v>
       </c>
       <c r="F27" t="n">
-        <v>5541.96</v>
+        <v>5543.8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1917,7 +1921,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.49</v>
+        <v>5.53</v>
       </c>
       <c r="I27" t="n">
         <v>33.57</v>
@@ -1925,7 +1929,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
       <c r="A28" s="74" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1938,13 +1942,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1844.9</v>
+        <v>1834.3</v>
       </c>
       <c r="F28" t="n">
-        <v>3715.93</v>
+        <v>5541.96</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1952,10 +1956,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3.68</v>
+        <v>5.49</v>
       </c>
       <c r="I28" t="n">
-        <v>22.45</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
@@ -1973,13 +1977,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1845.5</v>
+        <v>1844.9</v>
       </c>
       <c r="F29" t="n">
-        <v>7434.33</v>
+        <v>3715.93</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1987,15 +1991,15 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>7.35</v>
+        <v>3.68</v>
       </c>
       <c r="I29" t="n">
-        <v>44.98</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="63">
       <c r="A30" s="74" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2008,13 +2012,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>1887.8</v>
+        <v>1845.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3802.36</v>
+        <v>7434.33</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2022,19 +2026,19 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.78</v>
+        <v>7.35</v>
       </c>
       <c r="I30" t="n">
-        <v>22.98</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="63">
       <c r="A31" s="74" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2046,10 +2050,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1941.05</v>
+        <v>1887.8</v>
       </c>
       <c r="F31" t="n">
-        <v>3909.65</v>
+        <v>3802.36</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2057,19 +2061,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="I31" t="n">
-        <v>23.69</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="63">
       <c r="A32" s="74" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2078,13 +2082,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1907.1</v>
+        <v>1941.05</v>
       </c>
       <c r="F32" t="n">
-        <v>1920.65</v>
+        <v>3909.65</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2092,10 +2096,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.92</v>
+        <v>3.86</v>
       </c>
       <c r="I32" t="n">
-        <v>11.63</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="63">
@@ -2135,7 +2139,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1" s="63">
       <c r="A34" s="74" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2151,10 +2155,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1848.4</v>
+        <v>1907.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1861.52</v>
+        <v>1920.65</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2162,10 +2166,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I34" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="63">
@@ -2205,11 +2209,11 @@
     </row>
     <row r="36" ht="15.75" customHeight="1" s="63">
       <c r="A36" s="74" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2218,13 +2222,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1879.45</v>
+        <v>1848.4</v>
       </c>
       <c r="F36" t="n">
-        <v>5678.37</v>
+        <v>1861.52</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2232,19 +2236,19 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5.64</v>
+        <v>1.86</v>
       </c>
       <c r="I36" t="n">
-        <v>34.38</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="63">
       <c r="A37" s="74" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2253,13 +2257,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>1874.9</v>
+        <v>1879.45</v>
       </c>
       <c r="F37" t="n">
-        <v>3776.36</v>
+        <v>5678.37</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2267,15 +2271,15 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3.73</v>
+        <v>5.64</v>
       </c>
       <c r="I37" t="n">
-        <v>22.83</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="63">
       <c r="A38" s="74" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2288,13 +2292,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>1884.9</v>
+        <v>1874.9</v>
       </c>
       <c r="F38" t="n">
-        <v>5694.76</v>
+        <v>3776.36</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2302,15 +2306,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5.61</v>
+        <v>3.73</v>
       </c>
       <c r="I38" t="n">
-        <v>34.45</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="63">
       <c r="A39" s="74" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2323,13 +2327,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>1932.5</v>
+        <v>1884.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3892.35</v>
+        <v>5694.76</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2337,15 +2341,15 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3.85</v>
+        <v>5.61</v>
       </c>
       <c r="I39" t="n">
-        <v>23.5</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="63">
       <c r="A40" s="74" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2361,10 +2365,10 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>1883.2</v>
+        <v>1932.5</v>
       </c>
       <c r="F40" t="n">
-        <v>3793.12</v>
+        <v>3892.35</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2372,19 +2376,19 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="I40" t="n">
-        <v>22.95</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="63">
       <c r="A41" s="74" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2396,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1913</v>
+        <v>1883.2</v>
       </c>
       <c r="F41" t="n">
-        <v>3853.18</v>
+        <v>3793.12</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2407,19 +2411,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.86</v>
+        <v>3.77</v>
       </c>
       <c r="I41" t="n">
-        <v>23.32</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="63">
       <c r="A42" s="74" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2431,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1979</v>
+        <v>1913</v>
       </c>
       <c r="F42" t="n">
-        <v>3986.03</v>
+        <v>3853.18</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2442,15 +2446,15 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="I42" t="n">
-        <v>24.08</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="63">
       <c r="A43" s="74" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2463,13 +2467,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>2017.4</v>
+        <v>1979</v>
       </c>
       <c r="F43" t="n">
-        <v>2031.71</v>
+        <v>3986.03</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2477,10 +2481,10 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="I43" t="n">
-        <v>12.29</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="63">
@@ -2501,10 +2505,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>2017.5</v>
+        <v>2017.4</v>
       </c>
       <c r="F44" t="n">
-        <v>2031.82</v>
+        <v>2031.71</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2515,12 +2519,12 @@
         <v>2.02</v>
       </c>
       <c r="I44" t="n">
-        <v>12.3</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="63">
       <c r="A45" s="74" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2533,13 +2537,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2035</v>
+        <v>2017.5</v>
       </c>
       <c r="F45" t="n">
-        <v>6148.35</v>
+        <v>2031.82</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2547,19 +2551,19 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6.13</v>
+        <v>2.02</v>
       </c>
       <c r="I45" t="n">
-        <v>37.22</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="63">
       <c r="A46" s="74" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2568,13 +2572,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>2073.3</v>
+        <v>2035</v>
       </c>
       <c r="F46" t="n">
-        <v>4176.03</v>
+        <v>6148.35</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2582,15 +2586,15 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.15</v>
+        <v>6.13</v>
       </c>
       <c r="I46" t="n">
-        <v>25.28</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="63">
       <c r="A47" s="74" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2606,10 +2610,10 @@
         <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>2049</v>
+        <v>2073.3</v>
       </c>
       <c r="F47" t="n">
-        <v>4127.07</v>
+        <v>4176.03</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,19 +2621,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
       <c r="I47" t="n">
-        <v>24.98</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="63">
       <c r="A48" s="74" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2638,13 +2642,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2031.6</v>
+        <v>2049</v>
       </c>
       <c r="F48" t="n">
-        <v>6138.01</v>
+        <v>4127.07</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2652,10 +2656,10 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>6.09</v>
+        <v>4.09</v>
       </c>
       <c r="I48" t="n">
-        <v>37.12</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="63">
@@ -2673,13 +2677,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>2032</v>
+        <v>2031.6</v>
       </c>
       <c r="F49" t="n">
-        <v>2046.39</v>
+        <v>6138.01</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2687,10 +2691,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2.03</v>
+        <v>6.09</v>
       </c>
       <c r="I49" t="n">
-        <v>12.36</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="63">
@@ -2711,10 +2715,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>2031.9</v>
+        <v>2032</v>
       </c>
       <c r="F50" t="n">
-        <v>2046.29</v>
+        <v>2046.39</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2730,7 +2734,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1" s="63">
       <c r="A51" s="74" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2746,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1952.1</v>
+        <v>2031.9</v>
       </c>
       <c r="F51" t="n">
-        <v>1965.94</v>
+        <v>2046.29</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2757,10 +2761,10 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="I51" t="n">
-        <v>11.89</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="63">
@@ -2778,13 +2782,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1952</v>
+        <v>1952.1</v>
       </c>
       <c r="F52" t="n">
-        <v>7863.33</v>
+        <v>1965.94</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2792,15 +2796,15 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7.82</v>
+        <v>1.95</v>
       </c>
       <c r="I52" t="n">
-        <v>47.51</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="63">
       <c r="A53" s="74" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2816,10 +2820,10 @@
         <v>4</v>
       </c>
       <c r="E53" t="n">
-        <v>1808.8</v>
+        <v>1952</v>
       </c>
       <c r="F53" t="n">
-        <v>7286.58</v>
+        <v>7863.33</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2827,10 +2831,10 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7.45</v>
+        <v>7.82</v>
       </c>
       <c r="I53" t="n">
-        <v>43.93</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="63">
@@ -2848,13 +2852,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
         <v>1808.8</v>
       </c>
       <c r="F54" t="n">
-        <v>1821.66</v>
+        <v>7286.58</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2862,19 +2866,19 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1.87</v>
+        <v>7.45</v>
       </c>
       <c r="I54" t="n">
-        <v>10.99</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="63">
       <c r="A55" s="74" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2883,13 +2887,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1880.95</v>
+        <v>1808.8</v>
       </c>
       <c r="F55" t="n">
-        <v>9471.4</v>
+        <v>1821.66</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2897,15 +2901,15 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>9.359999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="I55" t="n">
-        <v>57.29</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="63">
       <c r="A56" s="74" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2918,13 +2922,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" t="n">
-        <v>1829.5</v>
+        <v>1880.95</v>
       </c>
       <c r="F56" t="n">
-        <v>1842.48</v>
+        <v>9471.4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2932,10 +2936,10 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.83</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I56" t="n">
-        <v>11.15</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="63">
@@ -2953,13 +2957,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1829</v>
+        <v>1829.5</v>
       </c>
       <c r="F57" t="n">
-        <v>7367.94</v>
+        <v>1842.48</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2967,19 +2971,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7.34</v>
+        <v>1.83</v>
       </c>
       <c r="I57" t="n">
-        <v>44.6</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="63">
       <c r="A58" s="74" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2988,13 +2992,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>1753.7</v>
+        <v>1829</v>
       </c>
       <c r="F58" t="n">
-        <v>5298.24</v>
+        <v>7367.94</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3002,15 +3006,15 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5.24</v>
+        <v>7.34</v>
       </c>
       <c r="I58" t="n">
-        <v>31.9</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" s="63">
       <c r="A59" s="74" t="n">
-        <v>45873</v>
+        <v>45901</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3023,13 +3027,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>1902</v>
+        <v>1753.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1915.54</v>
+        <v>5298.24</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3037,10 +3041,10 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1.93</v>
+        <v>5.24</v>
       </c>
       <c r="I59" t="n">
-        <v>11.61</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" s="63">
@@ -3058,13 +3062,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1902.1</v>
+        <v>1902</v>
       </c>
       <c r="F60" t="n">
-        <v>3831.19</v>
+        <v>1915.54</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3072,10 +3076,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3.84</v>
+        <v>1.93</v>
       </c>
       <c r="I60" t="n">
-        <v>23.15</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="61" ht="13" customHeight="1" s="63">
@@ -3093,13 +3097,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>1902.1</v>
       </c>
       <c r="F61" t="n">
-        <v>1915.64</v>
+        <v>3831.19</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3107,10 +3111,10 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1.93</v>
+        <v>3.84</v>
       </c>
       <c r="I61" t="n">
-        <v>11.61</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="62" ht="13" customHeight="1" s="63">
@@ -3134,7 +3138,7 @@
         <v>1902.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1915.65</v>
+        <v>1915.64</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3145,121 +3149,43 @@
         <v>1.93</v>
       </c>
       <c r="I62" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="63" ht="13" customHeight="1" s="63">
+      <c r="A63" s="74" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1915.65</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I63" t="n">
         <v>11.62</v>
       </c>
-    </row>
-    <row r="63" ht="13" customHeight="1" s="63">
-      <c r="A63" s="75" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B63" s="17" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C63" s="17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D63" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E63" s="19" t="n">
-        <v>2024.27</v>
-      </c>
-      <c r="F63" s="19" t="n">
-        <v>8097.06</v>
-      </c>
-      <c r="G63" s="17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H63" s="19" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="I63" s="19" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="J63" s="20">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K63" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L63" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M63" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N63" s="23">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O63" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P63" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q63" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R63" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S63" s="24">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T63" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U63" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V63" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W63" s="25" t="n"/>
-      <c r="X63" s="25" t="n"/>
-      <c r="Y63" s="24">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z63" s="25" t="n"/>
-      <c r="AA63" s="25" t="n"/>
-      <c r="AB63" s="25" t="n"/>
-      <c r="AC63" s="22">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD63" s="26" t="n"/>
-      <c r="AE63" s="1" t="n"/>
-      <c r="AF63" s="1" t="n"/>
-      <c r="AG63" s="1" t="n"/>
-      <c r="AH63" s="1" t="n"/>
-      <c r="AI63" s="1" t="n"/>
-      <c r="AJ63" s="1" t="n"/>
-      <c r="AK63" s="1" t="n"/>
-      <c r="AL63" s="1" t="n"/>
-      <c r="AM63" s="1" t="n"/>
-      <c r="AN63" s="1" t="n"/>
-      <c r="AO63" s="1" t="n"/>
-      <c r="AP63" s="1" t="n"/>
     </row>
     <row r="64" ht="13" customHeight="1" s="63">
       <c r="A64" s="75" t="n">
@@ -3276,13 +3202,13 @@
         </is>
       </c>
       <c r="D64" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E64" s="19" t="n">
-        <v>2024.91</v>
+        <v>2024.27</v>
       </c>
       <c r="F64" s="19" t="n">
-        <v>2024.91</v>
+        <v>8097.06</v>
       </c>
       <c r="G64" s="17" t="inlineStr">
         <is>
@@ -3290,74 +3216,74 @@
         </is>
       </c>
       <c r="H64" s="19" t="n">
-        <v>2.01</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I64" s="19" t="n">
-        <v>12.25</v>
+        <v>49.02</v>
       </c>
       <c r="J64" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L64" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M64" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N64" s="23">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O64" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P64" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R64" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S64" s="24">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T64" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U64" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V64" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W64" s="25" t="n"/>
       <c r="X64" s="25" t="n"/>
       <c r="Y64" s="24">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z64" s="25" t="n"/>
       <c r="AA64" s="25" t="n"/>
       <c r="AB64" s="25" t="n"/>
       <c r="AC64" s="22">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD64" s="26" t="n"/>
@@ -3376,11 +3302,11 @@
     </row>
     <row r="65" ht="13" customHeight="1" s="63">
       <c r="A65" s="75" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B65" s="17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C65" s="17" t="inlineStr">
@@ -3389,13 +3315,13 @@
         </is>
       </c>
       <c r="D65" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" s="19" t="n">
-        <v>1965.93</v>
+        <v>2024.91</v>
       </c>
       <c r="F65" s="19" t="n">
-        <v>5897.78</v>
+        <v>2024.91</v>
       </c>
       <c r="G65" s="17" t="inlineStr">
         <is>
@@ -3403,74 +3329,74 @@
         </is>
       </c>
       <c r="H65" s="19" t="n">
-        <v>5.84</v>
+        <v>2.01</v>
       </c>
       <c r="I65" s="19" t="n">
-        <v>35.64</v>
+        <v>12.25</v>
       </c>
       <c r="J65" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L65" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M65" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N65" s="23">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O65" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P65" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R65" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S65" s="24">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T65" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U65" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V65" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W65" s="25" t="n"/>
       <c r="X65" s="25" t="n"/>
       <c r="Y65" s="24">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z65" s="25" t="n"/>
       <c r="AA65" s="25" t="n"/>
       <c r="AB65" s="25" t="n"/>
       <c r="AC65" s="22">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD65" s="26" t="n"/>
@@ -3502,13 +3428,13 @@
         </is>
       </c>
       <c r="D66" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" s="19" t="n">
-        <v>1965.92</v>
+        <v>1965.93</v>
       </c>
       <c r="F66" s="19" t="n">
-        <v>3931.84</v>
+        <v>5897.78</v>
       </c>
       <c r="G66" s="17" t="inlineStr">
         <is>
@@ -3516,74 +3442,74 @@
         </is>
       </c>
       <c r="H66" s="19" t="n">
-        <v>3.89</v>
+        <v>5.84</v>
       </c>
       <c r="I66" s="19" t="n">
-        <v>23.75</v>
+        <v>35.64</v>
       </c>
       <c r="J66" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L66" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M66" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N66" s="23">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O66" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P66" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R66" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S66" s="24">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T66" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U66" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V66" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W66" s="25" t="n"/>
       <c r="X66" s="25" t="n"/>
       <c r="Y66" s="24">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z66" s="25" t="n"/>
       <c r="AA66" s="25" t="n"/>
       <c r="AB66" s="25" t="n"/>
       <c r="AC66" s="22">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD66" s="26" t="n"/>
@@ -3615,13 +3541,13 @@
         </is>
       </c>
       <c r="D67" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="19" t="n">
-        <v>1965.82</v>
+        <v>1965.92</v>
       </c>
       <c r="F67" s="19" t="n">
-        <v>1965.82</v>
+        <v>3931.84</v>
       </c>
       <c r="G67" s="17" t="inlineStr">
         <is>
@@ -3629,74 +3555,74 @@
         </is>
       </c>
       <c r="H67" s="19" t="n">
-        <v>1.94</v>
+        <v>3.89</v>
       </c>
       <c r="I67" s="19" t="n">
-        <v>11.88</v>
+        <v>23.75</v>
       </c>
       <c r="J67" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L67" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M67" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N67" s="23">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O67" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P67" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R67" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S67" s="24">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T67" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U67" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V67" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W67" s="25" t="n"/>
       <c r="X67" s="25" t="n"/>
       <c r="Y67" s="24">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z67" s="25" t="n"/>
       <c r="AA67" s="25" t="n"/>
       <c r="AB67" s="25" t="n"/>
       <c r="AC67" s="22">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD67" s="26" t="n"/>
@@ -3728,13 +3654,13 @@
         </is>
       </c>
       <c r="D68" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E68" s="19" t="n">
-        <v>1965.83</v>
+        <v>1965.82</v>
       </c>
       <c r="F68" s="19" t="n">
-        <v>5897.48</v>
+        <v>1965.82</v>
       </c>
       <c r="G68" s="17" t="inlineStr">
         <is>
@@ -3742,74 +3668,74 @@
         </is>
       </c>
       <c r="H68" s="19" t="n">
-        <v>5.84</v>
+        <v>1.94</v>
       </c>
       <c r="I68" s="19" t="n">
-        <v>35.64</v>
+        <v>11.88</v>
       </c>
       <c r="J68" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L68" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M68" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N68" s="23">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O68" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P68" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R68" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S68" s="24">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T68" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U68" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V68" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W68" s="25" t="n"/>
       <c r="X68" s="25" t="n"/>
       <c r="Y68" s="24">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z68" s="25" t="n"/>
       <c r="AA68" s="25" t="n"/>
       <c r="AB68" s="25" t="n"/>
       <c r="AC68" s="22">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD68" s="26" t="n"/>
@@ -3841,13 +3767,13 @@
         </is>
       </c>
       <c r="D69" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="19" t="n">
-        <v>1965.62</v>
+        <v>1965.83</v>
       </c>
       <c r="F69" s="19" t="n">
-        <v>1965.62</v>
+        <v>5897.48</v>
       </c>
       <c r="G69" s="17" t="inlineStr">
         <is>
@@ -3855,74 +3781,74 @@
         </is>
       </c>
       <c r="H69" s="19" t="n">
-        <v>1.94</v>
+        <v>5.84</v>
       </c>
       <c r="I69" s="19" t="n">
-        <v>11.88</v>
+        <v>35.64</v>
       </c>
       <c r="J69" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L69" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M69" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N69" s="23">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O69" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P69" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R69" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S69" s="24">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T69" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U69" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V69" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W69" s="25" t="n"/>
       <c r="X69" s="25" t="n"/>
       <c r="Y69" s="24">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z69" s="25" t="n"/>
       <c r="AA69" s="25" t="n"/>
       <c r="AB69" s="25" t="n"/>
       <c r="AC69" s="22">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD69" s="26" t="n"/>
@@ -3941,7 +3867,7 @@
     </row>
     <row r="70" ht="13" customHeight="1" s="63">
       <c r="A70" s="75" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B70" s="17" t="inlineStr">
         <is>
@@ -3954,13 +3880,13 @@
         </is>
       </c>
       <c r="D70" s="18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" s="19" t="n">
-        <v>1961.06</v>
+        <v>1965.62</v>
       </c>
       <c r="F70" s="19" t="n">
-        <v>7844.24</v>
+        <v>1965.62</v>
       </c>
       <c r="G70" s="17" t="inlineStr">
         <is>
@@ -3968,74 +3894,74 @@
         </is>
       </c>
       <c r="H70" s="19" t="n">
-        <v>7.86</v>
+        <v>1.94</v>
       </c>
       <c r="I70" s="19" t="n">
-        <v>47.58</v>
+        <v>11.88</v>
       </c>
       <c r="J70" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L70" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M70" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N70" s="23">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O70" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P70" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R70" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S70" s="24">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T70" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U70" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V70" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W70" s="25" t="n"/>
       <c r="X70" s="25" t="n"/>
       <c r="Y70" s="24">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z70" s="25" t="n"/>
       <c r="AA70" s="25" t="n"/>
       <c r="AB70" s="25" t="n"/>
       <c r="AC70" s="22">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD70" s="26" t="n"/>
@@ -4067,13 +3993,13 @@
         </is>
       </c>
       <c r="D71" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E71" s="19" t="n">
-        <v>1960.97</v>
+        <v>1961.06</v>
       </c>
       <c r="F71" s="19" t="n">
-        <v>1960.97</v>
+        <v>7844.24</v>
       </c>
       <c r="G71" s="17" t="inlineStr">
         <is>
@@ -4081,74 +4007,74 @@
         </is>
       </c>
       <c r="H71" s="19" t="n">
-        <v>1.97</v>
+        <v>7.86</v>
       </c>
       <c r="I71" s="19" t="n">
-        <v>11.9</v>
+        <v>47.58</v>
       </c>
       <c r="J71" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L71" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M71" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N71" s="23">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O71" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P71" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R71" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S71" s="24">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T71" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U71" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V71" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W71" s="25" t="n"/>
       <c r="X71" s="25" t="n"/>
       <c r="Y71" s="24">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z71" s="25" t="n"/>
       <c r="AA71" s="25" t="n"/>
       <c r="AB71" s="25" t="n"/>
       <c r="AC71" s="22">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD71" s="26" t="n"/>
@@ -4167,7 +4093,7 @@
     </row>
     <row r="72" ht="13" customHeight="1" s="63">
       <c r="A72" s="75" t="n">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="B72" s="17" t="inlineStr">
         <is>
@@ -4180,13 +4106,13 @@
         </is>
       </c>
       <c r="D72" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="19" t="n">
-        <v>2090.3</v>
+        <v>1960.97</v>
       </c>
       <c r="F72" s="19" t="n">
-        <v>4180.6</v>
+        <v>1960.97</v>
       </c>
       <c r="G72" s="17" t="inlineStr">
         <is>
@@ -4194,74 +4120,74 @@
         </is>
       </c>
       <c r="H72" s="19" t="n">
-        <v>4.14</v>
+        <v>1.97</v>
       </c>
       <c r="I72" s="19" t="n">
-        <v>25.26</v>
+        <v>11.9</v>
       </c>
       <c r="J72" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L72" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M72" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N72" s="23">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O72" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P72" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R72" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S72" s="24">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T72" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U72" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V72" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W72" s="25" t="n"/>
       <c r="X72" s="25" t="n"/>
       <c r="Y72" s="24">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z72" s="25" t="n"/>
       <c r="AA72" s="25" t="n"/>
       <c r="AB72" s="25" t="n"/>
       <c r="AC72" s="22">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD72" s="26" t="n"/>
@@ -4293,13 +4219,13 @@
         </is>
       </c>
       <c r="D73" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" s="19" t="n">
-        <v>2090.31</v>
+        <v>2090.3</v>
       </c>
       <c r="F73" s="19" t="n">
-        <v>6270.92</v>
+        <v>4180.6</v>
       </c>
       <c r="G73" s="17" t="inlineStr">
         <is>
@@ -4307,74 +4233,74 @@
         </is>
       </c>
       <c r="H73" s="19" t="n">
-        <v>6.22</v>
+        <v>4.14</v>
       </c>
       <c r="I73" s="19" t="n">
-        <v>37.9</v>
+        <v>25.26</v>
       </c>
       <c r="J73" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L73" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M73" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N73" s="23">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O73" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P73" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R73" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S73" s="24">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T73" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U73" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V73" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W73" s="25" t="n"/>
       <c r="X73" s="25" t="n"/>
       <c r="Y73" s="24">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z73" s="25" t="n"/>
       <c r="AA73" s="25" t="n"/>
       <c r="AB73" s="25" t="n"/>
       <c r="AC73" s="22">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD73" s="26" t="n"/>
@@ -4393,7 +4319,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="63">
       <c r="A74" s="75" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B74" s="17" t="inlineStr">
         <is>
@@ -4406,13 +4332,13 @@
         </is>
       </c>
       <c r="D74" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E74" s="19" t="n">
-        <v>2024.55</v>
+        <v>2090.31</v>
       </c>
       <c r="F74" s="19" t="n">
-        <v>4049.1</v>
+        <v>6270.92</v>
       </c>
       <c r="G74" s="17" t="inlineStr">
         <is>
@@ -4420,74 +4346,74 @@
         </is>
       </c>
       <c r="H74" s="19" t="n">
-        <v>4.05</v>
+        <v>6.22</v>
       </c>
       <c r="I74" s="19" t="n">
-        <v>24.45</v>
+        <v>37.9</v>
       </c>
       <c r="J74" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L74" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M74" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N74" s="23">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O74" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P74" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R74" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S74" s="24">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T74" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U74" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V74" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W74" s="25" t="n"/>
       <c r="X74" s="25" t="n"/>
       <c r="Y74" s="24">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z74" s="25" t="n"/>
       <c r="AA74" s="25" t="n"/>
       <c r="AB74" s="25" t="n"/>
       <c r="AC74" s="22">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD74" s="26" t="n"/>
@@ -4519,13 +4445,13 @@
         </is>
       </c>
       <c r="D75" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.55</v>
       </c>
       <c r="F75" s="19" t="n">
-        <v>2024.05</v>
+        <v>4049.1</v>
       </c>
       <c r="G75" s="17" t="inlineStr">
         <is>
@@ -4533,74 +4459,74 @@
         </is>
       </c>
       <c r="H75" s="19" t="n">
-        <v>2.02</v>
+        <v>4.05</v>
       </c>
       <c r="I75" s="19" t="n">
-        <v>12.23</v>
+        <v>24.45</v>
       </c>
       <c r="J75" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L75" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M75" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N75" s="23">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O75" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P75" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R75" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S75" s="24">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T75" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U75" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V75" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W75" s="25" t="n"/>
       <c r="X75" s="25" t="n"/>
       <c r="Y75" s="24">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z75" s="25" t="n"/>
       <c r="AA75" s="25" t="n"/>
       <c r="AB75" s="25" t="n"/>
       <c r="AC75" s="22">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD75" s="26" t="n"/>
@@ -4635,10 +4561,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="F76" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="G76" s="17" t="inlineStr">
         <is>
@@ -4656,64 +4582,64 @@
         <v/>
       </c>
       <c r="K76" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L76" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M76" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N76" s="23">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O76" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P76" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R76" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S76" s="24">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T76" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U76" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V76" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W76" s="25" t="n"/>
       <c r="X76" s="25" t="n"/>
       <c r="Y76" s="24">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z76" s="25" t="n"/>
       <c r="AA76" s="25" t="n"/>
       <c r="AB76" s="25" t="n"/>
       <c r="AC76" s="22">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD76" s="26" t="n"/>
@@ -4748,10 +4674,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="F77" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="G77" s="17" t="inlineStr">
         <is>
@@ -4769,64 +4695,64 @@
         <v/>
       </c>
       <c r="K77" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L77" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M77" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N77" s="23">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O77" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P77" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R77" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S77" s="24">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T77" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U77" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V77" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W77" s="25" t="n"/>
       <c r="X77" s="25" t="n"/>
       <c r="Y77" s="24">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z77" s="25" t="n"/>
       <c r="AA77" s="25" t="n"/>
       <c r="AB77" s="25" t="n"/>
       <c r="AC77" s="22">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD77" s="26" t="n"/>
@@ -4845,7 +4771,7 @@
     </row>
     <row r="78" ht="13" customHeight="1" s="63">
       <c r="A78" s="75" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B78" s="17" t="inlineStr">
         <is>
@@ -4858,13 +4784,13 @@
         </is>
       </c>
       <c r="D78" s="18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E78" s="19" t="n">
-        <v>2060.9</v>
+        <v>2024.05</v>
       </c>
       <c r="F78" s="19" t="n">
-        <v>10304.51</v>
+        <v>2024.05</v>
       </c>
       <c r="G78" s="17" t="inlineStr">
         <is>
@@ -4872,74 +4798,74 @@
         </is>
       </c>
       <c r="H78" s="19" t="n">
-        <v>10.23</v>
+        <v>2.02</v>
       </c>
       <c r="I78" s="19" t="n">
-        <v>62.28</v>
+        <v>12.23</v>
       </c>
       <c r="J78" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L78" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M78" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N78" s="23">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O78" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P78" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R78" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S78" s="24">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T78" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U78" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V78" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W78" s="25" t="n"/>
       <c r="X78" s="25" t="n"/>
       <c r="Y78" s="24">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z78" s="25" t="n"/>
       <c r="AA78" s="25" t="n"/>
       <c r="AB78" s="25" t="n"/>
       <c r="AC78" s="22">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD78" s="26" t="n"/>
@@ -4958,11 +4884,11 @@
     </row>
     <row r="79" ht="13" customHeight="1" s="63">
       <c r="A79" s="75" t="n">
-        <v>45743</v>
+        <v>45811</v>
       </c>
       <c r="B79" s="17" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C79" s="17" t="inlineStr">
@@ -4971,88 +4897,88 @@
         </is>
       </c>
       <c r="D79" s="18" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E79" s="19" t="n">
-        <v>4</v>
+        <v>2060.9</v>
       </c>
       <c r="F79" s="19" t="n">
-        <v>220</v>
+        <v>10304.51</v>
       </c>
       <c r="G79" s="17" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H79" s="19" t="n">
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="I79" s="19" t="n">
-        <v>0</v>
+        <v>62.28</v>
       </c>
       <c r="J79" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L79" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M79" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N79" s="23">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O79" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P79" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R79" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S79" s="24">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T79" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U79" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V79" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W79" s="25" t="n"/>
       <c r="X79" s="25" t="n"/>
       <c r="Y79" s="24">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z79" s="25" t="n"/>
       <c r="AA79" s="25" t="n"/>
       <c r="AB79" s="25" t="n"/>
       <c r="AC79" s="22">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD79" s="26" t="n"/>
@@ -5070,101 +4996,102 @@
       <c r="AP79" s="1" t="n"/>
     </row>
     <row r="80" ht="13" customHeight="1" s="63">
-      <c r="A80" s="76" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B80" s="29" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C80" s="29" t="inlineStr">
+      <c r="A80" s="75" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B80" s="17" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C80" s="17" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D80" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="31" t="n">
-        <v>1703.49</v>
-      </c>
-      <c r="F80" s="3">
-        <f>E34*D34 + SUM(H34:I34)</f>
-        <v/>
-      </c>
-      <c r="G80" s="29" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H80" s="31" t="n"/>
-      <c r="I80" s="31" t="n">
-        <v>23.99</v>
+      <c r="D80" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E80" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F80" s="19" t="n">
+        <v>220</v>
+      </c>
+      <c r="G80" s="17" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+        </is>
+      </c>
+      <c r="H80" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="J80" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L80" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M80" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N80" s="23">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O80" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P80" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R80" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S80" s="24">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T80" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U80" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V80" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W80" s="25" t="n"/>
       <c r="X80" s="25" t="n"/>
       <c r="Y80" s="24">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z80" s="25" t="n"/>
       <c r="AA80" s="25" t="n"/>
       <c r="AB80" s="25" t="n"/>
       <c r="AC80" s="22">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD80" s="26" t="n"/>
@@ -5199,10 +5126,10 @@
         <v>2</v>
       </c>
       <c r="E81" s="31" t="n">
-        <v>1703.55</v>
-      </c>
-      <c r="F81" s="32">
-        <f>E35*D35 + SUM(H35:I35)</f>
+        <v>1703.49</v>
+      </c>
+      <c r="F81" s="3">
+        <f>E34*D34 + SUM(H34:I34)</f>
         <v/>
       </c>
       <c r="G81" s="29" t="inlineStr">
@@ -5219,64 +5146,64 @@
         <v/>
       </c>
       <c r="K81" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L81" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M81" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N81" s="23">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O81" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P81" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R81" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S81" s="24">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T81" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U81" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V81" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W81" s="25" t="n"/>
       <c r="X81" s="25" t="n"/>
       <c r="Y81" s="24">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z81" s="25" t="n"/>
       <c r="AA81" s="25" t="n"/>
       <c r="AB81" s="25" t="n"/>
       <c r="AC81" s="22">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD81" s="26" t="n"/>
@@ -5308,13 +5235,13 @@
         </is>
       </c>
       <c r="D82" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" s="31" t="n">
-        <v>1703.48</v>
+        <v>1703.55</v>
       </c>
       <c r="F82" s="32">
-        <f>E36*D36 + SUM(H36:I36)</f>
+        <f>E35*D35 + SUM(H35:I35)</f>
         <v/>
       </c>
       <c r="G82" s="29" t="inlineStr">
@@ -5324,71 +5251,71 @@
       </c>
       <c r="H82" s="31" t="n"/>
       <c r="I82" s="31" t="n">
-        <v>11.98</v>
+        <v>23.99</v>
       </c>
       <c r="J82" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L82" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M82" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N82" s="23">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O82" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P82" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R82" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S82" s="24">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T82" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U82" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V82" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W82" s="25" t="n"/>
       <c r="X82" s="25" t="n"/>
       <c r="Y82" s="24">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z82" s="25" t="n"/>
       <c r="AA82" s="25" t="n"/>
       <c r="AB82" s="25" t="n"/>
       <c r="AC82" s="22">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD82" s="26" t="n"/>
@@ -5407,7 +5334,7 @@
     </row>
     <row r="83" ht="13" customHeight="1" s="63">
       <c r="A83" s="76" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B83" s="29" t="inlineStr">
         <is>
@@ -5420,88 +5347,87 @@
         </is>
       </c>
       <c r="D83" s="30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E83" s="31" t="n">
-        <v>1799.56</v>
-      </c>
-      <c r="F83" s="15" t="n">
-        <v>8997.790000000001</v>
+        <v>1703.48</v>
+      </c>
+      <c r="F83" s="32">
+        <f>E36*D36 + SUM(H36:I36)</f>
+        <v/>
       </c>
       <c r="G83" s="29" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H83" s="31" t="n">
-        <v>8.98</v>
-      </c>
+      <c r="H83" s="31" t="n"/>
       <c r="I83" s="31" t="n">
-        <v>54.31</v>
+        <v>11.98</v>
       </c>
       <c r="J83" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L83" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M83" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N83" s="23">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O83" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P83" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R83" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S83" s="24">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T83" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U83" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V83" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W83" s="25" t="n"/>
       <c r="X83" s="25" t="n"/>
       <c r="Y83" s="24">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z83" s="25" t="n"/>
       <c r="AA83" s="25" t="n"/>
       <c r="AB83" s="25" t="n"/>
       <c r="AC83" s="22">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD83" s="26" t="n"/>
@@ -5520,7 +5446,7 @@
     </row>
     <row r="84" ht="13" customHeight="1" s="63">
       <c r="A84" s="76" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B84" s="29" t="inlineStr">
         <is>
@@ -5536,10 +5462,10 @@
         <v>5</v>
       </c>
       <c r="E84" s="31" t="n">
-        <v>1658.51</v>
-      </c>
-      <c r="F84" s="25" t="n">
-        <v>8292.540000000001</v>
+        <v>1799.56</v>
+      </c>
+      <c r="F84" s="15" t="n">
+        <v>8997.790000000001</v>
       </c>
       <c r="G84" s="29" t="inlineStr">
         <is>
@@ -5547,74 +5473,74 @@
         </is>
       </c>
       <c r="H84" s="31" t="n">
-        <v>8.220000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="I84" s="31" t="n">
-        <v>50.07</v>
+        <v>54.31</v>
       </c>
       <c r="J84" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L84" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M84" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N84" s="23">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O84" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P84" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R84" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S84" s="24">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T84" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U84" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V84" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W84" s="25" t="n"/>
       <c r="X84" s="25" t="n"/>
       <c r="Y84" s="24">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z84" s="25" t="n"/>
       <c r="AA84" s="25" t="n"/>
       <c r="AB84" s="25" t="n"/>
       <c r="AC84" s="22">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD84" s="26" t="n"/>
@@ -5633,7 +5559,7 @@
     </row>
     <row r="85" ht="13" customHeight="1" s="63">
       <c r="A85" s="76" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B85" s="29" t="inlineStr">
         <is>
@@ -5649,10 +5575,10 @@
         <v>5</v>
       </c>
       <c r="E85" s="31" t="n">
-        <v>1804.35</v>
+        <v>1658.51</v>
       </c>
       <c r="F85" s="25" t="n">
-        <v>9021.76</v>
+        <v>8292.540000000001</v>
       </c>
       <c r="G85" s="29" t="inlineStr">
         <is>
@@ -5660,74 +5586,74 @@
         </is>
       </c>
       <c r="H85" s="31" t="n">
-        <v>8.94</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I85" s="31" t="n">
-        <v>54.57</v>
+        <v>50.07</v>
       </c>
       <c r="J85" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L85" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M85" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N85" s="23">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O85" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P85" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R85" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S85" s="24">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T85" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U85" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V85" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W85" s="25" t="n"/>
       <c r="X85" s="25" t="n"/>
       <c r="Y85" s="24">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z85" s="25" t="n"/>
       <c r="AA85" s="25" t="n"/>
       <c r="AB85" s="25" t="n"/>
       <c r="AC85" s="22">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD85" s="26" t="n"/>
@@ -5765,7 +5691,7 @@
         <v>1804.35</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>9021.77</v>
+        <v>9021.76</v>
       </c>
       <c r="G86" s="29" t="inlineStr">
         <is>
@@ -5776,71 +5702,71 @@
         <v>8.94</v>
       </c>
       <c r="I86" s="31" t="n">
-        <v>54.58</v>
+        <v>54.57</v>
       </c>
       <c r="J86" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L86" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M86" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N86" s="23">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O86" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P86" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R86" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S86" s="24">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T86" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U86" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V86" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W86" s="25" t="n"/>
       <c r="X86" s="25" t="n"/>
       <c r="Y86" s="24">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z86" s="25" t="n"/>
       <c r="AA86" s="25" t="n"/>
       <c r="AB86" s="25" t="n"/>
       <c r="AC86" s="22">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD86" s="26" t="n"/>
@@ -5859,11 +5785,11 @@
     </row>
     <row r="87" ht="13" customHeight="1" s="63">
       <c r="A87" s="76" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B87" s="29" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C87" s="29" t="inlineStr">
@@ -5872,88 +5798,88 @@
         </is>
       </c>
       <c r="D87" s="30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>13</v>
+        <v>1804.35</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>390</v>
+        <v>9021.77</v>
       </c>
       <c r="G87" s="29" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H87" s="31" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="I87" s="31" t="n">
-        <v>0</v>
+        <v>54.58</v>
       </c>
       <c r="J87" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L87" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M87" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N87" s="23">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O87" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P87" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R87" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S87" s="24">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T87" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U87" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V87" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W87" s="25" t="n"/>
       <c r="X87" s="25" t="n"/>
       <c r="Y87" s="24">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z87" s="25" t="n"/>
       <c r="AA87" s="25" t="n"/>
       <c r="AB87" s="25" t="n"/>
       <c r="AC87" s="22">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD87" s="26" t="n"/>
@@ -5972,11 +5898,11 @@
     </row>
     <row r="88" ht="13" customHeight="1" s="63">
       <c r="A88" s="76" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="B88" s="29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C88" s="29" t="inlineStr">
@@ -5985,88 +5911,88 @@
         </is>
       </c>
       <c r="D88" s="30" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>1877.21</v>
+        <v>13</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>9386.049999999999</v>
+        <v>390</v>
       </c>
       <c r="G88" s="29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
         </is>
       </c>
       <c r="H88" s="31" t="n">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="I88" s="31" t="n">
-        <v>56.74</v>
+        <v>0</v>
       </c>
       <c r="J88" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L88" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M88" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N88" s="23">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O88" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P88" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R88" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S88" s="24">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T88" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U88" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V88" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W88" s="25" t="n"/>
       <c r="X88" s="25" t="n"/>
       <c r="Y88" s="24">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z88" s="25" t="n"/>
       <c r="AA88" s="25" t="n"/>
       <c r="AB88" s="25" t="n"/>
       <c r="AC88" s="22">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD88" s="26" t="n"/>
@@ -6098,13 +6024,13 @@
         </is>
       </c>
       <c r="D89" s="30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E89" s="31" t="n">
         <v>1877.21</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>18772.07</v>
+        <v>9386.049999999999</v>
       </c>
       <c r="G89" s="29" t="inlineStr">
         <is>
@@ -6112,74 +6038,74 @@
         </is>
       </c>
       <c r="H89" s="31" t="n">
-        <v>18.61</v>
+        <v>9.31</v>
       </c>
       <c r="I89" s="31" t="n">
-        <v>113.46</v>
+        <v>56.74</v>
       </c>
       <c r="J89" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L89" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M89" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N89" s="23">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O89" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P89" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R89" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S89" s="24">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T89" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U89" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V89" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W89" s="25" t="n"/>
       <c r="X89" s="25" t="n"/>
       <c r="Y89" s="24">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z89" s="25" t="n"/>
       <c r="AA89" s="25" t="n"/>
       <c r="AB89" s="25" t="n"/>
       <c r="AC89" s="22">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD89" s="26" t="n"/>
@@ -6198,7 +6124,7 @@
     </row>
     <row r="90" ht="13" customHeight="1" s="63">
       <c r="A90" s="76" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B90" s="29" t="inlineStr">
         <is>
@@ -6211,13 +6137,13 @@
         </is>
       </c>
       <c r="D90" s="30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>1867.85</v>
+        <v>1877.21</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>1867.85</v>
+        <v>18772.07</v>
       </c>
       <c r="G90" s="29" t="inlineStr">
         <is>
@@ -6225,74 +6151,74 @@
         </is>
       </c>
       <c r="H90" s="31" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="I90" s="31" t="n">
-        <v>11.29</v>
+        <v>113.46</v>
       </c>
       <c r="J90" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L90" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M90" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N90" s="23">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O90" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P90" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R90" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S90" s="24">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T90" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U90" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V90" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W90" s="25" t="n"/>
       <c r="X90" s="25" t="n"/>
       <c r="Y90" s="24">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z90" s="25" t="n"/>
       <c r="AA90" s="25" t="n"/>
       <c r="AB90" s="25" t="n"/>
       <c r="AC90" s="22">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD90" s="26" t="n"/>
@@ -6327,10 +6253,10 @@
         <v>1</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="G91" s="29" t="inlineStr">
         <is>
@@ -6341,71 +6267,71 @@
         <v>1.86</v>
       </c>
       <c r="I91" s="31" t="n">
-        <v>11.32</v>
+        <v>11.29</v>
       </c>
       <c r="J91" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L91" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M91" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N91" s="23">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O91" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P91" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R91" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S91" s="24">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T91" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U91" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V91" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W91" s="25" t="n"/>
       <c r="X91" s="25" t="n"/>
       <c r="Y91" s="24">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z91" s="25" t="n"/>
       <c r="AA91" s="25" t="n"/>
       <c r="AB91" s="25" t="n"/>
       <c r="AC91" s="22">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD91" s="26" t="n"/>
@@ -6437,13 +6363,13 @@
         </is>
       </c>
       <c r="D92" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>1869.19</v>
+        <v>1869.08</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>3738.39</v>
+        <v>1869.08</v>
       </c>
       <c r="G92" s="29" t="inlineStr">
         <is>
@@ -6451,74 +6377,74 @@
         </is>
       </c>
       <c r="H92" s="31" t="n">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
       <c r="I92" s="31" t="n">
-        <v>22.58</v>
+        <v>11.32</v>
       </c>
       <c r="J92" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L92" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M92" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N92" s="23">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O92" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P92" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R92" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S92" s="24">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T92" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U92" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V92" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W92" s="25" t="n"/>
       <c r="X92" s="25" t="n"/>
       <c r="Y92" s="24">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z92" s="25" t="n"/>
       <c r="AA92" s="25" t="n"/>
       <c r="AB92" s="25" t="n"/>
       <c r="AC92" s="22">
-        <f>IF(B46="DIV", F46,"")</f>
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD92" s="26" t="n"/>
@@ -6553,10 +6479,10 @@
         <v>2</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>1869.1</v>
+        <v>1869.19</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>3738.19</v>
+        <v>3738.39</v>
       </c>
       <c r="G93" s="29" t="inlineStr">
         <is>
@@ -6574,64 +6500,64 @@
         <v/>
       </c>
       <c r="K93" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L93" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M93" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N93" s="23">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O93" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P93" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R93" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S93" s="24">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T93" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U93" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V93" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W93" s="25" t="n"/>
       <c r="X93" s="25" t="n"/>
       <c r="Y93" s="24">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z93" s="25" t="n"/>
       <c r="AA93" s="25" t="n"/>
       <c r="AB93" s="25" t="n"/>
       <c r="AC93" s="22">
-        <f>IF(B47="DIV", F47,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD93" s="26" t="n"/>
@@ -6663,13 +6589,13 @@
         </is>
       </c>
       <c r="D94" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>1867.85</v>
+        <v>1869.1</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>1867.85</v>
+        <v>3738.19</v>
       </c>
       <c r="G94" s="29" t="inlineStr">
         <is>
@@ -6677,74 +6603,74 @@
         </is>
       </c>
       <c r="H94" s="31" t="n">
-        <v>1.86</v>
+        <v>3.71</v>
       </c>
       <c r="I94" s="31" t="n">
-        <v>11.29</v>
+        <v>22.58</v>
       </c>
       <c r="J94" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K94" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L94" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M94" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N94" s="23">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O94" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P94" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R94" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S94" s="24">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T94" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U94" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V94" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W94" s="25" t="n"/>
       <c r="X94" s="25" t="n"/>
       <c r="Y94" s="24">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z94" s="25" t="n"/>
       <c r="AA94" s="25" t="n"/>
       <c r="AB94" s="25" t="n"/>
       <c r="AC94" s="22">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD94" s="26" t="n"/>
@@ -6800,64 +6726,64 @@
         <v/>
       </c>
       <c r="K95" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L95" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M95" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N95" s="23">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O95" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P95" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R95" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S95" s="24">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T95" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U95" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V95" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W95" s="25" t="n"/>
       <c r="X95" s="25" t="n"/>
       <c r="Y95" s="24">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z95" s="25" t="n"/>
       <c r="AA95" s="25" t="n"/>
       <c r="AB95" s="25" t="n"/>
       <c r="AC95" s="22">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD95" s="26" t="n"/>
@@ -6913,64 +6839,64 @@
         <v/>
       </c>
       <c r="K96" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L96" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M96" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N96" s="23">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O96" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P96" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R96" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S96" s="24">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T96" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U96" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V96" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W96" s="25" t="n"/>
       <c r="X96" s="25" t="n"/>
       <c r="Y96" s="24">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z96" s="25" t="n"/>
       <c r="AA96" s="25" t="n"/>
       <c r="AB96" s="25" t="n"/>
       <c r="AC96" s="22">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD96" s="26" t="n"/>
@@ -7026,64 +6952,64 @@
         <v/>
       </c>
       <c r="K97" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L97" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M97" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N97" s="23">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O97" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P97" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R97" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S97" s="24">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T97" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U97" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V97" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W97" s="25" t="n"/>
       <c r="X97" s="25" t="n"/>
       <c r="Y97" s="24">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z97" s="25" t="n"/>
       <c r="AA97" s="25" t="n"/>
       <c r="AB97" s="25" t="n"/>
       <c r="AC97" s="22">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD97" s="26" t="n"/>
@@ -7102,7 +7028,7 @@
     </row>
     <row r="98" ht="13" customHeight="1" s="63">
       <c r="A98" s="76" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B98" s="29" t="inlineStr">
         <is>
@@ -7115,13 +7041,13 @@
         </is>
       </c>
       <c r="D98" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>2069.76</v>
+        <v>1867.85</v>
       </c>
       <c r="F98" s="25" t="n">
-        <v>4139.53</v>
+        <v>1867.85</v>
       </c>
       <c r="G98" s="29" t="inlineStr">
         <is>
@@ -7129,74 +7055,74 @@
         </is>
       </c>
       <c r="H98" s="31" t="n">
-        <v>4.11</v>
+        <v>1.86</v>
       </c>
       <c r="I98" s="31" t="n">
-        <v>25.02</v>
+        <v>11.29</v>
       </c>
       <c r="J98" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K98" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L98" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M98" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N98" s="23">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O98" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P98" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R98" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S98" s="24">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T98" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U98" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V98" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W98" s="25" t="n"/>
       <c r="X98" s="25" t="n"/>
       <c r="Y98" s="24">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z98" s="25" t="n"/>
       <c r="AA98" s="25" t="n"/>
       <c r="AB98" s="25" t="n"/>
       <c r="AC98" s="22">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD98" s="26" t="n"/>
@@ -7215,7 +7141,7 @@
     </row>
     <row r="99" ht="13" customHeight="1" s="63">
       <c r="A99" s="76" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B99" s="29" t="inlineStr">
         <is>
@@ -7231,10 +7157,10 @@
         <v>2</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>2159.18</v>
+        <v>2069.76</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>4318.37</v>
+        <v>4139.53</v>
       </c>
       <c r="G99" s="29" t="inlineStr">
         <is>
@@ -7242,74 +7168,74 @@
         </is>
       </c>
       <c r="H99" s="31" t="n">
-        <v>4.28</v>
+        <v>4.11</v>
       </c>
       <c r="I99" s="31" t="n">
-        <v>26.09</v>
+        <v>25.02</v>
       </c>
       <c r="J99" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L99" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M99" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N99" s="23">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O99" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P99" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R99" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S99" s="24">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T99" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U99" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V99" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W99" s="25" t="n"/>
       <c r="X99" s="25" t="n"/>
       <c r="Y99" s="24">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z99" s="25" t="n"/>
       <c r="AA99" s="25" t="n"/>
       <c r="AB99" s="25" t="n"/>
       <c r="AC99" s="22">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD99" s="26" t="n"/>
@@ -7328,7 +7254,7 @@
     </row>
     <row r="100" ht="13" customHeight="1" s="63">
       <c r="A100" s="76" t="n">
-        <v>45621</v>
+        <v>45694</v>
       </c>
       <c r="B100" s="29" t="inlineStr">
         <is>
@@ -7341,13 +7267,13 @@
         </is>
       </c>
       <c r="D100" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>2566.68</v>
+        <v>2159.18</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>2566.68</v>
+        <v>4318.37</v>
       </c>
       <c r="G100" s="29" t="inlineStr">
         <is>
@@ -7355,74 +7281,74 @@
         </is>
       </c>
       <c r="H100" s="31" t="n">
-        <v>2.59</v>
+        <v>4.28</v>
       </c>
       <c r="I100" s="31" t="n">
-        <v>15.54</v>
+        <v>26.09</v>
       </c>
       <c r="J100" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L100" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M100" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N100" s="23">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O100" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P100" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R100" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S100" s="24">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T100" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U100" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V100" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W100" s="25" t="n"/>
       <c r="X100" s="25" t="n"/>
       <c r="Y100" s="24">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z100" s="25" t="n"/>
       <c r="AA100" s="25" t="n"/>
       <c r="AB100" s="25" t="n"/>
       <c r="AC100" s="22">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD100" s="26" t="n"/>
@@ -7441,7 +7367,7 @@
     </row>
     <row r="101" ht="13" customHeight="1" s="63">
       <c r="A101" s="76" t="n">
-        <v>45483</v>
+        <v>45621</v>
       </c>
       <c r="B101" s="29" t="inlineStr">
         <is>
@@ -7450,17 +7376,17 @@
       </c>
       <c r="C101" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D101" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>2257.84</v>
+        <v>2566.68</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>9031.379999999999</v>
+        <v>2566.68</v>
       </c>
       <c r="G101" s="29" t="inlineStr">
         <is>
@@ -7468,74 +7394,74 @@
         </is>
       </c>
       <c r="H101" s="31" t="n">
-        <v>9.19</v>
+        <v>2.59</v>
       </c>
       <c r="I101" s="31" t="n">
-        <v>54.03</v>
+        <v>15.54</v>
       </c>
       <c r="J101" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L101" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M101" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N101" s="23">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O101" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P101" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R101" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S101" s="24">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T101" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U101" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V101" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W101" s="25" t="n"/>
       <c r="X101" s="25" t="n"/>
       <c r="Y101" s="24">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z101" s="25" t="n"/>
       <c r="AA101" s="25" t="n"/>
       <c r="AB101" s="25" t="n"/>
       <c r="AC101" s="22">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD101" s="26" t="n"/>
@@ -7554,7 +7480,7 @@
     </row>
     <row r="102" ht="13" customHeight="1" s="63">
       <c r="A102" s="76" t="n">
-        <v>45278</v>
+        <v>45483</v>
       </c>
       <c r="B102" s="29" t="inlineStr">
         <is>
@@ -7563,17 +7489,17 @@
       </c>
       <c r="C102" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D102" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E102" s="20" t="n">
-        <v>1358.29667</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D102" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E102" s="31" t="n">
+        <v>2257.84</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>4103.74</v>
+        <v>9031.379999999999</v>
       </c>
       <c r="G102" s="29" t="inlineStr">
         <is>
@@ -7581,82 +7507,77 @@
         </is>
       </c>
       <c r="H102" s="31" t="n">
-        <v>4.06</v>
+        <v>9.19</v>
       </c>
       <c r="I102" s="31" t="n">
-        <v>24.78</v>
+        <v>54.03</v>
       </c>
       <c r="J102" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K102" s="25" t="n"/>
-      <c r="L102" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="M102" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
-        <v/>
-      </c>
-      <c r="N102" s="35">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
-        <v/>
-      </c>
-      <c r="O102" s="34" t="n"/>
-      <c r="P102" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="Q102" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
-        <v/>
-      </c>
-      <c r="R102" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="S102" s="34" t="n"/>
-      <c r="T102" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
-        <v/>
-      </c>
-      <c r="U102" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
-        <v/>
-      </c>
-      <c r="V102" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="W102" s="31" t="n">
-        <v>2257.84</v>
-      </c>
-      <c r="X102" s="76" t="n">
-        <v>45483</v>
-      </c>
+      <c r="K102" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="L102" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="M102" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <v/>
+      </c>
+      <c r="N102" s="23">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <v/>
+      </c>
+      <c r="O102" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="P102" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="Q102" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <v/>
+      </c>
+      <c r="R102" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="S102" s="24">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="T102" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="U102" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <v/>
+      </c>
+      <c r="V102" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="W102" s="25" t="n"/>
+      <c r="X102" s="25" t="n"/>
       <c r="Y102" s="24">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
-        <v/>
-      </c>
-      <c r="Z102" s="36" t="n">
-        <v>-3750.9412</v>
-      </c>
-      <c r="AA102" s="36" t="n">
-        <v>3804.2</v>
-      </c>
-      <c r="AB102" s="37" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="Z102" s="25" t="n"/>
+      <c r="AA102" s="25" t="n"/>
+      <c r="AB102" s="25" t="n"/>
       <c r="AC102" s="22">
-        <f>IF(B56="DIV", F56,"")</f>
-        <v/>
-      </c>
-      <c r="AD102" s="38" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(B55="DIV", F55,"")</f>
+        <v/>
+      </c>
+      <c r="AD102" s="26" t="n"/>
       <c r="AE102" s="1" t="n"/>
       <c r="AF102" s="1" t="n"/>
       <c r="AG102" s="1" t="n"/>
@@ -7672,7 +7593,7 @@
     </row>
     <row r="103" ht="13" customHeight="1" s="63">
       <c r="A103" s="76" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B103" s="29" t="inlineStr">
         <is>
@@ -7685,13 +7606,13 @@
         </is>
       </c>
       <c r="D103" s="33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" s="20" t="n">
-        <v>1435</v>
+        <v>1358.29667</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>1445.2</v>
+        <v>4103.74</v>
       </c>
       <c r="G103" s="29" t="inlineStr">
         <is>
@@ -7699,10 +7620,10 @@
         </is>
       </c>
       <c r="H103" s="31" t="n">
-        <v>1.44</v>
+        <v>4.06</v>
       </c>
       <c r="I103" s="31" t="n">
-        <v>8.76</v>
+        <v>24.78</v>
       </c>
       <c r="J103" s="20">
         <f>Index!$C$2</f>
@@ -7710,41 +7631,41 @@
       </c>
       <c r="K103" s="25" t="n"/>
       <c r="L103" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M103" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N103" s="35">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O103" s="34" t="n"/>
       <c r="P103" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q103" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R103" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S103" s="34" t="n"/>
       <c r="T103" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U103" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V103" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W103" s="31" t="n">
@@ -7754,20 +7675,20 @@
         <v>45483</v>
       </c>
       <c r="Y103" s="24">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z103" s="36" t="n">
-        <v>-1875.4706</v>
+        <v>-3750.9412</v>
       </c>
       <c r="AA103" s="36" t="n">
-        <v>1902.1</v>
+        <v>3804.2</v>
       </c>
       <c r="AB103" s="37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC103" s="22">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD103" s="38" t="inlineStr">
@@ -7790,7 +7711,7 @@
     </row>
     <row r="104" ht="13" customHeight="1" s="63">
       <c r="A104" s="76" t="n">
-        <v>44315</v>
+        <v>45258</v>
       </c>
       <c r="B104" s="29" t="inlineStr">
         <is>
@@ -7799,17 +7720,17 @@
       </c>
       <c r="C104" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D104" s="33" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E104" s="20" t="n">
-        <v>1132.405</v>
+        <v>1435</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>13668.46</v>
+        <v>1445.2</v>
       </c>
       <c r="G104" s="29" t="inlineStr">
         <is>
@@ -7817,10 +7738,10 @@
         </is>
       </c>
       <c r="H104" s="31" t="n">
-        <v>11.51</v>
+        <v>1.44</v>
       </c>
       <c r="I104" s="31" t="n">
-        <v>68.11</v>
+        <v>8.76</v>
       </c>
       <c r="J104" s="20">
         <f>Index!$C$2</f>
@@ -7828,54 +7749,64 @@
       </c>
       <c r="K104" s="25" t="n"/>
       <c r="L104" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M104" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N104" s="35">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O104" s="34" t="n"/>
       <c r="P104" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q104" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R104" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S104" s="34" t="n"/>
       <c r="T104" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U104" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V104" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
-        <v/>
-      </c>
-      <c r="W104" s="25" t="n"/>
-      <c r="X104" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="W104" s="31" t="n">
+        <v>2257.84</v>
+      </c>
+      <c r="X104" s="76" t="n">
+        <v>45483</v>
+      </c>
       <c r="Y104" s="24">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
-        <v/>
-      </c>
-      <c r="Z104" s="25" t="n"/>
-      <c r="AA104" s="25" t="n"/>
-      <c r="AB104" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <v/>
+      </c>
+      <c r="Z104" s="36" t="n">
+        <v>-1875.4706</v>
+      </c>
+      <c r="AA104" s="36" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="AB104" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="AC104" s="22">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD104" s="38" t="inlineStr">
@@ -7898,7 +7829,7 @@
     </row>
     <row r="105" ht="13" customHeight="1" s="63">
       <c r="A105" s="76" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B105" s="29" t="inlineStr">
         <is>
@@ -7911,13 +7842,13 @@
         </is>
       </c>
       <c r="D105" s="33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E105" s="20" t="n">
-        <v>1126.853</v>
+        <v>1132.405</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>11347.53</v>
+        <v>13668.46</v>
       </c>
       <c r="G105" s="29" t="inlineStr">
         <is>
@@ -7925,10 +7856,10 @@
         </is>
       </c>
       <c r="H105" s="31" t="n">
-        <v>11.2</v>
+        <v>11.51</v>
       </c>
       <c r="I105" s="31" t="n">
-        <v>67.77</v>
+        <v>68.11</v>
       </c>
       <c r="J105" s="20">
         <f>Index!$C$2</f>
@@ -7936,53 +7867,54 @@
       </c>
       <c r="K105" s="25" t="n"/>
       <c r="L105" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M105" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N105" s="35">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O105" s="34" t="n"/>
       <c r="P105" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q105" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R105" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S105" s="34" t="n"/>
       <c r="T105" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U105" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V105" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W105" s="25" t="n"/>
       <c r="X105" s="25" t="n"/>
-      <c r="Y105" s="24" t="e">
-        <v>#REF!</v>
+      <c r="Y105" s="24">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
+        <v/>
       </c>
       <c r="Z105" s="25" t="n"/>
       <c r="AA105" s="25" t="n"/>
       <c r="AB105" s="25" t="n"/>
       <c r="AC105" s="22">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD105" s="38" t="inlineStr">
@@ -8005,7 +7937,7 @@
     </row>
     <row r="106" ht="13" customHeight="1" s="63">
       <c r="A106" s="76" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B106" s="29" t="inlineStr">
         <is>
@@ -8021,10 +7953,10 @@
         <v>10</v>
       </c>
       <c r="E106" s="20" t="n">
-        <v>1126.567</v>
-      </c>
-      <c r="F106" s="37" t="n">
-        <v>11344.57</v>
+        <v>1126.853</v>
+      </c>
+      <c r="F106" s="25" t="n">
+        <v>11347.53</v>
       </c>
       <c r="G106" s="29" t="inlineStr">
         <is>
@@ -8032,10 +7964,10 @@
         </is>
       </c>
       <c r="H106" s="31" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="I106" s="31" t="n">
-        <v>67.76000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="J106" s="20">
         <f>Index!$C$2</f>
@@ -8112,7 +8044,7 @@
     </row>
     <row r="107" ht="13" customHeight="1" s="63">
       <c r="A107" s="76" t="n">
-        <v>44221</v>
+        <v>44313</v>
       </c>
       <c r="B107" s="29" t="inlineStr">
         <is>
@@ -8121,17 +8053,17 @@
       </c>
       <c r="C107" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D107" s="33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E107" s="20" t="n">
-        <v>1244.655</v>
+        <v>1126.567</v>
       </c>
       <c r="F107" s="37" t="n">
-        <v>2506.59</v>
+        <v>11344.57</v>
       </c>
       <c r="G107" s="29" t="inlineStr">
         <is>
@@ -8139,10 +8071,10 @@
         </is>
       </c>
       <c r="H107" s="31" t="n">
-        <v>2.13</v>
+        <v>11.17</v>
       </c>
       <c r="I107" s="31" t="n">
-        <v>15.16</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="J107" s="20">
         <f>Index!$C$2</f>
@@ -8187,25 +8119,15 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W107" s="39" t="n">
-        <v>1128.61</v>
-      </c>
-      <c r="X107" s="76" t="n">
-        <v>44315</v>
-      </c>
+      <c r="W107" s="25" t="n"/>
+      <c r="X107" s="25" t="n"/>
       <c r="Y107" s="24" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z107" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA107" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB107" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC107" s="40">
+      <c r="Z107" s="25" t="n"/>
+      <c r="AA107" s="25" t="n"/>
+      <c r="AB107" s="25" t="n"/>
+      <c r="AC107" s="22">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
@@ -8229,7 +8151,7 @@
     </row>
     <row r="108" ht="13" customHeight="1" s="63">
       <c r="A108" s="76" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="B108" s="29" t="inlineStr">
         <is>
@@ -8245,10 +8167,10 @@
         <v>2</v>
       </c>
       <c r="E108" s="20" t="n">
-        <v>1253.05</v>
-      </c>
-      <c r="F108" s="25" t="n">
-        <v>2523.32</v>
+        <v>1244.655</v>
+      </c>
+      <c r="F108" s="37" t="n">
+        <v>2506.59</v>
       </c>
       <c r="G108" s="29" t="inlineStr">
         <is>
@@ -8256,10 +8178,10 @@
         </is>
       </c>
       <c r="H108" s="31" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="I108" s="31" t="n">
-        <v>15.26</v>
+        <v>15.16</v>
       </c>
       <c r="J108" s="20">
         <f>Index!$C$2</f>
@@ -8346,7 +8268,7 @@
     </row>
     <row r="109" ht="13" customHeight="1" s="63">
       <c r="A109" s="76" t="n">
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="B109" s="29" t="inlineStr">
         <is>
@@ -8359,13 +8281,13 @@
         </is>
       </c>
       <c r="D109" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" s="20" t="n">
-        <v>1314.89667</v>
+        <v>1253.05</v>
       </c>
       <c r="F109" s="25" t="n">
-        <v>3971.32</v>
+        <v>2523.32</v>
       </c>
       <c r="G109" s="29" t="inlineStr">
         <is>
@@ -8373,10 +8295,10 @@
         </is>
       </c>
       <c r="H109" s="31" t="n">
-        <v>2.64</v>
+        <v>1.96</v>
       </c>
       <c r="I109" s="31" t="n">
-        <v>23.98</v>
+        <v>15.26</v>
       </c>
       <c r="J109" s="20">
         <f>Index!$C$2</f>
@@ -8463,7 +8385,7 @@
     </row>
     <row r="110" ht="13" customHeight="1" s="63">
       <c r="A110" s="76" t="n">
-        <v>44207</v>
+        <v>44210</v>
       </c>
       <c r="B110" s="29" t="inlineStr">
         <is>
@@ -8479,10 +8401,10 @@
         <v>3</v>
       </c>
       <c r="E110" s="20" t="n">
-        <v>1285.52</v>
+        <v>1314.89667</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>3883.19</v>
+        <v>3971.32</v>
       </c>
       <c r="G110" s="29" t="inlineStr">
         <is>
@@ -8490,10 +8412,10 @@
         </is>
       </c>
       <c r="H110" s="31" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="I110" s="31" t="n">
-        <v>23.39</v>
+        <v>23.98</v>
       </c>
       <c r="J110" s="20">
         <f>Index!$C$2</f>
@@ -8580,7 +8502,7 @@
     </row>
     <row r="111" ht="13" customHeight="1" s="63">
       <c r="A111" s="76" t="n">
-        <v>44201</v>
+        <v>44207</v>
       </c>
       <c r="B111" s="29" t="inlineStr">
         <is>
@@ -8593,13 +8515,13 @@
         </is>
       </c>
       <c r="D111" s="33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E111" s="20" t="n">
-        <v>1300.85</v>
-      </c>
-      <c r="F111" s="37" t="n">
-        <v>2619.64</v>
+        <v>1285.52</v>
+      </c>
+      <c r="F111" s="25" t="n">
+        <v>3883.19</v>
       </c>
       <c r="G111" s="29" t="inlineStr">
         <is>
@@ -8607,10 +8529,10 @@
         </is>
       </c>
       <c r="H111" s="31" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="I111" s="31" t="n">
-        <v>15.84</v>
+        <v>23.39</v>
       </c>
       <c r="J111" s="20">
         <f>Index!$C$2</f>
@@ -8697,7 +8619,7 @@
     </row>
     <row r="112" ht="13" customHeight="1" s="63">
       <c r="A112" s="76" t="n">
-        <v>44180</v>
+        <v>44201</v>
       </c>
       <c r="B112" s="29" t="inlineStr">
         <is>
@@ -8710,13 +8632,13 @@
         </is>
       </c>
       <c r="D112" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E112" s="20" t="n">
-        <v>1334.504</v>
+        <v>1300.85</v>
       </c>
       <c r="F112" s="37" t="n">
-        <v>6718.68</v>
+        <v>2619.64</v>
       </c>
       <c r="G112" s="29" t="inlineStr">
         <is>
@@ -8724,10 +8646,10 @@
         </is>
       </c>
       <c r="H112" s="31" t="n">
-        <v>6.13</v>
+        <v>2.1</v>
       </c>
       <c r="I112" s="31" t="n">
-        <v>40.05</v>
+        <v>15.84</v>
       </c>
       <c r="J112" s="20">
         <f>Index!$C$2</f>
@@ -8814,7 +8736,7 @@
     </row>
     <row r="113" ht="13" customHeight="1" s="63">
       <c r="A113" s="76" t="n">
-        <v>44172</v>
+        <v>44180</v>
       </c>
       <c r="B113" s="29" t="inlineStr">
         <is>
@@ -8827,13 +8749,13 @@
         </is>
       </c>
       <c r="D113" s="33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E113" s="20" t="n">
-        <v>1363.945</v>
+        <v>1334.504</v>
       </c>
       <c r="F113" s="37" t="n">
-        <v>2746.81</v>
+        <v>6718.68</v>
       </c>
       <c r="G113" s="29" t="inlineStr">
         <is>
@@ -8841,10 +8763,10 @@
         </is>
       </c>
       <c r="H113" s="31" t="n">
-        <v>2.53</v>
+        <v>6.13</v>
       </c>
       <c r="I113" s="31" t="n">
-        <v>16.38</v>
+        <v>40.05</v>
       </c>
       <c r="J113" s="20">
         <f>Index!$C$2</f>
@@ -8931,7 +8853,7 @@
     </row>
     <row r="114" ht="13" customHeight="1" s="63">
       <c r="A114" s="76" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B114" s="29" t="inlineStr">
         <is>
@@ -8944,13 +8866,13 @@
         </is>
       </c>
       <c r="D114" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E114" s="20" t="n">
-        <v>1279.402</v>
+        <v>1363.945</v>
       </c>
       <c r="F114" s="37" t="n">
-        <v>6441.39</v>
+        <v>2746.81</v>
       </c>
       <c r="G114" s="29" t="inlineStr">
         <is>
@@ -8958,10 +8880,10 @@
         </is>
       </c>
       <c r="H114" s="31" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="I114" s="31" t="n">
-        <v>38.44</v>
+        <v>16.38</v>
       </c>
       <c r="J114" s="20">
         <f>Index!$C$2</f>
@@ -9048,7 +8970,7 @@
     </row>
     <row r="115" ht="13" customHeight="1" s="63">
       <c r="A115" s="76" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B115" s="29" t="inlineStr">
         <is>
@@ -9061,13 +8983,13 @@
         </is>
       </c>
       <c r="D115" s="33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E115" s="20" t="n">
-        <v>1304.71333</v>
+        <v>1279.402</v>
       </c>
       <c r="F115" s="37" t="n">
-        <v>3941.23</v>
+        <v>6441.39</v>
       </c>
       <c r="G115" s="29" t="inlineStr">
         <is>
@@ -9075,10 +8997,10 @@
         </is>
       </c>
       <c r="H115" s="31" t="n">
-        <v>3.6</v>
+        <v>5.95</v>
       </c>
       <c r="I115" s="31" t="n">
-        <v>23.48</v>
+        <v>38.44</v>
       </c>
       <c r="J115" s="20">
         <f>Index!$C$2</f>
@@ -9165,7 +9087,7 @@
     </row>
     <row r="116" ht="13" customHeight="1" s="63">
       <c r="A116" s="76" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B116" s="29" t="inlineStr">
         <is>
@@ -9178,13 +9100,13 @@
         </is>
       </c>
       <c r="D116" s="33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E116" s="20" t="n">
-        <v>1308.702</v>
+        <v>1304.71333</v>
       </c>
       <c r="F116" s="37" t="n">
-        <v>6587.84</v>
+        <v>3941.23</v>
       </c>
       <c r="G116" s="29" t="inlineStr">
         <is>
@@ -9192,10 +9114,10 @@
         </is>
       </c>
       <c r="H116" s="31" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="I116" s="31" t="n">
-        <v>39.67</v>
+        <v>23.48</v>
       </c>
       <c r="J116" s="20">
         <f>Index!$C$2</f>
@@ -9282,7 +9204,7 @@
     </row>
     <row r="117" ht="13" customHeight="1" s="63">
       <c r="A117" s="76" t="n">
-        <v>41730</v>
+        <v>44166</v>
       </c>
       <c r="B117" s="29" t="inlineStr">
         <is>
@@ -9291,17 +9213,17 @@
       </c>
       <c r="C117" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D117" s="33" t="n">
         <v>5</v>
       </c>
       <c r="E117" s="20" t="n">
-        <v>97.214</v>
+        <v>1308.702</v>
       </c>
       <c r="F117" s="37" t="n">
-        <v>489.42</v>
+        <v>6587.84</v>
       </c>
       <c r="G117" s="29" t="inlineStr">
         <is>
@@ -9309,10 +9231,10 @@
         </is>
       </c>
       <c r="H117" s="31" t="n">
-        <v>0.53</v>
+        <v>4.67</v>
       </c>
       <c r="I117" s="31" t="n">
-        <v>2.8</v>
+        <v>39.67</v>
       </c>
       <c r="J117" s="20">
         <f>Index!$C$2</f>
@@ -9320,54 +9242,63 @@
       </c>
       <c r="K117" s="25" t="n"/>
       <c r="L117" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M117" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N117" s="35">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O117" s="34" t="n"/>
       <c r="P117" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q117" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R117" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S117" s="34" t="n"/>
       <c r="T117" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
         <v/>
       </c>
       <c r="U117" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V117" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W117" s="25" t="n"/>
-      <c r="X117" s="25" t="n"/>
-      <c r="Y117" s="24">
-        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
-        <v/>
-      </c>
-      <c r="Z117" s="25" t="n"/>
-      <c r="AA117" s="25" t="n"/>
-      <c r="AB117" s="25" t="n"/>
-      <c r="AC117" s="22">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W117" s="39" t="n">
+        <v>1128.61</v>
+      </c>
+      <c r="X117" s="76" t="n">
+        <v>44315</v>
+      </c>
+      <c r="Y117" s="24" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z117" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA117" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB117" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC117" s="40">
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD117" s="38" t="inlineStr">
@@ -9390,7 +9321,7 @@
     </row>
     <row r="118" ht="13" customHeight="1" s="63">
       <c r="A118" s="76" t="n">
-        <v>41611</v>
+        <v>41730</v>
       </c>
       <c r="B118" s="29" t="inlineStr">
         <is>
@@ -9399,17 +9330,17 @@
       </c>
       <c r="C118" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D118" s="33" t="n">
         <v>5</v>
       </c>
       <c r="E118" s="20" t="n">
-        <v>123</v>
+        <v>97.214</v>
       </c>
       <c r="F118" s="37" t="n">
-        <v>619.2</v>
+        <v>489.42</v>
       </c>
       <c r="G118" s="29" t="inlineStr">
         <is>
@@ -9417,10 +9348,10 @@
         </is>
       </c>
       <c r="H118" s="31" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="I118" s="31" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="J118" s="20">
         <f>Index!$C$2</f>
@@ -9428,64 +9359,54 @@
       </c>
       <c r="K118" s="25" t="n"/>
       <c r="L118" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M118" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N118" s="35">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O118" s="34" t="n"/>
       <c r="P118" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q118" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R118" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S118" s="34" t="n"/>
       <c r="T118" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
         <v/>
       </c>
       <c r="U118" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V118" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
-        <v/>
-      </c>
-      <c r="W118" s="39" t="n">
-        <v>97.214</v>
-      </c>
-      <c r="X118" s="76" t="n">
-        <v>41730</v>
-      </c>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W118" s="25" t="n"/>
+      <c r="X118" s="25" t="n"/>
       <c r="Y118" s="24">
-        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
-        <v/>
-      </c>
-      <c r="Z118" s="36" t="n">
-        <v>-1996.56126</v>
-      </c>
-      <c r="AA118" s="36" t="n">
-        <v>2024.91</v>
-      </c>
-      <c r="AB118" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC118" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
+        <v/>
+      </c>
+      <c r="Z118" s="25" t="n"/>
+      <c r="AA118" s="25" t="n"/>
+      <c r="AB118" s="25" t="n"/>
+      <c r="AC118" s="22">
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD118" s="38" t="inlineStr">
@@ -9507,36 +9428,110 @@
       <c r="AP118" s="1" t="n"/>
     </row>
     <row r="119" ht="13" customHeight="1" s="63">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="n"/>
-      <c r="C119" s="1" t="n"/>
-      <c r="D119" s="2" t="n"/>
-      <c r="E119" s="3" t="n"/>
-      <c r="F119" s="37" t="n"/>
-      <c r="G119" s="3" t="n"/>
-      <c r="H119" s="3" t="n"/>
-      <c r="I119" s="3" t="n"/>
-      <c r="J119" s="3" t="n"/>
-      <c r="K119" s="3" t="n"/>
-      <c r="L119" s="3" t="n"/>
-      <c r="M119" s="1" t="n"/>
-      <c r="N119" s="1" t="n"/>
-      <c r="O119" s="3" t="n"/>
-      <c r="P119" s="3" t="n"/>
-      <c r="Q119" s="1" t="n"/>
-      <c r="R119" s="1" t="n"/>
-      <c r="S119" s="3" t="n"/>
-      <c r="T119" s="3" t="n"/>
-      <c r="U119" s="1" t="n"/>
-      <c r="V119" s="1" t="n"/>
-      <c r="W119" s="3" t="n"/>
-      <c r="X119" s="3" t="n"/>
-      <c r="Y119" s="3" t="n"/>
-      <c r="Z119" s="3" t="n"/>
-      <c r="AA119" s="3" t="n"/>
-      <c r="AB119" s="3" t="n"/>
-      <c r="AC119" s="3" t="n"/>
-      <c r="AD119" s="1" t="n"/>
+      <c r="A119" s="76" t="n">
+        <v>41611</v>
+      </c>
+      <c r="B119" s="29" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C119" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D119" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" s="20" t="n">
+        <v>123</v>
+      </c>
+      <c r="F119" s="37" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="G119" s="29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H119" s="31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I119" s="31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J119" s="20">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K119" s="25" t="n"/>
+      <c r="L119" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="M119" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <v/>
+      </c>
+      <c r="N119" s="35">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <v/>
+      </c>
+      <c r="O119" s="34" t="n"/>
+      <c r="P119" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="Q119" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <v/>
+      </c>
+      <c r="R119" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="S119" s="34" t="n"/>
+      <c r="T119" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <v/>
+      </c>
+      <c r="U119" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <v/>
+      </c>
+      <c r="V119" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="W119" s="39" t="n">
+        <v>97.214</v>
+      </c>
+      <c r="X119" s="76" t="n">
+        <v>41730</v>
+      </c>
+      <c r="Y119" s="24">
+        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
+        <v/>
+      </c>
+      <c r="Z119" s="36" t="n">
+        <v>-1996.56126</v>
+      </c>
+      <c r="AA119" s="36" t="n">
+        <v>2024.91</v>
+      </c>
+      <c r="AB119" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="40">
+        <f>IF(B60="DIV", F60,"")</f>
+        <v/>
+      </c>
+      <c r="AD119" s="38" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
       <c r="AE119" s="1" t="n"/>
       <c r="AF119" s="1" t="n"/>
       <c r="AG119" s="1" t="n"/>
@@ -9600,7 +9595,7 @@
       <c r="C121" s="1" t="n"/>
       <c r="D121" s="2" t="n"/>
       <c r="E121" s="3" t="n"/>
-      <c r="F121" s="25" t="n"/>
+      <c r="F121" s="37" t="n"/>
       <c r="G121" s="3" t="n"/>
       <c r="H121" s="3" t="n"/>
       <c r="I121" s="3" t="n"/>
@@ -9644,7 +9639,7 @@
       <c r="C122" s="1" t="n"/>
       <c r="D122" s="2" t="n"/>
       <c r="E122" s="3" t="n"/>
-      <c r="F122" s="37" t="n"/>
+      <c r="F122" s="25" t="n"/>
       <c r="G122" s="3" t="n"/>
       <c r="H122" s="3" t="n"/>
       <c r="I122" s="3" t="n"/>
@@ -9688,7 +9683,7 @@
       <c r="C123" s="1" t="n"/>
       <c r="D123" s="2" t="n"/>
       <c r="E123" s="3" t="n"/>
-      <c r="F123" s="3" t="n"/>
+      <c r="F123" s="37" t="n"/>
       <c r="G123" s="3" t="n"/>
       <c r="H123" s="3" t="n"/>
       <c r="I123" s="3" t="n"/>
@@ -11446,7 +11441,7 @@
       <c r="A163" s="1" t="n"/>
       <c r="B163" s="1" t="n"/>
       <c r="C163" s="1" t="n"/>
-      <c r="D163" s="1" t="n"/>
+      <c r="D163" s="2" t="n"/>
       <c r="E163" s="3" t="n"/>
       <c r="F163" s="3" t="n"/>
       <c r="G163" s="3" t="n"/>
@@ -11493,9 +11488,9 @@
       <c r="D164" s="1" t="n"/>
       <c r="E164" s="3" t="n"/>
       <c r="F164" s="3" t="n"/>
-      <c r="G164" s="41" t="n"/>
+      <c r="G164" s="3" t="n"/>
       <c r="H164" s="3" t="n"/>
-      <c r="I164" s="1" t="n"/>
+      <c r="I164" s="3" t="n"/>
       <c r="J164" s="3" t="n"/>
       <c r="K164" s="3" t="n"/>
       <c r="L164" s="3" t="n"/>
@@ -53241,6 +53236,50 @@
       <c r="AN1112" s="1" t="n"/>
       <c r="AO1112" s="1" t="n"/>
       <c r="AP1112" s="1" t="n"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n"/>
+      <c r="B1113" s="1" t="n"/>
+      <c r="C1113" s="1" t="n"/>
+      <c r="D1113" s="1" t="n"/>
+      <c r="E1113" s="3" t="n"/>
+      <c r="F1113" s="3" t="n"/>
+      <c r="G1113" s="41" t="n"/>
+      <c r="H1113" s="3" t="n"/>
+      <c r="I1113" s="1" t="n"/>
+      <c r="J1113" s="3" t="n"/>
+      <c r="K1113" s="3" t="n"/>
+      <c r="L1113" s="3" t="n"/>
+      <c r="M1113" s="1" t="n"/>
+      <c r="N1113" s="1" t="n"/>
+      <c r="O1113" s="3" t="n"/>
+      <c r="P1113" s="3" t="n"/>
+      <c r="Q1113" s="1" t="n"/>
+      <c r="R1113" s="1" t="n"/>
+      <c r="S1113" s="3" t="n"/>
+      <c r="T1113" s="3" t="n"/>
+      <c r="U1113" s="1" t="n"/>
+      <c r="V1113" s="1" t="n"/>
+      <c r="W1113" s="3" t="n"/>
+      <c r="X1113" s="3" t="n"/>
+      <c r="Y1113" s="3" t="n"/>
+      <c r="Z1113" s="3" t="n"/>
+      <c r="AA1113" s="3" t="n"/>
+      <c r="AB1113" s="3" t="n"/>
+      <c r="AC1113" s="3" t="n"/>
+      <c r="AD1113" s="1" t="n"/>
+      <c r="AE1113" s="1" t="n"/>
+      <c r="AF1113" s="1" t="n"/>
+      <c r="AG1113" s="1" t="n"/>
+      <c r="AH1113" s="1" t="n"/>
+      <c r="AI1113" s="1" t="n"/>
+      <c r="AJ1113" s="1" t="n"/>
+      <c r="AK1113" s="1" t="n"/>
+      <c r="AL1113" s="1" t="n"/>
+      <c r="AM1113" s="1" t="n"/>
+      <c r="AN1113" s="1" t="n"/>
+      <c r="AO1113" s="1" t="n"/>
+      <c r="AP1113" s="1" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO1054"/>

--- a/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
+++ b/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1113"/>
+  <dimension ref="A1:AP1114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="63">
       <c r="A5" s="77" t="n">
-        <v>46063</v>
+        <v>45959</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1135,24 +1135,21 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1797</v>
+        <v>2017.45</v>
       </c>
       <c r="F5" t="n">
-        <v>7238.96</v>
+        <v>4055.08</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7.18</v>
+          <t>CN#252607497001</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>43.78</v>
+        <v>20.18</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1161,7 +1158,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="63">
       <c r="A6" s="77" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1177,21 +1174,21 @@
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>1785.625</v>
+        <v>1797</v>
       </c>
       <c r="F6" t="n">
-        <v>7193.09</v>
+        <v>7238.96</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7.14</v>
+        <v>7.18</v>
       </c>
       <c r="I6" t="n">
-        <v>43.45</v>
+        <v>43.78</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1200,7 +1197,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="63">
       <c r="A7" s="77" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1213,18 +1210,24 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>1778.78</v>
+        <v>1785.625</v>
       </c>
       <c r="F7" t="n">
-        <v>1778.78</v>
+        <v>7193.09</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.45</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1298,8 +1301,8 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="63">
-      <c r="A10" s="74" t="n">
-        <v>46057</v>
+      <c r="A10" s="77" t="n">
+        <v>46059</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1315,21 +1318,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1747.4</v>
+        <v>1778.78</v>
       </c>
       <c r="F10" t="n">
-        <v>1759.78</v>
+        <v>1778.78</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10.63</v>
+      <c r="J10">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="63">
@@ -1347,13 +1348,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1747.6</v>
+        <v>1747.4</v>
       </c>
       <c r="F11" t="n">
-        <v>3519.99</v>
+        <v>1759.78</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1361,15 +1362,15 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="I11" t="n">
-        <v>21.29</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="63">
       <c r="A12" s="74" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1382,13 +1383,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1796.4</v>
+        <v>1747.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1809.15</v>
+        <v>3519.99</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1396,10 +1397,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>10.95</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="63">
@@ -1417,13 +1418,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1796.8</v>
+        <v>1796.4</v>
       </c>
       <c r="F13" t="n">
-        <v>7238.12</v>
+        <v>1809.15</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1431,15 +1432,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
-        <v>43.72</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="63">
       <c r="A14" s="74" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1452,13 +1453,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>1890.8</v>
+        <v>1796.8</v>
       </c>
       <c r="F14" t="n">
-        <v>5712.56</v>
+        <v>7238.12</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1466,15 +1467,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5.65</v>
+        <v>7.2</v>
       </c>
       <c r="I14" t="n">
-        <v>34.51</v>
+        <v>43.72</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="63">
       <c r="A15" s="74" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1487,13 +1488,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>1829.9</v>
+        <v>1890.8</v>
       </c>
       <c r="F15" t="n">
-        <v>1842.89</v>
+        <v>5712.56</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1501,10 +1502,10 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.84</v>
+        <v>5.65</v>
       </c>
       <c r="I15" t="n">
-        <v>11.15</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="63">
@@ -1579,7 +1580,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="63">
       <c r="A18" s="74" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1592,13 +1593,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1862.4</v>
+        <v>1829.9</v>
       </c>
       <c r="F18" t="n">
-        <v>5626.82</v>
+        <v>1842.89</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1606,15 +1607,15 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5.61</v>
+        <v>1.84</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="63">
       <c r="A19" s="74" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1630,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>1880.1</v>
+        <v>1862.4</v>
       </c>
       <c r="F19" t="n">
-        <v>5680.29</v>
+        <v>5626.82</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1641,19 +1642,19 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.62</v>
+        <v>5.61</v>
       </c>
       <c r="I19" t="n">
-        <v>34.37</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="63">
       <c r="A20" s="74" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1662,13 +1663,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>1915.15</v>
+        <v>1880.1</v>
       </c>
       <c r="F20" t="n">
-        <v>3857.43</v>
+        <v>5680.29</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1676,15 +1677,15 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3.81</v>
+        <v>5.62</v>
       </c>
       <c r="I20" t="n">
-        <v>23.32</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="63">
       <c r="A21" s="74" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1700,10 +1701,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1872.65</v>
+        <v>1915.15</v>
       </c>
       <c r="F21" t="n">
-        <v>3771.85</v>
+        <v>3857.43</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1711,15 +1712,15 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="I21" t="n">
-        <v>22.79</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="63">
       <c r="A22" s="74" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1735,10 +1736,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1902.35</v>
+        <v>1872.65</v>
       </c>
       <c r="F22" t="n">
-        <v>3831.67</v>
+        <v>3771.85</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1746,19 +1747,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="I22" t="n">
-        <v>23.18</v>
+        <v>22.79</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="63">
       <c r="A23" s="74" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1767,13 +1768,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1894</v>
+        <v>1902.35</v>
       </c>
       <c r="F23" t="n">
-        <v>5722.3</v>
+        <v>3831.67</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1781,19 +1782,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5.7</v>
+        <v>3.79</v>
       </c>
       <c r="I23" t="n">
-        <v>34.6</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="63">
       <c r="A24" s="74" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1802,13 +1803,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1834.95</v>
+        <v>1894</v>
       </c>
       <c r="F24" t="n">
-        <v>3695.91</v>
+        <v>5722.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1816,10 +1817,10 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>5.7</v>
       </c>
       <c r="I24" t="n">
-        <v>22.36</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="63">
@@ -1837,13 +1838,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1835</v>
+        <v>1834.95</v>
       </c>
       <c r="F25" t="n">
-        <v>1848.04</v>
+        <v>3695.91</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1851,15 +1852,15 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.82</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>11.22</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
       <c r="A26" s="74" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1872,13 +1873,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1878.35</v>
+        <v>1835</v>
       </c>
       <c r="F26" t="n">
-        <v>5675.05</v>
+        <v>1848.04</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1886,15 +1887,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.58</v>
+        <v>1.82</v>
       </c>
       <c r="I26" t="n">
-        <v>34.42</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
       <c r="A27" s="74" t="n">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1910,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>1834.9</v>
+        <v>1878.35</v>
       </c>
       <c r="F27" t="n">
-        <v>5543.8</v>
+        <v>5675.05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1921,19 +1922,19 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.53</v>
+        <v>5.58</v>
       </c>
       <c r="I27" t="n">
-        <v>33.57</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
       <c r="A28" s="74" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1945,10 +1946,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>1834.3</v>
+        <v>1834.9</v>
       </c>
       <c r="F28" t="n">
-        <v>5541.96</v>
+        <v>5543.8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1956,7 +1957,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.49</v>
+        <v>5.53</v>
       </c>
       <c r="I28" t="n">
         <v>33.57</v>
@@ -1964,7 +1965,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
       <c r="A29" s="74" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1977,13 +1978,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1844.9</v>
+        <v>1834.3</v>
       </c>
       <c r="F29" t="n">
-        <v>3715.93</v>
+        <v>5541.96</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1991,10 +1992,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.68</v>
+        <v>5.49</v>
       </c>
       <c r="I29" t="n">
-        <v>22.45</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="63">
@@ -2012,13 +2013,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>1845.5</v>
+        <v>1844.9</v>
       </c>
       <c r="F30" t="n">
-        <v>7434.33</v>
+        <v>3715.93</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2026,15 +2027,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7.35</v>
+        <v>3.68</v>
       </c>
       <c r="I30" t="n">
-        <v>44.98</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="63">
       <c r="A31" s="74" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2047,13 +2048,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>1887.8</v>
+        <v>1845.5</v>
       </c>
       <c r="F31" t="n">
-        <v>3802.36</v>
+        <v>7434.33</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2061,19 +2062,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3.78</v>
+        <v>7.35</v>
       </c>
       <c r="I31" t="n">
-        <v>22.98</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="63">
       <c r="A32" s="74" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2085,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1941.05</v>
+        <v>1887.8</v>
       </c>
       <c r="F32" t="n">
-        <v>3909.65</v>
+        <v>3802.36</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2096,19 +2097,19 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="I32" t="n">
-        <v>23.69</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="63">
       <c r="A33" s="74" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2117,13 +2118,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>1907.1</v>
+        <v>1941.05</v>
       </c>
       <c r="F33" t="n">
-        <v>1920.65</v>
+        <v>3909.65</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2131,10 +2132,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.92</v>
+        <v>3.86</v>
       </c>
       <c r="I33" t="n">
-        <v>11.63</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="63">
@@ -2174,7 +2175,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1" s="63">
       <c r="A35" s="74" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2190,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>1848.4</v>
+        <v>1907.1</v>
       </c>
       <c r="F35" t="n">
-        <v>1861.52</v>
+        <v>1920.65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2201,10 +2202,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I35" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="63">
@@ -2244,11 +2245,11 @@
     </row>
     <row r="37" ht="15.75" customHeight="1" s="63">
       <c r="A37" s="74" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2257,13 +2258,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1879.45</v>
+        <v>1848.4</v>
       </c>
       <c r="F37" t="n">
-        <v>5678.37</v>
+        <v>1861.52</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2271,19 +2272,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5.64</v>
+        <v>1.86</v>
       </c>
       <c r="I37" t="n">
-        <v>34.38</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="63">
       <c r="A38" s="74" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2292,13 +2293,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>1874.9</v>
+        <v>1879.45</v>
       </c>
       <c r="F38" t="n">
-        <v>3776.36</v>
+        <v>5678.37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2306,15 +2307,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3.73</v>
+        <v>5.64</v>
       </c>
       <c r="I38" t="n">
-        <v>22.83</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="63">
       <c r="A39" s="74" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2327,13 +2328,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1884.9</v>
+        <v>1874.9</v>
       </c>
       <c r="F39" t="n">
-        <v>5694.76</v>
+        <v>3776.36</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2341,15 +2342,15 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5.61</v>
+        <v>3.73</v>
       </c>
       <c r="I39" t="n">
-        <v>34.45</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="63">
       <c r="A40" s="74" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2362,13 +2363,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>1932.5</v>
+        <v>1884.9</v>
       </c>
       <c r="F40" t="n">
-        <v>3892.35</v>
+        <v>5694.76</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2376,15 +2377,15 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3.85</v>
+        <v>5.61</v>
       </c>
       <c r="I40" t="n">
-        <v>23.5</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="63">
       <c r="A41" s="74" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2400,10 +2401,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1883.2</v>
+        <v>1932.5</v>
       </c>
       <c r="F41" t="n">
-        <v>3793.12</v>
+        <v>3892.35</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2411,19 +2412,19 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.77</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>22.95</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="63">
       <c r="A42" s="74" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2435,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>1913</v>
+        <v>1883.2</v>
       </c>
       <c r="F42" t="n">
-        <v>3853.18</v>
+        <v>3793.12</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2446,19 +2447,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3.86</v>
+        <v>3.77</v>
       </c>
       <c r="I42" t="n">
-        <v>23.32</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="63">
       <c r="A43" s="74" t="n">
-        <v>45961</v>
+        <v>45967</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2470,10 +2471,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1979</v>
+        <v>1913</v>
       </c>
       <c r="F43" t="n">
-        <v>3986.03</v>
+        <v>3853.18</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2481,15 +2482,15 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3.95</v>
+        <v>3.86</v>
       </c>
       <c r="I43" t="n">
-        <v>24.08</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="63">
       <c r="A44" s="74" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2502,13 +2503,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>2017.4</v>
+        <v>1979</v>
       </c>
       <c r="F44" t="n">
-        <v>2031.71</v>
+        <v>3986.03</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2516,10 +2517,10 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="I44" t="n">
-        <v>12.29</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="63">
@@ -2540,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>2017.5</v>
+        <v>2017.4</v>
       </c>
       <c r="F45" t="n">
-        <v>2031.82</v>
+        <v>2031.71</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2554,12 +2555,12 @@
         <v>2.02</v>
       </c>
       <c r="I45" t="n">
-        <v>12.3</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="63">
       <c r="A46" s="74" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2572,13 +2573,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>2035</v>
+        <v>2017.5</v>
       </c>
       <c r="F46" t="n">
-        <v>6148.35</v>
+        <v>2031.82</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2586,19 +2587,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6.13</v>
+        <v>2.02</v>
       </c>
       <c r="I46" t="n">
-        <v>37.22</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="63">
       <c r="A47" s="74" t="n">
-        <v>45954</v>
+        <v>45957</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,13 +2608,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>2073.3</v>
+        <v>2035</v>
       </c>
       <c r="F47" t="n">
-        <v>4176.03</v>
+        <v>6148.35</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2621,15 +2622,15 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4.15</v>
+        <v>6.13</v>
       </c>
       <c r="I47" t="n">
-        <v>25.28</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="63">
       <c r="A48" s="74" t="n">
-        <v>45953</v>
+        <v>45954</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2645,10 +2646,10 @@
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2049</v>
+        <v>2073.3</v>
       </c>
       <c r="F48" t="n">
-        <v>4127.07</v>
+        <v>4176.03</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2656,19 +2657,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
       <c r="I48" t="n">
-        <v>24.98</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="63">
       <c r="A49" s="74" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2677,13 +2678,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>2031.6</v>
+        <v>2049</v>
       </c>
       <c r="F49" t="n">
-        <v>6138.01</v>
+        <v>4127.07</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2691,10 +2692,10 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>6.09</v>
+        <v>4.09</v>
       </c>
       <c r="I49" t="n">
-        <v>37.12</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="63">
@@ -2712,13 +2713,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>2032</v>
+        <v>2031.6</v>
       </c>
       <c r="F50" t="n">
-        <v>2046.39</v>
+        <v>6138.01</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2726,10 +2727,10 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2.03</v>
+        <v>6.09</v>
       </c>
       <c r="I50" t="n">
-        <v>12.36</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="63">
@@ -2750,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2031.9</v>
+        <v>2032</v>
       </c>
       <c r="F51" t="n">
-        <v>2046.29</v>
+        <v>2046.39</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2769,7 +2770,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1" s="63">
       <c r="A52" s="74" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2785,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>1952.1</v>
+        <v>2031.9</v>
       </c>
       <c r="F52" t="n">
-        <v>1965.94</v>
+        <v>2046.29</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2796,10 +2797,10 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="I52" t="n">
-        <v>11.89</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="63">
@@ -2817,13 +2818,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1952</v>
+        <v>1952.1</v>
       </c>
       <c r="F53" t="n">
-        <v>7863.33</v>
+        <v>1965.94</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2831,15 +2832,15 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7.82</v>
+        <v>1.95</v>
       </c>
       <c r="I53" t="n">
-        <v>47.51</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="63">
       <c r="A54" s="74" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2855,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>1808.8</v>
+        <v>1952</v>
       </c>
       <c r="F54" t="n">
-        <v>7286.58</v>
+        <v>7863.33</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2866,10 +2867,10 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7.45</v>
+        <v>7.82</v>
       </c>
       <c r="I54" t="n">
-        <v>43.93</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="63">
@@ -2887,13 +2888,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
         <v>1808.8</v>
       </c>
       <c r="F55" t="n">
-        <v>1821.66</v>
+        <v>7286.58</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2901,19 +2902,19 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1.87</v>
+        <v>7.45</v>
       </c>
       <c r="I55" t="n">
-        <v>10.99</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="63">
       <c r="A56" s="74" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2922,13 +2923,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1880.95</v>
+        <v>1808.8</v>
       </c>
       <c r="F56" t="n">
-        <v>9471.4</v>
+        <v>1821.66</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2936,15 +2937,15 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>9.359999999999999</v>
+        <v>1.87</v>
       </c>
       <c r="I56" t="n">
-        <v>57.29</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="63">
       <c r="A57" s="74" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2957,13 +2958,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>1829.5</v>
+        <v>1880.95</v>
       </c>
       <c r="F57" t="n">
-        <v>1842.48</v>
+        <v>9471.4</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2971,10 +2972,10 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1.83</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>11.15</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="63">
@@ -2992,13 +2993,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1829</v>
+        <v>1829.5</v>
       </c>
       <c r="F58" t="n">
-        <v>7367.94</v>
+        <v>1842.48</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3006,19 +3007,19 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>7.34</v>
+        <v>1.83</v>
       </c>
       <c r="I58" t="n">
-        <v>44.6</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" s="63">
       <c r="A59" s="74" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3027,13 +3028,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>1753.7</v>
+        <v>1829</v>
       </c>
       <c r="F59" t="n">
-        <v>5298.24</v>
+        <v>7367.94</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3041,15 +3042,15 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>5.24</v>
+        <v>7.34</v>
       </c>
       <c r="I59" t="n">
-        <v>31.9</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" s="63">
       <c r="A60" s="74" t="n">
-        <v>45873</v>
+        <v>45901</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3062,13 +3063,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>1902</v>
+        <v>1753.7</v>
       </c>
       <c r="F60" t="n">
-        <v>1915.54</v>
+        <v>5298.24</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3076,10 +3077,10 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.93</v>
+        <v>5.24</v>
       </c>
       <c r="I60" t="n">
-        <v>11.61</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="61" ht="13" customHeight="1" s="63">
@@ -3097,13 +3098,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1902.1</v>
+        <v>1902</v>
       </c>
       <c r="F61" t="n">
-        <v>3831.19</v>
+        <v>1915.54</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3111,10 +3112,10 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3.84</v>
+        <v>1.93</v>
       </c>
       <c r="I61" t="n">
-        <v>23.15</v>
+        <v>11.61</v>
       </c>
     </row>
     <row r="62" ht="13" customHeight="1" s="63">
@@ -3132,13 +3133,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
         <v>1902.1</v>
       </c>
       <c r="F62" t="n">
-        <v>1915.64</v>
+        <v>3831.19</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3146,10 +3147,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.93</v>
+        <v>3.84</v>
       </c>
       <c r="I62" t="n">
-        <v>11.61</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="63" ht="13" customHeight="1" s="63">
@@ -3173,7 +3174,7 @@
         <v>1902.1</v>
       </c>
       <c r="F63" t="n">
-        <v>1915.65</v>
+        <v>1915.64</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3184,121 +3185,43 @@
         <v>1.93</v>
       </c>
       <c r="I63" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="64" ht="13" customHeight="1" s="63">
+      <c r="A64" s="74" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1915.65</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I64" t="n">
         <v>11.62</v>
       </c>
-    </row>
-    <row r="64" ht="13" customHeight="1" s="63">
-      <c r="A64" s="75" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B64" s="17" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C64" s="17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D64" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E64" s="19" t="n">
-        <v>2024.27</v>
-      </c>
-      <c r="F64" s="19" t="n">
-        <v>8097.06</v>
-      </c>
-      <c r="G64" s="17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H64" s="19" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="I64" s="19" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="J64" s="20">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K64" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L64" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M64" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N64" s="23">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O64" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P64" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q64" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R64" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S64" s="24">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T64" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U64" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V64" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W64" s="25" t="n"/>
-      <c r="X64" s="25" t="n"/>
-      <c r="Y64" s="24">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z64" s="25" t="n"/>
-      <c r="AA64" s="25" t="n"/>
-      <c r="AB64" s="25" t="n"/>
-      <c r="AC64" s="22">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD64" s="26" t="n"/>
-      <c r="AE64" s="1" t="n"/>
-      <c r="AF64" s="1" t="n"/>
-      <c r="AG64" s="1" t="n"/>
-      <c r="AH64" s="1" t="n"/>
-      <c r="AI64" s="1" t="n"/>
-      <c r="AJ64" s="1" t="n"/>
-      <c r="AK64" s="1" t="n"/>
-      <c r="AL64" s="1" t="n"/>
-      <c r="AM64" s="1" t="n"/>
-      <c r="AN64" s="1" t="n"/>
-      <c r="AO64" s="1" t="n"/>
-      <c r="AP64" s="1" t="n"/>
     </row>
     <row r="65" ht="13" customHeight="1" s="63">
       <c r="A65" s="75" t="n">
@@ -3315,13 +3238,13 @@
         </is>
       </c>
       <c r="D65" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E65" s="19" t="n">
-        <v>2024.91</v>
+        <v>2024.27</v>
       </c>
       <c r="F65" s="19" t="n">
-        <v>2024.91</v>
+        <v>8097.06</v>
       </c>
       <c r="G65" s="17" t="inlineStr">
         <is>
@@ -3329,74 +3252,74 @@
         </is>
       </c>
       <c r="H65" s="19" t="n">
-        <v>2.01</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I65" s="19" t="n">
-        <v>12.25</v>
+        <v>49.02</v>
       </c>
       <c r="J65" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K65" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L65" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M65" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N65" s="23">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O65" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P65" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R65" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S65" s="24">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T65" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U65" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V65" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W65" s="25" t="n"/>
       <c r="X65" s="25" t="n"/>
       <c r="Y65" s="24">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z65" s="25" t="n"/>
       <c r="AA65" s="25" t="n"/>
       <c r="AB65" s="25" t="n"/>
       <c r="AC65" s="22">
-        <f>IF(B18="DIV", F18,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD65" s="26" t="n"/>
@@ -3415,11 +3338,11 @@
     </row>
     <row r="66" ht="13" customHeight="1" s="63">
       <c r="A66" s="75" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B66" s="17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C66" s="17" t="inlineStr">
@@ -3428,13 +3351,13 @@
         </is>
       </c>
       <c r="D66" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E66" s="19" t="n">
-        <v>1965.93</v>
+        <v>2024.91</v>
       </c>
       <c r="F66" s="19" t="n">
-        <v>5897.78</v>
+        <v>2024.91</v>
       </c>
       <c r="G66" s="17" t="inlineStr">
         <is>
@@ -3442,74 +3365,74 @@
         </is>
       </c>
       <c r="H66" s="19" t="n">
-        <v>5.84</v>
+        <v>2.01</v>
       </c>
       <c r="I66" s="19" t="n">
-        <v>35.64</v>
+        <v>12.25</v>
       </c>
       <c r="J66" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L66" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M66" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N66" s="23">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O66" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P66" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R66" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S66" s="24">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T66" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U66" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V66" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W66" s="25" t="n"/>
       <c r="X66" s="25" t="n"/>
       <c r="Y66" s="24">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z66" s="25" t="n"/>
       <c r="AA66" s="25" t="n"/>
       <c r="AB66" s="25" t="n"/>
       <c r="AC66" s="22">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD66" s="26" t="n"/>
@@ -3541,13 +3464,13 @@
         </is>
       </c>
       <c r="D67" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67" s="19" t="n">
-        <v>1965.92</v>
+        <v>1965.93</v>
       </c>
       <c r="F67" s="19" t="n">
-        <v>3931.84</v>
+        <v>5897.78</v>
       </c>
       <c r="G67" s="17" t="inlineStr">
         <is>
@@ -3555,74 +3478,74 @@
         </is>
       </c>
       <c r="H67" s="19" t="n">
-        <v>3.89</v>
+        <v>5.84</v>
       </c>
       <c r="I67" s="19" t="n">
-        <v>23.75</v>
+        <v>35.64</v>
       </c>
       <c r="J67" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L67" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M67" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N67" s="23">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O67" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P67" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R67" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S67" s="24">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T67" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U67" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V67" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W67" s="25" t="n"/>
       <c r="X67" s="25" t="n"/>
       <c r="Y67" s="24">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z67" s="25" t="n"/>
       <c r="AA67" s="25" t="n"/>
       <c r="AB67" s="25" t="n"/>
       <c r="AC67" s="22">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD67" s="26" t="n"/>
@@ -3654,13 +3577,13 @@
         </is>
       </c>
       <c r="D68" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="19" t="n">
-        <v>1965.82</v>
+        <v>1965.92</v>
       </c>
       <c r="F68" s="19" t="n">
-        <v>1965.82</v>
+        <v>3931.84</v>
       </c>
       <c r="G68" s="17" t="inlineStr">
         <is>
@@ -3668,74 +3591,74 @@
         </is>
       </c>
       <c r="H68" s="19" t="n">
-        <v>1.94</v>
+        <v>3.89</v>
       </c>
       <c r="I68" s="19" t="n">
-        <v>11.88</v>
+        <v>23.75</v>
       </c>
       <c r="J68" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L68" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M68" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N68" s="23">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O68" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P68" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R68" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S68" s="24">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T68" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U68" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V68" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W68" s="25" t="n"/>
       <c r="X68" s="25" t="n"/>
       <c r="Y68" s="24">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z68" s="25" t="n"/>
       <c r="AA68" s="25" t="n"/>
       <c r="AB68" s="25" t="n"/>
       <c r="AC68" s="22">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD68" s="26" t="n"/>
@@ -3767,13 +3690,13 @@
         </is>
       </c>
       <c r="D69" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" s="19" t="n">
-        <v>1965.83</v>
+        <v>1965.82</v>
       </c>
       <c r="F69" s="19" t="n">
-        <v>5897.48</v>
+        <v>1965.82</v>
       </c>
       <c r="G69" s="17" t="inlineStr">
         <is>
@@ -3781,74 +3704,74 @@
         </is>
       </c>
       <c r="H69" s="19" t="n">
-        <v>5.84</v>
+        <v>1.94</v>
       </c>
       <c r="I69" s="19" t="n">
-        <v>35.64</v>
+        <v>11.88</v>
       </c>
       <c r="J69" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L69" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M69" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N69" s="23">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O69" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P69" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R69" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S69" s="24">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T69" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U69" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V69" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W69" s="25" t="n"/>
       <c r="X69" s="25" t="n"/>
       <c r="Y69" s="24">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z69" s="25" t="n"/>
       <c r="AA69" s="25" t="n"/>
       <c r="AB69" s="25" t="n"/>
       <c r="AC69" s="22">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD69" s="26" t="n"/>
@@ -3880,13 +3803,13 @@
         </is>
       </c>
       <c r="D70" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" s="19" t="n">
-        <v>1965.62</v>
+        <v>1965.83</v>
       </c>
       <c r="F70" s="19" t="n">
-        <v>1965.62</v>
+        <v>5897.48</v>
       </c>
       <c r="G70" s="17" t="inlineStr">
         <is>
@@ -3894,74 +3817,74 @@
         </is>
       </c>
       <c r="H70" s="19" t="n">
-        <v>1.94</v>
+        <v>5.84</v>
       </c>
       <c r="I70" s="19" t="n">
-        <v>11.88</v>
+        <v>35.64</v>
       </c>
       <c r="J70" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L70" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M70" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N70" s="23">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O70" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P70" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R70" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S70" s="24">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T70" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U70" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V70" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W70" s="25" t="n"/>
       <c r="X70" s="25" t="n"/>
       <c r="Y70" s="24">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z70" s="25" t="n"/>
       <c r="AA70" s="25" t="n"/>
       <c r="AB70" s="25" t="n"/>
       <c r="AC70" s="22">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD70" s="26" t="n"/>
@@ -3980,7 +3903,7 @@
     </row>
     <row r="71" ht="13" customHeight="1" s="63">
       <c r="A71" s="75" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B71" s="17" t="inlineStr">
         <is>
@@ -3993,13 +3916,13 @@
         </is>
       </c>
       <c r="D71" s="18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E71" s="19" t="n">
-        <v>1961.06</v>
+        <v>1965.62</v>
       </c>
       <c r="F71" s="19" t="n">
-        <v>7844.24</v>
+        <v>1965.62</v>
       </c>
       <c r="G71" s="17" t="inlineStr">
         <is>
@@ -4007,74 +3930,74 @@
         </is>
       </c>
       <c r="H71" s="19" t="n">
-        <v>7.86</v>
+        <v>1.94</v>
       </c>
       <c r="I71" s="19" t="n">
-        <v>47.58</v>
+        <v>11.88</v>
       </c>
       <c r="J71" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L71" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M71" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N71" s="23">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O71" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P71" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R71" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S71" s="24">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T71" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U71" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V71" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W71" s="25" t="n"/>
       <c r="X71" s="25" t="n"/>
       <c r="Y71" s="24">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z71" s="25" t="n"/>
       <c r="AA71" s="25" t="n"/>
       <c r="AB71" s="25" t="n"/>
       <c r="AC71" s="22">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD71" s="26" t="n"/>
@@ -4106,13 +4029,13 @@
         </is>
       </c>
       <c r="D72" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E72" s="19" t="n">
-        <v>1960.97</v>
+        <v>1961.06</v>
       </c>
       <c r="F72" s="19" t="n">
-        <v>1960.97</v>
+        <v>7844.24</v>
       </c>
       <c r="G72" s="17" t="inlineStr">
         <is>
@@ -4120,74 +4043,74 @@
         </is>
       </c>
       <c r="H72" s="19" t="n">
-        <v>1.97</v>
+        <v>7.86</v>
       </c>
       <c r="I72" s="19" t="n">
-        <v>11.9</v>
+        <v>47.58</v>
       </c>
       <c r="J72" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L72" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M72" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N72" s="23">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O72" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P72" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R72" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S72" s="24">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T72" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U72" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V72" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W72" s="25" t="n"/>
       <c r="X72" s="25" t="n"/>
       <c r="Y72" s="24">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z72" s="25" t="n"/>
       <c r="AA72" s="25" t="n"/>
       <c r="AB72" s="25" t="n"/>
       <c r="AC72" s="22">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD72" s="26" t="n"/>
@@ -4206,7 +4129,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="63">
       <c r="A73" s="75" t="n">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="B73" s="17" t="inlineStr">
         <is>
@@ -4219,13 +4142,13 @@
         </is>
       </c>
       <c r="D73" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" s="19" t="n">
-        <v>2090.3</v>
+        <v>1960.97</v>
       </c>
       <c r="F73" s="19" t="n">
-        <v>4180.6</v>
+        <v>1960.97</v>
       </c>
       <c r="G73" s="17" t="inlineStr">
         <is>
@@ -4233,74 +4156,74 @@
         </is>
       </c>
       <c r="H73" s="19" t="n">
-        <v>4.14</v>
+        <v>1.97</v>
       </c>
       <c r="I73" s="19" t="n">
-        <v>25.26</v>
+        <v>11.9</v>
       </c>
       <c r="J73" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L73" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M73" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N73" s="23">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O73" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P73" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R73" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S73" s="24">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T73" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U73" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V73" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W73" s="25" t="n"/>
       <c r="X73" s="25" t="n"/>
       <c r="Y73" s="24">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z73" s="25" t="n"/>
       <c r="AA73" s="25" t="n"/>
       <c r="AB73" s="25" t="n"/>
       <c r="AC73" s="22">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD73" s="26" t="n"/>
@@ -4332,13 +4255,13 @@
         </is>
       </c>
       <c r="D74" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E74" s="19" t="n">
-        <v>2090.31</v>
+        <v>2090.3</v>
       </c>
       <c r="F74" s="19" t="n">
-        <v>6270.92</v>
+        <v>4180.6</v>
       </c>
       <c r="G74" s="17" t="inlineStr">
         <is>
@@ -4346,74 +4269,74 @@
         </is>
       </c>
       <c r="H74" s="19" t="n">
-        <v>6.22</v>
+        <v>4.14</v>
       </c>
       <c r="I74" s="19" t="n">
-        <v>37.9</v>
+        <v>25.26</v>
       </c>
       <c r="J74" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L74" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M74" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N74" s="23">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O74" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P74" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R74" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S74" s="24">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T74" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U74" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V74" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W74" s="25" t="n"/>
       <c r="X74" s="25" t="n"/>
       <c r="Y74" s="24">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z74" s="25" t="n"/>
       <c r="AA74" s="25" t="n"/>
       <c r="AB74" s="25" t="n"/>
       <c r="AC74" s="22">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD74" s="26" t="n"/>
@@ -4432,7 +4355,7 @@
     </row>
     <row r="75" ht="13" customHeight="1" s="63">
       <c r="A75" s="75" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B75" s="17" t="inlineStr">
         <is>
@@ -4445,13 +4368,13 @@
         </is>
       </c>
       <c r="D75" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="19" t="n">
-        <v>2024.55</v>
+        <v>2090.31</v>
       </c>
       <c r="F75" s="19" t="n">
-        <v>4049.1</v>
+        <v>6270.92</v>
       </c>
       <c r="G75" s="17" t="inlineStr">
         <is>
@@ -4459,74 +4382,74 @@
         </is>
       </c>
       <c r="H75" s="19" t="n">
-        <v>4.05</v>
+        <v>6.22</v>
       </c>
       <c r="I75" s="19" t="n">
-        <v>24.45</v>
+        <v>37.9</v>
       </c>
       <c r="J75" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L75" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M75" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N75" s="23">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O75" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P75" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R75" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S75" s="24">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T75" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U75" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V75" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W75" s="25" t="n"/>
       <c r="X75" s="25" t="n"/>
       <c r="Y75" s="24">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z75" s="25" t="n"/>
       <c r="AA75" s="25" t="n"/>
       <c r="AB75" s="25" t="n"/>
       <c r="AC75" s="22">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD75" s="26" t="n"/>
@@ -4558,13 +4481,13 @@
         </is>
       </c>
       <c r="D76" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.55</v>
       </c>
       <c r="F76" s="19" t="n">
-        <v>2024.05</v>
+        <v>4049.1</v>
       </c>
       <c r="G76" s="17" t="inlineStr">
         <is>
@@ -4572,74 +4495,74 @@
         </is>
       </c>
       <c r="H76" s="19" t="n">
-        <v>2.02</v>
+        <v>4.05</v>
       </c>
       <c r="I76" s="19" t="n">
-        <v>12.23</v>
+        <v>24.45</v>
       </c>
       <c r="J76" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L76" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M76" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N76" s="23">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O76" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P76" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R76" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S76" s="24">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T76" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U76" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V76" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W76" s="25" t="n"/>
       <c r="X76" s="25" t="n"/>
       <c r="Y76" s="24">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z76" s="25" t="n"/>
       <c r="AA76" s="25" t="n"/>
       <c r="AB76" s="25" t="n"/>
       <c r="AC76" s="22">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD76" s="26" t="n"/>
@@ -4674,10 +4597,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="F77" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="G77" s="17" t="inlineStr">
         <is>
@@ -4695,64 +4618,64 @@
         <v/>
       </c>
       <c r="K77" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L77" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M77" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N77" s="23">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O77" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P77" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R77" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S77" s="24">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T77" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U77" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V77" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W77" s="25" t="n"/>
       <c r="X77" s="25" t="n"/>
       <c r="Y77" s="24">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z77" s="25" t="n"/>
       <c r="AA77" s="25" t="n"/>
       <c r="AB77" s="25" t="n"/>
       <c r="AC77" s="22">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD77" s="26" t="n"/>
@@ -4787,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="F78" s="19" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="G78" s="17" t="inlineStr">
         <is>
@@ -4808,64 +4731,64 @@
         <v/>
       </c>
       <c r="K78" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L78" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M78" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N78" s="23">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O78" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P78" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R78" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S78" s="24">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T78" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U78" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V78" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W78" s="25" t="n"/>
       <c r="X78" s="25" t="n"/>
       <c r="Y78" s="24">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z78" s="25" t="n"/>
       <c r="AA78" s="25" t="n"/>
       <c r="AB78" s="25" t="n"/>
       <c r="AC78" s="22">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD78" s="26" t="n"/>
@@ -4884,7 +4807,7 @@
     </row>
     <row r="79" ht="13" customHeight="1" s="63">
       <c r="A79" s="75" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B79" s="17" t="inlineStr">
         <is>
@@ -4897,13 +4820,13 @@
         </is>
       </c>
       <c r="D79" s="18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E79" s="19" t="n">
-        <v>2060.9</v>
+        <v>2024.05</v>
       </c>
       <c r="F79" s="19" t="n">
-        <v>10304.51</v>
+        <v>2024.05</v>
       </c>
       <c r="G79" s="17" t="inlineStr">
         <is>
@@ -4911,74 +4834,74 @@
         </is>
       </c>
       <c r="H79" s="19" t="n">
-        <v>10.23</v>
+        <v>2.02</v>
       </c>
       <c r="I79" s="19" t="n">
-        <v>62.28</v>
+        <v>12.23</v>
       </c>
       <c r="J79" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K79" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L79" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M79" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N79" s="23">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O79" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P79" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R79" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S79" s="24">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T79" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U79" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V79" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W79" s="25" t="n"/>
       <c r="X79" s="25" t="n"/>
       <c r="Y79" s="24">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z79" s="25" t="n"/>
       <c r="AA79" s="25" t="n"/>
       <c r="AB79" s="25" t="n"/>
       <c r="AC79" s="22">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD79" s="26" t="n"/>
@@ -4997,11 +4920,11 @@
     </row>
     <row r="80" ht="13" customHeight="1" s="63">
       <c r="A80" s="75" t="n">
-        <v>45743</v>
+        <v>45811</v>
       </c>
       <c r="B80" s="17" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C80" s="17" t="inlineStr">
@@ -5010,88 +4933,88 @@
         </is>
       </c>
       <c r="D80" s="18" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E80" s="19" t="n">
-        <v>4</v>
+        <v>2060.9</v>
       </c>
       <c r="F80" s="19" t="n">
-        <v>220</v>
+        <v>10304.51</v>
       </c>
       <c r="G80" s="17" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H80" s="19" t="n">
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="I80" s="19" t="n">
-        <v>0</v>
+        <v>62.28</v>
       </c>
       <c r="J80" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L80" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M80" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N80" s="23">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O80" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P80" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R80" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S80" s="24">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T80" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U80" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V80" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W80" s="25" t="n"/>
       <c r="X80" s="25" t="n"/>
       <c r="Y80" s="24">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z80" s="25" t="n"/>
       <c r="AA80" s="25" t="n"/>
       <c r="AB80" s="25" t="n"/>
       <c r="AC80" s="22">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD80" s="26" t="n"/>
@@ -5109,101 +5032,102 @@
       <c r="AP80" s="1" t="n"/>
     </row>
     <row r="81" ht="13" customHeight="1" s="63">
-      <c r="A81" s="76" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B81" s="29" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C81" s="29" t="inlineStr">
+      <c r="A81" s="75" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B81" s="17" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C81" s="17" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D81" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E81" s="31" t="n">
-        <v>1703.49</v>
-      </c>
-      <c r="F81" s="3">
-        <f>E34*D34 + SUM(H34:I34)</f>
-        <v/>
-      </c>
-      <c r="G81" s="29" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H81" s="31" t="n"/>
-      <c r="I81" s="31" t="n">
-        <v>23.99</v>
+      <c r="D81" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E81" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" s="19" t="n">
+        <v>220</v>
+      </c>
+      <c r="G81" s="17" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+        </is>
+      </c>
+      <c r="H81" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="J81" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L81" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M81" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N81" s="23">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O81" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P81" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R81" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S81" s="24">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T81" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U81" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V81" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W81" s="25" t="n"/>
       <c r="X81" s="25" t="n"/>
       <c r="Y81" s="24">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z81" s="25" t="n"/>
       <c r="AA81" s="25" t="n"/>
       <c r="AB81" s="25" t="n"/>
       <c r="AC81" s="22">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD81" s="26" t="n"/>
@@ -5238,10 +5162,10 @@
         <v>2</v>
       </c>
       <c r="E82" s="31" t="n">
-        <v>1703.55</v>
-      </c>
-      <c r="F82" s="32">
-        <f>E35*D35 + SUM(H35:I35)</f>
+        <v>1703.49</v>
+      </c>
+      <c r="F82" s="3">
+        <f>E34*D34 + SUM(H34:I34)</f>
         <v/>
       </c>
       <c r="G82" s="29" t="inlineStr">
@@ -5258,64 +5182,64 @@
         <v/>
       </c>
       <c r="K82" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L82" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M82" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N82" s="23">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O82" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P82" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R82" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S82" s="24">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T82" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U82" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V82" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W82" s="25" t="n"/>
       <c r="X82" s="25" t="n"/>
       <c r="Y82" s="24">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z82" s="25" t="n"/>
       <c r="AA82" s="25" t="n"/>
       <c r="AB82" s="25" t="n"/>
       <c r="AC82" s="22">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD82" s="26" t="n"/>
@@ -5347,13 +5271,13 @@
         </is>
       </c>
       <c r="D83" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="31" t="n">
-        <v>1703.48</v>
+        <v>1703.55</v>
       </c>
       <c r="F83" s="32">
-        <f>E36*D36 + SUM(H36:I36)</f>
+        <f>E35*D35 + SUM(H35:I35)</f>
         <v/>
       </c>
       <c r="G83" s="29" t="inlineStr">
@@ -5363,71 +5287,71 @@
       </c>
       <c r="H83" s="31" t="n"/>
       <c r="I83" s="31" t="n">
-        <v>11.98</v>
+        <v>23.99</v>
       </c>
       <c r="J83" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L83" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M83" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N83" s="23">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O83" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P83" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R83" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S83" s="24">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T83" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U83" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V83" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W83" s="25" t="n"/>
       <c r="X83" s="25" t="n"/>
       <c r="Y83" s="24">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z83" s="25" t="n"/>
       <c r="AA83" s="25" t="n"/>
       <c r="AB83" s="25" t="n"/>
       <c r="AC83" s="22">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD83" s="26" t="n"/>
@@ -5446,7 +5370,7 @@
     </row>
     <row r="84" ht="13" customHeight="1" s="63">
       <c r="A84" s="76" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B84" s="29" t="inlineStr">
         <is>
@@ -5459,88 +5383,87 @@
         </is>
       </c>
       <c r="D84" s="30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84" s="31" t="n">
-        <v>1799.56</v>
-      </c>
-      <c r="F84" s="15" t="n">
-        <v>8997.790000000001</v>
+        <v>1703.48</v>
+      </c>
+      <c r="F84" s="32">
+        <f>E36*D36 + SUM(H36:I36)</f>
+        <v/>
       </c>
       <c r="G84" s="29" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H84" s="31" t="n">
-        <v>8.98</v>
-      </c>
+      <c r="H84" s="31" t="n"/>
       <c r="I84" s="31" t="n">
-        <v>54.31</v>
+        <v>11.98</v>
       </c>
       <c r="J84" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L84" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M84" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N84" s="23">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O84" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P84" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R84" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S84" s="24">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T84" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U84" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V84" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W84" s="25" t="n"/>
       <c r="X84" s="25" t="n"/>
       <c r="Y84" s="24">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z84" s="25" t="n"/>
       <c r="AA84" s="25" t="n"/>
       <c r="AB84" s="25" t="n"/>
       <c r="AC84" s="22">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD84" s="26" t="n"/>
@@ -5559,7 +5482,7 @@
     </row>
     <row r="85" ht="13" customHeight="1" s="63">
       <c r="A85" s="76" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B85" s="29" t="inlineStr">
         <is>
@@ -5575,10 +5498,10 @@
         <v>5</v>
       </c>
       <c r="E85" s="31" t="n">
-        <v>1658.51</v>
-      </c>
-      <c r="F85" s="25" t="n">
-        <v>8292.540000000001</v>
+        <v>1799.56</v>
+      </c>
+      <c r="F85" s="15" t="n">
+        <v>8997.790000000001</v>
       </c>
       <c r="G85" s="29" t="inlineStr">
         <is>
@@ -5586,74 +5509,74 @@
         </is>
       </c>
       <c r="H85" s="31" t="n">
-        <v>8.220000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="I85" s="31" t="n">
-        <v>50.07</v>
+        <v>54.31</v>
       </c>
       <c r="J85" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L85" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M85" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N85" s="23">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O85" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P85" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R85" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S85" s="24">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T85" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U85" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V85" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W85" s="25" t="n"/>
       <c r="X85" s="25" t="n"/>
       <c r="Y85" s="24">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z85" s="25" t="n"/>
       <c r="AA85" s="25" t="n"/>
       <c r="AB85" s="25" t="n"/>
       <c r="AC85" s="22">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD85" s="26" t="n"/>
@@ -5672,7 +5595,7 @@
     </row>
     <row r="86" ht="13" customHeight="1" s="63">
       <c r="A86" s="76" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B86" s="29" t="inlineStr">
         <is>
@@ -5688,10 +5611,10 @@
         <v>5</v>
       </c>
       <c r="E86" s="31" t="n">
-        <v>1804.35</v>
+        <v>1658.51</v>
       </c>
       <c r="F86" s="25" t="n">
-        <v>9021.76</v>
+        <v>8292.540000000001</v>
       </c>
       <c r="G86" s="29" t="inlineStr">
         <is>
@@ -5699,74 +5622,74 @@
         </is>
       </c>
       <c r="H86" s="31" t="n">
-        <v>8.94</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I86" s="31" t="n">
-        <v>54.57</v>
+        <v>50.07</v>
       </c>
       <c r="J86" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L86" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M86" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N86" s="23">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O86" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P86" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R86" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S86" s="24">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T86" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U86" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V86" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W86" s="25" t="n"/>
       <c r="X86" s="25" t="n"/>
       <c r="Y86" s="24">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z86" s="25" t="n"/>
       <c r="AA86" s="25" t="n"/>
       <c r="AB86" s="25" t="n"/>
       <c r="AC86" s="22">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD86" s="26" t="n"/>
@@ -5804,7 +5727,7 @@
         <v>1804.35</v>
       </c>
       <c r="F87" s="25" t="n">
-        <v>9021.77</v>
+        <v>9021.76</v>
       </c>
       <c r="G87" s="29" t="inlineStr">
         <is>
@@ -5815,71 +5738,71 @@
         <v>8.94</v>
       </c>
       <c r="I87" s="31" t="n">
-        <v>54.58</v>
+        <v>54.57</v>
       </c>
       <c r="J87" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L87" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M87" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N87" s="23">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O87" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P87" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R87" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S87" s="24">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T87" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U87" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V87" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W87" s="25" t="n"/>
       <c r="X87" s="25" t="n"/>
       <c r="Y87" s="24">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z87" s="25" t="n"/>
       <c r="AA87" s="25" t="n"/>
       <c r="AB87" s="25" t="n"/>
       <c r="AC87" s="22">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD87" s="26" t="n"/>
@@ -5898,11 +5821,11 @@
     </row>
     <row r="88" ht="13" customHeight="1" s="63">
       <c r="A88" s="76" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B88" s="29" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C88" s="29" t="inlineStr">
@@ -5911,88 +5834,88 @@
         </is>
       </c>
       <c r="D88" s="30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>13</v>
+        <v>1804.35</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>390</v>
+        <v>9021.77</v>
       </c>
       <c r="G88" s="29" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H88" s="31" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="I88" s="31" t="n">
-        <v>0</v>
+        <v>54.58</v>
       </c>
       <c r="J88" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L88" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M88" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N88" s="23">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O88" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P88" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R88" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S88" s="24">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T88" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U88" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V88" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W88" s="25" t="n"/>
       <c r="X88" s="25" t="n"/>
       <c r="Y88" s="24">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z88" s="25" t="n"/>
       <c r="AA88" s="25" t="n"/>
       <c r="AB88" s="25" t="n"/>
       <c r="AC88" s="22">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD88" s="26" t="n"/>
@@ -6011,11 +5934,11 @@
     </row>
     <row r="89" ht="13" customHeight="1" s="63">
       <c r="A89" s="76" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="B89" s="29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C89" s="29" t="inlineStr">
@@ -6024,88 +5947,88 @@
         </is>
       </c>
       <c r="D89" s="30" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>1877.21</v>
+        <v>13</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>9386.049999999999</v>
+        <v>390</v>
       </c>
       <c r="G89" s="29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
         </is>
       </c>
       <c r="H89" s="31" t="n">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="I89" s="31" t="n">
-        <v>56.74</v>
+        <v>0</v>
       </c>
       <c r="J89" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L89" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M89" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N89" s="23">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O89" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P89" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R89" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S89" s="24">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T89" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U89" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V89" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W89" s="25" t="n"/>
       <c r="X89" s="25" t="n"/>
       <c r="Y89" s="24">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z89" s="25" t="n"/>
       <c r="AA89" s="25" t="n"/>
       <c r="AB89" s="25" t="n"/>
       <c r="AC89" s="22">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD89" s="26" t="n"/>
@@ -6137,13 +6060,13 @@
         </is>
       </c>
       <c r="D90" s="30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E90" s="31" t="n">
         <v>1877.21</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>18772.07</v>
+        <v>9386.049999999999</v>
       </c>
       <c r="G90" s="29" t="inlineStr">
         <is>
@@ -6151,74 +6074,74 @@
         </is>
       </c>
       <c r="H90" s="31" t="n">
-        <v>18.61</v>
+        <v>9.31</v>
       </c>
       <c r="I90" s="31" t="n">
-        <v>113.46</v>
+        <v>56.74</v>
       </c>
       <c r="J90" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L90" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M90" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N90" s="23">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O90" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P90" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R90" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S90" s="24">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T90" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U90" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V90" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W90" s="25" t="n"/>
       <c r="X90" s="25" t="n"/>
       <c r="Y90" s="24">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z90" s="25" t="n"/>
       <c r="AA90" s="25" t="n"/>
       <c r="AB90" s="25" t="n"/>
       <c r="AC90" s="22">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD90" s="26" t="n"/>
@@ -6237,7 +6160,7 @@
     </row>
     <row r="91" ht="13" customHeight="1" s="63">
       <c r="A91" s="76" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B91" s="29" t="inlineStr">
         <is>
@@ -6250,13 +6173,13 @@
         </is>
       </c>
       <c r="D91" s="30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>1867.85</v>
+        <v>1877.21</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>1867.85</v>
+        <v>18772.07</v>
       </c>
       <c r="G91" s="29" t="inlineStr">
         <is>
@@ -6264,74 +6187,74 @@
         </is>
       </c>
       <c r="H91" s="31" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="I91" s="31" t="n">
-        <v>11.29</v>
+        <v>113.46</v>
       </c>
       <c r="J91" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L91" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M91" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N91" s="23">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O91" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P91" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R91" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S91" s="24">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T91" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U91" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V91" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W91" s="25" t="n"/>
       <c r="X91" s="25" t="n"/>
       <c r="Y91" s="24">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z91" s="25" t="n"/>
       <c r="AA91" s="25" t="n"/>
       <c r="AB91" s="25" t="n"/>
       <c r="AC91" s="22">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD91" s="26" t="n"/>
@@ -6366,10 +6289,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="G92" s="29" t="inlineStr">
         <is>
@@ -6380,71 +6303,71 @@
         <v>1.86</v>
       </c>
       <c r="I92" s="31" t="n">
-        <v>11.32</v>
+        <v>11.29</v>
       </c>
       <c r="J92" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L92" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M92" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N92" s="23">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O92" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P92" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R92" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S92" s="24">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T92" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U92" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V92" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W92" s="25" t="n"/>
       <c r="X92" s="25" t="n"/>
       <c r="Y92" s="24">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z92" s="25" t="n"/>
       <c r="AA92" s="25" t="n"/>
       <c r="AB92" s="25" t="n"/>
       <c r="AC92" s="22">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD92" s="26" t="n"/>
@@ -6476,13 +6399,13 @@
         </is>
       </c>
       <c r="D93" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>1869.19</v>
+        <v>1869.08</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>3738.39</v>
+        <v>1869.08</v>
       </c>
       <c r="G93" s="29" t="inlineStr">
         <is>
@@ -6490,74 +6413,74 @@
         </is>
       </c>
       <c r="H93" s="31" t="n">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
       <c r="I93" s="31" t="n">
-        <v>22.58</v>
+        <v>11.32</v>
       </c>
       <c r="J93" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L93" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M93" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N93" s="23">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O93" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P93" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R93" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S93" s="24">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T93" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U93" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V93" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W93" s="25" t="n"/>
       <c r="X93" s="25" t="n"/>
       <c r="Y93" s="24">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z93" s="25" t="n"/>
       <c r="AA93" s="25" t="n"/>
       <c r="AB93" s="25" t="n"/>
       <c r="AC93" s="22">
-        <f>IF(B46="DIV", F46,"")</f>
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD93" s="26" t="n"/>
@@ -6592,10 +6515,10 @@
         <v>2</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>1869.1</v>
+        <v>1869.19</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>3738.19</v>
+        <v>3738.39</v>
       </c>
       <c r="G94" s="29" t="inlineStr">
         <is>
@@ -6613,64 +6536,64 @@
         <v/>
       </c>
       <c r="K94" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L94" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M94" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N94" s="23">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O94" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P94" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R94" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S94" s="24">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T94" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U94" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V94" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W94" s="25" t="n"/>
       <c r="X94" s="25" t="n"/>
       <c r="Y94" s="24">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z94" s="25" t="n"/>
       <c r="AA94" s="25" t="n"/>
       <c r="AB94" s="25" t="n"/>
       <c r="AC94" s="22">
-        <f>IF(B47="DIV", F47,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD94" s="26" t="n"/>
@@ -6702,13 +6625,13 @@
         </is>
       </c>
       <c r="D95" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>1867.85</v>
+        <v>1869.1</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>1867.85</v>
+        <v>3738.19</v>
       </c>
       <c r="G95" s="29" t="inlineStr">
         <is>
@@ -6716,74 +6639,74 @@
         </is>
       </c>
       <c r="H95" s="31" t="n">
-        <v>1.86</v>
+        <v>3.71</v>
       </c>
       <c r="I95" s="31" t="n">
-        <v>11.29</v>
+        <v>22.58</v>
       </c>
       <c r="J95" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K95" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L95" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M95" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N95" s="23">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O95" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P95" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R95" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S95" s="24">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T95" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U95" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V95" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W95" s="25" t="n"/>
       <c r="X95" s="25" t="n"/>
       <c r="Y95" s="24">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z95" s="25" t="n"/>
       <c r="AA95" s="25" t="n"/>
       <c r="AB95" s="25" t="n"/>
       <c r="AC95" s="22">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD95" s="26" t="n"/>
@@ -6839,64 +6762,64 @@
         <v/>
       </c>
       <c r="K96" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L96" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M96" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N96" s="23">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O96" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P96" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R96" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S96" s="24">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T96" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U96" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V96" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W96" s="25" t="n"/>
       <c r="X96" s="25" t="n"/>
       <c r="Y96" s="24">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z96" s="25" t="n"/>
       <c r="AA96" s="25" t="n"/>
       <c r="AB96" s="25" t="n"/>
       <c r="AC96" s="22">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD96" s="26" t="n"/>
@@ -6952,64 +6875,64 @@
         <v/>
       </c>
       <c r="K97" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L97" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M97" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N97" s="23">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O97" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P97" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R97" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S97" s="24">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T97" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U97" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V97" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W97" s="25" t="n"/>
       <c r="X97" s="25" t="n"/>
       <c r="Y97" s="24">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z97" s="25" t="n"/>
       <c r="AA97" s="25" t="n"/>
       <c r="AB97" s="25" t="n"/>
       <c r="AC97" s="22">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD97" s="26" t="n"/>
@@ -7065,64 +6988,64 @@
         <v/>
       </c>
       <c r="K98" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L98" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M98" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N98" s="23">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O98" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P98" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R98" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S98" s="24">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T98" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U98" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V98" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W98" s="25" t="n"/>
       <c r="X98" s="25" t="n"/>
       <c r="Y98" s="24">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z98" s="25" t="n"/>
       <c r="AA98" s="25" t="n"/>
       <c r="AB98" s="25" t="n"/>
       <c r="AC98" s="22">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD98" s="26" t="n"/>
@@ -7141,7 +7064,7 @@
     </row>
     <row r="99" ht="13" customHeight="1" s="63">
       <c r="A99" s="76" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B99" s="29" t="inlineStr">
         <is>
@@ -7154,13 +7077,13 @@
         </is>
       </c>
       <c r="D99" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>2069.76</v>
+        <v>1867.85</v>
       </c>
       <c r="F99" s="25" t="n">
-        <v>4139.53</v>
+        <v>1867.85</v>
       </c>
       <c r="G99" s="29" t="inlineStr">
         <is>
@@ -7168,74 +7091,74 @@
         </is>
       </c>
       <c r="H99" s="31" t="n">
-        <v>4.11</v>
+        <v>1.86</v>
       </c>
       <c r="I99" s="31" t="n">
-        <v>25.02</v>
+        <v>11.29</v>
       </c>
       <c r="J99" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K99" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L99" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M99" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N99" s="23">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O99" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P99" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R99" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S99" s="24">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T99" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U99" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V99" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W99" s="25" t="n"/>
       <c r="X99" s="25" t="n"/>
       <c r="Y99" s="24">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z99" s="25" t="n"/>
       <c r="AA99" s="25" t="n"/>
       <c r="AB99" s="25" t="n"/>
       <c r="AC99" s="22">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD99" s="26" t="n"/>
@@ -7254,7 +7177,7 @@
     </row>
     <row r="100" ht="13" customHeight="1" s="63">
       <c r="A100" s="76" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B100" s="29" t="inlineStr">
         <is>
@@ -7270,10 +7193,10 @@
         <v>2</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>2159.18</v>
+        <v>2069.76</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>4318.37</v>
+        <v>4139.53</v>
       </c>
       <c r="G100" s="29" t="inlineStr">
         <is>
@@ -7281,74 +7204,74 @@
         </is>
       </c>
       <c r="H100" s="31" t="n">
-        <v>4.28</v>
+        <v>4.11</v>
       </c>
       <c r="I100" s="31" t="n">
-        <v>26.09</v>
+        <v>25.02</v>
       </c>
       <c r="J100" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L100" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M100" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N100" s="23">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O100" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P100" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R100" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S100" s="24">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T100" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U100" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V100" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W100" s="25" t="n"/>
       <c r="X100" s="25" t="n"/>
       <c r="Y100" s="24">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z100" s="25" t="n"/>
       <c r="AA100" s="25" t="n"/>
       <c r="AB100" s="25" t="n"/>
       <c r="AC100" s="22">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD100" s="26" t="n"/>
@@ -7367,7 +7290,7 @@
     </row>
     <row r="101" ht="13" customHeight="1" s="63">
       <c r="A101" s="76" t="n">
-        <v>45621</v>
+        <v>45694</v>
       </c>
       <c r="B101" s="29" t="inlineStr">
         <is>
@@ -7380,13 +7303,13 @@
         </is>
       </c>
       <c r="D101" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>2566.68</v>
+        <v>2159.18</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>2566.68</v>
+        <v>4318.37</v>
       </c>
       <c r="G101" s="29" t="inlineStr">
         <is>
@@ -7394,74 +7317,74 @@
         </is>
       </c>
       <c r="H101" s="31" t="n">
-        <v>2.59</v>
+        <v>4.28</v>
       </c>
       <c r="I101" s="31" t="n">
-        <v>15.54</v>
+        <v>26.09</v>
       </c>
       <c r="J101" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L101" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M101" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N101" s="23">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O101" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P101" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R101" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S101" s="24">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T101" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U101" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V101" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W101" s="25" t="n"/>
       <c r="X101" s="25" t="n"/>
       <c r="Y101" s="24">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z101" s="25" t="n"/>
       <c r="AA101" s="25" t="n"/>
       <c r="AB101" s="25" t="n"/>
       <c r="AC101" s="22">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD101" s="26" t="n"/>
@@ -7480,7 +7403,7 @@
     </row>
     <row r="102" ht="13" customHeight="1" s="63">
       <c r="A102" s="76" t="n">
-        <v>45483</v>
+        <v>45621</v>
       </c>
       <c r="B102" s="29" t="inlineStr">
         <is>
@@ -7489,17 +7412,17 @@
       </c>
       <c r="C102" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D102" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>2257.84</v>
+        <v>2566.68</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>9031.379999999999</v>
+        <v>2566.68</v>
       </c>
       <c r="G102" s="29" t="inlineStr">
         <is>
@@ -7507,74 +7430,74 @@
         </is>
       </c>
       <c r="H102" s="31" t="n">
-        <v>9.19</v>
+        <v>2.59</v>
       </c>
       <c r="I102" s="31" t="n">
-        <v>54.03</v>
+        <v>15.54</v>
       </c>
       <c r="J102" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K102" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L102" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M102" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N102" s="23">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O102" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P102" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R102" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S102" s="24">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T102" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U102" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V102" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W102" s="25" t="n"/>
       <c r="X102" s="25" t="n"/>
       <c r="Y102" s="24">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z102" s="25" t="n"/>
       <c r="AA102" s="25" t="n"/>
       <c r="AB102" s="25" t="n"/>
       <c r="AC102" s="22">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD102" s="26" t="n"/>
@@ -7593,7 +7516,7 @@
     </row>
     <row r="103" ht="13" customHeight="1" s="63">
       <c r="A103" s="76" t="n">
-        <v>45278</v>
+        <v>45483</v>
       </c>
       <c r="B103" s="29" t="inlineStr">
         <is>
@@ -7602,17 +7525,17 @@
       </c>
       <c r="C103" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D103" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E103" s="20" t="n">
-        <v>1358.29667</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D103" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" s="31" t="n">
+        <v>2257.84</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>4103.74</v>
+        <v>9031.379999999999</v>
       </c>
       <c r="G103" s="29" t="inlineStr">
         <is>
@@ -7620,82 +7543,77 @@
         </is>
       </c>
       <c r="H103" s="31" t="n">
-        <v>4.06</v>
+        <v>9.19</v>
       </c>
       <c r="I103" s="31" t="n">
-        <v>24.78</v>
+        <v>54.03</v>
       </c>
       <c r="J103" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K103" s="25" t="n"/>
-      <c r="L103" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="M103" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
-        <v/>
-      </c>
-      <c r="N103" s="35">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
-        <v/>
-      </c>
-      <c r="O103" s="34" t="n"/>
-      <c r="P103" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="Q103" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
-        <v/>
-      </c>
-      <c r="R103" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="S103" s="34" t="n"/>
-      <c r="T103" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
-        <v/>
-      </c>
-      <c r="U103" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
-        <v/>
-      </c>
-      <c r="V103" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="W103" s="31" t="n">
-        <v>2257.84</v>
-      </c>
-      <c r="X103" s="76" t="n">
-        <v>45483</v>
-      </c>
+      <c r="K103" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="L103" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="M103" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <v/>
+      </c>
+      <c r="N103" s="23">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <v/>
+      </c>
+      <c r="O103" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="P103" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="Q103" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <v/>
+      </c>
+      <c r="R103" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="S103" s="24">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="T103" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="U103" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <v/>
+      </c>
+      <c r="V103" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="W103" s="25" t="n"/>
+      <c r="X103" s="25" t="n"/>
       <c r="Y103" s="24">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
-        <v/>
-      </c>
-      <c r="Z103" s="36" t="n">
-        <v>-3750.9412</v>
-      </c>
-      <c r="AA103" s="36" t="n">
-        <v>3804.2</v>
-      </c>
-      <c r="AB103" s="37" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="Z103" s="25" t="n"/>
+      <c r="AA103" s="25" t="n"/>
+      <c r="AB103" s="25" t="n"/>
       <c r="AC103" s="22">
-        <f>IF(B56="DIV", F56,"")</f>
-        <v/>
-      </c>
-      <c r="AD103" s="38" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(B55="DIV", F55,"")</f>
+        <v/>
+      </c>
+      <c r="AD103" s="26" t="n"/>
       <c r="AE103" s="1" t="n"/>
       <c r="AF103" s="1" t="n"/>
       <c r="AG103" s="1" t="n"/>
@@ -7711,7 +7629,7 @@
     </row>
     <row r="104" ht="13" customHeight="1" s="63">
       <c r="A104" s="76" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B104" s="29" t="inlineStr">
         <is>
@@ -7724,13 +7642,13 @@
         </is>
       </c>
       <c r="D104" s="33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104" s="20" t="n">
-        <v>1435</v>
+        <v>1358.29667</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>1445.2</v>
+        <v>4103.74</v>
       </c>
       <c r="G104" s="29" t="inlineStr">
         <is>
@@ -7738,10 +7656,10 @@
         </is>
       </c>
       <c r="H104" s="31" t="n">
-        <v>1.44</v>
+        <v>4.06</v>
       </c>
       <c r="I104" s="31" t="n">
-        <v>8.76</v>
+        <v>24.78</v>
       </c>
       <c r="J104" s="20">
         <f>Index!$C$2</f>
@@ -7749,41 +7667,41 @@
       </c>
       <c r="K104" s="25" t="n"/>
       <c r="L104" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M104" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N104" s="35">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O104" s="34" t="n"/>
       <c r="P104" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q104" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R104" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S104" s="34" t="n"/>
       <c r="T104" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U104" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V104" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W104" s="31" t="n">
@@ -7793,20 +7711,20 @@
         <v>45483</v>
       </c>
       <c r="Y104" s="24">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
         <v/>
       </c>
       <c r="Z104" s="36" t="n">
-        <v>-1875.4706</v>
+        <v>-3750.9412</v>
       </c>
       <c r="AA104" s="36" t="n">
-        <v>1902.1</v>
+        <v>3804.2</v>
       </c>
       <c r="AB104" s="37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC104" s="22">
-        <f>IF(B57="DIV", F57,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD104" s="38" t="inlineStr">
@@ -7829,7 +7747,7 @@
     </row>
     <row r="105" ht="13" customHeight="1" s="63">
       <c r="A105" s="76" t="n">
-        <v>44315</v>
+        <v>45258</v>
       </c>
       <c r="B105" s="29" t="inlineStr">
         <is>
@@ -7838,17 +7756,17 @@
       </c>
       <c r="C105" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D105" s="33" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E105" s="20" t="n">
-        <v>1132.405</v>
+        <v>1435</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>13668.46</v>
+        <v>1445.2</v>
       </c>
       <c r="G105" s="29" t="inlineStr">
         <is>
@@ -7856,10 +7774,10 @@
         </is>
       </c>
       <c r="H105" s="31" t="n">
-        <v>11.51</v>
+        <v>1.44</v>
       </c>
       <c r="I105" s="31" t="n">
-        <v>68.11</v>
+        <v>8.76</v>
       </c>
       <c r="J105" s="20">
         <f>Index!$C$2</f>
@@ -7867,54 +7785,64 @@
       </c>
       <c r="K105" s="25" t="n"/>
       <c r="L105" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M105" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N105" s="35">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O105" s="34" t="n"/>
       <c r="P105" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q105" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R105" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S105" s="34" t="n"/>
       <c r="T105" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U105" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V105" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
-        <v/>
-      </c>
-      <c r="W105" s="25" t="n"/>
-      <c r="X105" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="W105" s="31" t="n">
+        <v>2257.84</v>
+      </c>
+      <c r="X105" s="76" t="n">
+        <v>45483</v>
+      </c>
       <c r="Y105" s="24">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
-        <v/>
-      </c>
-      <c r="Z105" s="25" t="n"/>
-      <c r="AA105" s="25" t="n"/>
-      <c r="AB105" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <v/>
+      </c>
+      <c r="Z105" s="36" t="n">
+        <v>-1875.4706</v>
+      </c>
+      <c r="AA105" s="36" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="AB105" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="AC105" s="22">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD105" s="38" t="inlineStr">
@@ -7937,7 +7865,7 @@
     </row>
     <row r="106" ht="13" customHeight="1" s="63">
       <c r="A106" s="76" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B106" s="29" t="inlineStr">
         <is>
@@ -7950,13 +7878,13 @@
         </is>
       </c>
       <c r="D106" s="33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E106" s="20" t="n">
-        <v>1126.853</v>
+        <v>1132.405</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>11347.53</v>
+        <v>13668.46</v>
       </c>
       <c r="G106" s="29" t="inlineStr">
         <is>
@@ -7964,10 +7892,10 @@
         </is>
       </c>
       <c r="H106" s="31" t="n">
-        <v>11.2</v>
+        <v>11.51</v>
       </c>
       <c r="I106" s="31" t="n">
-        <v>67.77</v>
+        <v>68.11</v>
       </c>
       <c r="J106" s="20">
         <f>Index!$C$2</f>
@@ -7975,53 +7903,54 @@
       </c>
       <c r="K106" s="25" t="n"/>
       <c r="L106" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M106" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N106" s="35">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O106" s="34" t="n"/>
       <c r="P106" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q106" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R106" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S106" s="34" t="n"/>
       <c r="T106" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U106" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V106" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W106" s="25" t="n"/>
       <c r="X106" s="25" t="n"/>
-      <c r="Y106" s="24" t="e">
-        <v>#REF!</v>
+      <c r="Y106" s="24">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
+        <v/>
       </c>
       <c r="Z106" s="25" t="n"/>
       <c r="AA106" s="25" t="n"/>
       <c r="AB106" s="25" t="n"/>
       <c r="AC106" s="22">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD106" s="38" t="inlineStr">
@@ -8044,7 +7973,7 @@
     </row>
     <row r="107" ht="13" customHeight="1" s="63">
       <c r="A107" s="76" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B107" s="29" t="inlineStr">
         <is>
@@ -8060,10 +7989,10 @@
         <v>10</v>
       </c>
       <c r="E107" s="20" t="n">
-        <v>1126.567</v>
-      </c>
-      <c r="F107" s="37" t="n">
-        <v>11344.57</v>
+        <v>1126.853</v>
+      </c>
+      <c r="F107" s="25" t="n">
+        <v>11347.53</v>
       </c>
       <c r="G107" s="29" t="inlineStr">
         <is>
@@ -8071,10 +8000,10 @@
         </is>
       </c>
       <c r="H107" s="31" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="I107" s="31" t="n">
-        <v>67.76000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="J107" s="20">
         <f>Index!$C$2</f>
@@ -8151,7 +8080,7 @@
     </row>
     <row r="108" ht="13" customHeight="1" s="63">
       <c r="A108" s="76" t="n">
-        <v>44221</v>
+        <v>44313</v>
       </c>
       <c r="B108" s="29" t="inlineStr">
         <is>
@@ -8160,17 +8089,17 @@
       </c>
       <c r="C108" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D108" s="33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E108" s="20" t="n">
-        <v>1244.655</v>
+        <v>1126.567</v>
       </c>
       <c r="F108" s="37" t="n">
-        <v>2506.59</v>
+        <v>11344.57</v>
       </c>
       <c r="G108" s="29" t="inlineStr">
         <is>
@@ -8178,10 +8107,10 @@
         </is>
       </c>
       <c r="H108" s="31" t="n">
-        <v>2.13</v>
+        <v>11.17</v>
       </c>
       <c r="I108" s="31" t="n">
-        <v>15.16</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="J108" s="20">
         <f>Index!$C$2</f>
@@ -8226,25 +8155,15 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W108" s="39" t="n">
-        <v>1128.61</v>
-      </c>
-      <c r="X108" s="76" t="n">
-        <v>44315</v>
-      </c>
+      <c r="W108" s="25" t="n"/>
+      <c r="X108" s="25" t="n"/>
       <c r="Y108" s="24" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z108" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA108" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB108" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC108" s="40">
+      <c r="Z108" s="25" t="n"/>
+      <c r="AA108" s="25" t="n"/>
+      <c r="AB108" s="25" t="n"/>
+      <c r="AC108" s="22">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
@@ -8268,7 +8187,7 @@
     </row>
     <row r="109" ht="13" customHeight="1" s="63">
       <c r="A109" s="76" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="B109" s="29" t="inlineStr">
         <is>
@@ -8284,10 +8203,10 @@
         <v>2</v>
       </c>
       <c r="E109" s="20" t="n">
-        <v>1253.05</v>
-      </c>
-      <c r="F109" s="25" t="n">
-        <v>2523.32</v>
+        <v>1244.655</v>
+      </c>
+      <c r="F109" s="37" t="n">
+        <v>2506.59</v>
       </c>
       <c r="G109" s="29" t="inlineStr">
         <is>
@@ -8295,10 +8214,10 @@
         </is>
       </c>
       <c r="H109" s="31" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="I109" s="31" t="n">
-        <v>15.26</v>
+        <v>15.16</v>
       </c>
       <c r="J109" s="20">
         <f>Index!$C$2</f>
@@ -8385,7 +8304,7 @@
     </row>
     <row r="110" ht="13" customHeight="1" s="63">
       <c r="A110" s="76" t="n">
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="B110" s="29" t="inlineStr">
         <is>
@@ -8398,13 +8317,13 @@
         </is>
       </c>
       <c r="D110" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110" s="20" t="n">
-        <v>1314.89667</v>
+        <v>1253.05</v>
       </c>
       <c r="F110" s="25" t="n">
-        <v>3971.32</v>
+        <v>2523.32</v>
       </c>
       <c r="G110" s="29" t="inlineStr">
         <is>
@@ -8412,10 +8331,10 @@
         </is>
       </c>
       <c r="H110" s="31" t="n">
-        <v>2.64</v>
+        <v>1.96</v>
       </c>
       <c r="I110" s="31" t="n">
-        <v>23.98</v>
+        <v>15.26</v>
       </c>
       <c r="J110" s="20">
         <f>Index!$C$2</f>
@@ -8502,7 +8421,7 @@
     </row>
     <row r="111" ht="13" customHeight="1" s="63">
       <c r="A111" s="76" t="n">
-        <v>44207</v>
+        <v>44210</v>
       </c>
       <c r="B111" s="29" t="inlineStr">
         <is>
@@ -8518,10 +8437,10 @@
         <v>3</v>
       </c>
       <c r="E111" s="20" t="n">
-        <v>1285.52</v>
+        <v>1314.89667</v>
       </c>
       <c r="F111" s="25" t="n">
-        <v>3883.19</v>
+        <v>3971.32</v>
       </c>
       <c r="G111" s="29" t="inlineStr">
         <is>
@@ -8529,10 +8448,10 @@
         </is>
       </c>
       <c r="H111" s="31" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="I111" s="31" t="n">
-        <v>23.39</v>
+        <v>23.98</v>
       </c>
       <c r="J111" s="20">
         <f>Index!$C$2</f>
@@ -8619,7 +8538,7 @@
     </row>
     <row r="112" ht="13" customHeight="1" s="63">
       <c r="A112" s="76" t="n">
-        <v>44201</v>
+        <v>44207</v>
       </c>
       <c r="B112" s="29" t="inlineStr">
         <is>
@@ -8632,13 +8551,13 @@
         </is>
       </c>
       <c r="D112" s="33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" s="20" t="n">
-        <v>1300.85</v>
-      </c>
-      <c r="F112" s="37" t="n">
-        <v>2619.64</v>
+        <v>1285.52</v>
+      </c>
+      <c r="F112" s="25" t="n">
+        <v>3883.19</v>
       </c>
       <c r="G112" s="29" t="inlineStr">
         <is>
@@ -8646,10 +8565,10 @@
         </is>
       </c>
       <c r="H112" s="31" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="I112" s="31" t="n">
-        <v>15.84</v>
+        <v>23.39</v>
       </c>
       <c r="J112" s="20">
         <f>Index!$C$2</f>
@@ -8736,7 +8655,7 @@
     </row>
     <row r="113" ht="13" customHeight="1" s="63">
       <c r="A113" s="76" t="n">
-        <v>44180</v>
+        <v>44201</v>
       </c>
       <c r="B113" s="29" t="inlineStr">
         <is>
@@ -8749,13 +8668,13 @@
         </is>
       </c>
       <c r="D113" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E113" s="20" t="n">
-        <v>1334.504</v>
+        <v>1300.85</v>
       </c>
       <c r="F113" s="37" t="n">
-        <v>6718.68</v>
+        <v>2619.64</v>
       </c>
       <c r="G113" s="29" t="inlineStr">
         <is>
@@ -8763,10 +8682,10 @@
         </is>
       </c>
       <c r="H113" s="31" t="n">
-        <v>6.13</v>
+        <v>2.1</v>
       </c>
       <c r="I113" s="31" t="n">
-        <v>40.05</v>
+        <v>15.84</v>
       </c>
       <c r="J113" s="20">
         <f>Index!$C$2</f>
@@ -8853,7 +8772,7 @@
     </row>
     <row r="114" ht="13" customHeight="1" s="63">
       <c r="A114" s="76" t="n">
-        <v>44172</v>
+        <v>44180</v>
       </c>
       <c r="B114" s="29" t="inlineStr">
         <is>
@@ -8866,13 +8785,13 @@
         </is>
       </c>
       <c r="D114" s="33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E114" s="20" t="n">
-        <v>1363.945</v>
+        <v>1334.504</v>
       </c>
       <c r="F114" s="37" t="n">
-        <v>2746.81</v>
+        <v>6718.68</v>
       </c>
       <c r="G114" s="29" t="inlineStr">
         <is>
@@ -8880,10 +8799,10 @@
         </is>
       </c>
       <c r="H114" s="31" t="n">
-        <v>2.53</v>
+        <v>6.13</v>
       </c>
       <c r="I114" s="31" t="n">
-        <v>16.38</v>
+        <v>40.05</v>
       </c>
       <c r="J114" s="20">
         <f>Index!$C$2</f>
@@ -8970,7 +8889,7 @@
     </row>
     <row r="115" ht="13" customHeight="1" s="63">
       <c r="A115" s="76" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B115" s="29" t="inlineStr">
         <is>
@@ -8983,13 +8902,13 @@
         </is>
       </c>
       <c r="D115" s="33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E115" s="20" t="n">
-        <v>1279.402</v>
+        <v>1363.945</v>
       </c>
       <c r="F115" s="37" t="n">
-        <v>6441.39</v>
+        <v>2746.81</v>
       </c>
       <c r="G115" s="29" t="inlineStr">
         <is>
@@ -8997,10 +8916,10 @@
         </is>
       </c>
       <c r="H115" s="31" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="I115" s="31" t="n">
-        <v>38.44</v>
+        <v>16.38</v>
       </c>
       <c r="J115" s="20">
         <f>Index!$C$2</f>
@@ -9087,7 +9006,7 @@
     </row>
     <row r="116" ht="13" customHeight="1" s="63">
       <c r="A116" s="76" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B116" s="29" t="inlineStr">
         <is>
@@ -9100,13 +9019,13 @@
         </is>
       </c>
       <c r="D116" s="33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" s="20" t="n">
-        <v>1304.71333</v>
+        <v>1279.402</v>
       </c>
       <c r="F116" s="37" t="n">
-        <v>3941.23</v>
+        <v>6441.39</v>
       </c>
       <c r="G116" s="29" t="inlineStr">
         <is>
@@ -9114,10 +9033,10 @@
         </is>
       </c>
       <c r="H116" s="31" t="n">
-        <v>3.6</v>
+        <v>5.95</v>
       </c>
       <c r="I116" s="31" t="n">
-        <v>23.48</v>
+        <v>38.44</v>
       </c>
       <c r="J116" s="20">
         <f>Index!$C$2</f>
@@ -9204,7 +9123,7 @@
     </row>
     <row r="117" ht="13" customHeight="1" s="63">
       <c r="A117" s="76" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B117" s="29" t="inlineStr">
         <is>
@@ -9217,13 +9136,13 @@
         </is>
       </c>
       <c r="D117" s="33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E117" s="20" t="n">
-        <v>1308.702</v>
+        <v>1304.71333</v>
       </c>
       <c r="F117" s="37" t="n">
-        <v>6587.84</v>
+        <v>3941.23</v>
       </c>
       <c r="G117" s="29" t="inlineStr">
         <is>
@@ -9231,10 +9150,10 @@
         </is>
       </c>
       <c r="H117" s="31" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="I117" s="31" t="n">
-        <v>39.67</v>
+        <v>23.48</v>
       </c>
       <c r="J117" s="20">
         <f>Index!$C$2</f>
@@ -9321,7 +9240,7 @@
     </row>
     <row r="118" ht="13" customHeight="1" s="63">
       <c r="A118" s="76" t="n">
-        <v>41730</v>
+        <v>44166</v>
       </c>
       <c r="B118" s="29" t="inlineStr">
         <is>
@@ -9330,17 +9249,17 @@
       </c>
       <c r="C118" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D118" s="33" t="n">
         <v>5</v>
       </c>
       <c r="E118" s="20" t="n">
-        <v>97.214</v>
+        <v>1308.702</v>
       </c>
       <c r="F118" s="37" t="n">
-        <v>489.42</v>
+        <v>6587.84</v>
       </c>
       <c r="G118" s="29" t="inlineStr">
         <is>
@@ -9348,10 +9267,10 @@
         </is>
       </c>
       <c r="H118" s="31" t="n">
-        <v>0.53</v>
+        <v>4.67</v>
       </c>
       <c r="I118" s="31" t="n">
-        <v>2.8</v>
+        <v>39.67</v>
       </c>
       <c r="J118" s="20">
         <f>Index!$C$2</f>
@@ -9359,54 +9278,63 @@
       </c>
       <c r="K118" s="25" t="n"/>
       <c r="L118" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M118" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N118" s="35">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O118" s="34" t="n"/>
       <c r="P118" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q118" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R118" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S118" s="34" t="n"/>
       <c r="T118" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
         <v/>
       </c>
       <c r="U118" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V118" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W118" s="25" t="n"/>
-      <c r="X118" s="25" t="n"/>
-      <c r="Y118" s="24">
-        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
-        <v/>
-      </c>
-      <c r="Z118" s="25" t="n"/>
-      <c r="AA118" s="25" t="n"/>
-      <c r="AB118" s="25" t="n"/>
-      <c r="AC118" s="22">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W118" s="39" t="n">
+        <v>1128.61</v>
+      </c>
+      <c r="X118" s="76" t="n">
+        <v>44315</v>
+      </c>
+      <c r="Y118" s="24" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z118" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA118" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB118" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC118" s="40">
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD118" s="38" t="inlineStr">
@@ -9429,7 +9357,7 @@
     </row>
     <row r="119" ht="13" customHeight="1" s="63">
       <c r="A119" s="76" t="n">
-        <v>41611</v>
+        <v>41730</v>
       </c>
       <c r="B119" s="29" t="inlineStr">
         <is>
@@ -9438,17 +9366,17 @@
       </c>
       <c r="C119" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D119" s="33" t="n">
         <v>5</v>
       </c>
       <c r="E119" s="20" t="n">
-        <v>123</v>
+        <v>97.214</v>
       </c>
       <c r="F119" s="37" t="n">
-        <v>619.2</v>
+        <v>489.42</v>
       </c>
       <c r="G119" s="29" t="inlineStr">
         <is>
@@ -9456,10 +9384,10 @@
         </is>
       </c>
       <c r="H119" s="31" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="I119" s="31" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="J119" s="20">
         <f>Index!$C$2</f>
@@ -9467,64 +9395,54 @@
       </c>
       <c r="K119" s="25" t="n"/>
       <c r="L119" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M119" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N119" s="35">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O119" s="34" t="n"/>
       <c r="P119" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q119" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R119" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S119" s="34" t="n"/>
       <c r="T119" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
         <v/>
       </c>
       <c r="U119" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V119" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
-        <v/>
-      </c>
-      <c r="W119" s="39" t="n">
-        <v>97.214</v>
-      </c>
-      <c r="X119" s="76" t="n">
-        <v>41730</v>
-      </c>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W119" s="25" t="n"/>
+      <c r="X119" s="25" t="n"/>
       <c r="Y119" s="24">
-        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
-        <v/>
-      </c>
-      <c r="Z119" s="36" t="n">
-        <v>-1996.56126</v>
-      </c>
-      <c r="AA119" s="36" t="n">
-        <v>2024.91</v>
-      </c>
-      <c r="AB119" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC119" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
+        <v/>
+      </c>
+      <c r="Z119" s="25" t="n"/>
+      <c r="AA119" s="25" t="n"/>
+      <c r="AB119" s="25" t="n"/>
+      <c r="AC119" s="22">
+        <f>IF(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD119" s="38" t="inlineStr">
@@ -9546,36 +9464,110 @@
       <c r="AP119" s="1" t="n"/>
     </row>
     <row r="120" ht="13" customHeight="1" s="63">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="n"/>
-      <c r="C120" s="1" t="n"/>
-      <c r="D120" s="2" t="n"/>
-      <c r="E120" s="3" t="n"/>
-      <c r="F120" s="37" t="n"/>
-      <c r="G120" s="3" t="n"/>
-      <c r="H120" s="3" t="n"/>
-      <c r="I120" s="3" t="n"/>
-      <c r="J120" s="3" t="n"/>
-      <c r="K120" s="3" t="n"/>
-      <c r="L120" s="3" t="n"/>
-      <c r="M120" s="1" t="n"/>
-      <c r="N120" s="1" t="n"/>
-      <c r="O120" s="3" t="n"/>
-      <c r="P120" s="3" t="n"/>
-      <c r="Q120" s="1" t="n"/>
-      <c r="R120" s="1" t="n"/>
-      <c r="S120" s="3" t="n"/>
-      <c r="T120" s="3" t="n"/>
-      <c r="U120" s="1" t="n"/>
-      <c r="V120" s="1" t="n"/>
-      <c r="W120" s="3" t="n"/>
-      <c r="X120" s="3" t="n"/>
-      <c r="Y120" s="3" t="n"/>
-      <c r="Z120" s="3" t="n"/>
-      <c r="AA120" s="3" t="n"/>
-      <c r="AB120" s="3" t="n"/>
-      <c r="AC120" s="3" t="n"/>
-      <c r="AD120" s="1" t="n"/>
+      <c r="A120" s="76" t="n">
+        <v>41611</v>
+      </c>
+      <c r="B120" s="29" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C120" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D120" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" s="20" t="n">
+        <v>123</v>
+      </c>
+      <c r="F120" s="37" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="G120" s="29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H120" s="31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I120" s="31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J120" s="20">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K120" s="25" t="n"/>
+      <c r="L120" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="M120" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <v/>
+      </c>
+      <c r="N120" s="35">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <v/>
+      </c>
+      <c r="O120" s="34" t="n"/>
+      <c r="P120" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="Q120" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <v/>
+      </c>
+      <c r="R120" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="S120" s="34" t="n"/>
+      <c r="T120" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <v/>
+      </c>
+      <c r="U120" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <v/>
+      </c>
+      <c r="V120" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="W120" s="39" t="n">
+        <v>97.214</v>
+      </c>
+      <c r="X120" s="76" t="n">
+        <v>41730</v>
+      </c>
+      <c r="Y120" s="24">
+        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
+        <v/>
+      </c>
+      <c r="Z120" s="36" t="n">
+        <v>-1996.56126</v>
+      </c>
+      <c r="AA120" s="36" t="n">
+        <v>2024.91</v>
+      </c>
+      <c r="AB120" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="40">
+        <f>IF(B60="DIV", F60,"")</f>
+        <v/>
+      </c>
+      <c r="AD120" s="38" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
       <c r="AE120" s="1" t="n"/>
       <c r="AF120" s="1" t="n"/>
       <c r="AG120" s="1" t="n"/>
@@ -9639,7 +9631,7 @@
       <c r="C122" s="1" t="n"/>
       <c r="D122" s="2" t="n"/>
       <c r="E122" s="3" t="n"/>
-      <c r="F122" s="25" t="n"/>
+      <c r="F122" s="37" t="n"/>
       <c r="G122" s="3" t="n"/>
       <c r="H122" s="3" t="n"/>
       <c r="I122" s="3" t="n"/>
@@ -9683,7 +9675,7 @@
       <c r="C123" s="1" t="n"/>
       <c r="D123" s="2" t="n"/>
       <c r="E123" s="3" t="n"/>
-      <c r="F123" s="37" t="n"/>
+      <c r="F123" s="25" t="n"/>
       <c r="G123" s="3" t="n"/>
       <c r="H123" s="3" t="n"/>
       <c r="I123" s="3" t="n"/>
@@ -9727,7 +9719,7 @@
       <c r="C124" s="1" t="n"/>
       <c r="D124" s="2" t="n"/>
       <c r="E124" s="3" t="n"/>
-      <c r="F124" s="3" t="n"/>
+      <c r="F124" s="37" t="n"/>
       <c r="G124" s="3" t="n"/>
       <c r="H124" s="3" t="n"/>
       <c r="I124" s="3" t="n"/>
@@ -11485,7 +11477,7 @@
       <c r="A164" s="1" t="n"/>
       <c r="B164" s="1" t="n"/>
       <c r="C164" s="1" t="n"/>
-      <c r="D164" s="1" t="n"/>
+      <c r="D164" s="2" t="n"/>
       <c r="E164" s="3" t="n"/>
       <c r="F164" s="3" t="n"/>
       <c r="G164" s="3" t="n"/>
@@ -11532,9 +11524,9 @@
       <c r="D165" s="1" t="n"/>
       <c r="E165" s="3" t="n"/>
       <c r="F165" s="3" t="n"/>
-      <c r="G165" s="41" t="n"/>
+      <c r="G165" s="3" t="n"/>
       <c r="H165" s="3" t="n"/>
-      <c r="I165" s="1" t="n"/>
+      <c r="I165" s="3" t="n"/>
       <c r="J165" s="3" t="n"/>
       <c r="K165" s="3" t="n"/>
       <c r="L165" s="3" t="n"/>
@@ -53280,6 +53272,50 @@
       <c r="AN1113" s="1" t="n"/>
       <c r="AO1113" s="1" t="n"/>
       <c r="AP1113" s="1" t="n"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n"/>
+      <c r="B1114" s="1" t="n"/>
+      <c r="C1114" s="1" t="n"/>
+      <c r="D1114" s="1" t="n"/>
+      <c r="E1114" s="3" t="n"/>
+      <c r="F1114" s="3" t="n"/>
+      <c r="G1114" s="41" t="n"/>
+      <c r="H1114" s="3" t="n"/>
+      <c r="I1114" s="1" t="n"/>
+      <c r="J1114" s="3" t="n"/>
+      <c r="K1114" s="3" t="n"/>
+      <c r="L1114" s="3" t="n"/>
+      <c r="M1114" s="1" t="n"/>
+      <c r="N1114" s="1" t="n"/>
+      <c r="O1114" s="3" t="n"/>
+      <c r="P1114" s="3" t="n"/>
+      <c r="Q1114" s="1" t="n"/>
+      <c r="R1114" s="1" t="n"/>
+      <c r="S1114" s="3" t="n"/>
+      <c r="T1114" s="3" t="n"/>
+      <c r="U1114" s="1" t="n"/>
+      <c r="V1114" s="1" t="n"/>
+      <c r="W1114" s="3" t="n"/>
+      <c r="X1114" s="3" t="n"/>
+      <c r="Y1114" s="3" t="n"/>
+      <c r="Z1114" s="3" t="n"/>
+      <c r="AA1114" s="3" t="n"/>
+      <c r="AB1114" s="3" t="n"/>
+      <c r="AC1114" s="3" t="n"/>
+      <c r="AD1114" s="1" t="n"/>
+      <c r="AE1114" s="1" t="n"/>
+      <c r="AF1114" s="1" t="n"/>
+      <c r="AG1114" s="1" t="n"/>
+      <c r="AH1114" s="1" t="n"/>
+      <c r="AI1114" s="1" t="n"/>
+      <c r="AJ1114" s="1" t="n"/>
+      <c r="AK1114" s="1" t="n"/>
+      <c r="AL1114" s="1" t="n"/>
+      <c r="AM1114" s="1" t="n"/>
+      <c r="AN1114" s="1" t="n"/>
+      <c r="AO1114" s="1" t="n"/>
+      <c r="AP1114" s="1" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO1054"/>

--- a/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
+++ b/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
@@ -771,7 +771,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1114"/>
+  <dimension ref="A1:AP1116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" s="63">
       <c r="A5" s="77" t="n">
-        <v>45959</v>
+        <v>45979</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1138,18 +1138,18 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2017.45</v>
+        <v>1907.1</v>
       </c>
       <c r="F5" t="n">
-        <v>4055.08</v>
+        <v>3833.28</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20.18</v>
+        <v>19.08</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" s="63">
       <c r="A6" s="77" t="n">
-        <v>46063</v>
+        <v>45978</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1171,24 +1171,21 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1797</v>
+        <v>1848.4</v>
       </c>
       <c r="F6" t="n">
-        <v>7238.96</v>
+        <v>3715.28</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7.18</v>
+          <t>CN#252608260909</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v>43.78</v>
+        <v>18.48</v>
       </c>
       <c r="J6">
         <f>Index!$C$2</f>
@@ -1197,7 +1194,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" s="63">
       <c r="A7" s="77" t="n">
-        <v>46062</v>
+        <v>45959</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1210,24 +1207,21 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1785.625</v>
+        <v>2017.45</v>
       </c>
       <c r="F7" t="n">
-        <v>7193.09</v>
+        <v>4055.08</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CN#252611665409</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7.14</v>
+          <t>CN#252607497001</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>43.45</v>
+        <v>20.18</v>
       </c>
       <c r="J7">
         <f>Index!$C$2</f>
@@ -1236,7 +1230,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" s="63">
       <c r="A8" s="77" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1249,18 +1243,24 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>1778.78</v>
+        <v>1797</v>
       </c>
       <c r="F8" t="n">
-        <v>1778.78</v>
+        <v>7238.96</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611730667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="I8" t="n">
+        <v>43.78</v>
       </c>
       <c r="J8">
         <f>Index!$C$2</f>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" s="63">
       <c r="A9" s="77" t="n">
-        <v>46059</v>
+        <v>46062</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1282,18 +1282,24 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>1778.78</v>
+        <v>1785.625</v>
       </c>
       <c r="F9" t="n">
-        <v>1778.78</v>
+        <v>7193.09</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>~</t>
-        </is>
+          <t>CN#252611665409</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>43.45</v>
       </c>
       <c r="J9">
         <f>Index!$C$2</f>
@@ -1334,8 +1340,8 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="63">
-      <c r="A11" s="74" t="n">
-        <v>46057</v>
+      <c r="A11" s="77" t="n">
+        <v>46059</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1351,26 +1357,24 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1747.4</v>
+        <v>1778.78</v>
       </c>
       <c r="F11" t="n">
-        <v>1759.78</v>
+        <v>1778.78</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10.63</v>
+      <c r="J11">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="63">
-      <c r="A12" s="74" t="n">
-        <v>46057</v>
+      <c r="A12" s="77" t="n">
+        <v>46059</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1383,29 +1387,27 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1747.6</v>
+        <v>1778.78</v>
       </c>
       <c r="F12" t="n">
-        <v>3519.99</v>
+        <v>1778.78</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21.29</v>
+      <c r="J12">
+        <f>Index!$C$2</f>
+        <v/>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="63">
       <c r="A13" s="74" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1421,10 +1423,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1796.4</v>
+        <v>1747.4</v>
       </c>
       <c r="F13" t="n">
-        <v>1809.15</v>
+        <v>1759.78</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1432,15 +1434,15 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="I13" t="n">
-        <v>10.95</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" s="63">
       <c r="A14" s="74" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1453,13 +1455,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1796.8</v>
+        <v>1747.6</v>
       </c>
       <c r="F14" t="n">
-        <v>7238.12</v>
+        <v>3519.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1467,15 +1469,15 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>43.72</v>
+        <v>21.29</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" s="63">
       <c r="A15" s="74" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1488,13 +1490,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1890.8</v>
+        <v>1796.4</v>
       </c>
       <c r="F15" t="n">
-        <v>5712.56</v>
+        <v>1809.15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1502,15 +1504,15 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5.65</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>34.51</v>
+        <v>10.95</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" s="63">
       <c r="A16" s="74" t="n">
-        <v>46020</v>
+        <v>46034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1523,13 +1525,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1829.9</v>
+        <v>1796.8</v>
       </c>
       <c r="F16" t="n">
-        <v>1842.89</v>
+        <v>7238.12</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1537,15 +1539,15 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.84</v>
+        <v>7.2</v>
       </c>
       <c r="I16" t="n">
-        <v>11.15</v>
+        <v>43.72</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" s="63">
       <c r="A17" s="74" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1558,13 +1560,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>1829.9</v>
+        <v>1890.8</v>
       </c>
       <c r="F17" t="n">
-        <v>1842.89</v>
+        <v>5712.56</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1572,10 +1574,10 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.84</v>
+        <v>5.65</v>
       </c>
       <c r="I17" t="n">
-        <v>11.15</v>
+        <v>34.51</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="63">
@@ -1615,7 +1617,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" s="63">
       <c r="A19" s="74" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1628,13 +1630,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1862.4</v>
+        <v>1829.9</v>
       </c>
       <c r="F19" t="n">
-        <v>5626.82</v>
+        <v>1842.89</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1642,15 +1644,15 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.61</v>
+        <v>1.84</v>
       </c>
       <c r="I19" t="n">
-        <v>34.01</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" s="63">
       <c r="A20" s="74" t="n">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1663,13 +1665,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1880.1</v>
+        <v>1829.9</v>
       </c>
       <c r="F20" t="n">
-        <v>5680.29</v>
+        <v>1842.89</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1677,19 +1679,19 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5.62</v>
+        <v>1.84</v>
       </c>
       <c r="I20" t="n">
-        <v>34.37</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" s="63">
       <c r="A21" s="74" t="n">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1698,13 +1700,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>1915.15</v>
+        <v>1862.4</v>
       </c>
       <c r="F21" t="n">
-        <v>3857.43</v>
+        <v>5626.82</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1712,19 +1714,19 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3.81</v>
+        <v>5.61</v>
       </c>
       <c r="I21" t="n">
-        <v>23.32</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" s="63">
       <c r="A22" s="74" t="n">
-        <v>46009</v>
+        <v>46015</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1733,13 +1735,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1872.65</v>
+        <v>1880.1</v>
       </c>
       <c r="F22" t="n">
-        <v>3771.85</v>
+        <v>5680.29</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1747,15 +1749,15 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.76</v>
+        <v>5.62</v>
       </c>
       <c r="I22" t="n">
-        <v>22.79</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="63">
       <c r="A23" s="74" t="n">
-        <v>46007</v>
+        <v>46014</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1771,10 +1773,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1902.35</v>
+        <v>1915.15</v>
       </c>
       <c r="F23" t="n">
-        <v>3831.67</v>
+        <v>3857.43</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1782,19 +1784,19 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3.79</v>
+        <v>3.81</v>
       </c>
       <c r="I23" t="n">
-        <v>23.18</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" s="63">
       <c r="A24" s="74" t="n">
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1803,13 +1805,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1894</v>
+        <v>1872.65</v>
       </c>
       <c r="F24" t="n">
-        <v>5722.3</v>
+        <v>3771.85</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1817,15 +1819,15 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.7</v>
+        <v>3.76</v>
       </c>
       <c r="I24" t="n">
-        <v>34.6</v>
+        <v>22.79</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" s="63">
       <c r="A25" s="74" t="n">
-        <v>45996</v>
+        <v>46007</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1841,10 +1843,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1834.95</v>
+        <v>1902.35</v>
       </c>
       <c r="F25" t="n">
-        <v>3695.91</v>
+        <v>3831.67</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1852,19 +1854,19 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>3.79</v>
       </c>
       <c r="I25" t="n">
-        <v>22.36</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" s="63">
       <c r="A26" s="74" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1873,13 +1875,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1835</v>
+        <v>1894</v>
       </c>
       <c r="F26" t="n">
-        <v>1848.04</v>
+        <v>5722.3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1887,15 +1889,15 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.82</v>
+        <v>5.7</v>
       </c>
       <c r="I26" t="n">
-        <v>11.22</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" s="63">
       <c r="A27" s="74" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1908,13 +1910,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>1878.35</v>
+        <v>1834.95</v>
       </c>
       <c r="F27" t="n">
-        <v>5675.05</v>
+        <v>3695.91</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1922,15 +1924,15 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.58</v>
+        <v>3.65</v>
       </c>
       <c r="I27" t="n">
-        <v>34.42</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1" s="63">
       <c r="A28" s="74" t="n">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1943,13 +1945,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1834.9</v>
+        <v>1835</v>
       </c>
       <c r="F28" t="n">
-        <v>5543.8</v>
+        <v>1848.04</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1957,19 +1959,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.53</v>
+        <v>1.82</v>
       </c>
       <c r="I28" t="n">
-        <v>33.57</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" s="63">
       <c r="A29" s="74" t="n">
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1981,10 +1983,10 @@
         <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1834.3</v>
+        <v>1878.35</v>
       </c>
       <c r="F29" t="n">
-        <v>5541.96</v>
+        <v>5675.05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1992,19 +1994,19 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.49</v>
+        <v>5.58</v>
       </c>
       <c r="I29" t="n">
-        <v>33.57</v>
+        <v>34.42</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" s="63">
       <c r="A30" s="74" t="n">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2013,13 +2015,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>1844.9</v>
+        <v>1834.9</v>
       </c>
       <c r="F30" t="n">
-        <v>3715.93</v>
+        <v>5543.8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2027,15 +2029,15 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.68</v>
+        <v>5.53</v>
       </c>
       <c r="I30" t="n">
-        <v>22.45</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1" s="63">
       <c r="A31" s="74" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2048,13 +2050,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>1845.5</v>
+        <v>1834.3</v>
       </c>
       <c r="F31" t="n">
-        <v>7434.33</v>
+        <v>5541.96</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,15 +2064,15 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7.35</v>
+        <v>5.49</v>
       </c>
       <c r="I31" t="n">
-        <v>44.98</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1" s="63">
       <c r="A32" s="74" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2086,10 +2088,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>1887.8</v>
+        <v>1844.9</v>
       </c>
       <c r="F32" t="n">
-        <v>3802.36</v>
+        <v>3715.93</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2097,19 +2099,19 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3.78</v>
+        <v>3.68</v>
       </c>
       <c r="I32" t="n">
-        <v>22.98</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1" s="63">
       <c r="A33" s="74" t="n">
-        <v>45981</v>
+        <v>45988</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2118,13 +2120,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>1941.05</v>
+        <v>1845.5</v>
       </c>
       <c r="F33" t="n">
-        <v>3909.65</v>
+        <v>7434.33</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2132,15 +2134,15 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3.86</v>
+        <v>7.35</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="63">
       <c r="A34" s="74" t="n">
-        <v>45979</v>
+        <v>45982</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2153,13 +2155,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>1907.1</v>
+        <v>1887.8</v>
       </c>
       <c r="F34" t="n">
-        <v>1920.65</v>
+        <v>3802.36</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2167,19 +2169,19 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.92</v>
+        <v>3.78</v>
       </c>
       <c r="I34" t="n">
-        <v>11.63</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" s="63">
       <c r="A35" s="74" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2188,13 +2190,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>1907.1</v>
+        <v>1941.05</v>
       </c>
       <c r="F35" t="n">
-        <v>1920.65</v>
+        <v>3909.65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2202,15 +2204,15 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.92</v>
+        <v>3.86</v>
       </c>
       <c r="I35" t="n">
-        <v>11.63</v>
+        <v>23.69</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" s="63">
       <c r="A36" s="74" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2226,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1848.4</v>
+        <v>1907.1</v>
       </c>
       <c r="F36" t="n">
-        <v>1861.52</v>
+        <v>1920.65</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2237,15 +2239,15 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I36" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1" s="63">
       <c r="A37" s="74" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2261,10 +2263,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1848.4</v>
+        <v>1907.1</v>
       </c>
       <c r="F37" t="n">
-        <v>1861.52</v>
+        <v>1920.65</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2272,19 +2274,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="I37" t="n">
-        <v>11.26</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="63">
       <c r="A38" s="74" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2293,13 +2295,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1879.45</v>
+        <v>1848.4</v>
       </c>
       <c r="F38" t="n">
-        <v>5678.37</v>
+        <v>1861.52</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2307,15 +2309,15 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5.64</v>
+        <v>1.86</v>
       </c>
       <c r="I38" t="n">
-        <v>34.38</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="63">
       <c r="A39" s="74" t="n">
-        <v>45974</v>
+        <v>45978</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2328,13 +2330,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1874.9</v>
+        <v>1848.4</v>
       </c>
       <c r="F39" t="n">
-        <v>3776.36</v>
+        <v>1861.52</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2342,19 +2344,19 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="I39" t="n">
-        <v>22.83</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" s="63">
       <c r="A40" s="74" t="n">
-        <v>45972</v>
+        <v>45975</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2366,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>1884.9</v>
+        <v>1879.45</v>
       </c>
       <c r="F40" t="n">
-        <v>5694.76</v>
+        <v>5678.37</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2377,15 +2379,15 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5.61</v>
+        <v>5.64</v>
       </c>
       <c r="I40" t="n">
-        <v>34.45</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" s="63">
       <c r="A41" s="74" t="n">
-        <v>45971</v>
+        <v>45974</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2401,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>1932.5</v>
+        <v>1874.9</v>
       </c>
       <c r="F41" t="n">
-        <v>3892.35</v>
+        <v>3776.36</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2412,15 +2414,15 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>3.73</v>
       </c>
       <c r="I41" t="n">
-        <v>23.5</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1" s="63">
       <c r="A42" s="74" t="n">
-        <v>45968</v>
+        <v>45972</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2433,13 +2435,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>1883.2</v>
+        <v>1884.9</v>
       </c>
       <c r="F42" t="n">
-        <v>3793.12</v>
+        <v>5694.76</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2447,19 +2449,19 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3.77</v>
+        <v>5.61</v>
       </c>
       <c r="I42" t="n">
-        <v>22.95</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1" s="63">
       <c r="A43" s="74" t="n">
-        <v>45967</v>
+        <v>45971</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2471,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1913</v>
+        <v>1932.5</v>
       </c>
       <c r="F43" t="n">
-        <v>3853.18</v>
+        <v>3892.35</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2482,15 +2484,15 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="I43" t="n">
-        <v>23.32</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1" s="63">
       <c r="A44" s="74" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2506,10 +2508,10 @@
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>1979</v>
+        <v>1883.2</v>
       </c>
       <c r="F44" t="n">
-        <v>3986.03</v>
+        <v>3793.12</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2517,19 +2519,19 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3.95</v>
+        <v>3.77</v>
       </c>
       <c r="I44" t="n">
-        <v>24.08</v>
+        <v>22.95</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1" s="63">
       <c r="A45" s="74" t="n">
-        <v>45959</v>
+        <v>45967</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2538,13 +2540,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2017.4</v>
+        <v>1913</v>
       </c>
       <c r="F45" t="n">
-        <v>2031.71</v>
+        <v>3853.18</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2552,15 +2554,15 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2.02</v>
+        <v>3.86</v>
       </c>
       <c r="I45" t="n">
-        <v>12.29</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1" s="63">
       <c r="A46" s="74" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2573,13 +2575,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>2017.5</v>
+        <v>1979</v>
       </c>
       <c r="F46" t="n">
-        <v>2031.82</v>
+        <v>3986.03</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2587,15 +2589,15 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="I46" t="n">
-        <v>12.3</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1" s="63">
       <c r="A47" s="74" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2608,13 +2610,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>2035</v>
+        <v>2017.4</v>
       </c>
       <c r="F47" t="n">
-        <v>6148.35</v>
+        <v>2031.71</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2622,19 +2624,19 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6.13</v>
+        <v>2.02</v>
       </c>
       <c r="I47" t="n">
-        <v>37.22</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1" s="63">
       <c r="A48" s="74" t="n">
-        <v>45954</v>
+        <v>45959</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2643,13 +2645,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>2073.3</v>
+        <v>2017.5</v>
       </c>
       <c r="F48" t="n">
-        <v>4176.03</v>
+        <v>2031.82</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2657,19 +2659,19 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4.15</v>
+        <v>2.02</v>
       </c>
       <c r="I48" t="n">
-        <v>25.28</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" s="63">
       <c r="A49" s="74" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2678,13 +2680,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>2049</v>
+        <v>2035</v>
       </c>
       <c r="F49" t="n">
-        <v>4127.07</v>
+        <v>6148.35</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2692,19 +2694,19 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4.09</v>
+        <v>6.13</v>
       </c>
       <c r="I49" t="n">
-        <v>24.98</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1" s="63">
       <c r="A50" s="74" t="n">
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2713,13 +2715,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>2031.6</v>
+        <v>2073.3</v>
       </c>
       <c r="F50" t="n">
-        <v>6138.01</v>
+        <v>4176.03</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2727,19 +2729,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>6.09</v>
+        <v>4.15</v>
       </c>
       <c r="I50" t="n">
-        <v>37.12</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1" s="63">
       <c r="A51" s="74" t="n">
-        <v>45950</v>
+        <v>45953</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2748,13 +2750,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>2032</v>
+        <v>2049</v>
       </c>
       <c r="F51" t="n">
-        <v>2046.39</v>
+        <v>4127.07</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2762,10 +2764,10 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2.03</v>
+        <v>4.09</v>
       </c>
       <c r="I51" t="n">
-        <v>12.36</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="63">
@@ -2783,13 +2785,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>2031.9</v>
+        <v>2031.6</v>
       </c>
       <c r="F52" t="n">
-        <v>2046.29</v>
+        <v>6138.01</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2797,15 +2799,15 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2.03</v>
+        <v>6.09</v>
       </c>
       <c r="I52" t="n">
-        <v>12.36</v>
+        <v>37.12</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1" s="63">
       <c r="A53" s="74" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2821,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>1952.1</v>
+        <v>2032</v>
       </c>
       <c r="F53" t="n">
-        <v>1965.94</v>
+        <v>2046.39</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2832,15 +2834,15 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="I53" t="n">
-        <v>11.89</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="63">
       <c r="A54" s="74" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2853,13 +2855,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1952</v>
+        <v>2031.9</v>
       </c>
       <c r="F54" t="n">
-        <v>7863.33</v>
+        <v>2046.29</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2867,15 +2869,15 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7.82</v>
+        <v>2.03</v>
       </c>
       <c r="I54" t="n">
-        <v>47.51</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1" s="63">
       <c r="A55" s="74" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2888,13 +2890,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1808.8</v>
+        <v>1952.1</v>
       </c>
       <c r="F55" t="n">
-        <v>7286.58</v>
+        <v>1965.94</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2902,15 +2904,15 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>7.45</v>
+        <v>1.95</v>
       </c>
       <c r="I55" t="n">
-        <v>43.93</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1" s="63">
       <c r="A56" s="74" t="n">
-        <v>45933</v>
+        <v>45947</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2923,13 +2925,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>1808.8</v>
+        <v>1952</v>
       </c>
       <c r="F56" t="n">
-        <v>1821.66</v>
+        <v>7863.33</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2937,19 +2939,19 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.87</v>
+        <v>7.82</v>
       </c>
       <c r="I56" t="n">
-        <v>10.99</v>
+        <v>47.51</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1" s="63">
       <c r="A57" s="74" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2958,13 +2960,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>1880.95</v>
+        <v>1808.8</v>
       </c>
       <c r="F57" t="n">
-        <v>9471.4</v>
+        <v>7286.58</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2972,19 +2974,19 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9.359999999999999</v>
+        <v>7.45</v>
       </c>
       <c r="I57" t="n">
-        <v>57.29</v>
+        <v>43.93</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1" s="63">
       <c r="A58" s="74" t="n">
-        <v>45903</v>
+        <v>45933</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2996,10 +2998,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1829.5</v>
+        <v>1808.8</v>
       </c>
       <c r="F58" t="n">
-        <v>1842.48</v>
+        <v>1821.66</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3007,15 +3009,15 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="I58" t="n">
-        <v>11.15</v>
+        <v>10.99</v>
       </c>
     </row>
     <row r="59" ht="13" customHeight="1" s="63">
       <c r="A59" s="74" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3028,13 +3030,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>1829</v>
+        <v>1880.95</v>
       </c>
       <c r="F59" t="n">
-        <v>7367.94</v>
+        <v>9471.4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3042,19 +3044,19 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>7.34</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>44.6</v>
+        <v>57.29</v>
       </c>
     </row>
     <row r="60" ht="13" customHeight="1" s="63">
       <c r="A60" s="74" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3063,13 +3065,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1753.7</v>
+        <v>1829.5</v>
       </c>
       <c r="F60" t="n">
-        <v>5298.24</v>
+        <v>1842.48</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3077,19 +3079,19 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>5.24</v>
+        <v>1.83</v>
       </c>
       <c r="I60" t="n">
-        <v>31.9</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="61" ht="13" customHeight="1" s="63">
       <c r="A61" s="74" t="n">
-        <v>45873</v>
+        <v>45903</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3098,13 +3100,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>1902</v>
+        <v>1829</v>
       </c>
       <c r="F61" t="n">
-        <v>1915.54</v>
+        <v>7367.94</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3112,15 +3114,15 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1.93</v>
+        <v>7.34</v>
       </c>
       <c r="I61" t="n">
-        <v>11.61</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="62" ht="13" customHeight="1" s="63">
       <c r="A62" s="74" t="n">
-        <v>45873</v>
+        <v>45901</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3133,13 +3135,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>1902.1</v>
+        <v>1753.7</v>
       </c>
       <c r="F62" t="n">
-        <v>3831.19</v>
+        <v>5298.24</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3147,10 +3149,10 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3.84</v>
+        <v>5.24</v>
       </c>
       <c r="I62" t="n">
-        <v>23.15</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="63" ht="13" customHeight="1" s="63">
@@ -3171,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1902.1</v>
+        <v>1902</v>
       </c>
       <c r="F63" t="n">
-        <v>1915.64</v>
+        <v>1915.54</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3203,259 +3205,103 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
         <v>1902.1</v>
       </c>
       <c r="F64" t="n">
+        <v>3831.19</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23.15</v>
+      </c>
+    </row>
+    <row r="65" ht="13" customHeight="1" s="63">
+      <c r="A65" s="74" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1915.64</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I65" t="n">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="66" ht="13" customHeight="1" s="63">
+      <c r="A66" s="74" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="F66" t="n">
         <v>1915.65</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="H66" t="n">
         <v>1.93</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I66" t="n">
         <v>11.62</v>
       </c>
-    </row>
-    <row r="65" ht="13" customHeight="1" s="63">
-      <c r="A65" s="75" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B65" s="17" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C65" s="17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D65" s="18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E65" s="19" t="n">
-        <v>2024.27</v>
-      </c>
-      <c r="F65" s="19" t="n">
-        <v>8097.06</v>
-      </c>
-      <c r="G65" s="17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H65" s="19" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="I65" s="19" t="n">
-        <v>49.02</v>
-      </c>
-      <c r="J65" s="20">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K65" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="L65" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="M65" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
-        <v/>
-      </c>
-      <c r="N65" s="23">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
-        <v/>
-      </c>
-      <c r="O65" s="21">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="P65" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="Q65" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
-        <v/>
-      </c>
-      <c r="R65" s="22">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="S65" s="24">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="T65" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
-        <v/>
-      </c>
-      <c r="U65" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
-        <v/>
-      </c>
-      <c r="V65" s="25">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
-        <v/>
-      </c>
-      <c r="W65" s="25" t="n"/>
-      <c r="X65" s="25" t="n"/>
-      <c r="Y65" s="24">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
-        <v/>
-      </c>
-      <c r="Z65" s="25" t="n"/>
-      <c r="AA65" s="25" t="n"/>
-      <c r="AB65" s="25" t="n"/>
-      <c r="AC65" s="22">
-        <f>IF(B17="DIV", F17,"")</f>
-        <v/>
-      </c>
-      <c r="AD65" s="26" t="n"/>
-      <c r="AE65" s="1" t="n"/>
-      <c r="AF65" s="1" t="n"/>
-      <c r="AG65" s="1" t="n"/>
-      <c r="AH65" s="1" t="n"/>
-      <c r="AI65" s="1" t="n"/>
-      <c r="AJ65" s="1" t="n"/>
-      <c r="AK65" s="1" t="n"/>
-      <c r="AL65" s="1" t="n"/>
-      <c r="AM65" s="1" t="n"/>
-      <c r="AN65" s="1" t="n"/>
-      <c r="AO65" s="1" t="n"/>
-      <c r="AP65" s="1" t="n"/>
-    </row>
-    <row r="66" ht="13" customHeight="1" s="63">
-      <c r="A66" s="75" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B66" s="17" t="inlineStr">
-        <is>
-          <t>BSE</t>
-        </is>
-      </c>
-      <c r="C66" s="17" t="inlineStr">
-        <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D66" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="19" t="n">
-        <v>2024.91</v>
-      </c>
-      <c r="F66" s="19" t="n">
-        <v>2024.91</v>
-      </c>
-      <c r="G66" s="17" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H66" s="19" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="I66" s="19" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="J66" s="20">
-        <f>Index!$C$2</f>
-        <v/>
-      </c>
-      <c r="K66" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="L66" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="M66" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
-        <v/>
-      </c>
-      <c r="N66" s="23">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
-        <v/>
-      </c>
-      <c r="O66" s="21">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="P66" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="Q66" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
-        <v/>
-      </c>
-      <c r="R66" s="22">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="S66" s="24">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="T66" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v/>
-      </c>
-      <c r="U66" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
-        <v/>
-      </c>
-      <c r="V66" s="25">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
-        <v/>
-      </c>
-      <c r="W66" s="25" t="n"/>
-      <c r="X66" s="25" t="n"/>
-      <c r="Y66" s="24">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
-        <v/>
-      </c>
-      <c r="Z66" s="25" t="n"/>
-      <c r="AA66" s="25" t="n"/>
-      <c r="AB66" s="25" t="n"/>
-      <c r="AC66" s="22">
-        <f>IF(B18="DIV", F18,"")</f>
-        <v/>
-      </c>
-      <c r="AD66" s="26" t="n"/>
-      <c r="AE66" s="1" t="n"/>
-      <c r="AF66" s="1" t="n"/>
-      <c r="AG66" s="1" t="n"/>
-      <c r="AH66" s="1" t="n"/>
-      <c r="AI66" s="1" t="n"/>
-      <c r="AJ66" s="1" t="n"/>
-      <c r="AK66" s="1" t="n"/>
-      <c r="AL66" s="1" t="n"/>
-      <c r="AM66" s="1" t="n"/>
-      <c r="AN66" s="1" t="n"/>
-      <c r="AO66" s="1" t="n"/>
-      <c r="AP66" s="1" t="n"/>
     </row>
     <row r="67" ht="13" customHeight="1" s="63">
       <c r="A67" s="75" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B67" s="17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C67" s="17" t="inlineStr">
@@ -3464,13 +3310,13 @@
         </is>
       </c>
       <c r="D67" s="18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E67" s="19" t="n">
-        <v>1965.93</v>
+        <v>2024.27</v>
       </c>
       <c r="F67" s="19" t="n">
-        <v>5897.78</v>
+        <v>8097.06</v>
       </c>
       <c r="G67" s="17" t="inlineStr">
         <is>
@@ -3478,74 +3324,74 @@
         </is>
       </c>
       <c r="H67" s="19" t="n">
-        <v>5.84</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I67" s="19" t="n">
-        <v>35.64</v>
+        <v>49.02</v>
       </c>
       <c r="J67" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L67" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M67" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N67" s="23">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O67" s="21">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P67" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R67" s="22">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S67" s="24">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T67" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U67" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V67" s="25">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W67" s="25" t="n"/>
       <c r="X67" s="25" t="n"/>
       <c r="Y67" s="24">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/SUM(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z67" s="25" t="n"/>
       <c r="AA67" s="25" t="n"/>
       <c r="AB67" s="25" t="n"/>
       <c r="AC67" s="22">
-        <f>IF(B19="DIV", F19,"")</f>
+        <f>IF(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD67" s="26" t="n"/>
@@ -3564,11 +3410,11 @@
     </row>
     <row r="68" ht="13" customHeight="1" s="63">
       <c r="A68" s="75" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B68" s="17" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C68" s="17" t="inlineStr">
@@ -3577,13 +3423,13 @@
         </is>
       </c>
       <c r="D68" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="19" t="n">
-        <v>1965.92</v>
+        <v>2024.91</v>
       </c>
       <c r="F68" s="19" t="n">
-        <v>3931.84</v>
+        <v>2024.91</v>
       </c>
       <c r="G68" s="17" t="inlineStr">
         <is>
@@ -3591,74 +3437,74 @@
         </is>
       </c>
       <c r="H68" s="19" t="n">
-        <v>3.89</v>
+        <v>2.01</v>
       </c>
       <c r="I68" s="19" t="n">
-        <v>23.75</v>
+        <v>12.25</v>
       </c>
       <c r="J68" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L68" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M68" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N68" s="23">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O68" s="21">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P68" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R68" s="22">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S68" s="24">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T68" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U68" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V68" s="25">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W68" s="25" t="n"/>
       <c r="X68" s="25" t="n"/>
       <c r="Y68" s="24">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/SUM(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z68" s="25" t="n"/>
       <c r="AA68" s="25" t="n"/>
       <c r="AB68" s="25" t="n"/>
       <c r="AC68" s="22">
-        <f>IF(B20="DIV", F20,"")</f>
+        <f>IF(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD68" s="26" t="n"/>
@@ -3690,13 +3536,13 @@
         </is>
       </c>
       <c r="D69" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="19" t="n">
-        <v>1965.82</v>
+        <v>1965.93</v>
       </c>
       <c r="F69" s="19" t="n">
-        <v>1965.82</v>
+        <v>5897.78</v>
       </c>
       <c r="G69" s="17" t="inlineStr">
         <is>
@@ -3704,74 +3550,74 @@
         </is>
       </c>
       <c r="H69" s="19" t="n">
-        <v>1.94</v>
+        <v>5.84</v>
       </c>
       <c r="I69" s="19" t="n">
-        <v>11.88</v>
+        <v>35.64</v>
       </c>
       <c r="J69" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L69" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M69" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N69" s="23">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O69" s="21">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P69" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R69" s="22">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S69" s="24">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T69" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U69" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V69" s="25">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W69" s="25" t="n"/>
       <c r="X69" s="25" t="n"/>
       <c r="Y69" s="24">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/SUM(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z69" s="25" t="n"/>
       <c r="AA69" s="25" t="n"/>
       <c r="AB69" s="25" t="n"/>
       <c r="AC69" s="22">
-        <f>IF(B21="DIV", F21,"")</f>
+        <f>IF(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD69" s="26" t="n"/>
@@ -3803,13 +3649,13 @@
         </is>
       </c>
       <c r="D70" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="19" t="n">
-        <v>1965.83</v>
+        <v>1965.92</v>
       </c>
       <c r="F70" s="19" t="n">
-        <v>5897.48</v>
+        <v>3931.84</v>
       </c>
       <c r="G70" s="17" t="inlineStr">
         <is>
@@ -3817,74 +3663,74 @@
         </is>
       </c>
       <c r="H70" s="19" t="n">
-        <v>5.84</v>
+        <v>3.89</v>
       </c>
       <c r="I70" s="19" t="n">
-        <v>35.64</v>
+        <v>23.75</v>
       </c>
       <c r="J70" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L70" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M70" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N70" s="23">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O70" s="21">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P70" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R70" s="22">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S70" s="24">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T70" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U70" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V70" s="25">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W70" s="25" t="n"/>
       <c r="X70" s="25" t="n"/>
       <c r="Y70" s="24">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/SUM(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z70" s="25" t="n"/>
       <c r="AA70" s="25" t="n"/>
       <c r="AB70" s="25" t="n"/>
       <c r="AC70" s="22">
-        <f>IF(B22="DIV", F22,"")</f>
+        <f>IF(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD70" s="26" t="n"/>
@@ -3919,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="19" t="n">
-        <v>1965.62</v>
+        <v>1965.82</v>
       </c>
       <c r="F71" s="19" t="n">
-        <v>1965.62</v>
+        <v>1965.82</v>
       </c>
       <c r="G71" s="17" t="inlineStr">
         <is>
@@ -3940,64 +3786,64 @@
         <v/>
       </c>
       <c r="K71" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L71" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M71" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N71" s="23">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O71" s="21">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P71" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R71" s="22">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S71" s="24">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T71" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U71" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V71" s="25">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W71" s="25" t="n"/>
       <c r="X71" s="25" t="n"/>
       <c r="Y71" s="24">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/SUM(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z71" s="25" t="n"/>
       <c r="AA71" s="25" t="n"/>
       <c r="AB71" s="25" t="n"/>
       <c r="AC71" s="22">
-        <f>IF(B23="DIV", F23,"")</f>
+        <f>IF(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD71" s="26" t="n"/>
@@ -4016,7 +3862,7 @@
     </row>
     <row r="72" ht="13" customHeight="1" s="63">
       <c r="A72" s="75" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B72" s="17" t="inlineStr">
         <is>
@@ -4029,13 +3875,13 @@
         </is>
       </c>
       <c r="D72" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="19" t="n">
-        <v>1961.06</v>
+        <v>1965.83</v>
       </c>
       <c r="F72" s="19" t="n">
-        <v>7844.24</v>
+        <v>5897.48</v>
       </c>
       <c r="G72" s="17" t="inlineStr">
         <is>
@@ -4043,74 +3889,74 @@
         </is>
       </c>
       <c r="H72" s="19" t="n">
-        <v>7.86</v>
+        <v>5.84</v>
       </c>
       <c r="I72" s="19" t="n">
-        <v>47.58</v>
+        <v>35.64</v>
       </c>
       <c r="J72" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L72" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M72" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N72" s="23">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O72" s="21">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P72" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R72" s="22">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S72" s="24">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T72" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U72" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V72" s="25">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W72" s="25" t="n"/>
       <c r="X72" s="25" t="n"/>
       <c r="Y72" s="24">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/SUM(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z72" s="25" t="n"/>
       <c r="AA72" s="25" t="n"/>
       <c r="AB72" s="25" t="n"/>
       <c r="AC72" s="22">
-        <f>IF(B24="DIV", F24,"")</f>
+        <f>IF(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD72" s="26" t="n"/>
@@ -4129,7 +3975,7 @@
     </row>
     <row r="73" ht="13" customHeight="1" s="63">
       <c r="A73" s="75" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B73" s="17" t="inlineStr">
         <is>
@@ -4145,10 +3991,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="19" t="n">
-        <v>1960.97</v>
+        <v>1965.62</v>
       </c>
       <c r="F73" s="19" t="n">
-        <v>1960.97</v>
+        <v>1965.62</v>
       </c>
       <c r="G73" s="17" t="inlineStr">
         <is>
@@ -4156,74 +4002,74 @@
         </is>
       </c>
       <c r="H73" s="19" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="I73" s="19" t="n">
-        <v>11.9</v>
+        <v>11.88</v>
       </c>
       <c r="J73" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L73" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M73" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N73" s="23">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O73" s="21">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P73" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R73" s="22">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S73" s="24">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T73" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U73" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V73" s="25">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W73" s="25" t="n"/>
       <c r="X73" s="25" t="n"/>
       <c r="Y73" s="24">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/SUM(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z73" s="25" t="n"/>
       <c r="AA73" s="25" t="n"/>
       <c r="AB73" s="25" t="n"/>
       <c r="AC73" s="22">
-        <f>IF(B25="DIV", F25,"")</f>
+        <f>IF(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD73" s="26" t="n"/>
@@ -4242,7 +4088,7 @@
     </row>
     <row r="74" ht="13" customHeight="1" s="63">
       <c r="A74" s="75" t="n">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="B74" s="17" t="inlineStr">
         <is>
@@ -4255,13 +4101,13 @@
         </is>
       </c>
       <c r="D74" s="18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" s="19" t="n">
-        <v>2090.3</v>
+        <v>1961.06</v>
       </c>
       <c r="F74" s="19" t="n">
-        <v>4180.6</v>
+        <v>7844.24</v>
       </c>
       <c r="G74" s="17" t="inlineStr">
         <is>
@@ -4269,74 +4115,74 @@
         </is>
       </c>
       <c r="H74" s="19" t="n">
-        <v>4.14</v>
+        <v>7.86</v>
       </c>
       <c r="I74" s="19" t="n">
-        <v>25.26</v>
+        <v>47.58</v>
       </c>
       <c r="J74" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L74" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M74" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N74" s="23">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O74" s="21">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P74" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R74" s="22">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S74" s="24">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T74" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U74" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V74" s="25">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W74" s="25" t="n"/>
       <c r="X74" s="25" t="n"/>
       <c r="Y74" s="24">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/SUM(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z74" s="25" t="n"/>
       <c r="AA74" s="25" t="n"/>
       <c r="AB74" s="25" t="n"/>
       <c r="AC74" s="22">
-        <f>IF(B26="DIV", F26,"")</f>
+        <f>IF(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD74" s="26" t="n"/>
@@ -4355,7 +4201,7 @@
     </row>
     <row r="75" ht="13" customHeight="1" s="63">
       <c r="A75" s="75" t="n">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="B75" s="17" t="inlineStr">
         <is>
@@ -4368,13 +4214,13 @@
         </is>
       </c>
       <c r="D75" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="19" t="n">
-        <v>2090.31</v>
+        <v>1960.97</v>
       </c>
       <c r="F75" s="19" t="n">
-        <v>6270.92</v>
+        <v>1960.97</v>
       </c>
       <c r="G75" s="17" t="inlineStr">
         <is>
@@ -4382,74 +4228,74 @@
         </is>
       </c>
       <c r="H75" s="19" t="n">
-        <v>6.22</v>
+        <v>1.97</v>
       </c>
       <c r="I75" s="19" t="n">
-        <v>37.9</v>
+        <v>11.9</v>
       </c>
       <c r="J75" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L75" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M75" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N75" s="23">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O75" s="21">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P75" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R75" s="22">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S75" s="24">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T75" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U75" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V75" s="25">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W75" s="25" t="n"/>
       <c r="X75" s="25" t="n"/>
       <c r="Y75" s="24">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/SUM(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z75" s="25" t="n"/>
       <c r="AA75" s="25" t="n"/>
       <c r="AB75" s="25" t="n"/>
       <c r="AC75" s="22">
-        <f>IF(B27="DIV", F27,"")</f>
+        <f>IF(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD75" s="26" t="n"/>
@@ -4468,7 +4314,7 @@
     </row>
     <row r="76" ht="13" customHeight="1" s="63">
       <c r="A76" s="75" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B76" s="17" t="inlineStr">
         <is>
@@ -4484,10 +4330,10 @@
         <v>2</v>
       </c>
       <c r="E76" s="19" t="n">
-        <v>2024.55</v>
+        <v>2090.3</v>
       </c>
       <c r="F76" s="19" t="n">
-        <v>4049.1</v>
+        <v>4180.6</v>
       </c>
       <c r="G76" s="17" t="inlineStr">
         <is>
@@ -4495,74 +4341,74 @@
         </is>
       </c>
       <c r="H76" s="19" t="n">
-        <v>4.05</v>
+        <v>4.14</v>
       </c>
       <c r="I76" s="19" t="n">
-        <v>24.45</v>
+        <v>25.26</v>
       </c>
       <c r="J76" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L76" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M76" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N76" s="23">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O76" s="21">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P76" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R76" s="22">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S76" s="24">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T76" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U76" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V76" s="25">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W76" s="25" t="n"/>
       <c r="X76" s="25" t="n"/>
       <c r="Y76" s="24">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/SUM(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z76" s="25" t="n"/>
       <c r="AA76" s="25" t="n"/>
       <c r="AB76" s="25" t="n"/>
       <c r="AC76" s="22">
-        <f>IF(B28="DIV", F28,"")</f>
+        <f>IF(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD76" s="26" t="n"/>
@@ -4581,7 +4427,7 @@
     </row>
     <row r="77" ht="13" customHeight="1" s="63">
       <c r="A77" s="75" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B77" s="17" t="inlineStr">
         <is>
@@ -4594,13 +4440,13 @@
         </is>
       </c>
       <c r="D77" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E77" s="19" t="n">
-        <v>2024.05</v>
+        <v>2090.31</v>
       </c>
       <c r="F77" s="19" t="n">
-        <v>2024.05</v>
+        <v>6270.92</v>
       </c>
       <c r="G77" s="17" t="inlineStr">
         <is>
@@ -4608,74 +4454,74 @@
         </is>
       </c>
       <c r="H77" s="19" t="n">
-        <v>2.02</v>
+        <v>6.22</v>
       </c>
       <c r="I77" s="19" t="n">
-        <v>12.23</v>
+        <v>37.9</v>
       </c>
       <c r="J77" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K77" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L77" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M77" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N77" s="23">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O77" s="21">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P77" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R77" s="22">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S77" s="24">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T77" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U77" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V77" s="25">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W77" s="25" t="n"/>
       <c r="X77" s="25" t="n"/>
       <c r="Y77" s="24">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/SUM(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z77" s="25" t="n"/>
       <c r="AA77" s="25" t="n"/>
       <c r="AB77" s="25" t="n"/>
       <c r="AC77" s="22">
-        <f>IF(B29="DIV", F29,"")</f>
+        <f>IF(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD77" s="26" t="n"/>
@@ -4707,13 +4553,13 @@
         </is>
       </c>
       <c r="D78" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="19" t="n">
-        <v>2024.65</v>
+        <v>2024.55</v>
       </c>
       <c r="F78" s="19" t="n">
-        <v>2024.65</v>
+        <v>4049.1</v>
       </c>
       <c r="G78" s="17" t="inlineStr">
         <is>
@@ -4721,74 +4567,74 @@
         </is>
       </c>
       <c r="H78" s="19" t="n">
-        <v>2.02</v>
+        <v>4.05</v>
       </c>
       <c r="I78" s="19" t="n">
-        <v>12.23</v>
+        <v>24.45</v>
       </c>
       <c r="J78" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L78" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M78" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N78" s="23">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O78" s="21">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P78" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R78" s="22">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S78" s="24">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T78" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U78" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V78" s="25">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W78" s="25" t="n"/>
       <c r="X78" s="25" t="n"/>
       <c r="Y78" s="24">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/SUM(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z78" s="25" t="n"/>
       <c r="AA78" s="25" t="n"/>
       <c r="AB78" s="25" t="n"/>
       <c r="AC78" s="22">
-        <f>IF(B30="DIV", F30,"")</f>
+        <f>IF(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD78" s="26" t="n"/>
@@ -4844,64 +4690,64 @@
         <v/>
       </c>
       <c r="K79" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L79" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M79" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N79" s="23">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O79" s="21">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P79" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R79" s="22">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S79" s="24">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T79" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U79" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V79" s="25">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W79" s="25" t="n"/>
       <c r="X79" s="25" t="n"/>
       <c r="Y79" s="24">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/SUM(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z79" s="25" t="n"/>
       <c r="AA79" s="25" t="n"/>
       <c r="AB79" s="25" t="n"/>
       <c r="AC79" s="22">
-        <f>IF(B31="DIV", F31,"")</f>
+        <f>IF(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD79" s="26" t="n"/>
@@ -4920,7 +4766,7 @@
     </row>
     <row r="80" ht="13" customHeight="1" s="63">
       <c r="A80" s="75" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B80" s="17" t="inlineStr">
         <is>
@@ -4933,13 +4779,13 @@
         </is>
       </c>
       <c r="D80" s="18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E80" s="19" t="n">
-        <v>2060.9</v>
+        <v>2024.65</v>
       </c>
       <c r="F80" s="19" t="n">
-        <v>10304.51</v>
+        <v>2024.65</v>
       </c>
       <c r="G80" s="17" t="inlineStr">
         <is>
@@ -4947,74 +4793,74 @@
         </is>
       </c>
       <c r="H80" s="19" t="n">
-        <v>10.23</v>
+        <v>2.02</v>
       </c>
       <c r="I80" s="19" t="n">
-        <v>62.28</v>
+        <v>12.23</v>
       </c>
       <c r="J80" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K80" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L80" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M80" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N80" s="23">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O80" s="21">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P80" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R80" s="22">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S80" s="24">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T80" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U80" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V80" s="25">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W80" s="25" t="n"/>
       <c r="X80" s="25" t="n"/>
       <c r="Y80" s="24">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/SUM(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z80" s="25" t="n"/>
       <c r="AA80" s="25" t="n"/>
       <c r="AB80" s="25" t="n"/>
       <c r="AC80" s="22">
-        <f>IF(B32="DIV", F32,"")</f>
+        <f>IF(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD80" s="26" t="n"/>
@@ -5033,11 +4879,11 @@
     </row>
     <row r="81" ht="13" customHeight="1" s="63">
       <c r="A81" s="75" t="n">
-        <v>45743</v>
+        <v>45812</v>
       </c>
       <c r="B81" s="17" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C81" s="17" t="inlineStr">
@@ -5046,88 +4892,88 @@
         </is>
       </c>
       <c r="D81" s="18" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E81" s="19" t="n">
-        <v>4</v>
+        <v>2024.05</v>
       </c>
       <c r="F81" s="19" t="n">
-        <v>220</v>
+        <v>2024.05</v>
       </c>
       <c r="G81" s="17" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H81" s="19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="I81" s="19" t="n">
-        <v>0</v>
+        <v>12.23</v>
       </c>
       <c r="J81" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K81" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L81" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M81" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N81" s="23">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O81" s="21">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P81" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R81" s="22">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S81" s="24">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T81" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U81" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V81" s="25">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W81" s="25" t="n"/>
       <c r="X81" s="25" t="n"/>
       <c r="Y81" s="24">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/SUM(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z81" s="25" t="n"/>
       <c r="AA81" s="25" t="n"/>
       <c r="AB81" s="25" t="n"/>
       <c r="AC81" s="22">
-        <f>IF(B33="DIV", F33,"")</f>
+        <f>IF(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD81" s="26" t="n"/>
@@ -5145,101 +4991,102 @@
       <c r="AP81" s="1" t="n"/>
     </row>
     <row r="82" ht="13" customHeight="1" s="63">
-      <c r="A82" s="76" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B82" s="29" t="inlineStr">
+      <c r="A82" s="75" t="n">
+        <v>45811</v>
+      </c>
+      <c r="B82" s="17" t="inlineStr">
         <is>
           <t>NSE</t>
         </is>
       </c>
-      <c r="C82" s="29" t="inlineStr">
+      <c r="C82" s="17" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D82" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E82" s="31" t="n">
-        <v>1703.49</v>
-      </c>
-      <c r="F82" s="3">
-        <f>E34*D34 + SUM(H34:I34)</f>
-        <v/>
-      </c>
-      <c r="G82" s="29" t="inlineStr">
+      <c r="D82" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E82" s="19" t="n">
+        <v>2060.9</v>
+      </c>
+      <c r="F82" s="19" t="n">
+        <v>10304.51</v>
+      </c>
+      <c r="G82" s="17" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H82" s="31" t="n"/>
-      <c r="I82" s="31" t="n">
-        <v>23.99</v>
+      <c r="H82" s="19" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="I82" s="19" t="n">
+        <v>62.28</v>
       </c>
       <c r="J82" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L82" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M82" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N82" s="23">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O82" s="21">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P82" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R82" s="22">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S82" s="24">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T82" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U82" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V82" s="25">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W82" s="25" t="n"/>
       <c r="X82" s="25" t="n"/>
       <c r="Y82" s="24">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/SUM(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z82" s="25" t="n"/>
       <c r="AA82" s="25" t="n"/>
       <c r="AB82" s="25" t="n"/>
       <c r="AC82" s="22">
-        <f>IF(B34="DIV", F34,"")</f>
+        <f>IF(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD82" s="26" t="n"/>
@@ -5257,101 +5104,102 @@
       <c r="AP82" s="1" t="n"/>
     </row>
     <row r="83" ht="13" customHeight="1" s="63">
-      <c r="A83" s="76" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B83" s="29" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C83" s="29" t="inlineStr">
+      <c r="A83" s="75" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B83" s="17" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C83" s="17" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D83" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E83" s="31" t="n">
-        <v>1703.55</v>
-      </c>
-      <c r="F83" s="32">
-        <f>E35*D35 + SUM(H35:I35)</f>
-        <v/>
-      </c>
-      <c r="G83" s="29" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H83" s="31" t="n"/>
-      <c r="I83" s="31" t="n">
-        <v>23.99</v>
+      <c r="D83" s="18" t="n">
+        <v>55</v>
+      </c>
+      <c r="E83" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F83" s="19" t="n">
+        <v>220</v>
+      </c>
+      <c r="G83" s="17" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+        </is>
+      </c>
+      <c r="H83" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="19" t="n">
+        <v>0</v>
       </c>
       <c r="J83" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L83" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M83" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N83" s="23">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O83" s="21">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P83" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R83" s="22">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S83" s="24">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T83" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U83" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V83" s="25">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W83" s="25" t="n"/>
       <c r="X83" s="25" t="n"/>
       <c r="Y83" s="24">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/SUM(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z83" s="25" t="n"/>
       <c r="AA83" s="25" t="n"/>
       <c r="AB83" s="25" t="n"/>
       <c r="AC83" s="22">
-        <f>IF(B35="DIV", F35,"")</f>
+        <f>IF(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD83" s="26" t="n"/>
@@ -5383,13 +5231,13 @@
         </is>
       </c>
       <c r="D84" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="31" t="n">
-        <v>1703.48</v>
-      </c>
-      <c r="F84" s="32">
-        <f>E36*D36 + SUM(H36:I36)</f>
+        <v>1703.49</v>
+      </c>
+      <c r="F84" s="3">
+        <f>E34*D34 + SUM(H34:I34)</f>
         <v/>
       </c>
       <c r="G84" s="29" t="inlineStr">
@@ -5399,71 +5247,71 @@
       </c>
       <c r="H84" s="31" t="n"/>
       <c r="I84" s="31" t="n">
-        <v>11.98</v>
+        <v>23.99</v>
       </c>
       <c r="J84" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L84" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M84" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N84" s="23">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O84" s="21">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P84" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R84" s="22">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S84" s="24">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T84" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U84" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V84" s="25">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W84" s="25" t="n"/>
       <c r="X84" s="25" t="n"/>
       <c r="Y84" s="24">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/SUM(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z84" s="25" t="n"/>
       <c r="AA84" s="25" t="n"/>
       <c r="AB84" s="25" t="n"/>
       <c r="AC84" s="22">
-        <f>IF(B36="DIV", F36,"")</f>
+        <f>IF(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD84" s="26" t="n"/>
@@ -5482,7 +5330,7 @@
     </row>
     <row r="85" ht="13" customHeight="1" s="63">
       <c r="A85" s="76" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B85" s="29" t="inlineStr">
         <is>
@@ -5495,88 +5343,87 @@
         </is>
       </c>
       <c r="D85" s="30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" s="31" t="n">
-        <v>1799.56</v>
-      </c>
-      <c r="F85" s="15" t="n">
-        <v>8997.790000000001</v>
+        <v>1703.55</v>
+      </c>
+      <c r="F85" s="32">
+        <f>E35*D35 + SUM(H35:I35)</f>
+        <v/>
       </c>
       <c r="G85" s="29" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H85" s="31" t="n">
-        <v>8.98</v>
-      </c>
+      <c r="H85" s="31" t="n"/>
       <c r="I85" s="31" t="n">
-        <v>54.31</v>
+        <v>23.99</v>
       </c>
       <c r="J85" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L85" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M85" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N85" s="23">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O85" s="21">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P85" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R85" s="22">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S85" s="24">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T85" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U85" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V85" s="25">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W85" s="25" t="n"/>
       <c r="X85" s="25" t="n"/>
       <c r="Y85" s="24">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/SUM(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z85" s="25" t="n"/>
       <c r="AA85" s="25" t="n"/>
       <c r="AB85" s="25" t="n"/>
       <c r="AC85" s="22">
-        <f>IF(B37="DIV", F37,"")</f>
+        <f>IF(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD85" s="26" t="n"/>
@@ -5595,7 +5442,7 @@
     </row>
     <row r="86" ht="13" customHeight="1" s="63">
       <c r="A86" s="76" t="n">
-        <v>45716</v>
+        <v>45734</v>
       </c>
       <c r="B86" s="29" t="inlineStr">
         <is>
@@ -5608,88 +5455,87 @@
         </is>
       </c>
       <c r="D86" s="30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E86" s="31" t="n">
-        <v>1658.51</v>
-      </c>
-      <c r="F86" s="25" t="n">
-        <v>8292.540000000001</v>
+        <v>1703.48</v>
+      </c>
+      <c r="F86" s="32">
+        <f>E36*D36 + SUM(H36:I36)</f>
+        <v/>
       </c>
       <c r="G86" s="29" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H86" s="31" t="n">
-        <v>8.220000000000001</v>
-      </c>
+      <c r="H86" s="31" t="n"/>
       <c r="I86" s="31" t="n">
-        <v>50.07</v>
+        <v>11.98</v>
       </c>
       <c r="J86" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K86" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L86" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M86" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N86" s="23">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O86" s="21">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P86" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q86" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R86" s="22">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S86" s="24">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T86" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U86" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V86" s="25">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W86" s="25" t="n"/>
       <c r="X86" s="25" t="n"/>
       <c r="Y86" s="24">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/SUM(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z86" s="25" t="n"/>
       <c r="AA86" s="25" t="n"/>
       <c r="AB86" s="25" t="n"/>
       <c r="AC86" s="22">
-        <f>IF(B38="DIV", F38,"")</f>
+        <f>IF(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD86" s="26" t="n"/>
@@ -5708,7 +5554,7 @@
     </row>
     <row r="87" ht="13" customHeight="1" s="63">
       <c r="A87" s="76" t="n">
-        <v>45712</v>
+        <v>45722</v>
       </c>
       <c r="B87" s="29" t="inlineStr">
         <is>
@@ -5724,10 +5570,10 @@
         <v>5</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>1804.35</v>
-      </c>
-      <c r="F87" s="25" t="n">
-        <v>9021.76</v>
+        <v>1799.56</v>
+      </c>
+      <c r="F87" s="15" t="n">
+        <v>8997.790000000001</v>
       </c>
       <c r="G87" s="29" t="inlineStr">
         <is>
@@ -5735,74 +5581,74 @@
         </is>
       </c>
       <c r="H87" s="31" t="n">
-        <v>8.94</v>
+        <v>8.98</v>
       </c>
       <c r="I87" s="31" t="n">
-        <v>54.57</v>
+        <v>54.31</v>
       </c>
       <c r="J87" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K87" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L87" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M87" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N87" s="23">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O87" s="21">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P87" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R87" s="22">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S87" s="24">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T87" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U87" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V87" s="25">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W87" s="25" t="n"/>
       <c r="X87" s="25" t="n"/>
       <c r="Y87" s="24">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/SUM(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z87" s="25" t="n"/>
       <c r="AA87" s="25" t="n"/>
       <c r="AB87" s="25" t="n"/>
       <c r="AC87" s="22">
-        <f>IF(B39="DIV", F39,"")</f>
+        <f>IF(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD87" s="26" t="n"/>
@@ -5821,7 +5667,7 @@
     </row>
     <row r="88" ht="13" customHeight="1" s="63">
       <c r="A88" s="76" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B88" s="29" t="inlineStr">
         <is>
@@ -5837,10 +5683,10 @@
         <v>5</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>1804.35</v>
+        <v>1658.51</v>
       </c>
       <c r="F88" s="25" t="n">
-        <v>9021.77</v>
+        <v>8292.540000000001</v>
       </c>
       <c r="G88" s="29" t="inlineStr">
         <is>
@@ -5848,74 +5694,74 @@
         </is>
       </c>
       <c r="H88" s="31" t="n">
-        <v>8.94</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I88" s="31" t="n">
-        <v>54.58</v>
+        <v>50.07</v>
       </c>
       <c r="J88" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K88" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L88" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M88" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N88" s="23">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O88" s="21">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P88" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R88" s="22">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S88" s="24">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T88" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U88" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V88" s="25">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W88" s="25" t="n"/>
       <c r="X88" s="25" t="n"/>
       <c r="Y88" s="24">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/SUM(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z88" s="25" t="n"/>
       <c r="AA88" s="25" t="n"/>
       <c r="AB88" s="25" t="n"/>
       <c r="AC88" s="22">
-        <f>IF(B40="DIV", F40,"")</f>
+        <f>IF(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD88" s="26" t="n"/>
@@ -5934,11 +5780,11 @@
     </row>
     <row r="89" ht="13" customHeight="1" s="63">
       <c r="A89" s="76" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B89" s="29" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C89" s="29" t="inlineStr">
@@ -5947,88 +5793,88 @@
         </is>
       </c>
       <c r="D89" s="30" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>13</v>
+        <v>1804.35</v>
       </c>
       <c r="F89" s="25" t="n">
-        <v>390</v>
+        <v>9021.76</v>
       </c>
       <c r="G89" s="29" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H89" s="31" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="I89" s="31" t="n">
-        <v>0</v>
+        <v>54.57</v>
       </c>
       <c r="J89" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K89" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L89" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M89" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N89" s="23">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O89" s="21">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P89" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R89" s="22">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S89" s="24">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T89" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U89" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V89" s="25">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W89" s="25" t="n"/>
       <c r="X89" s="25" t="n"/>
       <c r="Y89" s="24">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/SUM(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z89" s="25" t="n"/>
       <c r="AA89" s="25" t="n"/>
       <c r="AB89" s="25" t="n"/>
       <c r="AC89" s="22">
-        <f>IF(B41="DIV", F41,"")</f>
+        <f>IF(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD89" s="26" t="n"/>
@@ -6047,7 +5893,7 @@
     </row>
     <row r="90" ht="13" customHeight="1" s="63">
       <c r="A90" s="76" t="n">
-        <v>45705</v>
+        <v>45712</v>
       </c>
       <c r="B90" s="29" t="inlineStr">
         <is>
@@ -6063,10 +5909,10 @@
         <v>5</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>1877.21</v>
+        <v>1804.35</v>
       </c>
       <c r="F90" s="25" t="n">
-        <v>9386.049999999999</v>
+        <v>9021.77</v>
       </c>
       <c r="G90" s="29" t="inlineStr">
         <is>
@@ -6074,74 +5920,74 @@
         </is>
       </c>
       <c r="H90" s="31" t="n">
-        <v>9.31</v>
+        <v>8.94</v>
       </c>
       <c r="I90" s="31" t="n">
-        <v>56.74</v>
+        <v>54.58</v>
       </c>
       <c r="J90" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K90" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L90" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M90" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N90" s="23">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O90" s="21">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P90" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R90" s="22">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S90" s="24">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T90" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U90" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V90" s="25">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W90" s="25" t="n"/>
       <c r="X90" s="25" t="n"/>
       <c r="Y90" s="24">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/SUM(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z90" s="25" t="n"/>
       <c r="AA90" s="25" t="n"/>
       <c r="AB90" s="25" t="n"/>
       <c r="AC90" s="22">
-        <f>IF(B42="DIV", F42,"")</f>
+        <f>IF(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD90" s="26" t="n"/>
@@ -6160,11 +6006,11 @@
     </row>
     <row r="91" ht="13" customHeight="1" s="63">
       <c r="A91" s="76" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="B91" s="29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C91" s="29" t="inlineStr">
@@ -6173,88 +6019,88 @@
         </is>
       </c>
       <c r="D91" s="30" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>1877.21</v>
+        <v>13</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>18772.07</v>
+        <v>390</v>
       </c>
       <c r="G91" s="29" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
         </is>
       </c>
       <c r="H91" s="31" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
       <c r="I91" s="31" t="n">
-        <v>113.46</v>
+        <v>0</v>
       </c>
       <c r="J91" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K91" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L91" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M91" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N91" s="23">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O91" s="21">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P91" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R91" s="22">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S91" s="24">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T91" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U91" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V91" s="25">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W91" s="25" t="n"/>
       <c r="X91" s="25" t="n"/>
       <c r="Y91" s="24">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/SUM(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z91" s="25" t="n"/>
       <c r="AA91" s="25" t="n"/>
       <c r="AB91" s="25" t="n"/>
       <c r="AC91" s="22">
-        <f>IF(B43="DIV", F43,"")</f>
+        <f>IF(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD91" s="26" t="n"/>
@@ -6273,7 +6119,7 @@
     </row>
     <row r="92" ht="13" customHeight="1" s="63">
       <c r="A92" s="76" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B92" s="29" t="inlineStr">
         <is>
@@ -6286,13 +6132,13 @@
         </is>
       </c>
       <c r="D92" s="30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>1867.85</v>
+        <v>1877.21</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>1867.85</v>
+        <v>9386.049999999999</v>
       </c>
       <c r="G92" s="29" t="inlineStr">
         <is>
@@ -6300,74 +6146,74 @@
         </is>
       </c>
       <c r="H92" s="31" t="n">
-        <v>1.86</v>
+        <v>9.31</v>
       </c>
       <c r="I92" s="31" t="n">
-        <v>11.29</v>
+        <v>56.74</v>
       </c>
       <c r="J92" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K92" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L92" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M92" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N92" s="23">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O92" s="21">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P92" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R92" s="22">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S92" s="24">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T92" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U92" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V92" s="25">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W92" s="25" t="n"/>
       <c r="X92" s="25" t="n"/>
       <c r="Y92" s="24">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/SUM(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z92" s="25" t="n"/>
       <c r="AA92" s="25" t="n"/>
       <c r="AB92" s="25" t="n"/>
       <c r="AC92" s="22">
-        <f>IF(B44="DIV", F44,"")</f>
+        <f>IF(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD92" s="26" t="n"/>
@@ -6386,7 +6232,7 @@
     </row>
     <row r="93" ht="13" customHeight="1" s="63">
       <c r="A93" s="76" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B93" s="29" t="inlineStr">
         <is>
@@ -6399,13 +6245,13 @@
         </is>
       </c>
       <c r="D93" s="30" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>1869.08</v>
+        <v>1877.21</v>
       </c>
       <c r="F93" s="25" t="n">
-        <v>1869.08</v>
+        <v>18772.07</v>
       </c>
       <c r="G93" s="29" t="inlineStr">
         <is>
@@ -6413,74 +6259,74 @@
         </is>
       </c>
       <c r="H93" s="31" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="I93" s="31" t="n">
-        <v>11.32</v>
+        <v>113.46</v>
       </c>
       <c r="J93" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K93" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L93" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M93" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N93" s="23">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O93" s="21">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P93" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R93" s="22">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S93" s="24">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T93" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U93" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V93" s="25">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W93" s="25" t="n"/>
       <c r="X93" s="25" t="n"/>
       <c r="Y93" s="24">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/SUM(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z93" s="25" t="n"/>
       <c r="AA93" s="25" t="n"/>
       <c r="AB93" s="25" t="n"/>
       <c r="AC93" s="22">
-        <f>IF(B45="DIV", F45,"")</f>
+        <f>IF(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD93" s="26" t="n"/>
@@ -6512,13 +6358,13 @@
         </is>
       </c>
       <c r="D94" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>1869.19</v>
+        <v>1867.85</v>
       </c>
       <c r="F94" s="25" t="n">
-        <v>3738.39</v>
+        <v>1867.85</v>
       </c>
       <c r="G94" s="29" t="inlineStr">
         <is>
@@ -6526,74 +6372,74 @@
         </is>
       </c>
       <c r="H94" s="31" t="n">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
       <c r="I94" s="31" t="n">
-        <v>22.58</v>
+        <v>11.29</v>
       </c>
       <c r="J94" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K94" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L94" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M94" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N94" s="23">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O94" s="21">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P94" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R94" s="22">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S94" s="24">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T94" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U94" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V94" s="25">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W94" s="25" t="n"/>
       <c r="X94" s="25" t="n"/>
       <c r="Y94" s="24">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/SUM(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z94" s="25" t="n"/>
       <c r="AA94" s="25" t="n"/>
       <c r="AB94" s="25" t="n"/>
       <c r="AC94" s="22">
-        <f>IF(B46="DIV", F46,"")</f>
+        <f>IF(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD94" s="26" t="n"/>
@@ -6625,13 +6471,13 @@
         </is>
       </c>
       <c r="D95" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>1869.1</v>
+        <v>1869.08</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>3738.19</v>
+        <v>1869.08</v>
       </c>
       <c r="G95" s="29" t="inlineStr">
         <is>
@@ -6639,74 +6485,74 @@
         </is>
       </c>
       <c r="H95" s="31" t="n">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
       <c r="I95" s="31" t="n">
-        <v>22.58</v>
+        <v>11.32</v>
       </c>
       <c r="J95" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K95" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L95" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M95" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N95" s="23">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O95" s="21">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P95" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R95" s="22">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S95" s="24">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T95" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U95" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V95" s="25">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W95" s="25" t="n"/>
       <c r="X95" s="25" t="n"/>
       <c r="Y95" s="24">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/SUM(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z95" s="25" t="n"/>
       <c r="AA95" s="25" t="n"/>
       <c r="AB95" s="25" t="n"/>
       <c r="AC95" s="22">
-        <f>IF(B47="DIV", F47,"")</f>
+        <f>IF(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD95" s="26" t="n"/>
@@ -6738,13 +6584,13 @@
         </is>
       </c>
       <c r="D96" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>1867.85</v>
+        <v>1869.19</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>1867.85</v>
+        <v>3738.39</v>
       </c>
       <c r="G96" s="29" t="inlineStr">
         <is>
@@ -6752,74 +6598,74 @@
         </is>
       </c>
       <c r="H96" s="31" t="n">
-        <v>1.86</v>
+        <v>3.71</v>
       </c>
       <c r="I96" s="31" t="n">
-        <v>11.29</v>
+        <v>22.58</v>
       </c>
       <c r="J96" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K96" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L96" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M96" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N96" s="23">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O96" s="21">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P96" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R96" s="22">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S96" s="24">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T96" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U96" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V96" s="25">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W96" s="25" t="n"/>
       <c r="X96" s="25" t="n"/>
       <c r="Y96" s="24">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/SUM(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z96" s="25" t="n"/>
       <c r="AA96" s="25" t="n"/>
       <c r="AB96" s="25" t="n"/>
       <c r="AC96" s="22">
-        <f>IF(B48="DIV", F48,"")</f>
+        <f>IF(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD96" s="26" t="n"/>
@@ -6851,13 +6697,13 @@
         </is>
       </c>
       <c r="D97" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>1867.85</v>
+        <v>1869.1</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>1867.85</v>
+        <v>3738.19</v>
       </c>
       <c r="G97" s="29" t="inlineStr">
         <is>
@@ -6865,74 +6711,74 @@
         </is>
       </c>
       <c r="H97" s="31" t="n">
-        <v>1.86</v>
+        <v>3.71</v>
       </c>
       <c r="I97" s="31" t="n">
-        <v>11.29</v>
+        <v>22.58</v>
       </c>
       <c r="J97" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K97" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L97" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M97" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N97" s="23">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O97" s="21">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P97" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R97" s="22">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S97" s="24">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T97" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U97" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V97" s="25">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W97" s="25" t="n"/>
       <c r="X97" s="25" t="n"/>
       <c r="Y97" s="24">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/SUM(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z97" s="25" t="n"/>
       <c r="AA97" s="25" t="n"/>
       <c r="AB97" s="25" t="n"/>
       <c r="AC97" s="22">
-        <f>IF(B49="DIV", F49,"")</f>
+        <f>IF(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD97" s="26" t="n"/>
@@ -6988,64 +6834,64 @@
         <v/>
       </c>
       <c r="K98" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L98" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M98" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N98" s="23">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O98" s="21">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P98" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R98" s="22">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S98" s="24">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T98" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U98" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V98" s="25">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W98" s="25" t="n"/>
       <c r="X98" s="25" t="n"/>
       <c r="Y98" s="24">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/SUM(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z98" s="25" t="n"/>
       <c r="AA98" s="25" t="n"/>
       <c r="AB98" s="25" t="n"/>
       <c r="AC98" s="22">
-        <f>IF(B50="DIV", F50,"")</f>
+        <f>IF(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD98" s="26" t="n"/>
@@ -7101,64 +6947,64 @@
         <v/>
       </c>
       <c r="K99" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L99" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M99" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N99" s="23">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O99" s="21">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P99" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R99" s="22">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S99" s="24">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T99" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U99" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V99" s="25">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W99" s="25" t="n"/>
       <c r="X99" s="25" t="n"/>
       <c r="Y99" s="24">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/SUM(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z99" s="25" t="n"/>
       <c r="AA99" s="25" t="n"/>
       <c r="AB99" s="25" t="n"/>
       <c r="AC99" s="22">
-        <f>IF(B51="DIV", F51,"")</f>
+        <f>IF(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD99" s="26" t="n"/>
@@ -7177,7 +7023,7 @@
     </row>
     <row r="100" ht="13" customHeight="1" s="63">
       <c r="A100" s="76" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B100" s="29" t="inlineStr">
         <is>
@@ -7190,13 +7036,13 @@
         </is>
       </c>
       <c r="D100" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>2069.76</v>
+        <v>1867.85</v>
       </c>
       <c r="F100" s="25" t="n">
-        <v>4139.53</v>
+        <v>1867.85</v>
       </c>
       <c r="G100" s="29" t="inlineStr">
         <is>
@@ -7204,74 +7050,74 @@
         </is>
       </c>
       <c r="H100" s="31" t="n">
-        <v>4.11</v>
+        <v>1.86</v>
       </c>
       <c r="I100" s="31" t="n">
-        <v>25.02</v>
+        <v>11.29</v>
       </c>
       <c r="J100" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K100" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L100" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M100" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N100" s="23">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O100" s="21">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P100" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R100" s="22">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S100" s="24">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T100" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U100" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V100" s="25">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W100" s="25" t="n"/>
       <c r="X100" s="25" t="n"/>
       <c r="Y100" s="24">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/SUM(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z100" s="25" t="n"/>
       <c r="AA100" s="25" t="n"/>
       <c r="AB100" s="25" t="n"/>
       <c r="AC100" s="22">
-        <f>IF(B52="DIV", F52,"")</f>
+        <f>IF(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD100" s="26" t="n"/>
@@ -7290,7 +7136,7 @@
     </row>
     <row r="101" ht="13" customHeight="1" s="63">
       <c r="A101" s="76" t="n">
-        <v>45694</v>
+        <v>45702</v>
       </c>
       <c r="B101" s="29" t="inlineStr">
         <is>
@@ -7303,13 +7149,13 @@
         </is>
       </c>
       <c r="D101" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>2159.18</v>
+        <v>1867.85</v>
       </c>
       <c r="F101" s="25" t="n">
-        <v>4318.37</v>
+        <v>1867.85</v>
       </c>
       <c r="G101" s="29" t="inlineStr">
         <is>
@@ -7317,74 +7163,74 @@
         </is>
       </c>
       <c r="H101" s="31" t="n">
-        <v>4.28</v>
+        <v>1.86</v>
       </c>
       <c r="I101" s="31" t="n">
-        <v>26.09</v>
+        <v>11.29</v>
       </c>
       <c r="J101" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K101" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L101" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M101" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N101" s="23">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O101" s="21">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P101" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R101" s="22">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S101" s="24">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T101" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U101" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V101" s="25">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W101" s="25" t="n"/>
       <c r="X101" s="25" t="n"/>
       <c r="Y101" s="24">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/SUM(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z101" s="25" t="n"/>
       <c r="AA101" s="25" t="n"/>
       <c r="AB101" s="25" t="n"/>
       <c r="AC101" s="22">
-        <f>IF(B53="DIV", F53,"")</f>
+        <f>IF(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD101" s="26" t="n"/>
@@ -7403,7 +7249,7 @@
     </row>
     <row r="102" ht="13" customHeight="1" s="63">
       <c r="A102" s="76" t="n">
-        <v>45621</v>
+        <v>45699</v>
       </c>
       <c r="B102" s="29" t="inlineStr">
         <is>
@@ -7416,13 +7262,13 @@
         </is>
       </c>
       <c r="D102" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>2566.68</v>
+        <v>2069.76</v>
       </c>
       <c r="F102" s="25" t="n">
-        <v>2566.68</v>
+        <v>4139.53</v>
       </c>
       <c r="G102" s="29" t="inlineStr">
         <is>
@@ -7430,74 +7276,74 @@
         </is>
       </c>
       <c r="H102" s="31" t="n">
-        <v>2.59</v>
+        <v>4.11</v>
       </c>
       <c r="I102" s="31" t="n">
-        <v>15.54</v>
+        <v>25.02</v>
       </c>
       <c r="J102" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K102" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L102" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M102" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N102" s="23">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O102" s="21">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P102" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R102" s="22">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S102" s="24">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T102" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U102" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V102" s="25">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W102" s="25" t="n"/>
       <c r="X102" s="25" t="n"/>
       <c r="Y102" s="24">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/SUM(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z102" s="25" t="n"/>
       <c r="AA102" s="25" t="n"/>
       <c r="AB102" s="25" t="n"/>
       <c r="AC102" s="22">
-        <f>IF(B54="DIV", F54,"")</f>
+        <f>IF(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD102" s="26" t="n"/>
@@ -7516,7 +7362,7 @@
     </row>
     <row r="103" ht="13" customHeight="1" s="63">
       <c r="A103" s="76" t="n">
-        <v>45483</v>
+        <v>45694</v>
       </c>
       <c r="B103" s="29" t="inlineStr">
         <is>
@@ -7525,17 +7371,17 @@
       </c>
       <c r="C103" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D103" s="30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>2257.84</v>
+        <v>2159.18</v>
       </c>
       <c r="F103" s="25" t="n">
-        <v>9031.379999999999</v>
+        <v>4318.37</v>
       </c>
       <c r="G103" s="29" t="inlineStr">
         <is>
@@ -7543,74 +7389,74 @@
         </is>
       </c>
       <c r="H103" s="31" t="n">
-        <v>9.19</v>
+        <v>4.28</v>
       </c>
       <c r="I103" s="31" t="n">
-        <v>54.03</v>
+        <v>26.09</v>
       </c>
       <c r="J103" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K103" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L103" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M103" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N103" s="23">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O103" s="21">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P103" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q103" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R103" s="22">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S103" s="24">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T103" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U103" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V103" s="25">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W103" s="25" t="n"/>
       <c r="X103" s="25" t="n"/>
       <c r="Y103" s="24">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/SUM(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z103" s="25" t="n"/>
       <c r="AA103" s="25" t="n"/>
       <c r="AB103" s="25" t="n"/>
       <c r="AC103" s="22">
-        <f>IF(B55="DIV", F55,"")</f>
+        <f>IF(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD103" s="26" t="n"/>
@@ -7629,7 +7475,7 @@
     </row>
     <row r="104" ht="13" customHeight="1" s="63">
       <c r="A104" s="76" t="n">
-        <v>45278</v>
+        <v>45621</v>
       </c>
       <c r="B104" s="29" t="inlineStr">
         <is>
@@ -7641,14 +7487,14 @@
           <t>Buy</t>
         </is>
       </c>
-      <c r="D104" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="E104" s="20" t="n">
-        <v>1358.29667</v>
+      <c r="D104" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" s="31" t="n">
+        <v>2566.68</v>
       </c>
       <c r="F104" s="25" t="n">
-        <v>4103.74</v>
+        <v>2566.68</v>
       </c>
       <c r="G104" s="29" t="inlineStr">
         <is>
@@ -7656,82 +7502,77 @@
         </is>
       </c>
       <c r="H104" s="31" t="n">
-        <v>4.06</v>
+        <v>2.59</v>
       </c>
       <c r="I104" s="31" t="n">
-        <v>24.78</v>
+        <v>15.54</v>
       </c>
       <c r="J104" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K104" s="25" t="n"/>
-      <c r="L104" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="M104" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
-        <v/>
-      </c>
-      <c r="N104" s="35">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
-        <v/>
-      </c>
-      <c r="O104" s="34" t="n"/>
-      <c r="P104" s="25">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="Q104" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
-        <v/>
-      </c>
-      <c r="R104" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="S104" s="34" t="n"/>
-      <c r="T104" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
-        <v/>
-      </c>
-      <c r="U104" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
-        <v/>
-      </c>
-      <c r="V104" s="34">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="W104" s="31" t="n">
-        <v>2257.84</v>
-      </c>
-      <c r="X104" s="76" t="n">
-        <v>45483</v>
-      </c>
+      <c r="K104" s="21">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/SUM(F54:I54), "")</f>
+        <v/>
+      </c>
+      <c r="L104" s="22">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <v/>
+      </c>
+      <c r="M104" s="22">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <v/>
+      </c>
+      <c r="N104" s="23">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <v/>
+      </c>
+      <c r="O104" s="21">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/SUM(F54:I54), "")</f>
+        <v/>
+      </c>
+      <c r="P104" s="22">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <v/>
+      </c>
+      <c r="Q104" s="22">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <v/>
+      </c>
+      <c r="R104" s="22">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <v/>
+      </c>
+      <c r="S104" s="24">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/SUM(F54:I54), "")</f>
+        <v/>
+      </c>
+      <c r="T104" s="25">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <v/>
+      </c>
+      <c r="U104" s="25">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <v/>
+      </c>
+      <c r="V104" s="25">
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <v/>
+      </c>
+      <c r="W104" s="25" t="n"/>
+      <c r="X104" s="25" t="n"/>
       <c r="Y104" s="24">
-        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
-        <v/>
-      </c>
-      <c r="Z104" s="36" t="n">
-        <v>-3750.9412</v>
-      </c>
-      <c r="AA104" s="36" t="n">
-        <v>3804.2</v>
-      </c>
-      <c r="AB104" s="37" t="n">
-        <v>2</v>
-      </c>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/SUM(F54:I54), "")</f>
+        <v/>
+      </c>
+      <c r="Z104" s="25" t="n"/>
+      <c r="AA104" s="25" t="n"/>
+      <c r="AB104" s="25" t="n"/>
       <c r="AC104" s="22">
-        <f>IF(B56="DIV", F56,"")</f>
-        <v/>
-      </c>
-      <c r="AD104" s="38" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(B54="DIV", F54,"")</f>
+        <v/>
+      </c>
+      <c r="AD104" s="26" t="n"/>
       <c r="AE104" s="1" t="n"/>
       <c r="AF104" s="1" t="n"/>
       <c r="AG104" s="1" t="n"/>
@@ -7747,7 +7588,7 @@
     </row>
     <row r="105" ht="13" customHeight="1" s="63">
       <c r="A105" s="76" t="n">
-        <v>45258</v>
+        <v>45483</v>
       </c>
       <c r="B105" s="29" t="inlineStr">
         <is>
@@ -7756,17 +7597,17 @@
       </c>
       <c r="C105" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D105" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E105" s="20" t="n">
-        <v>1435</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D105" s="30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E105" s="31" t="n">
+        <v>2257.84</v>
       </c>
       <c r="F105" s="25" t="n">
-        <v>1445.2</v>
+        <v>9031.379999999999</v>
       </c>
       <c r="G105" s="29" t="inlineStr">
         <is>
@@ -7774,82 +7615,77 @@
         </is>
       </c>
       <c r="H105" s="31" t="n">
-        <v>1.44</v>
+        <v>9.19</v>
       </c>
       <c r="I105" s="31" t="n">
-        <v>8.76</v>
+        <v>54.03</v>
       </c>
       <c r="J105" s="20">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K105" s="25" t="n"/>
-      <c r="L105" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
-        <v/>
-      </c>
-      <c r="M105" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
-        <v/>
-      </c>
-      <c r="N105" s="35">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
-        <v/>
-      </c>
-      <c r="O105" s="34" t="n"/>
-      <c r="P105" s="25">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
-        <v/>
-      </c>
-      <c r="Q105" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
-        <v/>
-      </c>
-      <c r="R105" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
-        <v/>
-      </c>
-      <c r="S105" s="34" t="n"/>
-      <c r="T105" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
-        <v/>
-      </c>
-      <c r="U105" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
-        <v/>
-      </c>
-      <c r="V105" s="34">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
-        <v/>
-      </c>
-      <c r="W105" s="31" t="n">
-        <v>2257.84</v>
-      </c>
-      <c r="X105" s="76" t="n">
-        <v>45483</v>
-      </c>
+      <c r="K105" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="L105" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="M105" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <v/>
+      </c>
+      <c r="N105" s="23">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <v/>
+      </c>
+      <c r="O105" s="21">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="P105" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="Q105" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <v/>
+      </c>
+      <c r="R105" s="22">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="S105" s="24">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="T105" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="U105" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <v/>
+      </c>
+      <c r="V105" s="25">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="W105" s="25" t="n"/>
+      <c r="X105" s="25" t="n"/>
       <c r="Y105" s="24">
-        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
-        <v/>
-      </c>
-      <c r="Z105" s="36" t="n">
-        <v>-1875.4706</v>
-      </c>
-      <c r="AA105" s="36" t="n">
-        <v>1902.1</v>
-      </c>
-      <c r="AB105" s="37" t="n">
-        <v>1</v>
-      </c>
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/SUM(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="Z105" s="25" t="n"/>
+      <c r="AA105" s="25" t="n"/>
+      <c r="AB105" s="25" t="n"/>
       <c r="AC105" s="22">
-        <f>IF(B57="DIV", F57,"")</f>
-        <v/>
-      </c>
-      <c r="AD105" s="38" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>IF(B55="DIV", F55,"")</f>
+        <v/>
+      </c>
+      <c r="AD105" s="26" t="n"/>
       <c r="AE105" s="1" t="n"/>
       <c r="AF105" s="1" t="n"/>
       <c r="AG105" s="1" t="n"/>
@@ -7865,7 +7701,7 @@
     </row>
     <row r="106" ht="13" customHeight="1" s="63">
       <c r="A106" s="76" t="n">
-        <v>44315</v>
+        <v>45278</v>
       </c>
       <c r="B106" s="29" t="inlineStr">
         <is>
@@ -7874,17 +7710,17 @@
       </c>
       <c r="C106" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D106" s="33" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E106" s="20" t="n">
-        <v>1132.405</v>
+        <v>1358.29667</v>
       </c>
       <c r="F106" s="25" t="n">
-        <v>13668.46</v>
+        <v>4103.74</v>
       </c>
       <c r="G106" s="29" t="inlineStr">
         <is>
@@ -7892,10 +7728,10 @@
         </is>
       </c>
       <c r="H106" s="31" t="n">
-        <v>11.51</v>
+        <v>4.06</v>
       </c>
       <c r="I106" s="31" t="n">
-        <v>68.11</v>
+        <v>24.78</v>
       </c>
       <c r="J106" s="20">
         <f>Index!$C$2</f>
@@ -7903,54 +7739,64 @@
       </c>
       <c r="K106" s="25" t="n"/>
       <c r="L106" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M106" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N106" s="35">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O106" s="34" t="n"/>
       <c r="P106" s="25">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q106" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R106" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S106" s="34" t="n"/>
       <c r="T106" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*SUM(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U106" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V106" s="34">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
-        <v/>
-      </c>
-      <c r="W106" s="25" t="n"/>
-      <c r="X106" s="25" t="n"/>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
+        <v/>
+      </c>
+      <c r="W106" s="31" t="n">
+        <v>2257.84</v>
+      </c>
+      <c r="X106" s="76" t="n">
+        <v>45483</v>
+      </c>
       <c r="Y106" s="24">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
-        <v/>
-      </c>
-      <c r="Z106" s="25" t="n"/>
-      <c r="AA106" s="25" t="n"/>
-      <c r="AB106" s="25" t="n"/>
+        <f>IF(AND( C56="Buy", W56&lt;&gt;"", AA56&lt;&gt;"", B56&lt;&gt;"DIV"), Z56/SUM(F56:I56), "")</f>
+        <v/>
+      </c>
+      <c r="Z106" s="36" t="n">
+        <v>-3750.9412</v>
+      </c>
+      <c r="AA106" s="36" t="n">
+        <v>3804.2</v>
+      </c>
+      <c r="AB106" s="37" t="n">
+        <v>2</v>
+      </c>
       <c r="AC106" s="22">
-        <f>IF(B58="DIV", F58,"")</f>
+        <f>IF(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD106" s="38" t="inlineStr">
@@ -7973,7 +7819,7 @@
     </row>
     <row r="107" ht="13" customHeight="1" s="63">
       <c r="A107" s="76" t="n">
-        <v>44314</v>
+        <v>45258</v>
       </c>
       <c r="B107" s="29" t="inlineStr">
         <is>
@@ -7982,17 +7828,17 @@
       </c>
       <c r="C107" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D107" s="33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E107" s="20" t="n">
-        <v>1126.853</v>
+        <v>1435</v>
       </c>
       <c r="F107" s="25" t="n">
-        <v>11347.53</v>
+        <v>1445.2</v>
       </c>
       <c r="G107" s="29" t="inlineStr">
         <is>
@@ -8000,10 +7846,10 @@
         </is>
       </c>
       <c r="H107" s="31" t="n">
-        <v>11.2</v>
+        <v>1.44</v>
       </c>
       <c r="I107" s="31" t="n">
-        <v>67.77</v>
+        <v>8.76</v>
       </c>
       <c r="J107" s="20">
         <f>Index!$C$2</f>
@@ -8011,53 +7857,64 @@
       </c>
       <c r="K107" s="25" t="n"/>
       <c r="L107" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M107" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N107" s="35">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O107" s="34" t="n"/>
       <c r="P107" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q107" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R107" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S107" s="34" t="n"/>
       <c r="T107" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*SUM(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U107" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V107" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
-        <v/>
-      </c>
-      <c r="W107" s="25" t="n"/>
-      <c r="X107" s="25" t="n"/>
-      <c r="Y107" s="24" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="Z107" s="25" t="n"/>
-      <c r="AA107" s="25" t="n"/>
-      <c r="AB107" s="25" t="n"/>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="W107" s="31" t="n">
+        <v>2257.84</v>
+      </c>
+      <c r="X107" s="76" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y107" s="24">
+        <f>IF(AND( C57="Buy", W57&lt;&gt;"", AA57&lt;&gt;"", B57&lt;&gt;"DIV"), Z57/SUM(F57:I57), "")</f>
+        <v/>
+      </c>
+      <c r="Z107" s="36" t="n">
+        <v>-1875.4706</v>
+      </c>
+      <c r="AA107" s="36" t="n">
+        <v>1902.1</v>
+      </c>
+      <c r="AB107" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="AC107" s="22">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD107" s="38" t="inlineStr">
@@ -8080,7 +7937,7 @@
     </row>
     <row r="108" ht="13" customHeight="1" s="63">
       <c r="A108" s="76" t="n">
-        <v>44313</v>
+        <v>44315</v>
       </c>
       <c r="B108" s="29" t="inlineStr">
         <is>
@@ -8093,13 +7950,13 @@
         </is>
       </c>
       <c r="D108" s="33" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E108" s="20" t="n">
-        <v>1126.567</v>
-      </c>
-      <c r="F108" s="37" t="n">
-        <v>11344.57</v>
+        <v>1132.405</v>
+      </c>
+      <c r="F108" s="25" t="n">
+        <v>13668.46</v>
       </c>
       <c r="G108" s="29" t="inlineStr">
         <is>
@@ -8107,10 +7964,10 @@
         </is>
       </c>
       <c r="H108" s="31" t="n">
-        <v>11.17</v>
+        <v>11.51</v>
       </c>
       <c r="I108" s="31" t="n">
-        <v>67.76000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="J108" s="20">
         <f>Index!$C$2</f>
@@ -8118,53 +7975,54 @@
       </c>
       <c r="K108" s="25" t="n"/>
       <c r="L108" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M108" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N108" s="35">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O108" s="34" t="n"/>
       <c r="P108" s="25">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q108" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R108" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S108" s="34" t="n"/>
       <c r="T108" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*SUM(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U108" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V108" s="34">
-        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W108" s="25" t="n"/>
       <c r="X108" s="25" t="n"/>
-      <c r="Y108" s="24" t="e">
-        <v>#REF!</v>
+      <c r="Y108" s="24">
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/SUM(F58:I58), "")</f>
+        <v/>
       </c>
       <c r="Z108" s="25" t="n"/>
       <c r="AA108" s="25" t="n"/>
       <c r="AB108" s="25" t="n"/>
       <c r="AC108" s="22">
-        <f>IF(#REF!="DIV",#REF!, "")</f>
+        <f>IF(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD108" s="38" t="inlineStr">
@@ -8187,7 +8045,7 @@
     </row>
     <row r="109" ht="13" customHeight="1" s="63">
       <c r="A109" s="76" t="n">
-        <v>44221</v>
+        <v>44314</v>
       </c>
       <c r="B109" s="29" t="inlineStr">
         <is>
@@ -8196,17 +8054,17 @@
       </c>
       <c r="C109" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D109" s="33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E109" s="20" t="n">
-        <v>1244.655</v>
-      </c>
-      <c r="F109" s="37" t="n">
-        <v>2506.59</v>
+        <v>1126.853</v>
+      </c>
+      <c r="F109" s="25" t="n">
+        <v>11347.53</v>
       </c>
       <c r="G109" s="29" t="inlineStr">
         <is>
@@ -8214,10 +8072,10 @@
         </is>
       </c>
       <c r="H109" s="31" t="n">
-        <v>2.13</v>
+        <v>11.2</v>
       </c>
       <c r="I109" s="31" t="n">
-        <v>15.16</v>
+        <v>67.77</v>
       </c>
       <c r="J109" s="20">
         <f>Index!$C$2</f>
@@ -8262,25 +8120,15 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W109" s="39" t="n">
-        <v>1128.61</v>
-      </c>
-      <c r="X109" s="76" t="n">
-        <v>44315</v>
-      </c>
+      <c r="W109" s="25" t="n"/>
+      <c r="X109" s="25" t="n"/>
       <c r="Y109" s="24" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z109" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA109" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB109" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC109" s="40">
+      <c r="Z109" s="25" t="n"/>
+      <c r="AA109" s="25" t="n"/>
+      <c r="AB109" s="25" t="n"/>
+      <c r="AC109" s="22">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
@@ -8304,7 +8152,7 @@
     </row>
     <row r="110" ht="13" customHeight="1" s="63">
       <c r="A110" s="76" t="n">
-        <v>44214</v>
+        <v>44313</v>
       </c>
       <c r="B110" s="29" t="inlineStr">
         <is>
@@ -8313,17 +8161,17 @@
       </c>
       <c r="C110" s="29" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D110" s="33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E110" s="20" t="n">
-        <v>1253.05</v>
-      </c>
-      <c r="F110" s="25" t="n">
-        <v>2523.32</v>
+        <v>1126.567</v>
+      </c>
+      <c r="F110" s="37" t="n">
+        <v>11344.57</v>
       </c>
       <c r="G110" s="29" t="inlineStr">
         <is>
@@ -8331,10 +8179,10 @@
         </is>
       </c>
       <c r="H110" s="31" t="n">
-        <v>1.96</v>
+        <v>11.17</v>
       </c>
       <c r="I110" s="31" t="n">
-        <v>15.26</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="J110" s="20">
         <f>Index!$C$2</f>
@@ -8379,25 +8227,15 @@
         <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
-      <c r="W110" s="39" t="n">
-        <v>1128.61</v>
-      </c>
-      <c r="X110" s="76" t="n">
-        <v>44315</v>
-      </c>
+      <c r="W110" s="25" t="n"/>
+      <c r="X110" s="25" t="n"/>
       <c r="Y110" s="24" t="e">
         <v>#REF!</v>
       </c>
-      <c r="Z110" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AA110" s="36" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AB110" s="37" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AC110" s="40">
+      <c r="Z110" s="25" t="n"/>
+      <c r="AA110" s="25" t="n"/>
+      <c r="AB110" s="25" t="n"/>
+      <c r="AC110" s="22">
         <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
@@ -8421,7 +8259,7 @@
     </row>
     <row r="111" ht="13" customHeight="1" s="63">
       <c r="A111" s="76" t="n">
-        <v>44210</v>
+        <v>44221</v>
       </c>
       <c r="B111" s="29" t="inlineStr">
         <is>
@@ -8434,13 +8272,13 @@
         </is>
       </c>
       <c r="D111" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="20" t="n">
-        <v>1314.89667</v>
-      </c>
-      <c r="F111" s="25" t="n">
-        <v>3971.32</v>
+        <v>1244.655</v>
+      </c>
+      <c r="F111" s="37" t="n">
+        <v>2506.59</v>
       </c>
       <c r="G111" s="29" t="inlineStr">
         <is>
@@ -8448,10 +8286,10 @@
         </is>
       </c>
       <c r="H111" s="31" t="n">
-        <v>2.64</v>
+        <v>2.13</v>
       </c>
       <c r="I111" s="31" t="n">
-        <v>23.98</v>
+        <v>15.16</v>
       </c>
       <c r="J111" s="20">
         <f>Index!$C$2</f>
@@ -8538,7 +8376,7 @@
     </row>
     <row r="112" ht="13" customHeight="1" s="63">
       <c r="A112" s="76" t="n">
-        <v>44207</v>
+        <v>44214</v>
       </c>
       <c r="B112" s="29" t="inlineStr">
         <is>
@@ -8551,13 +8389,13 @@
         </is>
       </c>
       <c r="D112" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E112" s="20" t="n">
-        <v>1285.52</v>
+        <v>1253.05</v>
       </c>
       <c r="F112" s="25" t="n">
-        <v>3883.19</v>
+        <v>2523.32</v>
       </c>
       <c r="G112" s="29" t="inlineStr">
         <is>
@@ -8565,10 +8403,10 @@
         </is>
       </c>
       <c r="H112" s="31" t="n">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="I112" s="31" t="n">
-        <v>23.39</v>
+        <v>15.26</v>
       </c>
       <c r="J112" s="20">
         <f>Index!$C$2</f>
@@ -8655,7 +8493,7 @@
     </row>
     <row r="113" ht="13" customHeight="1" s="63">
       <c r="A113" s="76" t="n">
-        <v>44201</v>
+        <v>44210</v>
       </c>
       <c r="B113" s="29" t="inlineStr">
         <is>
@@ -8668,13 +8506,13 @@
         </is>
       </c>
       <c r="D113" s="33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" s="20" t="n">
-        <v>1300.85</v>
-      </c>
-      <c r="F113" s="37" t="n">
-        <v>2619.64</v>
+        <v>1314.89667</v>
+      </c>
+      <c r="F113" s="25" t="n">
+        <v>3971.32</v>
       </c>
       <c r="G113" s="29" t="inlineStr">
         <is>
@@ -8682,10 +8520,10 @@
         </is>
       </c>
       <c r="H113" s="31" t="n">
-        <v>2.1</v>
+        <v>2.64</v>
       </c>
       <c r="I113" s="31" t="n">
-        <v>15.84</v>
+        <v>23.98</v>
       </c>
       <c r="J113" s="20">
         <f>Index!$C$2</f>
@@ -8772,7 +8610,7 @@
     </row>
     <row r="114" ht="13" customHeight="1" s="63">
       <c r="A114" s="76" t="n">
-        <v>44180</v>
+        <v>44207</v>
       </c>
       <c r="B114" s="29" t="inlineStr">
         <is>
@@ -8785,13 +8623,13 @@
         </is>
       </c>
       <c r="D114" s="33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E114" s="20" t="n">
-        <v>1334.504</v>
-      </c>
-      <c r="F114" s="37" t="n">
-        <v>6718.68</v>
+        <v>1285.52</v>
+      </c>
+      <c r="F114" s="25" t="n">
+        <v>3883.19</v>
       </c>
       <c r="G114" s="29" t="inlineStr">
         <is>
@@ -8799,10 +8637,10 @@
         </is>
       </c>
       <c r="H114" s="31" t="n">
-        <v>6.13</v>
+        <v>3.25</v>
       </c>
       <c r="I114" s="31" t="n">
-        <v>40.05</v>
+        <v>23.39</v>
       </c>
       <c r="J114" s="20">
         <f>Index!$C$2</f>
@@ -8889,7 +8727,7 @@
     </row>
     <row r="115" ht="13" customHeight="1" s="63">
       <c r="A115" s="76" t="n">
-        <v>44172</v>
+        <v>44201</v>
       </c>
       <c r="B115" s="29" t="inlineStr">
         <is>
@@ -8905,10 +8743,10 @@
         <v>2</v>
       </c>
       <c r="E115" s="20" t="n">
-        <v>1363.945</v>
+        <v>1300.85</v>
       </c>
       <c r="F115" s="37" t="n">
-        <v>2746.81</v>
+        <v>2619.64</v>
       </c>
       <c r="G115" s="29" t="inlineStr">
         <is>
@@ -8916,10 +8754,10 @@
         </is>
       </c>
       <c r="H115" s="31" t="n">
-        <v>2.53</v>
+        <v>2.1</v>
       </c>
       <c r="I115" s="31" t="n">
-        <v>16.38</v>
+        <v>15.84</v>
       </c>
       <c r="J115" s="20">
         <f>Index!$C$2</f>
@@ -9006,7 +8844,7 @@
     </row>
     <row r="116" ht="13" customHeight="1" s="63">
       <c r="A116" s="76" t="n">
-        <v>44169</v>
+        <v>44180</v>
       </c>
       <c r="B116" s="29" t="inlineStr">
         <is>
@@ -9022,10 +8860,10 @@
         <v>5</v>
       </c>
       <c r="E116" s="20" t="n">
-        <v>1279.402</v>
+        <v>1334.504</v>
       </c>
       <c r="F116" s="37" t="n">
-        <v>6441.39</v>
+        <v>6718.68</v>
       </c>
       <c r="G116" s="29" t="inlineStr">
         <is>
@@ -9033,10 +8871,10 @@
         </is>
       </c>
       <c r="H116" s="31" t="n">
-        <v>5.95</v>
+        <v>6.13</v>
       </c>
       <c r="I116" s="31" t="n">
-        <v>38.44</v>
+        <v>40.05</v>
       </c>
       <c r="J116" s="20">
         <f>Index!$C$2</f>
@@ -9123,7 +8961,7 @@
     </row>
     <row r="117" ht="13" customHeight="1" s="63">
       <c r="A117" s="76" t="n">
-        <v>44167</v>
+        <v>44172</v>
       </c>
       <c r="B117" s="29" t="inlineStr">
         <is>
@@ -9136,13 +8974,13 @@
         </is>
       </c>
       <c r="D117" s="33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E117" s="20" t="n">
-        <v>1304.71333</v>
+        <v>1363.945</v>
       </c>
       <c r="F117" s="37" t="n">
-        <v>3941.23</v>
+        <v>2746.81</v>
       </c>
       <c r="G117" s="29" t="inlineStr">
         <is>
@@ -9150,10 +8988,10 @@
         </is>
       </c>
       <c r="H117" s="31" t="n">
-        <v>3.6</v>
+        <v>2.53</v>
       </c>
       <c r="I117" s="31" t="n">
-        <v>23.48</v>
+        <v>16.38</v>
       </c>
       <c r="J117" s="20">
         <f>Index!$C$2</f>
@@ -9240,7 +9078,7 @@
     </row>
     <row r="118" ht="13" customHeight="1" s="63">
       <c r="A118" s="76" t="n">
-        <v>44166</v>
+        <v>44169</v>
       </c>
       <c r="B118" s="29" t="inlineStr">
         <is>
@@ -9256,10 +9094,10 @@
         <v>5</v>
       </c>
       <c r="E118" s="20" t="n">
-        <v>1308.702</v>
+        <v>1279.402</v>
       </c>
       <c r="F118" s="37" t="n">
-        <v>6587.84</v>
+        <v>6441.39</v>
       </c>
       <c r="G118" s="29" t="inlineStr">
         <is>
@@ -9267,10 +9105,10 @@
         </is>
       </c>
       <c r="H118" s="31" t="n">
-        <v>4.67</v>
+        <v>5.95</v>
       </c>
       <c r="I118" s="31" t="n">
-        <v>39.67</v>
+        <v>38.44</v>
       </c>
       <c r="J118" s="20">
         <f>Index!$C$2</f>
@@ -9357,7 +9195,7 @@
     </row>
     <row r="119" ht="13" customHeight="1" s="63">
       <c r="A119" s="76" t="n">
-        <v>41730</v>
+        <v>44167</v>
       </c>
       <c r="B119" s="29" t="inlineStr">
         <is>
@@ -9366,17 +9204,17 @@
       </c>
       <c r="C119" s="29" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D119" s="33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E119" s="20" t="n">
-        <v>97.214</v>
+        <v>1304.71333</v>
       </c>
       <c r="F119" s="37" t="n">
-        <v>489.42</v>
+        <v>3941.23</v>
       </c>
       <c r="G119" s="29" t="inlineStr">
         <is>
@@ -9384,10 +9222,10 @@
         </is>
       </c>
       <c r="H119" s="31" t="n">
-        <v>0.53</v>
+        <v>3.6</v>
       </c>
       <c r="I119" s="31" t="n">
-        <v>2.8</v>
+        <v>23.48</v>
       </c>
       <c r="J119" s="20">
         <f>Index!$C$2</f>
@@ -9395,54 +9233,63 @@
       </c>
       <c r="K119" s="25" t="n"/>
       <c r="L119" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M119" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N119" s="35">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O119" s="34" t="n"/>
       <c r="P119" s="25">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q119" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R119" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S119" s="34" t="n"/>
       <c r="T119" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
         <v/>
       </c>
       <c r="U119" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V119" s="34">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
-        <v/>
-      </c>
-      <c r="W119" s="25" t="n"/>
-      <c r="X119" s="25" t="n"/>
-      <c r="Y119" s="24">
-        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
-        <v/>
-      </c>
-      <c r="Z119" s="25" t="n"/>
-      <c r="AA119" s="25" t="n"/>
-      <c r="AB119" s="25" t="n"/>
-      <c r="AC119" s="22">
-        <f>IF(B59="DIV", F59,"")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
+        <v/>
+      </c>
+      <c r="W119" s="39" t="n">
+        <v>1128.61</v>
+      </c>
+      <c r="X119" s="76" t="n">
+        <v>44315</v>
+      </c>
+      <c r="Y119" s="24" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z119" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA119" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB119" s="37" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AC119" s="40">
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD119" s="38" t="inlineStr">
@@ -9465,7 +9312,7 @@
     </row>
     <row r="120" ht="13" customHeight="1" s="63">
       <c r="A120" s="76" t="n">
-        <v>41611</v>
+        <v>44166</v>
       </c>
       <c r="B120" s="29" t="inlineStr">
         <is>
@@ -9481,10 +9328,10 @@
         <v>5</v>
       </c>
       <c r="E120" s="20" t="n">
-        <v>123</v>
+        <v>1308.702</v>
       </c>
       <c r="F120" s="37" t="n">
-        <v>619.2</v>
+        <v>6587.84</v>
       </c>
       <c r="G120" s="29" t="inlineStr">
         <is>
@@ -9492,10 +9339,10 @@
         </is>
       </c>
       <c r="H120" s="31" t="n">
-        <v>0.67</v>
+        <v>4.67</v>
       </c>
       <c r="I120" s="31" t="n">
-        <v>3.53</v>
+        <v>39.67</v>
       </c>
       <c r="J120" s="20">
         <f>Index!$C$2</f>
@@ -9503,64 +9350,63 @@
       </c>
       <c r="K120" s="25" t="n"/>
       <c r="L120" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="M120" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="N120" s="35">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV"),#REF!, "")</f>
         <v/>
       </c>
       <c r="O120" s="34" t="n"/>
       <c r="P120" s="25">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), (1-Index!$F$2*2)*((#REF!*#REF!)-(#REF!*#REF!)), "")</f>
         <v/>
       </c>
       <c r="Q120" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="R120" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &lt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="S120" s="34" t="n"/>
       <c r="T120" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), (#REF!*#REF!)-(#REF!*#REF!)-(2*SUM(#REF!)), "")</f>
         <v/>
       </c>
       <c r="U120" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365), ((#REF!*#REF!)+#REF!), "")</f>
         <v/>
       </c>
       <c r="V120" s="34">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <f>IF(AND(#REF!= "Buy", ISBLANK(#REF!),#REF!&lt;&gt; "DIV", NOW()-#REF! &gt; 365),#REF!, "")</f>
         <v/>
       </c>
       <c r="W120" s="39" t="n">
-        <v>97.214</v>
+        <v>1128.61</v>
       </c>
       <c r="X120" s="76" t="n">
-        <v>41730</v>
-      </c>
-      <c r="Y120" s="24">
-        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
-        <v/>
-      </c>
-      <c r="Z120" s="36" t="n">
-        <v>-1996.56126</v>
-      </c>
-      <c r="AA120" s="36" t="n">
-        <v>2024.91</v>
-      </c>
-      <c r="AB120" s="37" t="n">
-        <v>1</v>
+        <v>44315</v>
+      </c>
+      <c r="Y120" s="24" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="Z120" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AA120" s="36" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AB120" s="37" t="e">
+        <v>#REF!</v>
       </c>
       <c r="AC120" s="40">
-        <f>IF(B60="DIV", F60,"")</f>
+        <f>IF(#REF!="DIV",#REF!, "")</f>
         <v/>
       </c>
       <c r="AD120" s="38" t="inlineStr">
@@ -9582,36 +9428,100 @@
       <c r="AP120" s="1" t="n"/>
     </row>
     <row r="121" ht="13" customHeight="1" s="63">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="n"/>
-      <c r="D121" s="2" t="n"/>
-      <c r="E121" s="3" t="n"/>
-      <c r="F121" s="37" t="n"/>
-      <c r="G121" s="3" t="n"/>
-      <c r="H121" s="3" t="n"/>
-      <c r="I121" s="3" t="n"/>
-      <c r="J121" s="3" t="n"/>
-      <c r="K121" s="3" t="n"/>
-      <c r="L121" s="3" t="n"/>
-      <c r="M121" s="1" t="n"/>
-      <c r="N121" s="1" t="n"/>
-      <c r="O121" s="3" t="n"/>
-      <c r="P121" s="3" t="n"/>
-      <c r="Q121" s="1" t="n"/>
-      <c r="R121" s="1" t="n"/>
-      <c r="S121" s="3" t="n"/>
-      <c r="T121" s="3" t="n"/>
-      <c r="U121" s="1" t="n"/>
-      <c r="V121" s="1" t="n"/>
-      <c r="W121" s="3" t="n"/>
-      <c r="X121" s="3" t="n"/>
-      <c r="Y121" s="3" t="n"/>
-      <c r="Z121" s="3" t="n"/>
-      <c r="AA121" s="3" t="n"/>
-      <c r="AB121" s="3" t="n"/>
-      <c r="AC121" s="3" t="n"/>
-      <c r="AD121" s="1" t="n"/>
+      <c r="A121" s="76" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B121" s="29" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C121" s="29" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D121" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" s="20" t="n">
+        <v>97.214</v>
+      </c>
+      <c r="F121" s="37" t="n">
+        <v>489.42</v>
+      </c>
+      <c r="G121" s="29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H121" s="31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I121" s="31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J121" s="20">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K121" s="25" t="n"/>
+      <c r="L121" s="25">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="M121" s="34">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <v/>
+      </c>
+      <c r="N121" s="35">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <v/>
+      </c>
+      <c r="O121" s="34" t="n"/>
+      <c r="P121" s="25">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <v/>
+      </c>
+      <c r="Q121" s="34">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <v/>
+      </c>
+      <c r="R121" s="34">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="S121" s="34" t="n"/>
+      <c r="T121" s="34">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*SUM(H59:I59)), "")</f>
+        <v/>
+      </c>
+      <c r="U121" s="34">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <v/>
+      </c>
+      <c r="V121" s="34">
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <v/>
+      </c>
+      <c r="W121" s="25" t="n"/>
+      <c r="X121" s="25" t="n"/>
+      <c r="Y121" s="24">
+        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/SUM(F59:I59), "")</f>
+        <v/>
+      </c>
+      <c r="Z121" s="25" t="n"/>
+      <c r="AA121" s="25" t="n"/>
+      <c r="AB121" s="25" t="n"/>
+      <c r="AC121" s="22">
+        <f>IF(B59="DIV", F59,"")</f>
+        <v/>
+      </c>
+      <c r="AD121" s="38" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
       <c r="AE121" s="1" t="n"/>
       <c r="AF121" s="1" t="n"/>
       <c r="AG121" s="1" t="n"/>
@@ -9626,36 +9536,110 @@
       <c r="AP121" s="1" t="n"/>
     </row>
     <row r="122" ht="13" customHeight="1" s="63">
-      <c r="A122" s="1" t="n"/>
-      <c r="B122" s="1" t="n"/>
-      <c r="C122" s="1" t="n"/>
-      <c r="D122" s="2" t="n"/>
-      <c r="E122" s="3" t="n"/>
-      <c r="F122" s="37" t="n"/>
-      <c r="G122" s="3" t="n"/>
-      <c r="H122" s="3" t="n"/>
-      <c r="I122" s="3" t="n"/>
-      <c r="J122" s="3" t="n"/>
-      <c r="K122" s="3" t="n"/>
-      <c r="L122" s="3" t="n"/>
-      <c r="M122" s="1" t="n"/>
-      <c r="N122" s="1" t="n"/>
-      <c r="O122" s="3" t="n"/>
-      <c r="P122" s="3" t="n"/>
-      <c r="Q122" s="1" t="n"/>
-      <c r="R122" s="1" t="n"/>
-      <c r="S122" s="3" t="n"/>
-      <c r="T122" s="3" t="n"/>
-      <c r="U122" s="1" t="n"/>
-      <c r="V122" s="1" t="n"/>
-      <c r="W122" s="3" t="n"/>
-      <c r="X122" s="3" t="n"/>
-      <c r="Y122" s="3" t="n"/>
-      <c r="Z122" s="3" t="n"/>
-      <c r="AA122" s="3" t="n"/>
-      <c r="AB122" s="3" t="n"/>
-      <c r="AC122" s="3" t="n"/>
-      <c r="AD122" s="1" t="n"/>
+      <c r="A122" s="76" t="n">
+        <v>41611</v>
+      </c>
+      <c r="B122" s="29" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C122" s="29" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D122" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="20" t="n">
+        <v>123</v>
+      </c>
+      <c r="F122" s="37" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="G122" s="29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H122" s="31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I122" s="31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J122" s="20">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K122" s="25" t="n"/>
+      <c r="L122" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="M122" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <v/>
+      </c>
+      <c r="N122" s="35">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <v/>
+      </c>
+      <c r="O122" s="34" t="n"/>
+      <c r="P122" s="25">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <v/>
+      </c>
+      <c r="Q122" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <v/>
+      </c>
+      <c r="R122" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="S122" s="34" t="n"/>
+      <c r="T122" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*SUM(H60:I60)), "")</f>
+        <v/>
+      </c>
+      <c r="U122" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <v/>
+      </c>
+      <c r="V122" s="34">
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="W122" s="39" t="n">
+        <v>97.214</v>
+      </c>
+      <c r="X122" s="76" t="n">
+        <v>41730</v>
+      </c>
+      <c r="Y122" s="24">
+        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/SUM(F60:I60), "")</f>
+        <v/>
+      </c>
+      <c r="Z122" s="36" t="n">
+        <v>-1996.56126</v>
+      </c>
+      <c r="AA122" s="36" t="n">
+        <v>2024.91</v>
+      </c>
+      <c r="AB122" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="40">
+        <f>IF(B60="DIV", F60,"")</f>
+        <v/>
+      </c>
+      <c r="AD122" s="38" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
       <c r="AE122" s="1" t="n"/>
       <c r="AF122" s="1" t="n"/>
       <c r="AG122" s="1" t="n"/>
@@ -9675,7 +9659,7 @@
       <c r="C123" s="1" t="n"/>
       <c r="D123" s="2" t="n"/>
       <c r="E123" s="3" t="n"/>
-      <c r="F123" s="25" t="n"/>
+      <c r="F123" s="37" t="n"/>
       <c r="G123" s="3" t="n"/>
       <c r="H123" s="3" t="n"/>
       <c r="I123" s="3" t="n"/>
@@ -9763,7 +9747,7 @@
       <c r="C125" s="1" t="n"/>
       <c r="D125" s="2" t="n"/>
       <c r="E125" s="3" t="n"/>
-      <c r="F125" s="3" t="n"/>
+      <c r="F125" s="25" t="n"/>
       <c r="G125" s="3" t="n"/>
       <c r="H125" s="3" t="n"/>
       <c r="I125" s="3" t="n"/>
@@ -9807,7 +9791,7 @@
       <c r="C126" s="1" t="n"/>
       <c r="D126" s="2" t="n"/>
       <c r="E126" s="3" t="n"/>
-      <c r="F126" s="3" t="n"/>
+      <c r="F126" s="37" t="n"/>
       <c r="G126" s="3" t="n"/>
       <c r="H126" s="3" t="n"/>
       <c r="I126" s="3" t="n"/>
@@ -11521,7 +11505,7 @@
       <c r="A165" s="1" t="n"/>
       <c r="B165" s="1" t="n"/>
       <c r="C165" s="1" t="n"/>
-      <c r="D165" s="1" t="n"/>
+      <c r="D165" s="2" t="n"/>
       <c r="E165" s="3" t="n"/>
       <c r="F165" s="3" t="n"/>
       <c r="G165" s="3" t="n"/>
@@ -11565,12 +11549,12 @@
       <c r="A166" s="1" t="n"/>
       <c r="B166" s="1" t="n"/>
       <c r="C166" s="1" t="n"/>
-      <c r="D166" s="1" t="n"/>
+      <c r="D166" s="2" t="n"/>
       <c r="E166" s="3" t="n"/>
       <c r="F166" s="3" t="n"/>
-      <c r="G166" s="41" t="n"/>
+      <c r="G166" s="3" t="n"/>
       <c r="H166" s="3" t="n"/>
-      <c r="I166" s="1" t="n"/>
+      <c r="I166" s="3" t="n"/>
       <c r="J166" s="3" t="n"/>
       <c r="K166" s="3" t="n"/>
       <c r="L166" s="3" t="n"/>
@@ -11612,9 +11596,9 @@
       <c r="D167" s="1" t="n"/>
       <c r="E167" s="3" t="n"/>
       <c r="F167" s="3" t="n"/>
-      <c r="G167" s="41" t="n"/>
+      <c r="G167" s="3" t="n"/>
       <c r="H167" s="3" t="n"/>
-      <c r="I167" s="1" t="n"/>
+      <c r="I167" s="3" t="n"/>
       <c r="J167" s="3" t="n"/>
       <c r="K167" s="3" t="n"/>
       <c r="L167" s="3" t="n"/>
@@ -53316,6 +53300,94 @@
       <c r="AN1114" s="1" t="n"/>
       <c r="AO1114" s="1" t="n"/>
       <c r="AP1114" s="1" t="n"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n"/>
+      <c r="B1115" s="1" t="n"/>
+      <c r="C1115" s="1" t="n"/>
+      <c r="D1115" s="1" t="n"/>
+      <c r="E1115" s="3" t="n"/>
+      <c r="F1115" s="3" t="n"/>
+      <c r="G1115" s="41" t="n"/>
+      <c r="H1115" s="3" t="n"/>
+      <c r="I1115" s="1" t="n"/>
+      <c r="J1115" s="3" t="n"/>
+      <c r="K1115" s="3" t="n"/>
+      <c r="L1115" s="3" t="n"/>
+      <c r="M1115" s="1" t="n"/>
+      <c r="N1115" s="1" t="n"/>
+      <c r="O1115" s="3" t="n"/>
+      <c r="P1115" s="3" t="n"/>
+      <c r="Q1115" s="1" t="n"/>
+      <c r="R1115" s="1" t="n"/>
+      <c r="S1115" s="3" t="n"/>
+      <c r="T1115" s="3" t="n"/>
+      <c r="U1115" s="1" t="n"/>
+      <c r="V1115" s="1" t="n"/>
+      <c r="W1115" s="3" t="n"/>
+      <c r="X1115" s="3" t="n"/>
+      <c r="Y1115" s="3" t="n"/>
+      <c r="Z1115" s="3" t="n"/>
+      <c r="AA1115" s="3" t="n"/>
+      <c r="AB1115" s="3" t="n"/>
+      <c r="AC1115" s="3" t="n"/>
+      <c r="AD1115" s="1" t="n"/>
+      <c r="AE1115" s="1" t="n"/>
+      <c r="AF1115" s="1" t="n"/>
+      <c r="AG1115" s="1" t="n"/>
+      <c r="AH1115" s="1" t="n"/>
+      <c r="AI1115" s="1" t="n"/>
+      <c r="AJ1115" s="1" t="n"/>
+      <c r="AK1115" s="1" t="n"/>
+      <c r="AL1115" s="1" t="n"/>
+      <c r="AM1115" s="1" t="n"/>
+      <c r="AN1115" s="1" t="n"/>
+      <c r="AO1115" s="1" t="n"/>
+      <c r="AP1115" s="1" t="n"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n"/>
+      <c r="B1116" s="1" t="n"/>
+      <c r="C1116" s="1" t="n"/>
+      <c r="D1116" s="1" t="n"/>
+      <c r="E1116" s="3" t="n"/>
+      <c r="F1116" s="3" t="n"/>
+      <c r="G1116" s="41" t="n"/>
+      <c r="H1116" s="3" t="n"/>
+      <c r="I1116" s="1" t="n"/>
+      <c r="J1116" s="3" t="n"/>
+      <c r="K1116" s="3" t="n"/>
+      <c r="L1116" s="3" t="n"/>
+      <c r="M1116" s="1" t="n"/>
+      <c r="N1116" s="1" t="n"/>
+      <c r="O1116" s="3" t="n"/>
+      <c r="P1116" s="3" t="n"/>
+      <c r="Q1116" s="1" t="n"/>
+      <c r="R1116" s="1" t="n"/>
+      <c r="S1116" s="3" t="n"/>
+      <c r="T1116" s="3" t="n"/>
+      <c r="U1116" s="1" t="n"/>
+      <c r="V1116" s="1" t="n"/>
+      <c r="W1116" s="3" t="n"/>
+      <c r="X1116" s="3" t="n"/>
+      <c r="Y1116" s="3" t="n"/>
+      <c r="Z1116" s="3" t="n"/>
+      <c r="AA1116" s="3" t="n"/>
+      <c r="AB1116" s="3" t="n"/>
+      <c r="AC1116" s="3" t="n"/>
+      <c r="AD1116" s="1" t="n"/>
+      <c r="AE1116" s="1" t="n"/>
+      <c r="AF1116" s="1" t="n"/>
+      <c r="AG1116" s="1" t="n"/>
+      <c r="AH1116" s="1" t="n"/>
+      <c r="AI1116" s="1" t="n"/>
+      <c r="AJ1116" s="1" t="n"/>
+      <c r="AK1116" s="1" t="n"/>
+      <c r="AL1116" s="1" t="n"/>
+      <c r="AM1116" s="1" t="n"/>
+      <c r="AN1116" s="1" t="n"/>
+      <c r="AO1116" s="1" t="n"/>
+      <c r="AP1116" s="1" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AO1054"/>

--- a/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
+++ b/dumps/Stocks/Bombay Burmah Trading Corporation Ltd.xlsx
@@ -774,7 +774,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP1096"/>
+  <dimension ref="A1:AP1097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="5">
       <c r="A5" s="91" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1141,18 +1141,18 @@
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1797</v>
+        <v>1785.625</v>
       </c>
       <c r="F5" t="n">
-        <v>7223.96</v>
+        <v>7178.22</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>CN#252611730667</t>
+          <t>CN#252611665409</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>35.96</v>
+        <v>35.72</v>
       </c>
       <c r="J5">
         <f>Index!$C$2</f>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="6">
       <c r="A6" s="91" t="n">
-        <v>46059</v>
+        <v>46063</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
@@ -1174,21 +1174,21 @@
         </is>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1766.3</v>
+        <v>1797</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>5325.39</v>
+        <v>7223.96</v>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>CN#252611604850</t>
+          <t>CN#252611730667</t>
         </is>
       </c>
       <c r="I6" s="0" t="n">
-        <v>26.49</v>
+        <v>35.96</v>
       </c>
       <c r="J6" s="0">
         <f>Index!$C$2</f>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="7">
       <c r="A7" s="91" t="n">
-        <v>46057</v>
+        <v>46059</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
@@ -1213,18 +1213,18 @@
         <v>3</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1747.5333</v>
+        <v>1766.3</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5268.82</v>
+        <v>5325.39</v>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>CN#252611485581</t>
+          <t>CN#252611604850</t>
         </is>
       </c>
       <c r="I7" s="0" t="n">
-        <v>26.22</v>
+        <v>26.49</v>
       </c>
       <c r="J7" s="0">
         <f>Index!$C$2</f>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="8">
       <c r="A8" s="91" t="n">
-        <v>46034</v>
+        <v>46057</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
@@ -1246,21 +1246,21 @@
         </is>
       </c>
       <c r="D8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1796.72</v>
+        <v>1747.5333</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>9028.5</v>
+        <v>5268.82</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>CN#252610469431</t>
+          <t>CN#252611485581</t>
         </is>
       </c>
       <c r="I8" s="0" t="n">
-        <v>44.9</v>
+        <v>26.22</v>
       </c>
       <c r="J8" s="0">
         <f>Index!$C$2</f>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="9">
       <c r="A9" s="91" t="n">
-        <v>46030</v>
+        <v>46034</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
@@ -1282,21 +1282,21 @@
         </is>
       </c>
       <c r="D9" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1890.8</v>
+        <v>1796.72</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5700.75</v>
+        <v>9028.5</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>CN#252610347614</t>
+          <t>CN#252610469431</t>
         </is>
       </c>
       <c r="I9" s="0" t="n">
-        <v>28.35</v>
+        <v>44.9</v>
       </c>
       <c r="J9" s="0">
         <f>Index!$C$2</f>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="10">
       <c r="A10" s="91" t="n">
-        <v>46020</v>
+        <v>46030</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
@@ -1321,18 +1321,18 @@
         <v>3</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>1829.9</v>
+        <v>1890.8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>5517.15</v>
+        <v>5700.75</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>CN#252609871125</t>
+          <t>CN#252610347614</t>
         </is>
       </c>
       <c r="I10" s="0" t="n">
-        <v>27.45</v>
+        <v>28.35</v>
       </c>
       <c r="J10" s="0">
         <f>Index!$C$2</f>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="11">
       <c r="A11" s="91" t="n">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
@@ -1357,18 +1357,18 @@
         <v>3</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1862.4</v>
+        <v>1829.9</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5615.13</v>
+        <v>5517.15</v>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>CN#252609810990</t>
+          <t>CN#252609871125</t>
         </is>
       </c>
       <c r="I11" s="0" t="n">
-        <v>27.93</v>
+        <v>27.45</v>
       </c>
       <c r="J11" s="0">
         <f>Index!$C$2</f>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="12">
       <c r="A12" s="91" t="n">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
@@ -1393,18 +1393,18 @@
         <v>3</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1880.1</v>
+        <v>1862.4</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>5668.5</v>
+        <v>5615.13</v>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>CN#252609755521</t>
+          <t>CN#252609810990</t>
         </is>
       </c>
       <c r="I12" s="0" t="n">
-        <v>28.2</v>
+        <v>27.93</v>
       </c>
       <c r="J12" s="0">
         <f>Index!$C$2</f>
@@ -1413,11 +1413,11 @@
     </row>
     <row r="13">
       <c r="A13" s="91" t="n">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -1426,21 +1426,21 @@
         </is>
       </c>
       <c r="D13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1915.15</v>
+        <v>1880.1</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3849.46</v>
+        <v>5668.5</v>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>CN#252609701573</t>
+          <t>CN#252609755521</t>
         </is>
       </c>
       <c r="I13" s="0" t="n">
-        <v>19.16</v>
+        <v>28.2</v>
       </c>
       <c r="J13" s="0">
         <f>Index!$C$2</f>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="14">
       <c r="A14" s="91" t="n">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
@@ -1465,18 +1465,18 @@
         <v>2</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1872.65</v>
+        <v>1915.15</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>3764.02</v>
+        <v>3849.46</v>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>CN#252609527272</t>
+          <t>CN#252609701573</t>
         </is>
       </c>
       <c r="I14" s="0" t="n">
-        <v>18.72</v>
+        <v>19.16</v>
       </c>
       <c r="J14" s="0">
         <f>Index!$C$2</f>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="15">
       <c r="A15" s="91" t="n">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
@@ -1501,18 +1501,18 @@
         <v>2</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1902.35</v>
+        <v>1872.65</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3823.72</v>
+        <v>3764.02</v>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>CN#252609425003</t>
+          <t>CN#252609527272</t>
         </is>
       </c>
       <c r="I15" s="0" t="n">
-        <v>19.02</v>
+        <v>18.72</v>
       </c>
       <c r="J15" s="0">
         <f>Index!$C$2</f>
@@ -1521,11 +1521,11 @@
     </row>
     <row r="16">
       <c r="A16" s="91" t="n">
-        <v>46002</v>
+        <v>46007</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -1534,21 +1534,21 @@
         </is>
       </c>
       <c r="D16" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>1894</v>
+        <v>1902.35</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>5710.41</v>
+        <v>3823.72</v>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>CN#252609267726</t>
+          <t>CN#252609425003</t>
         </is>
       </c>
       <c r="I16" s="0" t="n">
-        <v>28.41</v>
+        <v>19.02</v>
       </c>
       <c r="J16" s="0">
         <f>Index!$C$2</f>
@@ -1557,11 +1557,11 @@
     </row>
     <row r="17">
       <c r="A17" s="91" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -1573,18 +1573,18 @@
         <v>3</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1834.96666667</v>
+        <v>1894</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>5532.42</v>
+        <v>5710.41</v>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>CN#252609039305</t>
+          <t>CN#252609267726</t>
         </is>
       </c>
       <c r="I17" s="0" t="n">
-        <v>27.52</v>
+        <v>28.41</v>
       </c>
       <c r="J17" s="0">
         <f>Index!$C$2</f>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="18">
       <c r="A18" s="91" t="n">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -1609,18 +1609,18 @@
         <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1878.35</v>
+        <v>1834.96666667</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>5663.22</v>
+        <v>5532.42</v>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>CN#252608985717</t>
+          <t>CN#252609039305</t>
         </is>
       </c>
       <c r="I18" s="0" t="n">
-        <v>28.17</v>
+        <v>27.52</v>
       </c>
       <c r="J18" s="0">
         <f>Index!$C$2</f>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="19">
       <c r="A19" s="91" t="n">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
@@ -1645,18 +1645,18 @@
         <v>3</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1834.9</v>
+        <v>1878.35</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>5532.21</v>
+        <v>5663.22</v>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>CN#252608877522</t>
+          <t>CN#252608985717</t>
         </is>
       </c>
       <c r="I19" s="0" t="n">
-        <v>27.51</v>
+        <v>28.17</v>
       </c>
       <c r="J19" s="0">
         <f>Index!$C$2</f>
@@ -1665,11 +1665,11 @@
     </row>
     <row r="20">
       <c r="A20" s="91" t="n">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -1681,14 +1681,14 @@
         <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1834.3</v>
+        <v>1834.9</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>5530.41</v>
+        <v>5532.21</v>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>CN#252608755594</t>
+          <t>CN#252608877522</t>
         </is>
       </c>
       <c r="I20" s="0" t="n">
@@ -1701,7 +1701,7 @@
     </row>
     <row r="21">
       <c r="A21" s="91" t="n">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
@@ -1714,21 +1714,21 @@
         </is>
       </c>
       <c r="D21" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1845.3</v>
+        <v>1834.3</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>11127.16</v>
+        <v>5530.41</v>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>CN#252608703866</t>
+          <t>CN#252608755594</t>
         </is>
       </c>
       <c r="I21" s="0" t="n">
-        <v>55.36</v>
+        <v>27.51</v>
       </c>
       <c r="J21" s="0">
         <f>Index!$C$2</f>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="22">
       <c r="A22" s="91" t="n">
-        <v>45982</v>
+        <v>45988</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
@@ -1750,21 +1750,21 @@
         </is>
       </c>
       <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1887.8</v>
+        <v>1845.3</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3794.48</v>
+        <v>11127.16</v>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>CN#252608495287</t>
+          <t>CN#252608703866</t>
         </is>
       </c>
       <c r="I22" s="0" t="n">
-        <v>18.88</v>
+        <v>55.36</v>
       </c>
       <c r="J22" s="0">
         <f>Index!$C$2</f>
@@ -1773,11 +1773,11 @@
     </row>
     <row r="23">
       <c r="A23" s="91" t="n">
-        <v>45981</v>
+        <v>45982</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
@@ -1789,18 +1789,18 @@
         <v>2</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>1941.05</v>
+        <v>1887.8</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3901.52</v>
+        <v>3794.48</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>CN#252608441505</t>
+          <t>CN#252608495287</t>
         </is>
       </c>
       <c r="I23" s="0" t="n">
-        <v>19.42</v>
+        <v>18.88</v>
       </c>
       <c r="J23" s="0">
         <f>Index!$C$2</f>
@@ -1809,11 +1809,11 @@
     </row>
     <row r="24">
       <c r="A24" s="91" t="n">
-        <v>45979</v>
+        <v>45981</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
@@ -1825,18 +1825,18 @@
         <v>2</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>1907.1</v>
+        <v>1941.05</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3833.28</v>
+        <v>3901.52</v>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>CN#252608322011</t>
+          <t>CN#252608441505</t>
         </is>
       </c>
       <c r="I24" s="0" t="n">
-        <v>19.08</v>
+        <v>19.42</v>
       </c>
       <c r="J24" s="0">
         <f>Index!$C$2</f>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="25">
       <c r="A25" s="91" t="n">
-        <v>45978</v>
+        <v>45979</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
@@ -1861,18 +1861,18 @@
         <v>2</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1848.4</v>
+        <v>1907.1</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3715.28</v>
+        <v>3833.28</v>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>CN#252608260909</t>
+          <t>CN#252608322011</t>
         </is>
       </c>
       <c r="I25" s="0" t="n">
-        <v>18.48</v>
+        <v>19.08</v>
       </c>
       <c r="J25" s="0">
         <f>Index!$C$2</f>
@@ -1881,11 +1881,11 @@
     </row>
     <row r="26">
       <c r="A26" s="91" t="n">
-        <v>45975</v>
+        <v>45978</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
@@ -1894,21 +1894,21 @@
         </is>
       </c>
       <c r="D26" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1879.45</v>
+        <v>1848.4</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>5666.55</v>
+        <v>3715.28</v>
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>CN#252608199734</t>
+          <t>CN#252608260909</t>
         </is>
       </c>
       <c r="I26" s="0" t="n">
-        <v>28.2</v>
+        <v>18.48</v>
       </c>
       <c r="J26" s="0">
         <f>Index!$C$2</f>
@@ -1917,11 +1917,11 @@
     </row>
     <row r="27">
       <c r="A27" s="91" t="n">
-        <v>45974</v>
+        <v>45975</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
@@ -1930,21 +1930,21 @@
         </is>
       </c>
       <c r="D27" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1874.9</v>
+        <v>1879.45</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3768.54</v>
+        <v>5666.55</v>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>CN#252608142538</t>
+          <t>CN#252608199734</t>
         </is>
       </c>
       <c r="I27" s="0" t="n">
-        <v>18.74</v>
+        <v>28.2</v>
       </c>
       <c r="J27" s="0">
         <f>Index!$C$2</f>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="28">
       <c r="A28" s="91" t="n">
-        <v>45972</v>
+        <v>45974</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
@@ -1966,21 +1966,21 @@
         </is>
       </c>
       <c r="D28" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1884.9</v>
+        <v>1874.9</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>5682.96</v>
+        <v>3768.54</v>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>CN#252608021091</t>
+          <t>CN#252608142538</t>
         </is>
       </c>
       <c r="I28" s="0" t="n">
-        <v>28.26</v>
+        <v>18.74</v>
       </c>
       <c r="J28" s="0">
         <f>Index!$C$2</f>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="29">
       <c r="A29" s="91" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
@@ -2002,21 +2002,21 @@
         </is>
       </c>
       <c r="D29" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1932.5</v>
+        <v>1884.9</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3884.32</v>
+        <v>5682.96</v>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>CN#252607962278</t>
+          <t>CN#252608021091</t>
         </is>
       </c>
       <c r="I29" s="0" t="n">
-        <v>19.32</v>
+        <v>28.26</v>
       </c>
       <c r="J29" s="0">
         <f>Index!$C$2</f>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="30">
       <c r="A30" s="91" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
@@ -2041,18 +2041,18 @@
         <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>1883.2</v>
+        <v>1932.5</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3785.24</v>
+        <v>3884.32</v>
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
-          <t>CN#252607899666</t>
+          <t>CN#252607962278</t>
         </is>
       </c>
       <c r="I30" s="0" t="n">
-        <v>18.84</v>
+        <v>19.32</v>
       </c>
       <c r="J30" s="0">
         <f>Index!$C$2</f>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="31">
       <c r="A31" s="91" t="n">
-        <v>45961</v>
+        <v>45968</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
@@ -2077,18 +2077,18 @@
         <v>2</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>1979</v>
+        <v>1883.2</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3977.8</v>
+        <v>3785.24</v>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>CN#252607606298</t>
+          <t>CN#252607899666</t>
         </is>
       </c>
       <c r="I31" s="0" t="n">
-        <v>19.8</v>
+        <v>18.84</v>
       </c>
       <c r="J31" s="0">
         <f>Index!$C$2</f>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="32">
       <c r="A32" s="91" t="n">
-        <v>45959</v>
+        <v>45961</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
@@ -2113,18 +2113,18 @@
         <v>2</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>2017.45</v>
+        <v>1979</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>4055.08</v>
+        <v>3977.8</v>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>CN#252607497001</t>
+          <t>CN#252607606298</t>
         </is>
       </c>
       <c r="I32" s="0" t="n">
-        <v>20.18</v>
+        <v>19.8</v>
       </c>
       <c r="J32" s="0">
         <f>Index!$C$2</f>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="33">
       <c r="A33" s="91" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
@@ -2146,21 +2146,21 @@
         </is>
       </c>
       <c r="D33" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>2035</v>
+        <v>2017.45</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>6135.54</v>
+        <v>4055.08</v>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>CN#252607382790</t>
+          <t>CN#252607497001</t>
         </is>
       </c>
       <c r="I33" s="0" t="n">
-        <v>30.54</v>
+        <v>20.18</v>
       </c>
       <c r="J33" s="0">
         <f>Index!$C$2</f>
@@ -2169,11 +2169,11 @@
     </row>
     <row r="34">
       <c r="A34" s="91" t="n">
-        <v>45967</v>
+        <v>45957</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
@@ -2182,21 +2182,21 @@
         </is>
       </c>
       <c r="D34" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>1913</v>
+        <v>2035</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3845.14</v>
+        <v>6135.54</v>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t>CN#252607785263</t>
+          <t>CN#252607382790</t>
         </is>
       </c>
       <c r="I34" s="0" t="n">
-        <v>19.14</v>
+        <v>30.54</v>
       </c>
       <c r="J34" s="0">
         <f>Index!$C$2</f>
@@ -2204,118 +2204,44 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n">
-        <v>45950</v>
-      </c>
-      <c r="B35" s="29" t="inlineStr">
+      <c r="A35" s="91" t="n">
+        <v>45967</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
         <is>
           <t>BSE</t>
         </is>
       </c>
-      <c r="C35" s="29" t="inlineStr">
+      <c r="C35" s="0" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D35" s="30" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" s="31" t="n">
-        <v>2046.39</v>
-      </c>
-      <c r="F35" s="31">
-        <f>(D5*E5)+I5</f>
-        <v/>
-      </c>
-      <c r="G35" s="29" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H35" s="31" t="n"/>
-      <c r="I35" s="31" t="n"/>
-      <c r="J35" s="32">
+      <c r="D35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1913</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>3845.14</v>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>CN#252607785263</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>19.14</v>
+      </c>
+      <c r="J35" s="0">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K35" s="33">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="L35" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="M35" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v/>
-      </c>
-      <c r="N35" s="35">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
-        <v/>
-      </c>
-      <c r="O35" s="33">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="P35" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="Q35" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v/>
-      </c>
-      <c r="R35" s="34">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="S35" s="36">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="T35" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v/>
-      </c>
-      <c r="U35" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
-        <v/>
-      </c>
-      <c r="V35" s="37">
-        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
-        <v/>
-      </c>
-      <c r="W35" s="37" t="n"/>
-      <c r="X35" s="37" t="n"/>
-      <c r="Y35" s="36">
-        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
-        <v/>
-      </c>
-      <c r="Z35" s="37" t="n"/>
-      <c r="AA35" s="37" t="n"/>
-      <c r="AB35" s="37" t="n"/>
-      <c r="AC35" s="34">
-        <f>if(B5="DIV", F5,"")</f>
-        <v/>
-      </c>
-      <c r="AD35" s="38" t="n"/>
-      <c r="AE35" s="1" t="n"/>
-      <c r="AF35" s="1" t="n"/>
-      <c r="AG35" s="1" t="n"/>
-      <c r="AH35" s="1" t="n"/>
-      <c r="AI35" s="1" t="n"/>
-      <c r="AJ35" s="1" t="n"/>
-      <c r="AK35" s="1" t="n"/>
-      <c r="AL35" s="1" t="n"/>
-      <c r="AM35" s="1" t="n"/>
-      <c r="AN35" s="1" t="n"/>
-      <c r="AO35" s="1" t="n"/>
-      <c r="AP35" s="1" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="28" t="n">
-        <v>45947</v>
+        <v>45950</v>
       </c>
       <c r="B36" s="29" t="inlineStr">
         <is>
@@ -2331,10 +2257,10 @@
         <v>5</v>
       </c>
       <c r="E36" s="31" t="n">
-        <v>1965.94</v>
+        <v>2046.39</v>
       </c>
       <c r="F36" s="31">
-        <f>(D6*E6)+I6</f>
+        <f>(D5*E5)+I5</f>
         <v/>
       </c>
       <c r="G36" s="29" t="inlineStr">
@@ -2349,64 +2275,64 @@
         <v/>
       </c>
       <c r="K36" s="33">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="L36" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="M36" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
         <v/>
       </c>
       <c r="N36" s="35">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
         <v/>
       </c>
       <c r="O36" s="33">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="P36" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="Q36" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
         <v/>
       </c>
       <c r="R36" s="34">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="S36" s="36">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), T5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="T36" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
         <v/>
       </c>
       <c r="U36" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), ((E5*D5)+T5), "")</f>
         <v/>
       </c>
       <c r="V36" s="37">
-        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
+        <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &gt; 365), D5, "")</f>
         <v/>
       </c>
       <c r="W36" s="37" t="n"/>
       <c r="X36" s="37" t="n"/>
       <c r="Y36" s="36">
-        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
+        <f>IF(AND( C5="Buy", W5&lt;&gt;"", AA5&lt;&gt;"", B5&lt;&gt;"DIV"), Z5/sum(F5:I5), "")</f>
         <v/>
       </c>
       <c r="Z36" s="37" t="n"/>
       <c r="AA36" s="37" t="n"/>
       <c r="AB36" s="37" t="n"/>
       <c r="AC36" s="34">
-        <f>if(B6="DIV", F6,"")</f>
+        <f>if(B5="DIV", F5,"")</f>
         <v/>
       </c>
       <c r="AD36" s="38" t="n"/>
@@ -2424,8 +2350,8 @@
       <c r="AP36" s="1" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="39" t="n">
-        <v>45933</v>
+      <c r="A37" s="28" t="n">
+        <v>45947</v>
       </c>
       <c r="B37" s="29" t="inlineStr">
         <is>
@@ -2438,13 +2364,13 @@
         </is>
       </c>
       <c r="D37" s="30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="31" t="n">
-        <v>1894.28</v>
+        <v>1965.94</v>
       </c>
       <c r="F37" s="31">
-        <f>(D7*E7)+I7</f>
+        <f>(D6*E6)+I6</f>
         <v/>
       </c>
       <c r="G37" s="29" t="inlineStr">
@@ -2459,64 +2385,64 @@
         <v/>
       </c>
       <c r="K37" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), L6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="L37" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="M37" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), ((E6*D6)+L6), "")</f>
         <v/>
       </c>
       <c r="N37" s="35">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), D6, "")</f>
         <v/>
       </c>
       <c r="O37" s="33">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), P6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="P37" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="Q37" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), ((E6*D6)+P6), "")</f>
         <v/>
       </c>
       <c r="R37" s="34">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="S37" s="36">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), T6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="T37" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
         <v/>
       </c>
       <c r="U37" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), ((E6*D6)+T6), "")</f>
         <v/>
       </c>
       <c r="V37" s="37">
-        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
+        <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &gt; 365), D6, "")</f>
         <v/>
       </c>
       <c r="W37" s="37" t="n"/>
       <c r="X37" s="37" t="n"/>
       <c r="Y37" s="36">
-        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
+        <f>IF(AND( C6="Buy", W6&lt;&gt;"", AA6&lt;&gt;"", B6&lt;&gt;"DIV"), Z6/sum(F6:I6), "")</f>
         <v/>
       </c>
       <c r="Z37" s="37" t="n"/>
       <c r="AA37" s="37" t="n"/>
       <c r="AB37" s="37" t="n"/>
       <c r="AC37" s="34">
-        <f>if(B7="DIV", F7,"")</f>
+        <f>if(B6="DIV", F6,"")</f>
         <v/>
       </c>
       <c r="AD37" s="38" t="n"/>
@@ -2548,13 +2474,13 @@
         </is>
       </c>
       <c r="D38" s="30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" s="31" t="n">
         <v>1894.28</v>
       </c>
       <c r="F38" s="31">
-        <f>(D8*E8)+I8</f>
+        <f>(D7*E7)+I7</f>
         <v/>
       </c>
       <c r="G38" s="29" t="inlineStr">
@@ -2569,64 +2495,64 @@
         <v/>
       </c>
       <c r="K38" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), L7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="L38" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="M38" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), ((E7*D7)+L7), "")</f>
         <v/>
       </c>
       <c r="N38" s="35">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), D7, "")</f>
         <v/>
       </c>
       <c r="O38" s="33">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), P7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="P38" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="Q38" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), ((E7*D7)+P7), "")</f>
         <v/>
       </c>
       <c r="R38" s="34">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="S38" s="36">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), T7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="T38" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
         <v/>
       </c>
       <c r="U38" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), ((E7*D7)+T7), "")</f>
         <v/>
       </c>
       <c r="V38" s="37">
-        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
+        <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &gt; 365), D7, "")</f>
         <v/>
       </c>
       <c r="W38" s="37" t="n"/>
       <c r="X38" s="37" t="n"/>
       <c r="Y38" s="36">
-        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
+        <f>IF(AND( C7="Buy", W7&lt;&gt;"", AA7&lt;&gt;"", B7&lt;&gt;"DIV"), Z7/sum(F7:I7), "")</f>
         <v/>
       </c>
       <c r="Z38" s="37" t="n"/>
       <c r="AA38" s="37" t="n"/>
       <c r="AB38" s="37" t="n"/>
       <c r="AC38" s="34">
-        <f>if(B8="DIV", F8,"")</f>
+        <f>if(B7="DIV", F7,"")</f>
         <v/>
       </c>
       <c r="AD38" s="38" t="n"/>
@@ -2645,7 +2571,7 @@
     </row>
     <row r="39">
       <c r="A39" s="39" t="n">
-        <v>45924</v>
+        <v>45933</v>
       </c>
       <c r="B39" s="29" t="inlineStr">
         <is>
@@ -2658,13 +2584,13 @@
         </is>
       </c>
       <c r="D39" s="30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="31" t="n">
         <v>1894.28</v>
       </c>
       <c r="F39" s="31">
-        <f>(D9*E9)+I9</f>
+        <f>(D8*E8)+I8</f>
         <v/>
       </c>
       <c r="G39" s="29" t="inlineStr">
@@ -2679,64 +2605,64 @@
         <v/>
       </c>
       <c r="K39" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), L8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="L39" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="M39" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), ((E8*D8)+L8), "")</f>
         <v/>
       </c>
       <c r="N39" s="35">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV"), D8, "")</f>
         <v/>
       </c>
       <c r="O39" s="33">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), P8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="P39" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="Q39" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), ((E8*D8)+P8), "")</f>
         <v/>
       </c>
       <c r="R39" s="34">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &lt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="S39" s="36">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), T8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="T39" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), (1-Index!$F$2*2)*((J8*D8)-(E8*D8)), "")</f>
         <v/>
       </c>
       <c r="U39" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), ((E8*D8)+T8), "")</f>
         <v/>
       </c>
       <c r="V39" s="37">
-        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
+        <f>IF(AND( C8="Buy", ISBLANK(W8), B8&lt;&gt;"DIV", NOW()-A8 &gt; 365), D8, "")</f>
         <v/>
       </c>
       <c r="W39" s="37" t="n"/>
       <c r="X39" s="37" t="n"/>
       <c r="Y39" s="36">
-        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
+        <f>IF(AND( C8="Buy", W8&lt;&gt;"", AA8&lt;&gt;"", B8&lt;&gt;"DIV"), Z8/sum(F8:I8), "")</f>
         <v/>
       </c>
       <c r="Z39" s="37" t="n"/>
       <c r="AA39" s="37" t="n"/>
       <c r="AB39" s="37" t="n"/>
       <c r="AC39" s="34">
-        <f>if(B9="DIV", F9,"")</f>
+        <f>if(B8="DIV", F8,"")</f>
         <v/>
       </c>
       <c r="AD39" s="38" t="n"/>
@@ -2755,7 +2681,7 @@
     </row>
     <row r="40">
       <c r="A40" s="39" t="n">
-        <v>45903</v>
+        <v>45924</v>
       </c>
       <c r="B40" s="29" t="inlineStr">
         <is>
@@ -2768,88 +2694,85 @@
         </is>
       </c>
       <c r="D40" s="30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="31" t="n">
-        <v>1841.98</v>
-      </c>
-      <c r="F40" s="31" t="n">
-        <v>7367.94</v>
+        <v>1894.28</v>
+      </c>
+      <c r="F40" s="31">
+        <f>(D9*E9)+I9</f>
+        <v/>
       </c>
       <c r="G40" s="29" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H40" s="31" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="I40" s="31" t="n">
-        <v>44.6</v>
-      </c>
+      <c r="H40" s="31" t="n"/>
+      <c r="I40" s="31" t="n"/>
       <c r="J40" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K40" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), L9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="L40" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="M40" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), ((E9*D9)+L9), "")</f>
         <v/>
       </c>
       <c r="N40" s="35">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), D9, "")</f>
         <v/>
       </c>
       <c r="O40" s="33">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), P9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="P40" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="Q40" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), ((E9*D9)+P9), "")</f>
         <v/>
       </c>
       <c r="R40" s="34">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &lt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="S40" s="36">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), T9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="T40" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
         <v/>
       </c>
       <c r="U40" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), ((E9*D9)+T9), "")</f>
         <v/>
       </c>
       <c r="V40" s="37">
-        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
+        <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), D9, "")</f>
         <v/>
       </c>
       <c r="W40" s="37" t="n"/>
       <c r="X40" s="37" t="n"/>
       <c r="Y40" s="36">
-        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
+        <f>IF(AND( C9="Buy", W9&lt;&gt;"", AA9&lt;&gt;"", B9&lt;&gt;"DIV"), Z9/sum(F9:I9), "")</f>
         <v/>
       </c>
       <c r="Z40" s="37" t="n"/>
       <c r="AA40" s="37" t="n"/>
       <c r="AB40" s="37" t="n"/>
       <c r="AC40" s="34">
-        <f>if(B10="DIV", F10,"")</f>
+        <f>if(B9="DIV", F9,"")</f>
         <v/>
       </c>
       <c r="AD40" s="38" t="n"/>
@@ -2881,13 +2804,13 @@
         </is>
       </c>
       <c r="D41" s="30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E41" s="31" t="n">
-        <v>1842.48</v>
+        <v>1841.98</v>
       </c>
       <c r="F41" s="31" t="n">
-        <v>1842.48</v>
+        <v>7367.94</v>
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
@@ -2895,74 +2818,74 @@
         </is>
       </c>
       <c r="H41" s="31" t="n">
-        <v>1.83</v>
+        <v>7.34</v>
       </c>
       <c r="I41" s="31" t="n">
-        <v>11.15</v>
+        <v>44.6</v>
       </c>
       <c r="J41" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K41" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), L10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="L41" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="M41" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), ((E10*D10)+L10), "")</f>
         <v/>
       </c>
       <c r="N41" s="35">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), D10, "")</f>
         <v/>
       </c>
       <c r="O41" s="33">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), P10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="P41" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="Q41" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), ((E10*D10)+P10), "")</f>
         <v/>
       </c>
       <c r="R41" s="34">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &lt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="S41" s="36">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), T10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="T41" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
         <v/>
       </c>
       <c r="U41" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), ((E10*D10)+T10), "")</f>
         <v/>
       </c>
       <c r="V41" s="37">
-        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
+        <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), D10, "")</f>
         <v/>
       </c>
       <c r="W41" s="37" t="n"/>
       <c r="X41" s="37" t="n"/>
       <c r="Y41" s="36">
-        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
+        <f>IF(AND( C10="Buy", W10&lt;&gt;"", AA10&lt;&gt;"", B10&lt;&gt;"DIV"), Z10/sum(F10:I10), "")</f>
         <v/>
       </c>
       <c r="Z41" s="37" t="n"/>
       <c r="AA41" s="37" t="n"/>
       <c r="AB41" s="37" t="n"/>
       <c r="AC41" s="34">
-        <f>if(B11="DIV", F11,"")</f>
+        <f>if(B10="DIV", F10,"")</f>
         <v/>
       </c>
       <c r="AD41" s="38" t="n"/>
@@ -2981,11 +2904,11 @@
     </row>
     <row r="42">
       <c r="A42" s="39" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B42" s="29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C42" s="29" t="inlineStr">
@@ -2994,13 +2917,13 @@
         </is>
       </c>
       <c r="D42" s="30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="31" t="n">
-        <v>1766.08</v>
+        <v>1842.48</v>
       </c>
       <c r="F42" s="31" t="n">
-        <v>5298.24</v>
+        <v>1842.48</v>
       </c>
       <c r="G42" s="29" t="inlineStr">
         <is>
@@ -3008,74 +2931,74 @@
         </is>
       </c>
       <c r="H42" s="31" t="n">
-        <v>5.24</v>
+        <v>1.83</v>
       </c>
       <c r="I42" s="31" t="n">
-        <v>31.9</v>
+        <v>11.15</v>
       </c>
       <c r="J42" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K42" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), L11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="L42" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="M42" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), ((E11*D11)+L11), "")</f>
         <v/>
       </c>
       <c r="N42" s="35">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), D11, "")</f>
         <v/>
       </c>
       <c r="O42" s="33">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), P11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="P42" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="Q42" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), ((E11*D11)+P11), "")</f>
         <v/>
       </c>
       <c r="R42" s="34">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &lt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="S42" s="36">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), T11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="T42" s="37">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
         <v/>
       </c>
       <c r="U42" s="37">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), ((E11*D11)+T11), "")</f>
         <v/>
       </c>
       <c r="V42" s="37">
-        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
+        <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), D11, "")</f>
         <v/>
       </c>
       <c r="W42" s="37" t="n"/>
       <c r="X42" s="37" t="n"/>
       <c r="Y42" s="36">
-        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
+        <f>IF(AND( C11="Buy", W11&lt;&gt;"", AA11&lt;&gt;"", B11&lt;&gt;"DIV"), Z11/sum(F11:I11), "")</f>
         <v/>
       </c>
       <c r="Z42" s="37" t="n"/>
       <c r="AA42" s="37" t="n"/>
       <c r="AB42" s="37" t="n"/>
       <c r="AC42" s="34">
-        <f>if(B12="DIV", F12,"")</f>
+        <f>if(B11="DIV", F11,"")</f>
         <v/>
       </c>
       <c r="AD42" s="38" t="n"/>
@@ -3094,7 +3017,7 @@
     </row>
     <row r="43">
       <c r="A43" s="39" t="n">
-        <v>45873</v>
+        <v>45901</v>
       </c>
       <c r="B43" s="29" t="inlineStr">
         <is>
@@ -3107,13 +3030,13 @@
         </is>
       </c>
       <c r="D43" s="30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43" s="31" t="n">
-        <v>1915.6</v>
+        <v>1766.08</v>
       </c>
       <c r="F43" s="31" t="n">
-        <v>3831.19</v>
+        <v>5298.24</v>
       </c>
       <c r="G43" s="29" t="inlineStr">
         <is>
@@ -3121,74 +3044,74 @@
         </is>
       </c>
       <c r="H43" s="31" t="n">
-        <v>3.84</v>
+        <v>5.24</v>
       </c>
       <c r="I43" s="31" t="n">
-        <v>23.15</v>
+        <v>31.9</v>
       </c>
       <c r="J43" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K43" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), L12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="L43" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="M43" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), ((E12*D12)+L12), "")</f>
         <v/>
       </c>
       <c r="N43" s="35">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), D12, "")</f>
         <v/>
       </c>
       <c r="O43" s="33">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), P12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="P43" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="Q43" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), ((E12*D12)+P12), "")</f>
         <v/>
       </c>
       <c r="R43" s="34">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &lt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="S43" s="36">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), T12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="T43" s="37">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
         <v/>
       </c>
       <c r="U43" s="37">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), ((E12*D12)+T12), "")</f>
         <v/>
       </c>
       <c r="V43" s="37">
-        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
+        <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), D12, "")</f>
         <v/>
       </c>
       <c r="W43" s="37" t="n"/>
       <c r="X43" s="37" t="n"/>
       <c r="Y43" s="36">
-        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
+        <f>IF(AND( C12="Buy", W12&lt;&gt;"", AA12&lt;&gt;"", B12&lt;&gt;"DIV"), Z12/sum(F12:I12), "")</f>
         <v/>
       </c>
       <c r="Z43" s="37" t="n"/>
       <c r="AA43" s="37" t="n"/>
       <c r="AB43" s="37" t="n"/>
       <c r="AC43" s="34">
-        <f>if(B13="DIV", F13,"")</f>
+        <f>if(B12="DIV", F12,"")</f>
         <v/>
       </c>
       <c r="AD43" s="38" t="n"/>
@@ -3220,13 +3143,13 @@
         </is>
       </c>
       <c r="D44" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="31" t="n">
-        <v>1915.54</v>
+        <v>1915.6</v>
       </c>
       <c r="F44" s="31" t="n">
-        <v>1915.54</v>
+        <v>3831.19</v>
       </c>
       <c r="G44" s="29" t="inlineStr">
         <is>
@@ -3234,74 +3157,74 @@
         </is>
       </c>
       <c r="H44" s="31" t="n">
-        <v>1.93</v>
+        <v>3.84</v>
       </c>
       <c r="I44" s="31" t="n">
-        <v>11.61</v>
+        <v>23.15</v>
       </c>
       <c r="J44" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K44" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), L13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="L44" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="M44" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), ((E13*D13)+L13), "")</f>
         <v/>
       </c>
       <c r="N44" s="35">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), D13, "")</f>
         <v/>
       </c>
       <c r="O44" s="33">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), P13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="P44" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="Q44" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), ((E13*D13)+P13), "")</f>
         <v/>
       </c>
       <c r="R44" s="34">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &lt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="S44" s="36">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), T13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="T44" s="37">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
         <v/>
       </c>
       <c r="U44" s="37">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), ((E13*D13)+T13), "")</f>
         <v/>
       </c>
       <c r="V44" s="37">
-        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
+        <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), D13, "")</f>
         <v/>
       </c>
       <c r="W44" s="37" t="n"/>
       <c r="X44" s="37" t="n"/>
       <c r="Y44" s="36">
-        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
+        <f>IF(AND( C13="Buy", W13&lt;&gt;"", AA13&lt;&gt;"", B13&lt;&gt;"DIV"), Z13/sum(F13:I13), "")</f>
         <v/>
       </c>
       <c r="Z44" s="37" t="n"/>
       <c r="AA44" s="37" t="n"/>
       <c r="AB44" s="37" t="n"/>
       <c r="AC44" s="34">
-        <f>if(B14="DIV", F14,"")</f>
+        <f>if(B13="DIV", F13,"")</f>
         <v/>
       </c>
       <c r="AD44" s="38" t="n"/>
@@ -3336,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="E45" s="31" t="n">
-        <v>1915.65</v>
+        <v>1915.54</v>
       </c>
       <c r="F45" s="31" t="n">
-        <v>1915.65</v>
+        <v>1915.54</v>
       </c>
       <c r="G45" s="29" t="inlineStr">
         <is>
@@ -3350,71 +3273,71 @@
         <v>1.93</v>
       </c>
       <c r="I45" s="31" t="n">
-        <v>11.62</v>
+        <v>11.61</v>
       </c>
       <c r="J45" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K45" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), L14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="L45" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="M45" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), ((E14*D14)+L14), "")</f>
         <v/>
       </c>
       <c r="N45" s="35">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), D14, "")</f>
         <v/>
       </c>
       <c r="O45" s="33">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), P14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="P45" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="Q45" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), ((E14*D14)+P14), "")</f>
         <v/>
       </c>
       <c r="R45" s="34">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &lt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="S45" s="36">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), T14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="T45" s="37">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
         <v/>
       </c>
       <c r="U45" s="37">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), ((E14*D14)+T14), "")</f>
         <v/>
       </c>
       <c r="V45" s="37">
-        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
+        <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), D14, "")</f>
         <v/>
       </c>
       <c r="W45" s="37" t="n"/>
       <c r="X45" s="37" t="n"/>
       <c r="Y45" s="36">
-        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
+        <f>IF(AND( C14="Buy", W14&lt;&gt;"", AA14&lt;&gt;"", B14&lt;&gt;"DIV"), Z14/sum(F14:I14), "")</f>
         <v/>
       </c>
       <c r="Z45" s="37" t="n"/>
       <c r="AA45" s="37" t="n"/>
       <c r="AB45" s="37" t="n"/>
       <c r="AC45" s="34">
-        <f>if(B15="DIV", F15,"")</f>
+        <f>if(B14="DIV", F14,"")</f>
         <v/>
       </c>
       <c r="AD45" s="38" t="n"/>
@@ -3449,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>1915.64</v>
+        <v>1915.65</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>1915.64</v>
+        <v>1915.65</v>
       </c>
       <c r="G46" s="29" t="inlineStr">
         <is>
@@ -3463,71 +3386,71 @@
         <v>1.93</v>
       </c>
       <c r="I46" s="31" t="n">
-        <v>11.61</v>
+        <v>11.62</v>
       </c>
       <c r="J46" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K46" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), L15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="L46" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="M46" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), ((E15*D15)+L15), "")</f>
         <v/>
       </c>
       <c r="N46" s="35">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), D15, "")</f>
         <v/>
       </c>
       <c r="O46" s="33">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), P15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="P46" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="Q46" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), ((E15*D15)+P15), "")</f>
         <v/>
       </c>
       <c r="R46" s="34">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &lt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="S46" s="36">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), T15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="T46" s="37">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
         <v/>
       </c>
       <c r="U46" s="37">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), ((E15*D15)+T15), "")</f>
         <v/>
       </c>
       <c r="V46" s="37">
-        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
+        <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), D15, "")</f>
         <v/>
       </c>
       <c r="W46" s="37" t="n"/>
       <c r="X46" s="37" t="n"/>
       <c r="Y46" s="36">
-        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
+        <f>IF(AND( C15="Buy", W15&lt;&gt;"", AA15&lt;&gt;"", B15&lt;&gt;"DIV"), Z15/sum(F15:I15), "")</f>
         <v/>
       </c>
       <c r="Z46" s="37" t="n"/>
       <c r="AA46" s="37" t="n"/>
       <c r="AB46" s="37" t="n"/>
       <c r="AC46" s="34">
-        <f>if(B16="DIV", F16,"")</f>
+        <f>if(B15="DIV", F15,"")</f>
         <v/>
       </c>
       <c r="AD46" s="38" t="n"/>
@@ -3546,11 +3469,11 @@
     </row>
     <row r="47">
       <c r="A47" s="39" t="n">
-        <v>45855</v>
+        <v>45873</v>
       </c>
       <c r="B47" s="29" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C47" s="29" t="inlineStr">
@@ -3559,13 +3482,13 @@
         </is>
       </c>
       <c r="D47" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>2024.27</v>
+        <v>1915.64</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>8097.06</v>
+        <v>1915.64</v>
       </c>
       <c r="G47" s="29" t="inlineStr">
         <is>
@@ -3573,74 +3496,74 @@
         </is>
       </c>
       <c r="H47" s="31" t="n">
-        <v>8.039999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="I47" s="31" t="n">
-        <v>49.02</v>
+        <v>11.61</v>
       </c>
       <c r="J47" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K47" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), L16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="L47" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="M47" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), ((E16*D16)+L16), "")</f>
         <v/>
       </c>
       <c r="N47" s="35">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV"), D16, "")</f>
         <v/>
       </c>
       <c r="O47" s="33">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), P16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="P47" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="Q47" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), ((E16*D16)+P16), "")</f>
         <v/>
       </c>
       <c r="R47" s="34">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &lt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="S47" s="36">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), T16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="T47" s="37">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), (1-Index!$F$2*2)*((J16*D16)-(E16*D16)), "")</f>
         <v/>
       </c>
       <c r="U47" s="37">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), ((E16*D16)+T16), "")</f>
         <v/>
       </c>
       <c r="V47" s="37">
-        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
+        <f>IF(AND( C16="Buy", ISBLANK(W16), B16&lt;&gt;"DIV", NOW()-A16 &gt; 365), D16, "")</f>
         <v/>
       </c>
       <c r="W47" s="37" t="n"/>
       <c r="X47" s="37" t="n"/>
       <c r="Y47" s="36">
-        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
+        <f>IF(AND( C16="Buy", W16&lt;&gt;"", AA16&lt;&gt;"", B16&lt;&gt;"DIV"), Z16/sum(F16:I16), "")</f>
         <v/>
       </c>
       <c r="Z47" s="37" t="n"/>
       <c r="AA47" s="37" t="n"/>
       <c r="AB47" s="37" t="n"/>
       <c r="AC47" s="34">
-        <f>if(B17="DIV", F17,"")</f>
+        <f>if(B16="DIV", F16,"")</f>
         <v/>
       </c>
       <c r="AD47" s="38" t="n"/>
@@ -3672,13 +3595,13 @@
         </is>
       </c>
       <c r="D48" s="30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>2024.91</v>
+        <v>2024.27</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>2024.91</v>
+        <v>8097.06</v>
       </c>
       <c r="G48" s="29" t="inlineStr">
         <is>
@@ -3686,74 +3609,74 @@
         </is>
       </c>
       <c r="H48" s="31" t="n">
-        <v>2.01</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="I48" s="31" t="n">
-        <v>12.25</v>
+        <v>49.02</v>
       </c>
       <c r="J48" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K48" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), L17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="L48" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="M48" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), ((E17*D17)+L17), "")</f>
         <v/>
       </c>
       <c r="N48" s="35">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV"), D17, "")</f>
         <v/>
       </c>
       <c r="O48" s="33">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), P17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="P48" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="Q48" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), ((E17*D17)+P17), "")</f>
         <v/>
       </c>
       <c r="R48" s="34">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &lt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="S48" s="36">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), T17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="T48" s="37">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), (1-Index!$F$2*2)*((J17*D17)-(E17*D17)), "")</f>
         <v/>
       </c>
       <c r="U48" s="37">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), ((E17*D17)+T17), "")</f>
         <v/>
       </c>
       <c r="V48" s="37">
-        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
+        <f>IF(AND( C17="Buy", ISBLANK(W17), B17&lt;&gt;"DIV", NOW()-A17 &gt; 365), D17, "")</f>
         <v/>
       </c>
       <c r="W48" s="37" t="n"/>
       <c r="X48" s="37" t="n"/>
       <c r="Y48" s="36">
-        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
+        <f>IF(AND( C17="Buy", W17&lt;&gt;"", AA17&lt;&gt;"", B17&lt;&gt;"DIV"), Z17/sum(F17:I17), "")</f>
         <v/>
       </c>
       <c r="Z48" s="37" t="n"/>
       <c r="AA48" s="37" t="n"/>
       <c r="AB48" s="37" t="n"/>
       <c r="AC48" s="34">
-        <f>if(B18="DIV", F18,"")</f>
+        <f>if(B17="DIV", F17,"")</f>
         <v/>
       </c>
       <c r="AD48" s="38" t="n"/>
@@ -3772,11 +3695,11 @@
     </row>
     <row r="49">
       <c r="A49" s="39" t="n">
-        <v>45849</v>
+        <v>45855</v>
       </c>
       <c r="B49" s="29" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="C49" s="29" t="inlineStr">
@@ -3785,13 +3708,13 @@
         </is>
       </c>
       <c r="D49" s="30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>1965.93</v>
+        <v>2024.91</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5897.78</v>
+        <v>2024.91</v>
       </c>
       <c r="G49" s="29" t="inlineStr">
         <is>
@@ -3799,74 +3722,74 @@
         </is>
       </c>
       <c r="H49" s="31" t="n">
-        <v>5.84</v>
+        <v>2.01</v>
       </c>
       <c r="I49" s="31" t="n">
-        <v>35.64</v>
+        <v>12.25</v>
       </c>
       <c r="J49" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K49" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), L18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="L49" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="M49" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), ((E18*D18)+L18), "")</f>
         <v/>
       </c>
       <c r="N49" s="35">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), D18, "")</f>
         <v/>
       </c>
       <c r="O49" s="33">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), P18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="P49" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="Q49" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), ((E18*D18)+P18), "")</f>
         <v/>
       </c>
       <c r="R49" s="34">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &lt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="S49" s="36">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), T18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="T49" s="37">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
         <v/>
       </c>
       <c r="U49" s="37">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), ((E18*D18)+T18), "")</f>
         <v/>
       </c>
       <c r="V49" s="37">
-        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
+        <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), D18, "")</f>
         <v/>
       </c>
       <c r="W49" s="37" t="n"/>
       <c r="X49" s="37" t="n"/>
       <c r="Y49" s="36">
-        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
+        <f>IF(AND( C18="Buy", W18&lt;&gt;"", AA18&lt;&gt;"", B18&lt;&gt;"DIV"), Z18/sum(F18:I18), "")</f>
         <v/>
       </c>
       <c r="Z49" s="37" t="n"/>
       <c r="AA49" s="37" t="n"/>
       <c r="AB49" s="37" t="n"/>
       <c r="AC49" s="34">
-        <f>if(B19="DIV", F19,"")</f>
+        <f>if(B18="DIV", F18,"")</f>
         <v/>
       </c>
       <c r="AD49" s="38" t="n"/>
@@ -3898,13 +3821,13 @@
         </is>
       </c>
       <c r="D50" s="30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>1965.92</v>
+        <v>1965.93</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>3931.84</v>
+        <v>5897.78</v>
       </c>
       <c r="G50" s="29" t="inlineStr">
         <is>
@@ -3912,74 +3835,74 @@
         </is>
       </c>
       <c r="H50" s="31" t="n">
-        <v>3.89</v>
+        <v>5.84</v>
       </c>
       <c r="I50" s="31" t="n">
-        <v>23.75</v>
+        <v>35.64</v>
       </c>
       <c r="J50" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K50" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), L19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="L50" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="M50" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), ((E19*D19)+L19), "")</f>
         <v/>
       </c>
       <c r="N50" s="35">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), D19, "")</f>
         <v/>
       </c>
       <c r="O50" s="33">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), P19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="P50" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="Q50" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), ((E19*D19)+P19), "")</f>
         <v/>
       </c>
       <c r="R50" s="34">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &lt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="S50" s="36">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), T19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="T50" s="37">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
         <v/>
       </c>
       <c r="U50" s="37">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), ((E19*D19)+T19), "")</f>
         <v/>
       </c>
       <c r="V50" s="37">
-        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
+        <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), D19, "")</f>
         <v/>
       </c>
       <c r="W50" s="37" t="n"/>
       <c r="X50" s="37" t="n"/>
       <c r="Y50" s="36">
-        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
+        <f>IF(AND( C19="Buy", W19&lt;&gt;"", AA19&lt;&gt;"", B19&lt;&gt;"DIV"), Z19/sum(F19:I19), "")</f>
         <v/>
       </c>
       <c r="Z50" s="37" t="n"/>
       <c r="AA50" s="37" t="n"/>
       <c r="AB50" s="37" t="n"/>
       <c r="AC50" s="34">
-        <f>if(B20="DIV", F20,"")</f>
+        <f>if(B19="DIV", F19,"")</f>
         <v/>
       </c>
       <c r="AD50" s="38" t="n"/>
@@ -4011,13 +3934,13 @@
         </is>
       </c>
       <c r="D51" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>1965.82</v>
+        <v>1965.92</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>1965.82</v>
+        <v>3931.84</v>
       </c>
       <c r="G51" s="29" t="inlineStr">
         <is>
@@ -4025,74 +3948,74 @@
         </is>
       </c>
       <c r="H51" s="31" t="n">
-        <v>1.94</v>
+        <v>3.89</v>
       </c>
       <c r="I51" s="31" t="n">
-        <v>11.88</v>
+        <v>23.75</v>
       </c>
       <c r="J51" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K51" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), L20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="L51" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="M51" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), ((E20*D20)+L20), "")</f>
         <v/>
       </c>
       <c r="N51" s="35">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), D20, "")</f>
         <v/>
       </c>
       <c r="O51" s="33">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), P20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="P51" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="Q51" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), ((E20*D20)+P20), "")</f>
         <v/>
       </c>
       <c r="R51" s="34">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &lt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="S51" s="36">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), T20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="T51" s="37">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
         <v/>
       </c>
       <c r="U51" s="37">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), ((E20*D20)+T20), "")</f>
         <v/>
       </c>
       <c r="V51" s="37">
-        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
+        <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), D20, "")</f>
         <v/>
       </c>
       <c r="W51" s="37" t="n"/>
       <c r="X51" s="37" t="n"/>
       <c r="Y51" s="36">
-        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
+        <f>IF(AND( C20="Buy", W20&lt;&gt;"", AA20&lt;&gt;"", B20&lt;&gt;"DIV"), Z20/sum(F20:I20), "")</f>
         <v/>
       </c>
       <c r="Z51" s="37" t="n"/>
       <c r="AA51" s="37" t="n"/>
       <c r="AB51" s="37" t="n"/>
       <c r="AC51" s="34">
-        <f>if(B21="DIV", F21,"")</f>
+        <f>if(B20="DIV", F20,"")</f>
         <v/>
       </c>
       <c r="AD51" s="38" t="n"/>
@@ -4124,13 +4047,13 @@
         </is>
       </c>
       <c r="D52" s="30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>1965.83</v>
+        <v>1965.82</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>5897.48</v>
+        <v>1965.82</v>
       </c>
       <c r="G52" s="29" t="inlineStr">
         <is>
@@ -4138,74 +4061,74 @@
         </is>
       </c>
       <c r="H52" s="31" t="n">
-        <v>5.84</v>
+        <v>1.94</v>
       </c>
       <c r="I52" s="31" t="n">
-        <v>35.64</v>
+        <v>11.88</v>
       </c>
       <c r="J52" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K52" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), L21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="L52" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="M52" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), ((E21*D21)+L21), "")</f>
         <v/>
       </c>
       <c r="N52" s="35">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), D21, "")</f>
         <v/>
       </c>
       <c r="O52" s="33">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), P21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="P52" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="Q52" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), ((E21*D21)+P21), "")</f>
         <v/>
       </c>
       <c r="R52" s="34">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &lt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="S52" s="36">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), T21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="T52" s="37">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
         <v/>
       </c>
       <c r="U52" s="37">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), ((E21*D21)+T21), "")</f>
         <v/>
       </c>
       <c r="V52" s="37">
-        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
+        <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), D21, "")</f>
         <v/>
       </c>
       <c r="W52" s="37" t="n"/>
       <c r="X52" s="37" t="n"/>
       <c r="Y52" s="36">
-        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
+        <f>IF(AND( C21="Buy", W21&lt;&gt;"", AA21&lt;&gt;"", B21&lt;&gt;"DIV"), Z21/sum(F21:I21), "")</f>
         <v/>
       </c>
       <c r="Z52" s="37" t="n"/>
       <c r="AA52" s="37" t="n"/>
       <c r="AB52" s="37" t="n"/>
       <c r="AC52" s="34">
-        <f>if(B22="DIV", F22,"")</f>
+        <f>if(B21="DIV", F21,"")</f>
         <v/>
       </c>
       <c r="AD52" s="38" t="n"/>
@@ -4237,13 +4160,13 @@
         </is>
       </c>
       <c r="D53" s="30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>1965.62</v>
+        <v>1965.83</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>1965.62</v>
+        <v>5897.48</v>
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
@@ -4251,74 +4174,74 @@
         </is>
       </c>
       <c r="H53" s="31" t="n">
-        <v>1.94</v>
+        <v>5.84</v>
       </c>
       <c r="I53" s="31" t="n">
-        <v>11.88</v>
+        <v>35.64</v>
       </c>
       <c r="J53" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K53" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), L22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="L53" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="M53" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), ((E22*D22)+L22), "")</f>
         <v/>
       </c>
       <c r="N53" s="35">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), D22, "")</f>
         <v/>
       </c>
       <c r="O53" s="33">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), P22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="P53" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="Q53" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), ((E22*D22)+P22), "")</f>
         <v/>
       </c>
       <c r="R53" s="34">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &lt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="S53" s="36">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), T22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="T53" s="37">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
         <v/>
       </c>
       <c r="U53" s="37">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), ((E22*D22)+T22), "")</f>
         <v/>
       </c>
       <c r="V53" s="37">
-        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
+        <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), D22, "")</f>
         <v/>
       </c>
       <c r="W53" s="37" t="n"/>
       <c r="X53" s="37" t="n"/>
       <c r="Y53" s="36">
-        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
+        <f>IF(AND( C22="Buy", W22&lt;&gt;"", AA22&lt;&gt;"", B22&lt;&gt;"DIV"), Z22/sum(F22:I22), "")</f>
         <v/>
       </c>
       <c r="Z53" s="37" t="n"/>
       <c r="AA53" s="37" t="n"/>
       <c r="AB53" s="37" t="n"/>
       <c r="AC53" s="34">
-        <f>if(B23="DIV", F23,"")</f>
+        <f>if(B22="DIV", F22,"")</f>
         <v/>
       </c>
       <c r="AD53" s="38" t="n"/>
@@ -4337,7 +4260,7 @@
     </row>
     <row r="54">
       <c r="A54" s="39" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B54" s="29" t="inlineStr">
         <is>
@@ -4350,13 +4273,13 @@
         </is>
       </c>
       <c r="D54" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>1961.06</v>
+        <v>1965.62</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>7844.24</v>
+        <v>1965.62</v>
       </c>
       <c r="G54" s="29" t="inlineStr">
         <is>
@@ -4364,74 +4287,74 @@
         </is>
       </c>
       <c r="H54" s="31" t="n">
-        <v>7.86</v>
+        <v>1.94</v>
       </c>
       <c r="I54" s="31" t="n">
-        <v>47.58</v>
+        <v>11.88</v>
       </c>
       <c r="J54" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K54" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), L23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="L54" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="M54" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), ((E23*D23)+L23), "")</f>
         <v/>
       </c>
       <c r="N54" s="35">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), D23, "")</f>
         <v/>
       </c>
       <c r="O54" s="33">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), P23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="P54" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="Q54" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), ((E23*D23)+P23), "")</f>
         <v/>
       </c>
       <c r="R54" s="34">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &lt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="S54" s="36">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), T23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="T54" s="37">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
         <v/>
       </c>
       <c r="U54" s="37">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), ((E23*D23)+T23), "")</f>
         <v/>
       </c>
       <c r="V54" s="37">
-        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
+        <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), D23, "")</f>
         <v/>
       </c>
       <c r="W54" s="37" t="n"/>
       <c r="X54" s="37" t="n"/>
       <c r="Y54" s="36">
-        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
+        <f>IF(AND( C23="Buy", W23&lt;&gt;"", AA23&lt;&gt;"", B23&lt;&gt;"DIV"), Z23/sum(F23:I23), "")</f>
         <v/>
       </c>
       <c r="Z54" s="37" t="n"/>
       <c r="AA54" s="37" t="n"/>
       <c r="AB54" s="37" t="n"/>
       <c r="AC54" s="34">
-        <f>if(B24="DIV", F24,"")</f>
+        <f>if(B23="DIV", F23,"")</f>
         <v/>
       </c>
       <c r="AD54" s="38" t="n"/>
@@ -4463,13 +4386,13 @@
         </is>
       </c>
       <c r="D55" s="30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>1960.97</v>
+        <v>1961.06</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>1960.97</v>
+        <v>7844.24</v>
       </c>
       <c r="G55" s="29" t="inlineStr">
         <is>
@@ -4477,74 +4400,74 @@
         </is>
       </c>
       <c r="H55" s="31" t="n">
-        <v>1.97</v>
+        <v>7.86</v>
       </c>
       <c r="I55" s="31" t="n">
-        <v>11.9</v>
+        <v>47.58</v>
       </c>
       <c r="J55" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K55" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), L24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="L55" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="M55" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), ((E24*D24)+L24), "")</f>
         <v/>
       </c>
       <c r="N55" s="35">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV"), D24, "")</f>
         <v/>
       </c>
       <c r="O55" s="33">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), P24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="P55" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="Q55" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), ((E24*D24)+P24), "")</f>
         <v/>
       </c>
       <c r="R55" s="34">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &lt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="S55" s="36">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), T24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="T55" s="37">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), (1-Index!$F$2*2)*((J24*D24)-(E24*D24)), "")</f>
         <v/>
       </c>
       <c r="U55" s="37">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), ((E24*D24)+T24), "")</f>
         <v/>
       </c>
       <c r="V55" s="37">
-        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
+        <f>IF(AND( C24="Buy", ISBLANK(W24), B24&lt;&gt;"DIV", NOW()-A24 &gt; 365), D24, "")</f>
         <v/>
       </c>
       <c r="W55" s="37" t="n"/>
       <c r="X55" s="37" t="n"/>
       <c r="Y55" s="36">
-        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
+        <f>IF(AND( C24="Buy", W24&lt;&gt;"", AA24&lt;&gt;"", B24&lt;&gt;"DIV"), Z24/sum(F24:I24), "")</f>
         <v/>
       </c>
       <c r="Z55" s="37" t="n"/>
       <c r="AA55" s="37" t="n"/>
       <c r="AB55" s="37" t="n"/>
       <c r="AC55" s="34">
-        <f>if(B25="DIV", F25,"")</f>
+        <f>if(B24="DIV", F24,"")</f>
         <v/>
       </c>
       <c r="AD55" s="38" t="n"/>
@@ -4563,7 +4486,7 @@
     </row>
     <row r="56">
       <c r="A56" s="39" t="n">
-        <v>45820</v>
+        <v>45847</v>
       </c>
       <c r="B56" s="29" t="inlineStr">
         <is>
@@ -4576,13 +4499,13 @@
         </is>
       </c>
       <c r="D56" s="30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>2090.3</v>
+        <v>1960.97</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>4180.6</v>
+        <v>1960.97</v>
       </c>
       <c r="G56" s="29" t="inlineStr">
         <is>
@@ -4590,74 +4513,74 @@
         </is>
       </c>
       <c r="H56" s="31" t="n">
-        <v>4.14</v>
+        <v>1.97</v>
       </c>
       <c r="I56" s="31" t="n">
-        <v>25.26</v>
+        <v>11.9</v>
       </c>
       <c r="J56" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K56" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), L25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="L56" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="M56" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), ((E25*D25)+L25), "")</f>
         <v/>
       </c>
       <c r="N56" s="35">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV"), D25, "")</f>
         <v/>
       </c>
       <c r="O56" s="33">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), P25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="P56" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="Q56" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), ((E25*D25)+P25), "")</f>
         <v/>
       </c>
       <c r="R56" s="34">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &lt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="S56" s="36">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), T25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="T56" s="37">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), (1-Index!$F$2*2)*((J25*D25)-(E25*D25)), "")</f>
         <v/>
       </c>
       <c r="U56" s="37">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), ((E25*D25)+T25), "")</f>
         <v/>
       </c>
       <c r="V56" s="37">
-        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
+        <f>IF(AND( C25="Buy", ISBLANK(W25), B25&lt;&gt;"DIV", NOW()-A25 &gt; 365), D25, "")</f>
         <v/>
       </c>
       <c r="W56" s="37" t="n"/>
       <c r="X56" s="37" t="n"/>
       <c r="Y56" s="36">
-        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
+        <f>IF(AND( C25="Buy", W25&lt;&gt;"", AA25&lt;&gt;"", B25&lt;&gt;"DIV"), Z25/sum(F25:I25), "")</f>
         <v/>
       </c>
       <c r="Z56" s="37" t="n"/>
       <c r="AA56" s="37" t="n"/>
       <c r="AB56" s="37" t="n"/>
       <c r="AC56" s="34">
-        <f>if(B26="DIV", F26,"")</f>
+        <f>if(B25="DIV", F25,"")</f>
         <v/>
       </c>
       <c r="AD56" s="38" t="n"/>
@@ -4689,13 +4612,13 @@
         </is>
       </c>
       <c r="D57" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>2090.31</v>
+        <v>2090.3</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>6270.92</v>
+        <v>4180.6</v>
       </c>
       <c r="G57" s="29" t="inlineStr">
         <is>
@@ -4703,74 +4626,74 @@
         </is>
       </c>
       <c r="H57" s="31" t="n">
-        <v>6.22</v>
+        <v>4.14</v>
       </c>
       <c r="I57" s="31" t="n">
-        <v>37.9</v>
+        <v>25.26</v>
       </c>
       <c r="J57" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K57" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), L26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="L57" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="M57" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), ((E26*D26)+L26), "")</f>
         <v/>
       </c>
       <c r="N57" s="35">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV"), D26, "")</f>
         <v/>
       </c>
       <c r="O57" s="33">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), P26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="P57" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="Q57" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), ((E26*D26)+P26), "")</f>
         <v/>
       </c>
       <c r="R57" s="34">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &lt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="S57" s="36">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), T26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="T57" s="37">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), (1-Index!$F$2*2)*((J26*D26)-(E26*D26)), "")</f>
         <v/>
       </c>
       <c r="U57" s="37">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), ((E26*D26)+T26), "")</f>
         <v/>
       </c>
       <c r="V57" s="37">
-        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
+        <f>IF(AND( C26="Buy", ISBLANK(W26), B26&lt;&gt;"DIV", NOW()-A26 &gt; 365), D26, "")</f>
         <v/>
       </c>
       <c r="W57" s="37" t="n"/>
       <c r="X57" s="37" t="n"/>
       <c r="Y57" s="36">
-        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
+        <f>IF(AND( C26="Buy", W26&lt;&gt;"", AA26&lt;&gt;"", B26&lt;&gt;"DIV"), Z26/sum(F26:I26), "")</f>
         <v/>
       </c>
       <c r="Z57" s="37" t="n"/>
       <c r="AA57" s="37" t="n"/>
       <c r="AB57" s="37" t="n"/>
       <c r="AC57" s="34">
-        <f>if(B27="DIV", F27,"")</f>
+        <f>if(B26="DIV", F26,"")</f>
         <v/>
       </c>
       <c r="AD57" s="38" t="n"/>
@@ -4789,7 +4712,7 @@
     </row>
     <row r="58">
       <c r="A58" s="39" t="n">
-        <v>45812</v>
+        <v>45820</v>
       </c>
       <c r="B58" s="29" t="inlineStr">
         <is>
@@ -4802,13 +4725,13 @@
         </is>
       </c>
       <c r="D58" s="30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>2024.55</v>
+        <v>2090.31</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>4049.1</v>
+        <v>6270.92</v>
       </c>
       <c r="G58" s="29" t="inlineStr">
         <is>
@@ -4816,74 +4739,74 @@
         </is>
       </c>
       <c r="H58" s="31" t="n">
-        <v>4.05</v>
+        <v>6.22</v>
       </c>
       <c r="I58" s="31" t="n">
-        <v>24.45</v>
+        <v>37.9</v>
       </c>
       <c r="J58" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K58" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), L27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="L58" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="M58" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), ((E27*D27)+L27), "")</f>
         <v/>
       </c>
       <c r="N58" s="35">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV"), D27, "")</f>
         <v/>
       </c>
       <c r="O58" s="33">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), P27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="P58" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="Q58" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), ((E27*D27)+P27), "")</f>
         <v/>
       </c>
       <c r="R58" s="34">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &lt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="S58" s="36">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), T27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="T58" s="37">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), (1-Index!$F$2*2)*((J27*D27)-(E27*D27)), "")</f>
         <v/>
       </c>
       <c r="U58" s="37">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), ((E27*D27)+T27), "")</f>
         <v/>
       </c>
       <c r="V58" s="37">
-        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
+        <f>IF(AND( C27="Buy", ISBLANK(W27), B27&lt;&gt;"DIV", NOW()-A27 &gt; 365), D27, "")</f>
         <v/>
       </c>
       <c r="W58" s="37" t="n"/>
       <c r="X58" s="37" t="n"/>
       <c r="Y58" s="36">
-        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
+        <f>IF(AND( C27="Buy", W27&lt;&gt;"", AA27&lt;&gt;"", B27&lt;&gt;"DIV"), Z27/sum(F27:I27), "")</f>
         <v/>
       </c>
       <c r="Z58" s="37" t="n"/>
       <c r="AA58" s="37" t="n"/>
       <c r="AB58" s="37" t="n"/>
       <c r="AC58" s="34">
-        <f>if(B28="DIV", F28,"")</f>
+        <f>if(B27="DIV", F27,"")</f>
         <v/>
       </c>
       <c r="AD58" s="38" t="n"/>
@@ -4915,13 +4838,13 @@
         </is>
       </c>
       <c r="D59" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>2024.05</v>
+        <v>2024.55</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2024.05</v>
+        <v>4049.1</v>
       </c>
       <c r="G59" s="29" t="inlineStr">
         <is>
@@ -4929,74 +4852,74 @@
         </is>
       </c>
       <c r="H59" s="31" t="n">
-        <v>2.02</v>
+        <v>4.05</v>
       </c>
       <c r="I59" s="31" t="n">
-        <v>12.23</v>
+        <v>24.45</v>
       </c>
       <c r="J59" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K59" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), L28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="L59" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="M59" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), ((E28*D28)+L28), "")</f>
         <v/>
       </c>
       <c r="N59" s="35">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV"), D28, "")</f>
         <v/>
       </c>
       <c r="O59" s="33">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), P28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="P59" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="Q59" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), ((E28*D28)+P28), "")</f>
         <v/>
       </c>
       <c r="R59" s="34">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &lt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="S59" s="36">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), T28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="T59" s="37">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), (1-Index!$F$2*2)*((J28*D28)-(E28*D28)), "")</f>
         <v/>
       </c>
       <c r="U59" s="37">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), ((E28*D28)+T28), "")</f>
         <v/>
       </c>
       <c r="V59" s="37">
-        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
+        <f>IF(AND( C28="Buy", ISBLANK(W28), B28&lt;&gt;"DIV", NOW()-A28 &gt; 365), D28, "")</f>
         <v/>
       </c>
       <c r="W59" s="37" t="n"/>
       <c r="X59" s="37" t="n"/>
       <c r="Y59" s="36">
-        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
+        <f>IF(AND( C28="Buy", W28&lt;&gt;"", AA28&lt;&gt;"", B28&lt;&gt;"DIV"), Z28/sum(F28:I28), "")</f>
         <v/>
       </c>
       <c r="Z59" s="37" t="n"/>
       <c r="AA59" s="37" t="n"/>
       <c r="AB59" s="37" t="n"/>
       <c r="AC59" s="34">
-        <f>if(B29="DIV", F29,"")</f>
+        <f>if(B28="DIV", F28,"")</f>
         <v/>
       </c>
       <c r="AD59" s="38" t="n"/>
@@ -5031,10 +4954,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>2024.65</v>
+        <v>2024.05</v>
       </c>
       <c r="G60" s="29" t="inlineStr">
         <is>
@@ -5052,64 +4975,64 @@
         <v/>
       </c>
       <c r="K60" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), L29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="L60" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="M60" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), ((E29*D29)+L29), "")</f>
         <v/>
       </c>
       <c r="N60" s="35">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV"), D29, "")</f>
         <v/>
       </c>
       <c r="O60" s="33">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), P29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="P60" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="Q60" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), ((E29*D29)+P29), "")</f>
         <v/>
       </c>
       <c r="R60" s="34">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &lt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="S60" s="36">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), T29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="T60" s="37">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), (1-Index!$F$2*2)*((J29*D29)-(E29*D29)), "")</f>
         <v/>
       </c>
       <c r="U60" s="37">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), ((E29*D29)+T29), "")</f>
         <v/>
       </c>
       <c r="V60" s="37">
-        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
+        <f>IF(AND( C29="Buy", ISBLANK(W29), B29&lt;&gt;"DIV", NOW()-A29 &gt; 365), D29, "")</f>
         <v/>
       </c>
       <c r="W60" s="37" t="n"/>
       <c r="X60" s="37" t="n"/>
       <c r="Y60" s="36">
-        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
+        <f>IF(AND( C29="Buy", W29&lt;&gt;"", AA29&lt;&gt;"", B29&lt;&gt;"DIV"), Z29/sum(F29:I29), "")</f>
         <v/>
       </c>
       <c r="Z60" s="37" t="n"/>
       <c r="AA60" s="37" t="n"/>
       <c r="AB60" s="37" t="n"/>
       <c r="AC60" s="34">
-        <f>if(B30="DIV", F30,"")</f>
+        <f>if(B29="DIV", F29,"")</f>
         <v/>
       </c>
       <c r="AD60" s="38" t="n"/>
@@ -5144,10 +5067,10 @@
         <v>1</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>2024.05</v>
+        <v>2024.65</v>
       </c>
       <c r="G61" s="29" t="inlineStr">
         <is>
@@ -5165,64 +5088,64 @@
         <v/>
       </c>
       <c r="K61" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), L30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="L61" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="M61" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), ((E30*D30)+L30), "")</f>
         <v/>
       </c>
       <c r="N61" s="35">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV"), D30, "")</f>
         <v/>
       </c>
       <c r="O61" s="33">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), P30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="P61" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="Q61" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), ((E30*D30)+P30), "")</f>
         <v/>
       </c>
       <c r="R61" s="34">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &lt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="S61" s="36">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), T30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="T61" s="37">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), (1-Index!$F$2*2)*((J30*D30)-(E30*D30)), "")</f>
         <v/>
       </c>
       <c r="U61" s="37">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), ((E30*D30)+T30), "")</f>
         <v/>
       </c>
       <c r="V61" s="37">
-        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
+        <f>IF(AND( C30="Buy", ISBLANK(W30), B30&lt;&gt;"DIV", NOW()-A30 &gt; 365), D30, "")</f>
         <v/>
       </c>
       <c r="W61" s="37" t="n"/>
       <c r="X61" s="37" t="n"/>
       <c r="Y61" s="36">
-        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
+        <f>IF(AND( C30="Buy", W30&lt;&gt;"", AA30&lt;&gt;"", B30&lt;&gt;"DIV"), Z30/sum(F30:I30), "")</f>
         <v/>
       </c>
       <c r="Z61" s="37" t="n"/>
       <c r="AA61" s="37" t="n"/>
       <c r="AB61" s="37" t="n"/>
       <c r="AC61" s="34">
-        <f>if(B31="DIV", F31,"")</f>
+        <f>if(B30="DIV", F30,"")</f>
         <v/>
       </c>
       <c r="AD61" s="38" t="n"/>
@@ -5241,7 +5164,7 @@
     </row>
     <row r="62">
       <c r="A62" s="39" t="n">
-        <v>45811</v>
+        <v>45812</v>
       </c>
       <c r="B62" s="29" t="inlineStr">
         <is>
@@ -5254,13 +5177,13 @@
         </is>
       </c>
       <c r="D62" s="30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>2060.9</v>
+        <v>2024.05</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>10304.51</v>
+        <v>2024.05</v>
       </c>
       <c r="G62" s="29" t="inlineStr">
         <is>
@@ -5268,74 +5191,74 @@
         </is>
       </c>
       <c r="H62" s="31" t="n">
-        <v>10.23</v>
+        <v>2.02</v>
       </c>
       <c r="I62" s="31" t="n">
-        <v>62.28</v>
+        <v>12.23</v>
       </c>
       <c r="J62" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K62" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), L31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="L62" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="M62" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), ((E31*D31)+L31), "")</f>
         <v/>
       </c>
       <c r="N62" s="35">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV"), D31, "")</f>
         <v/>
       </c>
       <c r="O62" s="33">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), P31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="P62" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="Q62" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), ((E31*D31)+P31), "")</f>
         <v/>
       </c>
       <c r="R62" s="34">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &lt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="S62" s="36">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), T31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="T62" s="37">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), (1-Index!$F$2*2)*((J31*D31)-(E31*D31)), "")</f>
         <v/>
       </c>
       <c r="U62" s="37">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), ((E31*D31)+T31), "")</f>
         <v/>
       </c>
       <c r="V62" s="37">
-        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
+        <f>IF(AND( C31="Buy", ISBLANK(W31), B31&lt;&gt;"DIV", NOW()-A31 &gt; 365), D31, "")</f>
         <v/>
       </c>
       <c r="W62" s="37" t="n"/>
       <c r="X62" s="37" t="n"/>
       <c r="Y62" s="36">
-        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
+        <f>IF(AND( C31="Buy", W31&lt;&gt;"", AA31&lt;&gt;"", B31&lt;&gt;"DIV"), Z31/sum(F31:I31), "")</f>
         <v/>
       </c>
       <c r="Z62" s="37" t="n"/>
       <c r="AA62" s="37" t="n"/>
       <c r="AB62" s="37" t="n"/>
       <c r="AC62" s="34">
-        <f>if(B32="DIV", F32,"")</f>
+        <f>if(B31="DIV", F31,"")</f>
         <v/>
       </c>
       <c r="AD62" s="38" t="n"/>
@@ -5354,11 +5277,11 @@
     </row>
     <row r="63">
       <c r="A63" s="39" t="n">
-        <v>45743</v>
+        <v>45811</v>
       </c>
       <c r="B63" s="29" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C63" s="29" t="inlineStr">
@@ -5367,88 +5290,88 @@
         </is>
       </c>
       <c r="D63" s="30" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>4</v>
+        <v>2060.9</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>220</v>
+        <v>10304.51</v>
       </c>
       <c r="G63" s="29" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H63" s="31" t="n">
-        <v>0</v>
+        <v>10.23</v>
       </c>
       <c r="I63" s="31" t="n">
-        <v>0</v>
+        <v>62.28</v>
       </c>
       <c r="J63" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K63" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), L32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="L63" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="M63" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), ((E32*D32)+L32), "")</f>
         <v/>
       </c>
       <c r="N63" s="35">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV"), D32, "")</f>
         <v/>
       </c>
       <c r="O63" s="33">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), P32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="P63" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="Q63" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), ((E32*D32)+P32), "")</f>
         <v/>
       </c>
       <c r="R63" s="34">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &lt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="S63" s="36">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), T32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="T63" s="37">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), (1-Index!$F$2*2)*((J32*D32)-(E32*D32)), "")</f>
         <v/>
       </c>
       <c r="U63" s="37">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), ((E32*D32)+T32), "")</f>
         <v/>
       </c>
       <c r="V63" s="37">
-        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
+        <f>IF(AND( C32="Buy", ISBLANK(W32), B32&lt;&gt;"DIV", NOW()-A32 &gt; 365), D32, "")</f>
         <v/>
       </c>
       <c r="W63" s="37" t="n"/>
       <c r="X63" s="37" t="n"/>
       <c r="Y63" s="36">
-        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
+        <f>IF(AND( C32="Buy", W32&lt;&gt;"", AA32&lt;&gt;"", B32&lt;&gt;"DIV"), Z32/sum(F32:I32), "")</f>
         <v/>
       </c>
       <c r="Z63" s="37" t="n"/>
       <c r="AA63" s="37" t="n"/>
       <c r="AB63" s="37" t="n"/>
       <c r="AC63" s="34">
-        <f>if(B33="DIV", F33,"")</f>
+        <f>if(B32="DIV", F32,"")</f>
         <v/>
       </c>
       <c r="AD63" s="38" t="n"/>
@@ -5466,101 +5389,102 @@
       <c r="AP63" s="1" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="40" t="n">
-        <v>45734</v>
-      </c>
-      <c r="B64" s="41" t="inlineStr">
-        <is>
-          <t>NSE</t>
-        </is>
-      </c>
-      <c r="C64" s="41" t="inlineStr">
+      <c r="A64" s="39" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B64" s="29" t="inlineStr">
+        <is>
+          <t>DIV</t>
+        </is>
+      </c>
+      <c r="C64" s="29" t="inlineStr">
         <is>
           <t>Buy</t>
         </is>
       </c>
-      <c r="D64" s="42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="43" t="n">
-        <v>1703.49</v>
-      </c>
-      <c r="F64" s="3">
-        <f>E34*D34 + sum(H34:I34)</f>
-        <v/>
-      </c>
-      <c r="G64" s="41" t="inlineStr">
-        <is>
-          <t>~</t>
-        </is>
-      </c>
-      <c r="H64" s="43" t="n"/>
-      <c r="I64" s="43" t="n">
-        <v>23.99</v>
+      <c r="D64" s="30" t="n">
+        <v>55</v>
+      </c>
+      <c r="E64" s="31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" s="31" t="n">
+        <v>220</v>
+      </c>
+      <c r="G64" s="29" t="inlineStr">
+        <is>
+          <t>Interim-Dividend of Rs.4.0000/- per share on Ex-Date: 27-MAR-2025</t>
+        </is>
+      </c>
+      <c r="H64" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="31" t="n">
+        <v>0</v>
       </c>
       <c r="J64" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K64" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), L33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="L64" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="M64" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), ((E33*D33)+L33), "")</f>
         <v/>
       </c>
       <c r="N64" s="35">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV"), D33, "")</f>
         <v/>
       </c>
       <c r="O64" s="33">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), P33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="P64" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="Q64" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), ((E33*D33)+P33), "")</f>
         <v/>
       </c>
       <c r="R64" s="34">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &lt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="S64" s="36">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), T33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="T64" s="37">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), (1-Index!$F$2*2)*((J33*D33)-(E33*D33)), "")</f>
         <v/>
       </c>
       <c r="U64" s="37">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), ((E33*D33)+T33), "")</f>
         <v/>
       </c>
       <c r="V64" s="37">
-        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
+        <f>IF(AND( C33="Buy", ISBLANK(W33), B33&lt;&gt;"DIV", NOW()-A33 &gt; 365), D33, "")</f>
         <v/>
       </c>
       <c r="W64" s="37" t="n"/>
       <c r="X64" s="37" t="n"/>
       <c r="Y64" s="36">
-        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
+        <f>IF(AND( C33="Buy", W33&lt;&gt;"", AA33&lt;&gt;"", B33&lt;&gt;"DIV"), Z33/sum(F33:I33), "")</f>
         <v/>
       </c>
       <c r="Z64" s="37" t="n"/>
       <c r="AA64" s="37" t="n"/>
       <c r="AB64" s="37" t="n"/>
       <c r="AC64" s="34">
-        <f>if(B34="DIV", F34,"")</f>
+        <f>if(B33="DIV", F33,"")</f>
         <v/>
       </c>
       <c r="AD64" s="38" t="n"/>
@@ -5595,10 +5519,10 @@
         <v>2</v>
       </c>
       <c r="E65" s="43" t="n">
-        <v>1703.55</v>
-      </c>
-      <c r="F65" s="44">
-        <f>E35*D35 + sum(H35:I35)</f>
+        <v>1703.49</v>
+      </c>
+      <c r="F65" s="3">
+        <f>E34*D34 + sum(H34:I34)</f>
         <v/>
       </c>
       <c r="G65" s="41" t="inlineStr">
@@ -5615,64 +5539,64 @@
         <v/>
       </c>
       <c r="K65" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), L34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="L65" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="M65" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), ((E34*D34)+L34), "")</f>
         <v/>
       </c>
       <c r="N65" s="35">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV"), D34, "")</f>
         <v/>
       </c>
       <c r="O65" s="33">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), P34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="P65" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="Q65" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), ((E34*D34)+P34), "")</f>
         <v/>
       </c>
       <c r="R65" s="34">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &lt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="S65" s="36">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), T34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="T65" s="37">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), (1-Index!$F$2*2)*((J34*D34)-(E34*D34)), "")</f>
         <v/>
       </c>
       <c r="U65" s="37">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), ((E34*D34)+T34), "")</f>
         <v/>
       </c>
       <c r="V65" s="37">
-        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
+        <f>IF(AND( C34="Buy", ISBLANK(W34), B34&lt;&gt;"DIV", NOW()-A34 &gt; 365), D34, "")</f>
         <v/>
       </c>
       <c r="W65" s="37" t="n"/>
       <c r="X65" s="37" t="n"/>
       <c r="Y65" s="36">
-        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
+        <f>IF(AND( C34="Buy", W34&lt;&gt;"", AA34&lt;&gt;"", B34&lt;&gt;"DIV"), Z34/sum(F34:I34), "")</f>
         <v/>
       </c>
       <c r="Z65" s="37" t="n"/>
       <c r="AA65" s="37" t="n"/>
       <c r="AB65" s="37" t="n"/>
       <c r="AC65" s="34">
-        <f>if(B35="DIV", F35,"")</f>
+        <f>if(B34="DIV", F34,"")</f>
         <v/>
       </c>
       <c r="AD65" s="38" t="n"/>
@@ -5704,13 +5628,13 @@
         </is>
       </c>
       <c r="D66" s="42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="43" t="n">
-        <v>1703.48</v>
+        <v>1703.55</v>
       </c>
       <c r="F66" s="44">
-        <f>E36*D36 + sum(H36:I36)</f>
+        <f>E35*D35 + sum(H35:I35)</f>
         <v/>
       </c>
       <c r="G66" s="41" t="inlineStr">
@@ -5720,71 +5644,71 @@
       </c>
       <c r="H66" s="43" t="n"/>
       <c r="I66" s="43" t="n">
-        <v>11.98</v>
+        <v>23.99</v>
       </c>
       <c r="J66" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K66" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), L35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="L66" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="M66" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), ((E35*D35)+L35), "")</f>
         <v/>
       </c>
       <c r="N66" s="35">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV"), D35, "")</f>
         <v/>
       </c>
       <c r="O66" s="33">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), P35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="P66" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="Q66" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), ((E35*D35)+P35), "")</f>
         <v/>
       </c>
       <c r="R66" s="34">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &lt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="S66" s="36">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), T35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="T66" s="37">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), (1-Index!$F$2*2)*((J35*D35)-(E35*D35)), "")</f>
         <v/>
       </c>
       <c r="U66" s="37">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), ((E35*D35)+T35), "")</f>
         <v/>
       </c>
       <c r="V66" s="37">
-        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
+        <f>IF(AND( C35="Buy", ISBLANK(W35), B35&lt;&gt;"DIV", NOW()-A35 &gt; 365), D35, "")</f>
         <v/>
       </c>
       <c r="W66" s="37" t="n"/>
       <c r="X66" s="37" t="n"/>
       <c r="Y66" s="36">
-        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
+        <f>IF(AND( C35="Buy", W35&lt;&gt;"", AA35&lt;&gt;"", B35&lt;&gt;"DIV"), Z35/sum(F35:I35), "")</f>
         <v/>
       </c>
       <c r="Z66" s="37" t="n"/>
       <c r="AA66" s="37" t="n"/>
       <c r="AB66" s="37" t="n"/>
       <c r="AC66" s="34">
-        <f>if(B36="DIV", F36,"")</f>
+        <f>if(B35="DIV", F35,"")</f>
         <v/>
       </c>
       <c r="AD66" s="38" t="n"/>
@@ -5803,7 +5727,7 @@
     </row>
     <row r="67">
       <c r="A67" s="40" t="n">
-        <v>45722</v>
+        <v>45734</v>
       </c>
       <c r="B67" s="41" t="inlineStr">
         <is>
@@ -5816,88 +5740,87 @@
         </is>
       </c>
       <c r="D67" s="42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E67" s="43" t="n">
-        <v>1799.56</v>
-      </c>
-      <c r="F67" s="26" t="n">
-        <v>8997.790000000001</v>
+        <v>1703.48</v>
+      </c>
+      <c r="F67" s="44">
+        <f>E36*D36 + sum(H36:I36)</f>
+        <v/>
       </c>
       <c r="G67" s="41" t="inlineStr">
         <is>
           <t>~</t>
         </is>
       </c>
-      <c r="H67" s="43" t="n">
-        <v>8.98</v>
-      </c>
+      <c r="H67" s="43" t="n"/>
       <c r="I67" s="43" t="n">
-        <v>54.31</v>
+        <v>11.98</v>
       </c>
       <c r="J67" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K67" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), L36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="L67" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="M67" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), ((E36*D36)+L36), "")</f>
         <v/>
       </c>
       <c r="N67" s="35">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV"), D36, "")</f>
         <v/>
       </c>
       <c r="O67" s="33">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), P36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="P67" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="Q67" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), ((E36*D36)+P36), "")</f>
         <v/>
       </c>
       <c r="R67" s="34">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &lt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="S67" s="36">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), T36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="T67" s="37">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), (1-Index!$F$2*2)*((J36*D36)-(E36*D36)), "")</f>
         <v/>
       </c>
       <c r="U67" s="37">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), ((E36*D36)+T36), "")</f>
         <v/>
       </c>
       <c r="V67" s="37">
-        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
+        <f>IF(AND( C36="Buy", ISBLANK(W36), B36&lt;&gt;"DIV", NOW()-A36 &gt; 365), D36, "")</f>
         <v/>
       </c>
       <c r="W67" s="37" t="n"/>
       <c r="X67" s="37" t="n"/>
       <c r="Y67" s="36">
-        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
+        <f>IF(AND( C36="Buy", W36&lt;&gt;"", AA36&lt;&gt;"", B36&lt;&gt;"DIV"), Z36/sum(F36:I36), "")</f>
         <v/>
       </c>
       <c r="Z67" s="37" t="n"/>
       <c r="AA67" s="37" t="n"/>
       <c r="AB67" s="37" t="n"/>
       <c r="AC67" s="34">
-        <f>if(B37="DIV", F37,"")</f>
+        <f>if(B36="DIV", F36,"")</f>
         <v/>
       </c>
       <c r="AD67" s="38" t="n"/>
@@ -5916,7 +5839,7 @@
     </row>
     <row r="68">
       <c r="A68" s="40" t="n">
-        <v>45716</v>
+        <v>45722</v>
       </c>
       <c r="B68" s="41" t="inlineStr">
         <is>
@@ -5932,10 +5855,10 @@
         <v>5</v>
       </c>
       <c r="E68" s="43" t="n">
-        <v>1658.51</v>
-      </c>
-      <c r="F68" s="37" t="n">
-        <v>8292.540000000001</v>
+        <v>1799.56</v>
+      </c>
+      <c r="F68" s="26" t="n">
+        <v>8997.790000000001</v>
       </c>
       <c r="G68" s="41" t="inlineStr">
         <is>
@@ -5943,74 +5866,74 @@
         </is>
       </c>
       <c r="H68" s="43" t="n">
-        <v>8.220000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="I68" s="43" t="n">
-        <v>50.07</v>
+        <v>54.31</v>
       </c>
       <c r="J68" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K68" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), L37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="L68" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="M68" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), ((E37*D37)+L37), "")</f>
         <v/>
       </c>
       <c r="N68" s="35">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV"), D37, "")</f>
         <v/>
       </c>
       <c r="O68" s="33">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), P37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="P68" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="Q68" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), ((E37*D37)+P37), "")</f>
         <v/>
       </c>
       <c r="R68" s="34">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &lt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="S68" s="36">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), T37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="T68" s="37">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), (1-Index!$F$2*2)*((J37*D37)-(E37*D37)), "")</f>
         <v/>
       </c>
       <c r="U68" s="37">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), ((E37*D37)+T37), "")</f>
         <v/>
       </c>
       <c r="V68" s="37">
-        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
+        <f>IF(AND( C37="Buy", ISBLANK(W37), B37&lt;&gt;"DIV", NOW()-A37 &gt; 365), D37, "")</f>
         <v/>
       </c>
       <c r="W68" s="37" t="n"/>
       <c r="X68" s="37" t="n"/>
       <c r="Y68" s="36">
-        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
+        <f>IF(AND( C37="Buy", W37&lt;&gt;"", AA37&lt;&gt;"", B37&lt;&gt;"DIV"), Z37/sum(F37:I37), "")</f>
         <v/>
       </c>
       <c r="Z68" s="37" t="n"/>
       <c r="AA68" s="37" t="n"/>
       <c r="AB68" s="37" t="n"/>
       <c r="AC68" s="34">
-        <f>if(B38="DIV", F38,"")</f>
+        <f>if(B37="DIV", F37,"")</f>
         <v/>
       </c>
       <c r="AD68" s="38" t="n"/>
@@ -6029,7 +5952,7 @@
     </row>
     <row r="69">
       <c r="A69" s="40" t="n">
-        <v>45712</v>
+        <v>45716</v>
       </c>
       <c r="B69" s="41" t="inlineStr">
         <is>
@@ -6045,10 +5968,10 @@
         <v>5</v>
       </c>
       <c r="E69" s="43" t="n">
-        <v>1804.35</v>
+        <v>1658.51</v>
       </c>
       <c r="F69" s="37" t="n">
-        <v>9021.76</v>
+        <v>8292.540000000001</v>
       </c>
       <c r="G69" s="41" t="inlineStr">
         <is>
@@ -6056,74 +5979,74 @@
         </is>
       </c>
       <c r="H69" s="43" t="n">
-        <v>8.94</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="I69" s="43" t="n">
-        <v>54.57</v>
+        <v>50.07</v>
       </c>
       <c r="J69" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K69" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), L38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="L69" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="M69" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), ((E38*D38)+L38), "")</f>
         <v/>
       </c>
       <c r="N69" s="35">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV"), D38, "")</f>
         <v/>
       </c>
       <c r="O69" s="33">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), P38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="P69" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="Q69" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), ((E38*D38)+P38), "")</f>
         <v/>
       </c>
       <c r="R69" s="34">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &lt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="S69" s="36">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), T38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="T69" s="37">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), (1-Index!$F$2*2)*((J38*D38)-(E38*D38)), "")</f>
         <v/>
       </c>
       <c r="U69" s="37">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), ((E38*D38)+T38), "")</f>
         <v/>
       </c>
       <c r="V69" s="37">
-        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
+        <f>IF(AND( C38="Buy", ISBLANK(W38), B38&lt;&gt;"DIV", NOW()-A38 &gt; 365), D38, "")</f>
         <v/>
       </c>
       <c r="W69" s="37" t="n"/>
       <c r="X69" s="37" t="n"/>
       <c r="Y69" s="36">
-        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
+        <f>IF(AND( C38="Buy", W38&lt;&gt;"", AA38&lt;&gt;"", B38&lt;&gt;"DIV"), Z38/sum(F38:I38), "")</f>
         <v/>
       </c>
       <c r="Z69" s="37" t="n"/>
       <c r="AA69" s="37" t="n"/>
       <c r="AB69" s="37" t="n"/>
       <c r="AC69" s="34">
-        <f>if(B39="DIV", F39,"")</f>
+        <f>if(B38="DIV", F38,"")</f>
         <v/>
       </c>
       <c r="AD69" s="38" t="n"/>
@@ -6161,7 +6084,7 @@
         <v>1804.35</v>
       </c>
       <c r="F70" s="37" t="n">
-        <v>9021.77</v>
+        <v>9021.76</v>
       </c>
       <c r="G70" s="41" t="inlineStr">
         <is>
@@ -6172,71 +6095,71 @@
         <v>8.94</v>
       </c>
       <c r="I70" s="43" t="n">
-        <v>54.58</v>
+        <v>54.57</v>
       </c>
       <c r="J70" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K70" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), L39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="L70" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="M70" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), ((E39*D39)+L39), "")</f>
         <v/>
       </c>
       <c r="N70" s="35">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV"), D39, "")</f>
         <v/>
       </c>
       <c r="O70" s="33">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), P39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="P70" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="Q70" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), ((E39*D39)+P39), "")</f>
         <v/>
       </c>
       <c r="R70" s="34">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &lt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="S70" s="36">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), T39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="T70" s="37">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), (1-Index!$F$2*2)*((J39*D39)-(E39*D39)), "")</f>
         <v/>
       </c>
       <c r="U70" s="37">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), ((E39*D39)+T39), "")</f>
         <v/>
       </c>
       <c r="V70" s="37">
-        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
+        <f>IF(AND( C39="Buy", ISBLANK(W39), B39&lt;&gt;"DIV", NOW()-A39 &gt; 365), D39, "")</f>
         <v/>
       </c>
       <c r="W70" s="37" t="n"/>
       <c r="X70" s="37" t="n"/>
       <c r="Y70" s="36">
-        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
+        <f>IF(AND( C39="Buy", W39&lt;&gt;"", AA39&lt;&gt;"", B39&lt;&gt;"DIV"), Z39/sum(F39:I39), "")</f>
         <v/>
       </c>
       <c r="Z70" s="37" t="n"/>
       <c r="AA70" s="37" t="n"/>
       <c r="AB70" s="37" t="n"/>
       <c r="AC70" s="34">
-        <f>if(B40="DIV", F40,"")</f>
+        <f>if(B39="DIV", F39,"")</f>
         <v/>
       </c>
       <c r="AD70" s="38" t="n"/>
@@ -6255,11 +6178,11 @@
     </row>
     <row r="71">
       <c r="A71" s="40" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B71" s="41" t="inlineStr">
         <is>
-          <t>DIV</t>
+          <t>NSE</t>
         </is>
       </c>
       <c r="C71" s="41" t="inlineStr">
@@ -6268,88 +6191,88 @@
         </is>
       </c>
       <c r="D71" s="42" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E71" s="43" t="n">
-        <v>13</v>
+        <v>1804.35</v>
       </c>
       <c r="F71" s="37" t="n">
-        <v>390</v>
+        <v>9021.77</v>
       </c>
       <c r="G71" s="41" t="inlineStr">
         <is>
-          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
+          <t>~</t>
         </is>
       </c>
       <c r="H71" s="43" t="n">
-        <v>0</v>
+        <v>8.94</v>
       </c>
       <c r="I71" s="43" t="n">
-        <v>0</v>
+        <v>54.58</v>
       </c>
       <c r="J71" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K71" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), L40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="L71" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="M71" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), ((E40*D40)+L40), "")</f>
         <v/>
       </c>
       <c r="N71" s="35">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV"), D40, "")</f>
         <v/>
       </c>
       <c r="O71" s="33">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), P40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="P71" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="Q71" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), ((E40*D40)+P40), "")</f>
         <v/>
       </c>
       <c r="R71" s="34">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &lt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="S71" s="36">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), T40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="T71" s="37">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), (1-Index!$F$2*2)*((J40*D40)-(E40*D40)), "")</f>
         <v/>
       </c>
       <c r="U71" s="37">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), ((E40*D40)+T40), "")</f>
         <v/>
       </c>
       <c r="V71" s="37">
-        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
+        <f>IF(AND( C40="Buy", ISBLANK(W40), B40&lt;&gt;"DIV", NOW()-A40 &gt; 365), D40, "")</f>
         <v/>
       </c>
       <c r="W71" s="37" t="n"/>
       <c r="X71" s="37" t="n"/>
       <c r="Y71" s="36">
-        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
+        <f>IF(AND( C40="Buy", W40&lt;&gt;"", AA40&lt;&gt;"", B40&lt;&gt;"DIV"), Z40/sum(F40:I40), "")</f>
         <v/>
       </c>
       <c r="Z71" s="37" t="n"/>
       <c r="AA71" s="37" t="n"/>
       <c r="AB71" s="37" t="n"/>
       <c r="AC71" s="34">
-        <f>if(B41="DIV", F41,"")</f>
+        <f>if(B40="DIV", F40,"")</f>
         <v/>
       </c>
       <c r="AD71" s="38" t="n"/>
@@ -6368,11 +6291,11 @@
     </row>
     <row r="72">
       <c r="A72" s="40" t="n">
-        <v>45705</v>
+        <v>45709</v>
       </c>
       <c r="B72" s="41" t="inlineStr">
         <is>
-          <t>NSE</t>
+          <t>DIV</t>
         </is>
       </c>
       <c r="C72" s="41" t="inlineStr">
@@ -6381,88 +6304,88 @@
         </is>
       </c>
       <c r="D72" s="42" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E72" s="43" t="n">
-        <v>1877.21</v>
+        <v>13</v>
       </c>
       <c r="F72" s="37" t="n">
-        <v>9386.049999999999</v>
+        <v>390</v>
       </c>
       <c r="G72" s="41" t="inlineStr">
         <is>
-          <t>~</t>
+          <t>Interim-Dividend of Rs.13.0000/- per share on Ex-Date: 21-FEB-2025</t>
         </is>
       </c>
       <c r="H72" s="43" t="n">
-        <v>9.31</v>
+        <v>0</v>
       </c>
       <c r="I72" s="43" t="n">
-        <v>56.74</v>
+        <v>0</v>
       </c>
       <c r="J72" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K72" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), L41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="L72" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="M72" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), ((E41*D41)+L41), "")</f>
         <v/>
       </c>
       <c r="N72" s="35">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV"), D41, "")</f>
         <v/>
       </c>
       <c r="O72" s="33">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), P41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="P72" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="Q72" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), ((E41*D41)+P41), "")</f>
         <v/>
       </c>
       <c r="R72" s="34">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &lt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="S72" s="36">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), T41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="T72" s="37">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), (1-Index!$F$2*2)*((J41*D41)-(E41*D41)), "")</f>
         <v/>
       </c>
       <c r="U72" s="37">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), ((E41*D41)+T41), "")</f>
         <v/>
       </c>
       <c r="V72" s="37">
-        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
+        <f>IF(AND( C41="Buy", ISBLANK(W41), B41&lt;&gt;"DIV", NOW()-A41 &gt; 365), D41, "")</f>
         <v/>
       </c>
       <c r="W72" s="37" t="n"/>
       <c r="X72" s="37" t="n"/>
       <c r="Y72" s="36">
-        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
+        <f>IF(AND( C41="Buy", W41&lt;&gt;"", AA41&lt;&gt;"", B41&lt;&gt;"DIV"), Z41/sum(F41:I41), "")</f>
         <v/>
       </c>
       <c r="Z72" s="37" t="n"/>
       <c r="AA72" s="37" t="n"/>
       <c r="AB72" s="37" t="n"/>
       <c r="AC72" s="34">
-        <f>if(B42="DIV", F42,"")</f>
+        <f>if(B41="DIV", F41,"")</f>
         <v/>
       </c>
       <c r="AD72" s="38" t="n"/>
@@ -6494,13 +6417,13 @@
         </is>
       </c>
       <c r="D73" s="42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E73" s="43" t="n">
         <v>1877.21</v>
       </c>
       <c r="F73" s="37" t="n">
-        <v>18772.07</v>
+        <v>9386.049999999999</v>
       </c>
       <c r="G73" s="41" t="inlineStr">
         <is>
@@ -6508,74 +6431,74 @@
         </is>
       </c>
       <c r="H73" s="43" t="n">
-        <v>18.61</v>
+        <v>9.31</v>
       </c>
       <c r="I73" s="43" t="n">
-        <v>113.46</v>
+        <v>56.74</v>
       </c>
       <c r="J73" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K73" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), L42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="L73" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="M73" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), ((E42*D42)+L42), "")</f>
         <v/>
       </c>
       <c r="N73" s="35">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV"), D42, "")</f>
         <v/>
       </c>
       <c r="O73" s="33">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), P42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="P73" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="Q73" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), ((E42*D42)+P42), "")</f>
         <v/>
       </c>
       <c r="R73" s="34">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &lt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="S73" s="36">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), T42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="T73" s="37">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), (1-Index!$F$2*2)*((J42*D42)-(E42*D42)), "")</f>
         <v/>
       </c>
       <c r="U73" s="37">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), ((E42*D42)+T42), "")</f>
         <v/>
       </c>
       <c r="V73" s="37">
-        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
+        <f>IF(AND( C42="Buy", ISBLANK(W42), B42&lt;&gt;"DIV", NOW()-A42 &gt; 365), D42, "")</f>
         <v/>
       </c>
       <c r="W73" s="37" t="n"/>
       <c r="X73" s="37" t="n"/>
       <c r="Y73" s="36">
-        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
+        <f>IF(AND( C42="Buy", W42&lt;&gt;"", AA42&lt;&gt;"", B42&lt;&gt;"DIV"), Z42/sum(F42:I42), "")</f>
         <v/>
       </c>
       <c r="Z73" s="37" t="n"/>
       <c r="AA73" s="37" t="n"/>
       <c r="AB73" s="37" t="n"/>
       <c r="AC73" s="34">
-        <f>if(B43="DIV", F43,"")</f>
+        <f>if(B42="DIV", F42,"")</f>
         <v/>
       </c>
       <c r="AD73" s="38" t="n"/>
@@ -6594,7 +6517,7 @@
     </row>
     <row r="74">
       <c r="A74" s="40" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B74" s="41" t="inlineStr">
         <is>
@@ -6607,13 +6530,13 @@
         </is>
       </c>
       <c r="D74" s="42" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E74" s="43" t="n">
-        <v>1867.85</v>
+        <v>1877.21</v>
       </c>
       <c r="F74" s="37" t="n">
-        <v>1867.85</v>
+        <v>18772.07</v>
       </c>
       <c r="G74" s="41" t="inlineStr">
         <is>
@@ -6621,74 +6544,74 @@
         </is>
       </c>
       <c r="H74" s="43" t="n">
-        <v>1.86</v>
+        <v>18.61</v>
       </c>
       <c r="I74" s="43" t="n">
-        <v>11.29</v>
+        <v>113.46</v>
       </c>
       <c r="J74" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K74" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), L43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="L74" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="M74" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), ((E43*D43)+L43), "")</f>
         <v/>
       </c>
       <c r="N74" s="35">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV"), D43, "")</f>
         <v/>
       </c>
       <c r="O74" s="33">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), P43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="P74" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="Q74" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), ((E43*D43)+P43), "")</f>
         <v/>
       </c>
       <c r="R74" s="34">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &lt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="S74" s="36">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), T43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="T74" s="37">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), (1-Index!$F$2*2)*((J43*D43)-(E43*D43)), "")</f>
         <v/>
       </c>
       <c r="U74" s="37">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), ((E43*D43)+T43), "")</f>
         <v/>
       </c>
       <c r="V74" s="37">
-        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
+        <f>IF(AND( C43="Buy", ISBLANK(W43), B43&lt;&gt;"DIV", NOW()-A43 &gt; 365), D43, "")</f>
         <v/>
       </c>
       <c r="W74" s="37" t="n"/>
       <c r="X74" s="37" t="n"/>
       <c r="Y74" s="36">
-        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
+        <f>IF(AND( C43="Buy", W43&lt;&gt;"", AA43&lt;&gt;"", B43&lt;&gt;"DIV"), Z43/sum(F43:I43), "")</f>
         <v/>
       </c>
       <c r="Z74" s="37" t="n"/>
       <c r="AA74" s="37" t="n"/>
       <c r="AB74" s="37" t="n"/>
       <c r="AC74" s="34">
-        <f>if(B44="DIV", F44,"")</f>
+        <f>if(B43="DIV", F43,"")</f>
         <v/>
       </c>
       <c r="AD74" s="38" t="n"/>
@@ -6723,10 +6646,10 @@
         <v>1</v>
       </c>
       <c r="E75" s="43" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="F75" s="37" t="n">
-        <v>1869.08</v>
+        <v>1867.85</v>
       </c>
       <c r="G75" s="41" t="inlineStr">
         <is>
@@ -6737,71 +6660,71 @@
         <v>1.86</v>
       </c>
       <c r="I75" s="43" t="n">
-        <v>11.32</v>
+        <v>11.29</v>
       </c>
       <c r="J75" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K75" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), L44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="L75" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="M75" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), ((E44*D44)+L44), "")</f>
         <v/>
       </c>
       <c r="N75" s="35">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV"), D44, "")</f>
         <v/>
       </c>
       <c r="O75" s="33">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), P44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="P75" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="Q75" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), ((E44*D44)+P44), "")</f>
         <v/>
       </c>
       <c r="R75" s="34">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &lt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="S75" s="36">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), T44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="T75" s="37">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), (1-Index!$F$2*2)*((J44*D44)-(E44*D44)), "")</f>
         <v/>
       </c>
       <c r="U75" s="37">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), ((E44*D44)+T44), "")</f>
         <v/>
       </c>
       <c r="V75" s="37">
-        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
+        <f>IF(AND( C44="Buy", ISBLANK(W44), B44&lt;&gt;"DIV", NOW()-A44 &gt; 365), D44, "")</f>
         <v/>
       </c>
       <c r="W75" s="37" t="n"/>
       <c r="X75" s="37" t="n"/>
       <c r="Y75" s="36">
-        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
+        <f>IF(AND( C44="Buy", W44&lt;&gt;"", AA44&lt;&gt;"", B44&lt;&gt;"DIV"), Z44/sum(F44:I44), "")</f>
         <v/>
       </c>
       <c r="Z75" s="37" t="n"/>
       <c r="AA75" s="37" t="n"/>
       <c r="AB75" s="37" t="n"/>
       <c r="AC75" s="34">
-        <f>if(B45="DIV", F45,"")</f>
+        <f>if(B44="DIV", F44,"")</f>
         <v/>
       </c>
       <c r="AD75" s="38" t="n"/>
@@ -6833,13 +6756,13 @@
         </is>
       </c>
       <c r="D76" s="42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="43" t="n">
-        <v>1869.19</v>
+        <v>1869.08</v>
       </c>
       <c r="F76" s="37" t="n">
-        <v>3738.39</v>
+        <v>1869.08</v>
       </c>
       <c r="G76" s="41" t="inlineStr">
         <is>
@@ -6847,74 +6770,74 @@
         </is>
       </c>
       <c r="H76" s="43" t="n">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
       <c r="I76" s="43" t="n">
-        <v>22.58</v>
+        <v>11.32</v>
       </c>
       <c r="J76" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K76" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), L45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="L76" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="M76" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), ((E45*D45)+L45), "")</f>
         <v/>
       </c>
       <c r="N76" s="35">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV"), D45, "")</f>
         <v/>
       </c>
       <c r="O76" s="33">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), P45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="P76" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="Q76" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), ((E45*D45)+P45), "")</f>
         <v/>
       </c>
       <c r="R76" s="34">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &lt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="S76" s="36">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), T45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="T76" s="37">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), (1-Index!$F$2*2)*((J45*D45)-(E45*D45)), "")</f>
         <v/>
       </c>
       <c r="U76" s="37">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), ((E45*D45)+T45), "")</f>
         <v/>
       </c>
       <c r="V76" s="37">
-        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
+        <f>IF(AND( C45="Buy", ISBLANK(W45), B45&lt;&gt;"DIV", NOW()-A45 &gt; 365), D45, "")</f>
         <v/>
       </c>
       <c r="W76" s="37" t="n"/>
       <c r="X76" s="37" t="n"/>
       <c r="Y76" s="36">
-        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
+        <f>IF(AND( C45="Buy", W45&lt;&gt;"", AA45&lt;&gt;"", B45&lt;&gt;"DIV"), Z45/sum(F45:I45), "")</f>
         <v/>
       </c>
       <c r="Z76" s="37" t="n"/>
       <c r="AA76" s="37" t="n"/>
       <c r="AB76" s="37" t="n"/>
       <c r="AC76" s="34">
-        <f>if(B46="DIV", F46,"")</f>
+        <f>if(B45="DIV", F45,"")</f>
         <v/>
       </c>
       <c r="AD76" s="38" t="n"/>
@@ -6949,10 +6872,10 @@
         <v>2</v>
       </c>
       <c r="E77" s="43" t="n">
-        <v>1869.1</v>
+        <v>1869.19</v>
       </c>
       <c r="F77" s="37" t="n">
-        <v>3738.19</v>
+        <v>3738.39</v>
       </c>
       <c r="G77" s="41" t="inlineStr">
         <is>
@@ -6970,64 +6893,64 @@
         <v/>
       </c>
       <c r="K77" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), L46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="L77" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="M77" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), ((E46*D46)+L46), "")</f>
         <v/>
       </c>
       <c r="N77" s="35">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV"), D46, "")</f>
         <v/>
       </c>
       <c r="O77" s="33">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), P46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="P77" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="Q77" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), ((E46*D46)+P46), "")</f>
         <v/>
       </c>
       <c r="R77" s="34">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &lt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="S77" s="36">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), T46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="T77" s="37">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), (1-Index!$F$2*2)*((J46*D46)-(E46*D46)), "")</f>
         <v/>
       </c>
       <c r="U77" s="37">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), ((E46*D46)+T46), "")</f>
         <v/>
       </c>
       <c r="V77" s="37">
-        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
+        <f>IF(AND( C46="Buy", ISBLANK(W46), B46&lt;&gt;"DIV", NOW()-A46 &gt; 365), D46, "")</f>
         <v/>
       </c>
       <c r="W77" s="37" t="n"/>
       <c r="X77" s="37" t="n"/>
       <c r="Y77" s="36">
-        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
+        <f>IF(AND( C46="Buy", W46&lt;&gt;"", AA46&lt;&gt;"", B46&lt;&gt;"DIV"), Z46/sum(F46:I46), "")</f>
         <v/>
       </c>
       <c r="Z77" s="37" t="n"/>
       <c r="AA77" s="37" t="n"/>
       <c r="AB77" s="37" t="n"/>
       <c r="AC77" s="34">
-        <f>if(B47="DIV", F47,"")</f>
+        <f>if(B46="DIV", F46,"")</f>
         <v/>
       </c>
       <c r="AD77" s="38" t="n"/>
@@ -7059,13 +6982,13 @@
         </is>
       </c>
       <c r="D78" s="42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="43" t="n">
-        <v>1867.85</v>
+        <v>1869.1</v>
       </c>
       <c r="F78" s="37" t="n">
-        <v>1867.85</v>
+        <v>3738.19</v>
       </c>
       <c r="G78" s="41" t="inlineStr">
         <is>
@@ -7073,74 +6996,74 @@
         </is>
       </c>
       <c r="H78" s="43" t="n">
-        <v>1.86</v>
+        <v>3.71</v>
       </c>
       <c r="I78" s="43" t="n">
-        <v>11.29</v>
+        <v>22.58</v>
       </c>
       <c r="J78" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K78" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), L47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="L78" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="M78" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), ((E47*D47)+L47), "")</f>
         <v/>
       </c>
       <c r="N78" s="35">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV"), D47, "")</f>
         <v/>
       </c>
       <c r="O78" s="33">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), P47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="P78" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="Q78" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), ((E47*D47)+P47), "")</f>
         <v/>
       </c>
       <c r="R78" s="34">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &lt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="S78" s="36">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), T47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="T78" s="37">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), (1-Index!$F$2*2)*((J47*D47)-(E47*D47)), "")</f>
         <v/>
       </c>
       <c r="U78" s="37">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), ((E47*D47)+T47), "")</f>
         <v/>
       </c>
       <c r="V78" s="37">
-        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
+        <f>IF(AND( C47="Buy", ISBLANK(W47), B47&lt;&gt;"DIV", NOW()-A47 &gt; 365), D47, "")</f>
         <v/>
       </c>
       <c r="W78" s="37" t="n"/>
       <c r="X78" s="37" t="n"/>
       <c r="Y78" s="36">
-        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
+        <f>IF(AND( C47="Buy", W47&lt;&gt;"", AA47&lt;&gt;"", B47&lt;&gt;"DIV"), Z47/sum(F47:I47), "")</f>
         <v/>
       </c>
       <c r="Z78" s="37" t="n"/>
       <c r="AA78" s="37" t="n"/>
       <c r="AB78" s="37" t="n"/>
       <c r="AC78" s="34">
-        <f>if(B48="DIV", F48,"")</f>
+        <f>if(B47="DIV", F47,"")</f>
         <v/>
       </c>
       <c r="AD78" s="38" t="n"/>
@@ -7196,64 +7119,64 @@
         <v/>
       </c>
       <c r="K79" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), L48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="L79" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="M79" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), ((E48*D48)+L48), "")</f>
         <v/>
       </c>
       <c r="N79" s="35">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV"), D48, "")</f>
         <v/>
       </c>
       <c r="O79" s="33">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), P48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="P79" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="Q79" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), ((E48*D48)+P48), "")</f>
         <v/>
       </c>
       <c r="R79" s="34">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &lt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="S79" s="36">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), T48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="T79" s="37">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), (1-Index!$F$2*2)*((J48*D48)-(E48*D48)), "")</f>
         <v/>
       </c>
       <c r="U79" s="37">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), ((E48*D48)+T48), "")</f>
         <v/>
       </c>
       <c r="V79" s="37">
-        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
+        <f>IF(AND( C48="Buy", ISBLANK(W48), B48&lt;&gt;"DIV", NOW()-A48 &gt; 365), D48, "")</f>
         <v/>
       </c>
       <c r="W79" s="37" t="n"/>
       <c r="X79" s="37" t="n"/>
       <c r="Y79" s="36">
-        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
+        <f>IF(AND( C48="Buy", W48&lt;&gt;"", AA48&lt;&gt;"", B48&lt;&gt;"DIV"), Z48/sum(F48:I48), "")</f>
         <v/>
       </c>
       <c r="Z79" s="37" t="n"/>
       <c r="AA79" s="37" t="n"/>
       <c r="AB79" s="37" t="n"/>
       <c r="AC79" s="34">
-        <f>if(B49="DIV", F49,"")</f>
+        <f>if(B48="DIV", F48,"")</f>
         <v/>
       </c>
       <c r="AD79" s="38" t="n"/>
@@ -7309,64 +7232,64 @@
         <v/>
       </c>
       <c r="K80" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), L49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="L80" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="M80" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), ((E49*D49)+L49), "")</f>
         <v/>
       </c>
       <c r="N80" s="35">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV"), D49, "")</f>
         <v/>
       </c>
       <c r="O80" s="33">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), P49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="P80" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="Q80" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), ((E49*D49)+P49), "")</f>
         <v/>
       </c>
       <c r="R80" s="34">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &lt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="S80" s="36">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), T49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="T80" s="37">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), (1-Index!$F$2*2)*((J49*D49)-(E49*D49)), "")</f>
         <v/>
       </c>
       <c r="U80" s="37">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), ((E49*D49)+T49), "")</f>
         <v/>
       </c>
       <c r="V80" s="37">
-        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
+        <f>IF(AND( C49="Buy", ISBLANK(W49), B49&lt;&gt;"DIV", NOW()-A49 &gt; 365), D49, "")</f>
         <v/>
       </c>
       <c r="W80" s="37" t="n"/>
       <c r="X80" s="37" t="n"/>
       <c r="Y80" s="36">
-        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
+        <f>IF(AND( C49="Buy", W49&lt;&gt;"", AA49&lt;&gt;"", B49&lt;&gt;"DIV"), Z49/sum(F49:I49), "")</f>
         <v/>
       </c>
       <c r="Z80" s="37" t="n"/>
       <c r="AA80" s="37" t="n"/>
       <c r="AB80" s="37" t="n"/>
       <c r="AC80" s="34">
-        <f>if(B50="DIV", F50,"")</f>
+        <f>if(B49="DIV", F49,"")</f>
         <v/>
       </c>
       <c r="AD80" s="38" t="n"/>
@@ -7422,64 +7345,64 @@
         <v/>
       </c>
       <c r="K81" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), L50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="L81" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="M81" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), ((E50*D50)+L50), "")</f>
         <v/>
       </c>
       <c r="N81" s="35">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV"), D50, "")</f>
         <v/>
       </c>
       <c r="O81" s="33">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), P50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="P81" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="Q81" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), ((E50*D50)+P50), "")</f>
         <v/>
       </c>
       <c r="R81" s="34">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &lt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="S81" s="36">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), T50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="T81" s="37">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), (1-Index!$F$2*2)*((J50*D50)-(E50*D50)), "")</f>
         <v/>
       </c>
       <c r="U81" s="37">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), ((E50*D50)+T50), "")</f>
         <v/>
       </c>
       <c r="V81" s="37">
-        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
+        <f>IF(AND( C50="Buy", ISBLANK(W50), B50&lt;&gt;"DIV", NOW()-A50 &gt; 365), D50, "")</f>
         <v/>
       </c>
       <c r="W81" s="37" t="n"/>
       <c r="X81" s="37" t="n"/>
       <c r="Y81" s="36">
-        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
+        <f>IF(AND( C50="Buy", W50&lt;&gt;"", AA50&lt;&gt;"", B50&lt;&gt;"DIV"), Z50/sum(F50:I50), "")</f>
         <v/>
       </c>
       <c r="Z81" s="37" t="n"/>
       <c r="AA81" s="37" t="n"/>
       <c r="AB81" s="37" t="n"/>
       <c r="AC81" s="34">
-        <f>if(B51="DIV", F51,"")</f>
+        <f>if(B50="DIV", F50,"")</f>
         <v/>
       </c>
       <c r="AD81" s="38" t="n"/>
@@ -7498,7 +7421,7 @@
     </row>
     <row r="82">
       <c r="A82" s="40" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B82" s="41" t="inlineStr">
         <is>
@@ -7511,13 +7434,13 @@
         </is>
       </c>
       <c r="D82" s="42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="43" t="n">
-        <v>2069.76</v>
+        <v>1867.85</v>
       </c>
       <c r="F82" s="37" t="n">
-        <v>4139.53</v>
+        <v>1867.85</v>
       </c>
       <c r="G82" s="41" t="inlineStr">
         <is>
@@ -7525,74 +7448,74 @@
         </is>
       </c>
       <c r="H82" s="43" t="n">
-        <v>4.11</v>
+        <v>1.86</v>
       </c>
       <c r="I82" s="43" t="n">
-        <v>25.02</v>
+        <v>11.29</v>
       </c>
       <c r="J82" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K82" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), L51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="L82" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="M82" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), ((E51*D51)+L51), "")</f>
         <v/>
       </c>
       <c r="N82" s="35">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV"), D51, "")</f>
         <v/>
       </c>
       <c r="O82" s="33">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), P51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="P82" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="Q82" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), ((E51*D51)+P51), "")</f>
         <v/>
       </c>
       <c r="R82" s="34">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &lt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="S82" s="36">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), T51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="T82" s="37">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), (1-Index!$F$2*2)*((J51*D51)-(E51*D51)), "")</f>
         <v/>
       </c>
       <c r="U82" s="37">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), ((E51*D51)+T51), "")</f>
         <v/>
       </c>
       <c r="V82" s="37">
-        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
+        <f>IF(AND( C51="Buy", ISBLANK(W51), B51&lt;&gt;"DIV", NOW()-A51 &gt; 365), D51, "")</f>
         <v/>
       </c>
       <c r="W82" s="37" t="n"/>
       <c r="X82" s="37" t="n"/>
       <c r="Y82" s="36">
-        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
+        <f>IF(AND( C51="Buy", W51&lt;&gt;"", AA51&lt;&gt;"", B51&lt;&gt;"DIV"), Z51/sum(F51:I51), "")</f>
         <v/>
       </c>
       <c r="Z82" s="37" t="n"/>
       <c r="AA82" s="37" t="n"/>
       <c r="AB82" s="37" t="n"/>
       <c r="AC82" s="34">
-        <f>if(B52="DIV", F52,"")</f>
+        <f>if(B51="DIV", F51,"")</f>
         <v/>
       </c>
       <c r="AD82" s="38" t="n"/>
@@ -7611,7 +7534,7 @@
     </row>
     <row r="83">
       <c r="A83" s="40" t="n">
-        <v>45694</v>
+        <v>45699</v>
       </c>
       <c r="B83" s="41" t="inlineStr">
         <is>
@@ -7627,10 +7550,10 @@
         <v>2</v>
       </c>
       <c r="E83" s="43" t="n">
-        <v>2159.18</v>
+        <v>2069.76</v>
       </c>
       <c r="F83" s="37" t="n">
-        <v>4318.37</v>
+        <v>4139.53</v>
       </c>
       <c r="G83" s="41" t="inlineStr">
         <is>
@@ -7638,74 +7561,74 @@
         </is>
       </c>
       <c r="H83" s="43" t="n">
-        <v>4.28</v>
+        <v>4.11</v>
       </c>
       <c r="I83" s="43" t="n">
-        <v>26.09</v>
+        <v>25.02</v>
       </c>
       <c r="J83" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K83" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), L52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="L83" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="M83" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), ((E52*D52)+L52), "")</f>
         <v/>
       </c>
       <c r="N83" s="35">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV"), D52, "")</f>
         <v/>
       </c>
       <c r="O83" s="33">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), P52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="P83" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="Q83" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), ((E52*D52)+P52), "")</f>
         <v/>
       </c>
       <c r="R83" s="34">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &lt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="S83" s="36">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), T52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="T83" s="37">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), (1-Index!$F$2*2)*((J52*D52)-(E52*D52)), "")</f>
         <v/>
       </c>
       <c r="U83" s="37">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), ((E52*D52)+T52), "")</f>
         <v/>
       </c>
       <c r="V83" s="37">
-        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
+        <f>IF(AND( C52="Buy", ISBLANK(W52), B52&lt;&gt;"DIV", NOW()-A52 &gt; 365), D52, "")</f>
         <v/>
       </c>
       <c r="W83" s="37" t="n"/>
       <c r="X83" s="37" t="n"/>
       <c r="Y83" s="36">
-        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
+        <f>IF(AND( C52="Buy", W52&lt;&gt;"", AA52&lt;&gt;"", B52&lt;&gt;"DIV"), Z52/sum(F52:I52), "")</f>
         <v/>
       </c>
       <c r="Z83" s="37" t="n"/>
       <c r="AA83" s="37" t="n"/>
       <c r="AB83" s="37" t="n"/>
       <c r="AC83" s="34">
-        <f>if(B53="DIV", F53,"")</f>
+        <f>if(B52="DIV", F52,"")</f>
         <v/>
       </c>
       <c r="AD83" s="38" t="n"/>
@@ -7724,7 +7647,7 @@
     </row>
     <row r="84">
       <c r="A84" s="40" t="n">
-        <v>45621</v>
+        <v>45694</v>
       </c>
       <c r="B84" s="41" t="inlineStr">
         <is>
@@ -7737,13 +7660,13 @@
         </is>
       </c>
       <c r="D84" s="42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="43" t="n">
-        <v>2566.68</v>
+        <v>2159.18</v>
       </c>
       <c r="F84" s="37" t="n">
-        <v>2566.68</v>
+        <v>4318.37</v>
       </c>
       <c r="G84" s="41" t="inlineStr">
         <is>
@@ -7751,74 +7674,74 @@
         </is>
       </c>
       <c r="H84" s="43" t="n">
-        <v>2.59</v>
+        <v>4.28</v>
       </c>
       <c r="I84" s="43" t="n">
-        <v>15.54</v>
+        <v>26.09</v>
       </c>
       <c r="J84" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K84" s="33">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), L53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="L84" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="M84" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), ((E53*D53)+L53), "")</f>
         <v/>
       </c>
       <c r="N84" s="35">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV"), D53, "")</f>
         <v/>
       </c>
       <c r="O84" s="33">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), P53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="P84" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="Q84" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), ((E53*D53)+P53), "")</f>
         <v/>
       </c>
       <c r="R84" s="34">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &lt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="S84" s="36">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), T53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="T84" s="37">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), (1-Index!$F$2*2)*((J53*D53)-(E53*D53)), "")</f>
         <v/>
       </c>
       <c r="U84" s="37">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), ((E53*D53)+T53), "")</f>
         <v/>
       </c>
       <c r="V84" s="37">
-        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
+        <f>IF(AND( C53="Buy", ISBLANK(W53), B53&lt;&gt;"DIV", NOW()-A53 &gt; 365), D53, "")</f>
         <v/>
       </c>
       <c r="W84" s="37" t="n"/>
       <c r="X84" s="37" t="n"/>
       <c r="Y84" s="36">
-        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
+        <f>IF(AND( C53="Buy", W53&lt;&gt;"", AA53&lt;&gt;"", B53&lt;&gt;"DIV"), Z53/sum(F53:I53), "")</f>
         <v/>
       </c>
       <c r="Z84" s="37" t="n"/>
       <c r="AA84" s="37" t="n"/>
       <c r="AB84" s="37" t="n"/>
       <c r="AC84" s="34">
-        <f>if(B54="DIV", F54,"")</f>
+        <f>if(B53="DIV", F53,"")</f>
         <v/>
       </c>
       <c r="AD84" s="38" t="n"/>
@@ -7837,7 +7760,7 @@
     </row>
     <row r="85">
       <c r="A85" s="40" t="n">
-        <v>45483</v>
+        <v>45621</v>
       </c>
       <c r="B85" s="41" t="inlineStr">
         <is>
@@ -7846,17 +7769,17 @@
       </c>
       <c r="C85" s="41" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D85" s="42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" s="43" t="n">
-        <v>2257.84</v>
+        <v>2566.68</v>
       </c>
       <c r="F85" s="37" t="n">
-        <v>9031.379999999999</v>
+        <v>2566.68</v>
       </c>
       <c r="G85" s="41" t="inlineStr">
         <is>
@@ -7864,74 +7787,74 @@
         </is>
       </c>
       <c r="H85" s="43" t="n">
-        <v>9.19</v>
+        <v>2.59</v>
       </c>
       <c r="I85" s="43" t="n">
-        <v>54.03</v>
+        <v>15.54</v>
       </c>
       <c r="J85" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
       <c r="K85" s="33">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), L54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="L85" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="M85" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), ((E54*D54)+L54), "")</f>
         <v/>
       </c>
       <c r="N85" s="35">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV"), D54, "")</f>
         <v/>
       </c>
       <c r="O85" s="33">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), P54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="P85" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="Q85" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), ((E54*D54)+P54), "")</f>
         <v/>
       </c>
       <c r="R85" s="34">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &lt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="S85" s="36">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), T54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="T85" s="37">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), (1-Index!$F$2*2)*((J54*D54)-(E54*D54)), "")</f>
         <v/>
       </c>
       <c r="U85" s="37">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), ((E54*D54)+T54), "")</f>
         <v/>
       </c>
       <c r="V85" s="37">
-        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <f>IF(AND( C54="Buy", ISBLANK(W54), B54&lt;&gt;"DIV", NOW()-A54 &gt; 365), D54, "")</f>
         <v/>
       </c>
       <c r="W85" s="37" t="n"/>
       <c r="X85" s="37" t="n"/>
       <c r="Y85" s="36">
-        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <f>IF(AND( C54="Buy", W54&lt;&gt;"", AA54&lt;&gt;"", B54&lt;&gt;"DIV"), Z54/sum(F54:I54), "")</f>
         <v/>
       </c>
       <c r="Z85" s="37" t="n"/>
       <c r="AA85" s="37" t="n"/>
       <c r="AB85" s="37" t="n"/>
       <c r="AC85" s="34">
-        <f>if(B55="DIV", F55,"")</f>
+        <f>if(B54="DIV", F54,"")</f>
         <v/>
       </c>
       <c r="AD85" s="38" t="n"/>
@@ -7950,7 +7873,7 @@
     </row>
     <row r="86">
       <c r="A86" s="40" t="n">
-        <v>45278</v>
+        <v>45483</v>
       </c>
       <c r="B86" s="41" t="inlineStr">
         <is>
@@ -7959,17 +7882,17 @@
       </c>
       <c r="C86" s="41" t="inlineStr">
         <is>
-          <t>Buy</t>
-        </is>
-      </c>
-      <c r="D86" s="45" t="n">
-        <v>3</v>
-      </c>
-      <c r="E86" s="32" t="n">
-        <v>1358.29667</v>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="D86" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" s="43" t="n">
+        <v>2257.84</v>
       </c>
       <c r="F86" s="37" t="n">
-        <v>4103.74</v>
+        <v>9031.379999999999</v>
       </c>
       <c r="G86" s="41" t="inlineStr">
         <is>
@@ -7977,81 +7900,77 @@
         </is>
       </c>
       <c r="H86" s="43" t="n">
-        <v>4.06</v>
+        <v>9.19</v>
       </c>
       <c r="I86" s="43" t="n">
-        <v>24.78</v>
+        <v>54.03</v>
       </c>
       <c r="J86" s="32">
         <f>Index!$C$2</f>
         <v/>
       </c>
-      <c r="K86" s="37" t="n"/>
-      <c r="L86" s="37">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="M86" s="46">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
-        <v/>
-      </c>
-      <c r="N86" s="47">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
-        <v/>
-      </c>
-      <c r="O86" s="46" t="n"/>
-      <c r="P86" s="37">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
-        <v/>
-      </c>
-      <c r="Q86" s="46">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
-        <v/>
-      </c>
-      <c r="R86" s="46">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="S86" s="46" t="n"/>
-      <c r="T86" s="46">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
-        <v/>
-      </c>
-      <c r="U86" s="46">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
-        <v/>
-      </c>
-      <c r="V86" s="46">
-        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
-        <v/>
-      </c>
-      <c r="W86" s="43" t="n">
-        <v>2257.84</v>
-      </c>
-      <c r="X86" s="40" t="n">
-        <v>45483</v>
-      </c>
-      <c r="Y86" s="36" t="n">
-        <v>0.6438711821999999</v>
-      </c>
-      <c r="Z86" s="48" t="n">
-        <v>2660.84917</v>
-      </c>
-      <c r="AA86" s="48" t="n">
-        <v>6735.73918</v>
-      </c>
-      <c r="AB86" s="49" t="n">
-        <v>3</v>
-      </c>
+      <c r="K86" s="33">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), L55/sum(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="L86" s="34">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="M86" s="34">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), ((E55*D55)+L55), "")</f>
+        <v/>
+      </c>
+      <c r="N86" s="35">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV"), D55, "")</f>
+        <v/>
+      </c>
+      <c r="O86" s="33">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), P55/sum(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="P86" s="34">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="Q86" s="34">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), ((E55*D55)+P55), "")</f>
+        <v/>
+      </c>
+      <c r="R86" s="34">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &lt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="S86" s="36">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), T55/sum(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="T86" s="37">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), (1-Index!$F$2*2)*((J55*D55)-(E55*D55)), "")</f>
+        <v/>
+      </c>
+      <c r="U86" s="37">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), ((E55*D55)+T55), "")</f>
+        <v/>
+      </c>
+      <c r="V86" s="37">
+        <f>IF(AND( C55="Buy", ISBLANK(W55), B55&lt;&gt;"DIV", NOW()-A55 &gt; 365), D55, "")</f>
+        <v/>
+      </c>
+      <c r="W86" s="37" t="n"/>
+      <c r="X86" s="37" t="n"/>
+      <c r="Y86" s="36">
+        <f>IF(AND( C55="Buy", W55&lt;&gt;"", AA55&lt;&gt;"", B55&lt;&gt;"DIV"), Z55/sum(F55:I55), "")</f>
+        <v/>
+      </c>
+      <c r="Z86" s="37" t="n"/>
+      <c r="AA86" s="37" t="n"/>
+      <c r="AB86" s="37" t="n"/>
       <c r="AC86" s="34">
-        <f>if(B56="DIV", F56,"")</f>
-        <v/>
-      </c>
-      <c r="AD86" s="50" t="inlineStr">
-        <is>
-          <t>SBI Securities</t>
-        </is>
-      </c>
+        <f>if(B55="DIV", F55,"")</f>
+        <v/>
+      </c>
+      <c r="AD86" s="38" t="n"/>
       <c r="AE86" s="1" t="n"/>
       <c r="AF86" s="1" t="n"/>
       <c r="AG86" s="1" t="n"/>
@@ -8067,7 +7986,7 @@
     </row>
     <row r="87">
       <c r="A87" s="40" t="n">
-        <v>45258</v>
+        <v>45278</v>
       </c>
       <c r="B87" s="41" t="inlineStr">
         <is>
@@ -8080,13 +7999,13 @@
         </is>
       </c>
       <c r="D87" s="45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E87" s="32" t="n">
-        <v>1435</v>
+        <v>1358.29667</v>
       </c>
       <c r="F87" s="37" t="n">
-        <v>1445.2</v>
+        <v>4103.74</v>
       </c>
       <c r="G87" s="41" t="inlineStr">
         <is>
@@ -8094,10 +8013,10 @@
         </is>
       </c>
       <c r="H87" s="43" t="n">
-        <v>1.44</v>
+        <v>4.06</v>
       </c>
       <c r="I87" s="43" t="n">
-        <v>8.76</v>
+        <v>24.78</v>
       </c>
       <c r="J87" s="32">
         <f>Index!$C$2</f>
@@ -8105,41 +8024,41 @@
       </c>
       <c r="K87" s="37" t="n"/>
       <c r="L87" s="37">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="M87" s="46">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), ((E56*D56)+L56), "")</f>
         <v/>
       </c>
       <c r="N87" s="47">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV"), D56, "")</f>
         <v/>
       </c>
       <c r="O87" s="46" t="n"/>
       <c r="P87" s="37">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), (1-Index!$F$2*2)*((J56*D56)-(E56*D56)), "")</f>
         <v/>
       </c>
       <c r="Q87" s="46">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), ((E56*D56)+P56), "")</f>
         <v/>
       </c>
       <c r="R87" s="46">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &lt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="S87" s="46" t="n"/>
       <c r="T87" s="46">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), (J56*D56)-(E56*D56)-(2*sum(H56:I56)), "")</f>
         <v/>
       </c>
       <c r="U87" s="46">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), ((E56*D56)+T56), "")</f>
         <v/>
       </c>
       <c r="V87" s="46">
-        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <f>IF(AND( C56="Buy", ISBLANK(W56), B56&lt;&gt;"DIV", NOW()-A56 &gt; 365), D56, "")</f>
         <v/>
       </c>
       <c r="W87" s="43" t="n">
@@ -8149,19 +8068,19 @@
         <v>45483</v>
       </c>
       <c r="Y87" s="36" t="n">
-        <v>0.5574551601</v>
+        <v>0.6438711821999999</v>
       </c>
       <c r="Z87" s="48" t="n">
-        <v>811.32024</v>
+        <v>2660.84917</v>
       </c>
       <c r="AA87" s="48" t="n">
-        <v>2246.32024</v>
+        <v>6735.73918</v>
       </c>
       <c r="AB87" s="49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC87" s="34">
-        <f>if(B57="DIV", F57,"")</f>
+        <f>if(B56="DIV", F56,"")</f>
         <v/>
       </c>
       <c r="AD87" s="50" t="inlineStr">
@@ -8184,7 +8103,7 @@
     </row>
     <row r="88">
       <c r="A88" s="40" t="n">
-        <v>44315</v>
+        <v>45258</v>
       </c>
       <c r="B88" s="41" t="inlineStr">
         <is>
@@ -8193,17 +8112,17 @@
       </c>
       <c r="C88" s="41" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D88" s="45" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E88" s="32" t="n">
-        <v>1132.405</v>
+        <v>1435</v>
       </c>
       <c r="F88" s="37" t="n">
-        <v>13668.46</v>
+        <v>1445.2</v>
       </c>
       <c r="G88" s="41" t="inlineStr">
         <is>
@@ -8211,10 +8130,10 @@
         </is>
       </c>
       <c r="H88" s="43" t="n">
-        <v>11.51</v>
+        <v>1.44</v>
       </c>
       <c r="I88" s="43" t="n">
-        <v>68.11</v>
+        <v>8.76</v>
       </c>
       <c r="J88" s="32">
         <f>Index!$C$2</f>
@@ -8222,54 +8141,63 @@
       </c>
       <c r="K88" s="37" t="n"/>
       <c r="L88" s="37">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="M88" s="46">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), ((E57*D57)+L57), "")</f>
         <v/>
       </c>
       <c r="N88" s="47">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV"), D57, "")</f>
         <v/>
       </c>
       <c r="O88" s="46" t="n"/>
       <c r="P88" s="37">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), (1-Index!$F$2*2)*((J57*D57)-(E57*D57)), "")</f>
         <v/>
       </c>
       <c r="Q88" s="46">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), ((E57*D57)+P57), "")</f>
         <v/>
       </c>
       <c r="R88" s="46">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &lt; 365), D57, "")</f>
         <v/>
       </c>
       <c r="S88" s="46" t="n"/>
       <c r="T88" s="46">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), (J57*D57)-(E57*D57)-(2*sum(H57:I57)), "")</f>
         <v/>
       </c>
       <c r="U88" s="46">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), ((E57*D57)+T57), "")</f>
         <v/>
       </c>
       <c r="V88" s="46">
-        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
-        <v/>
-      </c>
-      <c r="W88" s="37" t="n"/>
-      <c r="X88" s="37" t="n"/>
-      <c r="Y88" s="36">
-        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
-        <v/>
-      </c>
-      <c r="Z88" s="37" t="n"/>
-      <c r="AA88" s="37" t="n"/>
-      <c r="AB88" s="37" t="n"/>
+        <f>IF(AND( C57="Buy", ISBLANK(W57), B57&lt;&gt;"DIV", NOW()-A57 &gt; 365), D57, "")</f>
+        <v/>
+      </c>
+      <c r="W88" s="43" t="n">
+        <v>2257.84</v>
+      </c>
+      <c r="X88" s="40" t="n">
+        <v>45483</v>
+      </c>
+      <c r="Y88" s="36" t="n">
+        <v>0.5574551601</v>
+      </c>
+      <c r="Z88" s="48" t="n">
+        <v>811.32024</v>
+      </c>
+      <c r="AA88" s="48" t="n">
+        <v>2246.32024</v>
+      </c>
+      <c r="AB88" s="49" t="n">
+        <v>1</v>
+      </c>
       <c r="AC88" s="34">
-        <f>if(B58="DIV", F58,"")</f>
+        <f>if(B57="DIV", F57,"")</f>
         <v/>
       </c>
       <c r="AD88" s="50" t="inlineStr">
@@ -8292,7 +8220,7 @@
     </row>
     <row r="89">
       <c r="A89" s="40" t="n">
-        <v>44314</v>
+        <v>44315</v>
       </c>
       <c r="B89" s="41" t="inlineStr">
         <is>
@@ -8305,13 +8233,13 @@
         </is>
       </c>
       <c r="D89" s="45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E89" s="32" t="n">
-        <v>1126.853</v>
+        <v>1132.405</v>
       </c>
       <c r="F89" s="37" t="n">
-        <v>11347.53</v>
+        <v>13668.46</v>
       </c>
       <c r="G89" s="41" t="inlineStr">
         <is>
@@ -8319,10 +8247,10 @@
         </is>
       </c>
       <c r="H89" s="43" t="n">
-        <v>11.2</v>
+        <v>11.51</v>
       </c>
       <c r="I89" s="43" t="n">
-        <v>67.77</v>
+        <v>68.11</v>
       </c>
       <c r="J89" s="32">
         <f>Index!$C$2</f>
@@ -8330,54 +8258,54 @@
       </c>
       <c r="K89" s="37" t="n"/>
       <c r="L89" s="37">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="M89" s="46">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), ((E58*D58)+L58), "")</f>
         <v/>
       </c>
       <c r="N89" s="47">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV"), D58, "")</f>
         <v/>
       </c>
       <c r="O89" s="46" t="n"/>
       <c r="P89" s="37">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), (1-Index!$F$2*2)*((J58*D58)-(E58*D58)), "")</f>
         <v/>
       </c>
       <c r="Q89" s="46">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), ((E58*D58)+P58), "")</f>
         <v/>
       </c>
       <c r="R89" s="46">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &lt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="S89" s="46" t="n"/>
       <c r="T89" s="46">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), (J58*D58)-(E58*D58)-(2*sum(H58:I58)), "")</f>
         <v/>
       </c>
       <c r="U89" s="46">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), ((E58*D58)+T58), "")</f>
         <v/>
       </c>
       <c r="V89" s="46">
-        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
+        <f>IF(AND( C58="Buy", ISBLANK(W58), B58&lt;&gt;"DIV", NOW()-A58 &gt; 365), D58, "")</f>
         <v/>
       </c>
       <c r="W89" s="37" t="n"/>
       <c r="X89" s="37" t="n"/>
       <c r="Y89" s="36">
-        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
+        <f>IF(AND( C58="Buy", W58&lt;&gt;"", AA58&lt;&gt;"", B58&lt;&gt;"DIV"), Z58/sum(F58:I58), "")</f>
         <v/>
       </c>
       <c r="Z89" s="37" t="n"/>
       <c r="AA89" s="37" t="n"/>
       <c r="AB89" s="37" t="n"/>
       <c r="AC89" s="34">
-        <f>if(B59="DIV", F59,"")</f>
+        <f>if(B58="DIV", F58,"")</f>
         <v/>
       </c>
       <c r="AD89" s="50" t="inlineStr">
@@ -8400,7 +8328,7 @@
     </row>
     <row r="90">
       <c r="A90" s="40" t="n">
-        <v>44313</v>
+        <v>44314</v>
       </c>
       <c r="B90" s="41" t="inlineStr">
         <is>
@@ -8416,10 +8344,10 @@
         <v>10</v>
       </c>
       <c r="E90" s="32" t="n">
-        <v>1126.567</v>
-      </c>
-      <c r="F90" s="49" t="n">
-        <v>11344.57</v>
+        <v>1126.853</v>
+      </c>
+      <c r="F90" s="37" t="n">
+        <v>11347.53</v>
       </c>
       <c r="G90" s="41" t="inlineStr">
         <is>
@@ -8427,10 +8355,10 @@
         </is>
       </c>
       <c r="H90" s="43" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="I90" s="43" t="n">
-        <v>67.76000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="J90" s="32">
         <f>Index!$C$2</f>
@@ -8438,54 +8366,54 @@
       </c>
       <c r="K90" s="37" t="n"/>
       <c r="L90" s="37">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="M90" s="46">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), ((E59*D59)+L59), "")</f>
         <v/>
       </c>
       <c r="N90" s="47">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV"), D59, "")</f>
         <v/>
       </c>
       <c r="O90" s="46" t="n"/>
       <c r="P90" s="37">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), (1-Index!$F$2*2)*((J59*D59)-(E59*D59)), "")</f>
         <v/>
       </c>
       <c r="Q90" s="46">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), ((E59*D59)+P59), "")</f>
         <v/>
       </c>
       <c r="R90" s="46">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &lt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="S90" s="46" t="n"/>
       <c r="T90" s="46">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*sum(H60:I60)), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), (J59*D59)-(E59*D59)-(2*sum(H59:I59)), "")</f>
         <v/>
       </c>
       <c r="U90" s="46">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), ((E59*D59)+T59), "")</f>
         <v/>
       </c>
       <c r="V90" s="46">
-        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <f>IF(AND( C59="Buy", ISBLANK(W59), B59&lt;&gt;"DIV", NOW()-A59 &gt; 365), D59, "")</f>
         <v/>
       </c>
       <c r="W90" s="37" t="n"/>
       <c r="X90" s="37" t="n"/>
       <c r="Y90" s="36">
-        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/sum(F60:I60), "")</f>
+        <f>IF(AND( C59="Buy", W59&lt;&gt;"", AA59&lt;&gt;"", B59&lt;&gt;"DIV"), Z59/sum(F59:I59), "")</f>
         <v/>
       </c>
       <c r="Z90" s="37" t="n"/>
       <c r="AA90" s="37" t="n"/>
       <c r="AB90" s="37" t="n"/>
       <c r="AC90" s="34">
-        <f>if(B60="DIV", F60,"")</f>
+        <f>if(B59="DIV", F59,"")</f>
         <v/>
       </c>
       <c r="AD90" s="50" t="inlineStr">
@@ -8508,7 +8436,7 @@
     </row>
     <row r="91">
       <c r="A91" s="40" t="n">
-        <v>44221</v>
+        <v>44313</v>
       </c>
       <c r="B91" s="41" t="inlineStr">
         <is>
@@ -8517,17 +8445,17 @@
       </c>
       <c r="C91" s="41" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D91" s="45" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E91" s="32" t="n">
-        <v>1244.655</v>
+        <v>1126.567</v>
       </c>
       <c r="F91" s="49" t="n">
-        <v>2506.59</v>
+        <v>11344.57</v>
       </c>
       <c r="G91" s="41" t="inlineStr">
         <is>
@@ -8535,10 +8463,10 @@
         </is>
       </c>
       <c r="H91" s="43" t="n">
-        <v>2.13</v>
+        <v>11.17</v>
       </c>
       <c r="I91" s="43" t="n">
-        <v>15.16</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="J91" s="32">
         <f>Index!$C$2</f>
@@ -8546,63 +8474,54 @@
       </c>
       <c r="K91" s="37" t="n"/>
       <c r="L91" s="37">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="M91" s="46">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), ((E60*D60)+L60), "")</f>
         <v/>
       </c>
       <c r="N91" s="47">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV"), D60, "")</f>
         <v/>
       </c>
       <c r="O91" s="46" t="n"/>
       <c r="P91" s="37">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), (1-Index!$F$2*2)*((J60*D60)-(E60*D60)), "")</f>
         <v/>
       </c>
       <c r="Q91" s="46">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), ((E60*D60)+P60), "")</f>
         <v/>
       </c>
       <c r="R91" s="46">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &lt; 365), D60, "")</f>
         <v/>
       </c>
       <c r="S91" s="46" t="n"/>
       <c r="T91" s="46">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (J61*D61)-(E61*D61)-(2*sum(H61:I61)), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), (J60*D60)-(E60*D60)-(2*sum(H60:I60)), "")</f>
         <v/>
       </c>
       <c r="U91" s="46">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), ((E60*D60)+T60), "")</f>
         <v/>
       </c>
       <c r="V91" s="46">
-        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
-        <v/>
-      </c>
-      <c r="W91" s="51" t="n">
-        <v>1128.61</v>
-      </c>
-      <c r="X91" s="40" t="n">
-        <v>44315</v>
-      </c>
-      <c r="Y91" s="36" t="n">
-        <v>-0.09067021410999999</v>
-      </c>
-      <c r="Z91" s="48" t="n">
-        <v>-228.84074</v>
-      </c>
-      <c r="AA91" s="48" t="n">
-        <v>2260.46926</v>
-      </c>
-      <c r="AB91" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC91" s="52">
-        <f>if(B61="DIV", F61,"")</f>
+        <f>IF(AND( C60="Buy", ISBLANK(W60), B60&lt;&gt;"DIV", NOW()-A60 &gt; 365), D60, "")</f>
+        <v/>
+      </c>
+      <c r="W91" s="37" t="n"/>
+      <c r="X91" s="37" t="n"/>
+      <c r="Y91" s="36">
+        <f>IF(AND( C60="Buy", W60&lt;&gt;"", AA60&lt;&gt;"", B60&lt;&gt;"DIV"), Z60/sum(F60:I60), "")</f>
+        <v/>
+      </c>
+      <c r="Z91" s="37" t="n"/>
+      <c r="AA91" s="37" t="n"/>
+      <c r="AB91" s="37" t="n"/>
+      <c r="AC91" s="34">
+        <f>if(B60="DIV", F60,"")</f>
         <v/>
       </c>
       <c r="AD91" s="50" t="inlineStr">
@@ -8625,7 +8544,7 @@
     </row>
     <row r="92">
       <c r="A92" s="40" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="B92" s="41" t="inlineStr">
         <is>
@@ -8641,10 +8560,10 @@
         <v>2</v>
       </c>
       <c r="E92" s="32" t="n">
-        <v>1253.05</v>
-      </c>
-      <c r="F92" s="37" t="n">
-        <v>2523.32</v>
+        <v>1244.655</v>
+      </c>
+      <c r="F92" s="49" t="n">
+        <v>2506.59</v>
       </c>
       <c r="G92" s="41" t="inlineStr">
         <is>
@@ -8652,10 +8571,10 @@
         </is>
       </c>
       <c r="H92" s="43" t="n">
-        <v>1.96</v>
+        <v>2.13</v>
       </c>
       <c r="I92" s="43" t="n">
-        <v>15.26</v>
+        <v>15.16</v>
       </c>
       <c r="J92" s="32">
         <f>Index!$C$2</f>
@@ -8663,41 +8582,41 @@
       </c>
       <c r="K92" s="37" t="n"/>
       <c r="L92" s="37">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="M92" s="46">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), ((E61*D61)+L61), "")</f>
         <v/>
       </c>
       <c r="N92" s="47">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV"), D61, "")</f>
         <v/>
       </c>
       <c r="O92" s="46" t="n"/>
       <c r="P92" s="37">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), (1-Index!$F$2*2)*((J61*D61)-(E61*D61)), "")</f>
         <v/>
       </c>
       <c r="Q92" s="46">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), ((E61*D61)+P61), "")</f>
         <v/>
       </c>
       <c r="R92" s="46">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &lt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="S92" s="46" t="n"/>
       <c r="T92" s="46">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (J62*D62)-(E62*D62)-(2*sum(H62:I62)), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), (J61*D61)-(E61*D61)-(2*sum(H61:I61)), "")</f>
         <v/>
       </c>
       <c r="U92" s="46">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), ((E61*D61)+T61), "")</f>
         <v/>
       </c>
       <c r="V92" s="46">
-        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
+        <f>IF(AND( C61="Buy", ISBLANK(W61), B61&lt;&gt;"DIV", NOW()-A61 &gt; 365), D61, "")</f>
         <v/>
       </c>
       <c r="W92" s="51" t="n">
@@ -8707,19 +8626,19 @@
         <v>44315</v>
       </c>
       <c r="Y92" s="36" t="n">
-        <v>-0.09659193715</v>
+        <v>-0.09067021410999999</v>
       </c>
       <c r="Z92" s="48" t="n">
-        <v>-245.39568</v>
+        <v>-228.84074</v>
       </c>
       <c r="AA92" s="48" t="n">
-        <v>2260.70432</v>
+        <v>2260.46926</v>
       </c>
       <c r="AB92" s="49" t="n">
         <v>2</v>
       </c>
       <c r="AC92" s="52">
-        <f>if(B62="DIV", F62,"")</f>
+        <f>if(B61="DIV", F61,"")</f>
         <v/>
       </c>
       <c r="AD92" s="50" t="inlineStr">
@@ -8742,7 +8661,7 @@
     </row>
     <row r="93">
       <c r="A93" s="40" t="n">
-        <v>44210</v>
+        <v>44214</v>
       </c>
       <c r="B93" s="41" t="inlineStr">
         <is>
@@ -8755,13 +8674,13 @@
         </is>
       </c>
       <c r="D93" s="45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E93" s="32" t="n">
-        <v>1314.89667</v>
+        <v>1253.05</v>
       </c>
       <c r="F93" s="37" t="n">
-        <v>3971.32</v>
+        <v>2523.32</v>
       </c>
       <c r="G93" s="41" t="inlineStr">
         <is>
@@ -8769,10 +8688,10 @@
         </is>
       </c>
       <c r="H93" s="43" t="n">
-        <v>2.64</v>
+        <v>1.96</v>
       </c>
       <c r="I93" s="43" t="n">
-        <v>23.98</v>
+        <v>15.26</v>
       </c>
       <c r="J93" s="32">
         <f>Index!$C$2</f>
@@ -8780,41 +8699,41 @@
       </c>
       <c r="K93" s="37" t="n"/>
       <c r="L93" s="37">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="M93" s="46">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), ((E62*D62)+L62), "")</f>
         <v/>
       </c>
       <c r="N93" s="47">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV"), D62, "")</f>
         <v/>
       </c>
       <c r="O93" s="46" t="n"/>
       <c r="P93" s="37">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), (1-Index!$F$2*2)*((J62*D62)-(E62*D62)), "")</f>
         <v/>
       </c>
       <c r="Q93" s="46">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), ((E62*D62)+P62), "")</f>
         <v/>
       </c>
       <c r="R93" s="46">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &lt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="S93" s="46" t="n"/>
       <c r="T93" s="46">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (J63*D63)-(E63*D63)-(2*sum(H63:I63)), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), (J62*D62)-(E62*D62)-(2*sum(H62:I62)), "")</f>
         <v/>
       </c>
       <c r="U93" s="46">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), ((E62*D62)+T62), "")</f>
         <v/>
       </c>
       <c r="V93" s="46">
-        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
+        <f>IF(AND( C62="Buy", ISBLANK(W62), B62&lt;&gt;"DIV", NOW()-A62 &gt; 365), D62, "")</f>
         <v/>
       </c>
       <c r="W93" s="51" t="n">
@@ -8824,19 +8743,19 @@
         <v>44315</v>
       </c>
       <c r="Y93" s="36" t="n">
-        <v>-0.1378299749</v>
+        <v>-0.09659193715</v>
       </c>
       <c r="Z93" s="48" t="n">
-        <v>-551.0359699000001</v>
+        <v>-245.39568</v>
       </c>
       <c r="AA93" s="48" t="n">
-        <v>3393.65404</v>
+        <v>2260.70432</v>
       </c>
       <c r="AB93" s="49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC93" s="52">
-        <f>if(B63="DIV", F63,"")</f>
+        <f>if(B62="DIV", F62,"")</f>
         <v/>
       </c>
       <c r="AD93" s="50" t="inlineStr">
@@ -8859,7 +8778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="40" t="n">
-        <v>44207</v>
+        <v>44210</v>
       </c>
       <c r="B94" s="41" t="inlineStr">
         <is>
@@ -8875,10 +8794,10 @@
         <v>3</v>
       </c>
       <c r="E94" s="32" t="n">
-        <v>1285.52</v>
+        <v>1314.89667</v>
       </c>
       <c r="F94" s="37" t="n">
-        <v>3883.19</v>
+        <v>3971.32</v>
       </c>
       <c r="G94" s="41" t="inlineStr">
         <is>
@@ -8886,10 +8805,10 @@
         </is>
       </c>
       <c r="H94" s="43" t="n">
-        <v>3.25</v>
+        <v>2.64</v>
       </c>
       <c r="I94" s="43" t="n">
-        <v>23.39</v>
+        <v>23.98</v>
       </c>
       <c r="J94" s="32">
         <f>Index!$C$2</f>
@@ -8897,41 +8816,41 @@
       </c>
       <c r="K94" s="37" t="n"/>
       <c r="L94" s="37">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="M94" s="46">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), ((E63*D63)+L63), "")</f>
         <v/>
       </c>
       <c r="N94" s="47">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV"), D63, "")</f>
         <v/>
       </c>
       <c r="O94" s="46" t="n"/>
       <c r="P94" s="37">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), (1-Index!$F$2*2)*((J63*D63)-(E63*D63)), "")</f>
         <v/>
       </c>
       <c r="Q94" s="46">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), ((E63*D63)+P63), "")</f>
         <v/>
       </c>
       <c r="R94" s="46">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &lt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="S94" s="46" t="n"/>
       <c r="T94" s="46">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (J64*D64)-(E64*D64)-(2*sum(H64:I64)), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), (J63*D63)-(E63*D63)-(2*sum(H63:I63)), "")</f>
         <v/>
       </c>
       <c r="U94" s="46">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), ((E63*D63)+T63), "")</f>
         <v/>
       </c>
       <c r="V94" s="46">
-        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
+        <f>IF(AND( C63="Buy", ISBLANK(W63), B63&lt;&gt;"DIV", NOW()-A63 &gt; 365), D63, "")</f>
         <v/>
       </c>
       <c r="W94" s="51" t="n">
@@ -8941,19 +8860,19 @@
         <v>44315</v>
       </c>
       <c r="Y94" s="36" t="n">
-        <v>-0.1187109874</v>
+        <v>-0.1378299749</v>
       </c>
       <c r="Z94" s="48" t="n">
-        <v>-464.13978</v>
+        <v>-551.0359699000001</v>
       </c>
       <c r="AA94" s="48" t="n">
-        <v>3392.42022</v>
+        <v>3393.65404</v>
       </c>
       <c r="AB94" s="49" t="n">
         <v>3</v>
       </c>
       <c r="AC94" s="52">
-        <f>if(B64="DIV", F64,"")</f>
+        <f>if(B63="DIV", F63,"")</f>
         <v/>
       </c>
       <c r="AD94" s="50" t="inlineStr">
@@ -8976,7 +8895,7 @@
     </row>
     <row r="95">
       <c r="A95" s="40" t="n">
-        <v>44201</v>
+        <v>44207</v>
       </c>
       <c r="B95" s="41" t="inlineStr">
         <is>
@@ -8989,13 +8908,13 @@
         </is>
       </c>
       <c r="D95" s="45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" s="32" t="n">
-        <v>1300.85</v>
-      </c>
-      <c r="F95" s="49" t="n">
-        <v>2619.64</v>
+        <v>1285.52</v>
+      </c>
+      <c r="F95" s="37" t="n">
+        <v>3883.19</v>
       </c>
       <c r="G95" s="41" t="inlineStr">
         <is>
@@ -9003,10 +8922,10 @@
         </is>
       </c>
       <c r="H95" s="43" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="I95" s="43" t="n">
-        <v>15.84</v>
+        <v>23.39</v>
       </c>
       <c r="J95" s="32">
         <f>Index!$C$2</f>
@@ -9014,41 +8933,41 @@
       </c>
       <c r="K95" s="37" t="n"/>
       <c r="L95" s="37">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="M95" s="46">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), ((E64*D64)+L64), "")</f>
         <v/>
       </c>
       <c r="N95" s="47">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV"), D64, "")</f>
         <v/>
       </c>
       <c r="O95" s="46" t="n"/>
       <c r="P95" s="37">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), (1-Index!$F$2*2)*((J64*D64)-(E64*D64)), "")</f>
         <v/>
       </c>
       <c r="Q95" s="46">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), ((E64*D64)+P64), "")</f>
         <v/>
       </c>
       <c r="R95" s="46">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &lt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="S95" s="46" t="n"/>
       <c r="T95" s="46">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (J65*D65)-(E65*D65)-(2*sum(H65:I65)), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), (J64*D64)-(E64*D64)-(2*sum(H64:I64)), "")</f>
         <v/>
       </c>
       <c r="U95" s="46">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), ((E64*D64)+T64), "")</f>
         <v/>
       </c>
       <c r="V95" s="46">
-        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
+        <f>IF(AND( C64="Buy", ISBLANK(W64), B64&lt;&gt;"DIV", NOW()-A64 &gt; 365), D64, "")</f>
         <v/>
       </c>
       <c r="W95" s="51" t="n">
@@ -9058,19 +8977,19 @@
         <v>44315</v>
       </c>
       <c r="Y95" s="36" t="n">
-        <v>-0.1287761054</v>
+        <v>-0.1187109874</v>
       </c>
       <c r="Z95" s="48" t="n">
-        <v>-339.65728</v>
+        <v>-464.13978</v>
       </c>
       <c r="AA95" s="48" t="n">
-        <v>2262.04272</v>
+        <v>3392.42022</v>
       </c>
       <c r="AB95" s="49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC95" s="52">
-        <f>if(B65="DIV", F65,"")</f>
+        <f>if(B64="DIV", F64,"")</f>
         <v/>
       </c>
       <c r="AD95" s="50" t="inlineStr">
@@ -9093,7 +9012,7 @@
     </row>
     <row r="96">
       <c r="A96" s="40" t="n">
-        <v>44180</v>
+        <v>44201</v>
       </c>
       <c r="B96" s="41" t="inlineStr">
         <is>
@@ -9106,13 +9025,13 @@
         </is>
       </c>
       <c r="D96" s="45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E96" s="32" t="n">
-        <v>1334.504</v>
+        <v>1300.85</v>
       </c>
       <c r="F96" s="49" t="n">
-        <v>6718.68</v>
+        <v>2619.64</v>
       </c>
       <c r="G96" s="41" t="inlineStr">
         <is>
@@ -9120,10 +9039,10 @@
         </is>
       </c>
       <c r="H96" s="43" t="n">
-        <v>6.13</v>
+        <v>2.1</v>
       </c>
       <c r="I96" s="43" t="n">
-        <v>40.05</v>
+        <v>15.84</v>
       </c>
       <c r="J96" s="32">
         <f>Index!$C$2</f>
@@ -9131,41 +9050,41 @@
       </c>
       <c r="K96" s="37" t="n"/>
       <c r="L96" s="37">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="M96" s="46">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), ((E65*D65)+L65), "")</f>
         <v/>
       </c>
       <c r="N96" s="47">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV"), D65, "")</f>
         <v/>
       </c>
       <c r="O96" s="46" t="n"/>
       <c r="P96" s="37">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), (1-Index!$F$2*2)*((J65*D65)-(E65*D65)), "")</f>
         <v/>
       </c>
       <c r="Q96" s="46">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), ((E65*D65)+P65), "")</f>
         <v/>
       </c>
       <c r="R96" s="46">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &lt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="S96" s="46" t="n"/>
       <c r="T96" s="46">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (J66*D66)-(E66*D66)-(2*sum(H66:I66)), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), (J65*D65)-(E65*D65)-(2*sum(H65:I65)), "")</f>
         <v/>
       </c>
       <c r="U96" s="46">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), ((E65*D65)+T65), "")</f>
         <v/>
       </c>
       <c r="V96" s="46">
-        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
+        <f>IF(AND( C65="Buy", ISBLANK(W65), B65&lt;&gt;"DIV", NOW()-A65 &gt; 365), D65, "")</f>
         <v/>
       </c>
       <c r="W96" s="51" t="n">
@@ -9175,19 +9094,19 @@
         <v>44315</v>
       </c>
       <c r="Y96" s="36" t="n">
-        <v>-0.1500485479</v>
+        <v>-0.1287761054</v>
       </c>
       <c r="Z96" s="48" t="n">
-        <v>-1015.05742</v>
+        <v>-339.65728</v>
       </c>
       <c r="AA96" s="48" t="n">
-        <v>5657.46258</v>
+        <v>2262.04272</v>
       </c>
       <c r="AB96" s="49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC96" s="52">
-        <f>if(B66="DIV", F66,"")</f>
+        <f>if(B65="DIV", F65,"")</f>
         <v/>
       </c>
       <c r="AD96" s="50" t="inlineStr">
@@ -9210,7 +9129,7 @@
     </row>
     <row r="97">
       <c r="A97" s="40" t="n">
-        <v>44172</v>
+        <v>44180</v>
       </c>
       <c r="B97" s="41" t="inlineStr">
         <is>
@@ -9223,13 +9142,13 @@
         </is>
       </c>
       <c r="D97" s="45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E97" s="32" t="n">
-        <v>1363.945</v>
+        <v>1334.504</v>
       </c>
       <c r="F97" s="49" t="n">
-        <v>2746.81</v>
+        <v>6718.68</v>
       </c>
       <c r="G97" s="41" t="inlineStr">
         <is>
@@ -9237,10 +9156,10 @@
         </is>
       </c>
       <c r="H97" s="43" t="n">
-        <v>2.53</v>
+        <v>6.13</v>
       </c>
       <c r="I97" s="43" t="n">
-        <v>16.38</v>
+        <v>40.05</v>
       </c>
       <c r="J97" s="32">
         <f>Index!$C$2</f>
@@ -9248,41 +9167,41 @@
       </c>
       <c r="K97" s="37" t="n"/>
       <c r="L97" s="37">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="M97" s="46">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), ((E66*D66)+L66), "")</f>
         <v/>
       </c>
       <c r="N97" s="47">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV"), D66, "")</f>
         <v/>
       </c>
       <c r="O97" s="46" t="n"/>
       <c r="P97" s="37">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), (1-Index!$F$2*2)*((J66*D66)-(E66*D66)), "")</f>
         <v/>
       </c>
       <c r="Q97" s="46">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), ((E66*D66)+P66), "")</f>
         <v/>
       </c>
       <c r="R97" s="46">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &lt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="S97" s="46" t="n"/>
       <c r="T97" s="46">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (J67*D67)-(E67*D67)-(2*sum(H67:I67)), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), (J66*D66)-(E66*D66)-(2*sum(H66:I66)), "")</f>
         <v/>
       </c>
       <c r="U97" s="46">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), ((E66*D66)+T66), "")</f>
         <v/>
       </c>
       <c r="V97" s="46">
-        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
+        <f>IF(AND( C66="Buy", ISBLANK(W66), B66&lt;&gt;"DIV", NOW()-A66 &gt; 365), D66, "")</f>
         <v/>
       </c>
       <c r="W97" s="51" t="n">
@@ -9292,19 +9211,19 @@
         <v>44315</v>
       </c>
       <c r="Y97" s="36" t="n">
-        <v>-0.1677973981</v>
+        <v>-0.1500485479</v>
       </c>
       <c r="Z97" s="48" t="n">
-        <v>-464.08062</v>
+        <v>-1015.05742</v>
       </c>
       <c r="AA97" s="48" t="n">
-        <v>2263.80938</v>
+        <v>5657.46258</v>
       </c>
       <c r="AB97" s="49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AC97" s="52">
-        <f>if(B67="DIV", F67,"")</f>
+        <f>if(B66="DIV", F66,"")</f>
         <v/>
       </c>
       <c r="AD97" s="50" t="inlineStr">
@@ -9327,7 +9246,7 @@
     </row>
     <row r="98">
       <c r="A98" s="40" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="B98" s="41" t="inlineStr">
         <is>
@@ -9340,13 +9259,13 @@
         </is>
       </c>
       <c r="D98" s="45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E98" s="32" t="n">
-        <v>1279.402</v>
+        <v>1363.945</v>
       </c>
       <c r="F98" s="49" t="n">
-        <v>6441.39</v>
+        <v>2746.81</v>
       </c>
       <c r="G98" s="41" t="inlineStr">
         <is>
@@ -9354,10 +9273,10 @@
         </is>
       </c>
       <c r="H98" s="43" t="n">
-        <v>5.95</v>
+        <v>2.53</v>
       </c>
       <c r="I98" s="43" t="n">
-        <v>38.44</v>
+        <v>16.38</v>
       </c>
       <c r="J98" s="32">
         <f>Index!$C$2</f>
@@ -9365,41 +9284,41 @@
       </c>
       <c r="K98" s="37" t="n"/>
       <c r="L98" s="37">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="M98" s="46">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), ((E67*D67)+L67), "")</f>
         <v/>
       </c>
       <c r="N98" s="47">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV"), D67, "")</f>
         <v/>
       </c>
       <c r="O98" s="46" t="n"/>
       <c r="P98" s="37">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), (1-Index!$F$2*2)*((J67*D67)-(E67*D67)), "")</f>
         <v/>
       </c>
       <c r="Q98" s="46">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), ((E67*D67)+P67), "")</f>
         <v/>
       </c>
       <c r="R98" s="46">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &lt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="S98" s="46" t="n"/>
       <c r="T98" s="46">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (J68*D68)-(E68*D68)-(2*sum(H68:I68)), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), (J67*D67)-(E67*D67)-(2*sum(H67:I67)), "")</f>
         <v/>
       </c>
       <c r="U98" s="46">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), ((E67*D67)+T67), "")</f>
         <v/>
       </c>
       <c r="V98" s="46">
-        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
+        <f>IF(AND( C67="Buy", ISBLANK(W67), B67&lt;&gt;"DIV", NOW()-A67 &gt; 365), D67, "")</f>
         <v/>
       </c>
       <c r="W98" s="51" t="n">
@@ -9409,19 +9328,19 @@
         <v>44315</v>
       </c>
       <c r="Y98" s="36" t="n">
-        <v>-0.1146206871</v>
+        <v>-0.1677973981</v>
       </c>
       <c r="Z98" s="48" t="n">
-        <v>-743.4045599999999</v>
+        <v>-464.08062</v>
       </c>
       <c r="AA98" s="48" t="n">
-        <v>5653.60544</v>
+        <v>2263.80938</v>
       </c>
       <c r="AB98" s="49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC98" s="52">
-        <f>if(B68="DIV", F68,"")</f>
+        <f>if(B67="DIV", F67,"")</f>
         <v/>
       </c>
       <c r="AD98" s="50" t="inlineStr">
@@ -9444,7 +9363,7 @@
     </row>
     <row r="99">
       <c r="A99" s="40" t="n">
-        <v>44167</v>
+        <v>44169</v>
       </c>
       <c r="B99" s="41" t="inlineStr">
         <is>
@@ -9457,13 +9376,13 @@
         </is>
       </c>
       <c r="D99" s="45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E99" s="32" t="n">
-        <v>1304.71333</v>
+        <v>1279.402</v>
       </c>
       <c r="F99" s="49" t="n">
-        <v>3941.23</v>
+        <v>6441.39</v>
       </c>
       <c r="G99" s="41" t="inlineStr">
         <is>
@@ -9471,10 +9390,10 @@
         </is>
       </c>
       <c r="H99" s="43" t="n">
-        <v>3.6</v>
+        <v>5.95</v>
       </c>
       <c r="I99" s="43" t="n">
-        <v>23.48</v>
+        <v>38.44</v>
       </c>
       <c r="J99" s="32">
         <f>Index!$C$2</f>
@@ -9482,41 +9401,41 @@
       </c>
       <c r="K99" s="37" t="n"/>
       <c r="L99" s="37">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="M99" s="46">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), ((E68*D68)+L68), "")</f>
         <v/>
       </c>
       <c r="N99" s="47">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV"), D68, "")</f>
         <v/>
       </c>
       <c r="O99" s="46" t="n"/>
       <c r="P99" s="37">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), (1-Index!$F$2*2)*((J68*D68)-(E68*D68)), "")</f>
         <v/>
       </c>
       <c r="Q99" s="46">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), ((E68*D68)+P68), "")</f>
         <v/>
       </c>
       <c r="R99" s="46">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &lt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="S99" s="46" t="n"/>
       <c r="T99" s="46">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (J69*D69)-(E69*D69)-(2*sum(H69:I69)), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), (J68*D68)-(E68*D68)-(2*sum(H68:I68)), "")</f>
         <v/>
       </c>
       <c r="U99" s="46">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), ((E68*D68)+T68), "")</f>
         <v/>
       </c>
       <c r="V99" s="46">
-        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
+        <f>IF(AND( C68="Buy", ISBLANK(W68), B68&lt;&gt;"DIV", NOW()-A68 &gt; 365), D68, "")</f>
         <v/>
       </c>
       <c r="W99" s="51" t="n">
@@ -9526,19 +9445,19 @@
         <v>44315</v>
       </c>
       <c r="Y99" s="36" t="n">
-        <v>-0.1312683863</v>
+        <v>-0.1146206871</v>
       </c>
       <c r="Z99" s="48" t="n">
-        <v>-520.9136501</v>
+        <v>-743.4045599999999</v>
       </c>
       <c r="AA99" s="48" t="n">
-        <v>3393.22634</v>
+        <v>5653.60544</v>
       </c>
       <c r="AB99" s="49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AC99" s="52">
-        <f>if(B69="DIV", F69,"")</f>
+        <f>if(B68="DIV", F68,"")</f>
         <v/>
       </c>
       <c r="AD99" s="50" t="inlineStr">
@@ -9561,7 +9480,7 @@
     </row>
     <row r="100">
       <c r="A100" s="40" t="n">
-        <v>44166</v>
+        <v>44167</v>
       </c>
       <c r="B100" s="41" t="inlineStr">
         <is>
@@ -9574,13 +9493,13 @@
         </is>
       </c>
       <c r="D100" s="45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" s="32" t="n">
-        <v>1308.702</v>
+        <v>1304.71333</v>
       </c>
       <c r="F100" s="49" t="n">
-        <v>6587.84</v>
+        <v>3941.23</v>
       </c>
       <c r="G100" s="41" t="inlineStr">
         <is>
@@ -9588,10 +9507,10 @@
         </is>
       </c>
       <c r="H100" s="43" t="n">
-        <v>4.67</v>
+        <v>3.6</v>
       </c>
       <c r="I100" s="43" t="n">
-        <v>39.67</v>
+        <v>23.48</v>
       </c>
       <c r="J100" s="32">
         <f>Index!$C$2</f>
@@ -9599,41 +9518,41 @@
       </c>
       <c r="K100" s="37" t="n"/>
       <c r="L100" s="37">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="M100" s="46">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), ((E69*D69)+L69), "")</f>
         <v/>
       </c>
       <c r="N100" s="47">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV"), D69, "")</f>
         <v/>
       </c>
       <c r="O100" s="46" t="n"/>
       <c r="P100" s="37">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), (1-Index!$F$2*2)*((J69*D69)-(E69*D69)), "")</f>
         <v/>
       </c>
       <c r="Q100" s="46">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), ((E69*D69)+P69), "")</f>
         <v/>
       </c>
       <c r="R100" s="46">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &lt; 365), D69, "")</f>
         <v/>
       </c>
       <c r="S100" s="46" t="n"/>
       <c r="T100" s="46">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (J70*D70)-(E70*D70)-(2*sum(H70:I70)), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), (J69*D69)-(E69*D69)-(2*sum(H69:I69)), "")</f>
         <v/>
       </c>
       <c r="U100" s="46">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), ((E69*D69)+T69), "")</f>
         <v/>
       </c>
       <c r="V100" s="46">
-        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
+        <f>IF(AND( C69="Buy", ISBLANK(W69), B69&lt;&gt;"DIV", NOW()-A69 &gt; 365), D69, "")</f>
         <v/>
       </c>
       <c r="W100" s="51" t="n">
@@ -9643,19 +9562,19 @@
         <v>44315</v>
       </c>
       <c r="Y100" s="36" t="n">
-        <v>-0.1338705463</v>
+        <v>-0.1312683863</v>
       </c>
       <c r="Z100" s="48" t="n">
-        <v>-887.85356</v>
+        <v>-520.9136501</v>
       </c>
       <c r="AA100" s="48" t="n">
-        <v>5655.65644</v>
+        <v>3393.22634</v>
       </c>
       <c r="AB100" s="49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC100" s="52">
-        <f>if(B70="DIV", F70,"")</f>
+        <f>if(B69="DIV", F69,"")</f>
         <v/>
       </c>
       <c r="AD100" s="50" t="inlineStr">
@@ -9678,7 +9597,7 @@
     </row>
     <row r="101">
       <c r="A101" s="40" t="n">
-        <v>41730</v>
+        <v>44166</v>
       </c>
       <c r="B101" s="41" t="inlineStr">
         <is>
@@ -9687,17 +9606,17 @@
       </c>
       <c r="C101" s="41" t="inlineStr">
         <is>
-          <t>Sell</t>
+          <t>Buy</t>
         </is>
       </c>
       <c r="D101" s="45" t="n">
         <v>5</v>
       </c>
       <c r="E101" s="32" t="n">
-        <v>97.214</v>
+        <v>1308.702</v>
       </c>
       <c r="F101" s="49" t="n">
-        <v>489.42</v>
+        <v>6587.84</v>
       </c>
       <c r="G101" s="41" t="inlineStr">
         <is>
@@ -9705,10 +9624,10 @@
         </is>
       </c>
       <c r="H101" s="43" t="n">
-        <v>0.53</v>
+        <v>4.67</v>
       </c>
       <c r="I101" s="43" t="n">
-        <v>2.8</v>
+        <v>39.67</v>
       </c>
       <c r="J101" s="32">
         <f>Index!$C$2</f>
@@ -9716,54 +9635,63 @@
       </c>
       <c r="K101" s="37" t="n"/>
       <c r="L101" s="37">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
         <v/>
       </c>
       <c r="M101" s="46">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), ((E71*D71)+L71), "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), ((E70*D70)+L70), "")</f>
         <v/>
       </c>
       <c r="N101" s="47">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), D71, "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV"), D70, "")</f>
         <v/>
       </c>
       <c r="O101" s="46" t="n"/>
       <c r="P101" s="37">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), (1-Index!$F$2*2)*((J70*D70)-(E70*D70)), "")</f>
         <v/>
       </c>
       <c r="Q101" s="46">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), ((E71*D71)+P71), "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), ((E70*D70)+P70), "")</f>
         <v/>
       </c>
       <c r="R101" s="46">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), D71, "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &lt; 365), D70, "")</f>
         <v/>
       </c>
       <c r="S101" s="46" t="n"/>
       <c r="T101" s="46">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), (J71*D71)-(E71*D71)-(2*sum(H71:I71)), "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), (J70*D70)-(E70*D70)-(2*sum(H70:I70)), "")</f>
         <v/>
       </c>
       <c r="U101" s="46">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), ((E71*D71)+T71), "")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), ((E70*D70)+T70), "")</f>
         <v/>
       </c>
       <c r="V101" s="46">
-        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), D71, "")</f>
-        <v/>
-      </c>
-      <c r="W101" s="37" t="n"/>
-      <c r="X101" s="37" t="n"/>
-      <c r="Y101" s="36">
-        <f>IF(AND( C71="Buy", W71&lt;&gt;"", AA71&lt;&gt;"", B71&lt;&gt;"DIV"), Z71/sum(F71:I71), "")</f>
-        <v/>
-      </c>
-      <c r="Z101" s="37" t="n"/>
-      <c r="AA101" s="37" t="n"/>
-      <c r="AB101" s="37" t="n"/>
-      <c r="AC101" s="34">
-        <f>if(B71="DIV", F71,"")</f>
+        <f>IF(AND( C70="Buy", ISBLANK(W70), B70&lt;&gt;"DIV", NOW()-A70 &gt; 365), D70, "")</f>
+        <v/>
+      </c>
+      <c r="W101" s="51" t="n">
+        <v>1128.61</v>
+      </c>
+      <c r="X101" s="40" t="n">
+        <v>44315</v>
+      </c>
+      <c r="Y101" s="36" t="n">
+        <v>-0.1338705463</v>
+      </c>
+      <c r="Z101" s="48" t="n">
+        <v>-887.85356</v>
+      </c>
+      <c r="AA101" s="48" t="n">
+        <v>5655.65644</v>
+      </c>
+      <c r="AB101" s="49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC101" s="52">
+        <f>if(B70="DIV", F70,"")</f>
         <v/>
       </c>
       <c r="AD101" s="50" t="inlineStr">
@@ -9786,7 +9714,7 @@
     </row>
     <row r="102">
       <c r="A102" s="40" t="n">
-        <v>41611</v>
+        <v>41730</v>
       </c>
       <c r="B102" s="41" t="inlineStr">
         <is>
@@ -9795,17 +9723,17 @@
       </c>
       <c r="C102" s="41" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="D102" s="45" t="n">
         <v>5</v>
       </c>
       <c r="E102" s="32" t="n">
-        <v>123</v>
+        <v>97.214</v>
       </c>
       <c r="F102" s="49" t="n">
-        <v>619.2</v>
+        <v>489.42</v>
       </c>
       <c r="G102" s="41" t="inlineStr">
         <is>
@@ -9813,10 +9741,10 @@
         </is>
       </c>
       <c r="H102" s="43" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="I102" s="43" t="n">
-        <v>3.53</v>
+        <v>2.8</v>
       </c>
       <c r="J102" s="32">
         <f>Index!$C$2</f>
@@ -9824,63 +9752,54 @@
       </c>
       <c r="K102" s="37" t="n"/>
       <c r="L102" s="37">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J72*D72)-(E72*D72)), "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
       <c r="M102" s="46">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV"), ((E72*D72)+L72), "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), ((E71*D71)+L71), "")</f>
         <v/>
       </c>
       <c r="N102" s="47">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV"), D72, "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV"), D71, "")</f>
         <v/>
       </c>
       <c r="O102" s="46" t="n"/>
       <c r="P102" s="37">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &lt; 365), (1-Index!$F$2*2)*((J72*D72)-(E72*D72)), "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), (1-Index!$F$2*2)*((J71*D71)-(E71*D71)), "")</f>
         <v/>
       </c>
       <c r="Q102" s="46">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &lt; 365), ((E72*D72)+P72), "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), ((E71*D71)+P71), "")</f>
         <v/>
       </c>
       <c r="R102" s="46">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &lt; 365), D72, "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &lt; 365), D71, "")</f>
         <v/>
       </c>
       <c r="S102" s="46" t="n"/>
       <c r="T102" s="46">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &gt; 365), (J72*D72)-(E72*D72)-(2*sum(H72:I72)), "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), (J71*D71)-(E71*D71)-(2*sum(H71:I71)), "")</f>
         <v/>
       </c>
       <c r="U102" s="46">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &gt; 365), ((E72*D72)+T72), "")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), ((E71*D71)+T71), "")</f>
         <v/>
       </c>
       <c r="V102" s="46">
-        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &gt; 365), D72, "")</f>
-        <v/>
-      </c>
-      <c r="W102" s="51" t="n">
-        <v>97.214</v>
-      </c>
-      <c r="X102" s="40" t="n">
-        <v>41730</v>
-      </c>
-      <c r="Y102" s="36" t="n">
-        <v>-0.2039220083</v>
-      </c>
-      <c r="Z102" s="48" t="n">
-        <v>-127.12498</v>
-      </c>
-      <c r="AA102" s="48" t="n">
-        <v>487.87502</v>
-      </c>
-      <c r="AB102" s="49" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC102" s="52">
-        <f>if(B72="DIV", F72,"")</f>
+        <f>IF(AND( C71="Buy", ISBLANK(W71), B71&lt;&gt;"DIV", NOW()-A71 &gt; 365), D71, "")</f>
+        <v/>
+      </c>
+      <c r="W102" s="37" t="n"/>
+      <c r="X102" s="37" t="n"/>
+      <c r="Y102" s="36">
+        <f>IF(AND( C71="Buy", W71&lt;&gt;"", AA71&lt;&gt;"", B71&lt;&gt;"DIV"), Z71/sum(F71:I71), "")</f>
+        <v/>
+      </c>
+      <c r="Z102" s="37" t="n"/>
+      <c r="AA102" s="37" t="n"/>
+      <c r="AB102" s="37" t="n"/>
+      <c r="AC102" s="34">
+        <f>if(B71="DIV", F71,"")</f>
         <v/>
       </c>
       <c r="AD102" s="50" t="inlineStr">
@@ -9902,36 +9821,109 @@
       <c r="AP102" s="1" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n"/>
-      <c r="C103" s="1" t="n"/>
-      <c r="D103" s="2" t="n"/>
-      <c r="E103" s="3" t="n"/>
-      <c r="F103" s="49" t="n"/>
-      <c r="G103" s="3" t="n"/>
-      <c r="H103" s="3" t="n"/>
-      <c r="I103" s="3" t="n"/>
-      <c r="J103" s="3" t="n"/>
-      <c r="K103" s="3" t="n"/>
-      <c r="L103" s="3" t="n"/>
-      <c r="M103" s="4" t="n"/>
-      <c r="N103" s="1" t="n"/>
-      <c r="O103" s="3" t="n"/>
-      <c r="P103" s="3" t="n"/>
-      <c r="Q103" s="4" t="n"/>
-      <c r="R103" s="1" t="n"/>
-      <c r="S103" s="3" t="n"/>
-      <c r="T103" s="3" t="n"/>
-      <c r="U103" s="4" t="n"/>
-      <c r="V103" s="1" t="n"/>
-      <c r="W103" s="3" t="n"/>
-      <c r="X103" s="3" t="n"/>
-      <c r="Y103" s="3" t="n"/>
-      <c r="Z103" s="3" t="n"/>
-      <c r="AA103" s="3" t="n"/>
-      <c r="AB103" s="3" t="n"/>
-      <c r="AC103" s="3" t="n"/>
-      <c r="AD103" s="1" t="n"/>
+      <c r="A103" s="40" t="n">
+        <v>41611</v>
+      </c>
+      <c r="B103" s="41" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="C103" s="41" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D103" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" s="32" t="n">
+        <v>123</v>
+      </c>
+      <c r="F103" s="49" t="n">
+        <v>619.2</v>
+      </c>
+      <c r="G103" s="41" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="H103" s="43" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I103" s="43" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J103" s="32">
+        <f>Index!$C$2</f>
+        <v/>
+      </c>
+      <c r="K103" s="37" t="n"/>
+      <c r="L103" s="37">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J72*D72)-(E72*D72)), "")</f>
+        <v/>
+      </c>
+      <c r="M103" s="46">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV"), ((E72*D72)+L72), "")</f>
+        <v/>
+      </c>
+      <c r="N103" s="47">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV"), D72, "")</f>
+        <v/>
+      </c>
+      <c r="O103" s="46" t="n"/>
+      <c r="P103" s="37">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &lt; 365), (1-Index!$F$2*2)*((J72*D72)-(E72*D72)), "")</f>
+        <v/>
+      </c>
+      <c r="Q103" s="46">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &lt; 365), ((E72*D72)+P72), "")</f>
+        <v/>
+      </c>
+      <c r="R103" s="46">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &lt; 365), D72, "")</f>
+        <v/>
+      </c>
+      <c r="S103" s="46" t="n"/>
+      <c r="T103" s="46">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &gt; 365), (J72*D72)-(E72*D72)-(2*sum(H72:I72)), "")</f>
+        <v/>
+      </c>
+      <c r="U103" s="46">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &gt; 365), ((E72*D72)+T72), "")</f>
+        <v/>
+      </c>
+      <c r="V103" s="46">
+        <f>IF(AND( C72="Buy", ISBLANK(W72), B72&lt;&gt;"DIV", NOW()-A72 &gt; 365), D72, "")</f>
+        <v/>
+      </c>
+      <c r="W103" s="51" t="n">
+        <v>97.214</v>
+      </c>
+      <c r="X103" s="40" t="n">
+        <v>41730</v>
+      </c>
+      <c r="Y103" s="36" t="n">
+        <v>-0.2039220083</v>
+      </c>
+      <c r="Z103" s="48" t="n">
+        <v>-127.12498</v>
+      </c>
+      <c r="AA103" s="48" t="n">
+        <v>487.87502</v>
+      </c>
+      <c r="AB103" s="49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC103" s="52">
+        <f>if(B72="DIV", F72,"")</f>
+        <v/>
+      </c>
+      <c r="AD103" s="50" t="inlineStr">
+        <is>
+          <t>SBI Securities</t>
+        </is>
+      </c>
       <c r="AE103" s="1" t="n"/>
       <c r="AF103" s="1" t="n"/>
       <c r="AG103" s="1" t="n"/>
@@ -9995,7 +9987,7 @@
       <c r="C105" s="1" t="n"/>
       <c r="D105" s="2" t="n"/>
       <c r="E105" s="3" t="n"/>
-      <c r="F105" s="37" t="n"/>
+      <c r="F105" s="49" t="n"/>
       <c r="G105" s="3" t="n"/>
       <c r="H105" s="3" t="n"/>
       <c r="I105" s="3" t="n"/>
@@ -10039,7 +10031,7 @@
       <c r="C106" s="1" t="n"/>
       <c r="D106" s="2" t="n"/>
       <c r="E106" s="3" t="n"/>
-      <c r="F106" s="49" t="n"/>
+      <c r="F106" s="37" t="n"/>
       <c r="G106" s="3" t="n"/>
       <c r="H106" s="3" t="n"/>
       <c r="I106" s="3" t="n"/>
@@ -10083,7 +10075,7 @@
       <c r="C107" s="1" t="n"/>
       <c r="D107" s="2" t="n"/>
       <c r="E107" s="3" t="n"/>
-      <c r="F107" s="3" t="n"/>
+      <c r="F107" s="49" t="n"/>
       <c r="G107" s="3" t="n"/>
       <c r="H107" s="3" t="n"/>
       <c r="I107" s="3" t="n"/>
@@ -11841,7 +11833,7 @@
       <c r="A147" s="1" t="n"/>
       <c r="B147" s="1" t="n"/>
       <c r="C147" s="1" t="n"/>
-      <c r="D147" s="1" t="n"/>
+      <c r="D147" s="2" t="n"/>
       <c r="E147" s="3" t="n"/>
       <c r="F147" s="3" t="n"/>
       <c r="G147" s="3" t="n"/>
@@ -11888,9 +11880,9 @@
       <c r="D148" s="1" t="n"/>
       <c r="E148" s="3" t="n"/>
       <c r="F148" s="3" t="n"/>
-      <c r="G148" s="53" t="n"/>
+      <c r="G148" s="3" t="n"/>
       <c r="H148" s="3" t="n"/>
-      <c r="I148" s="1" t="n"/>
+      <c r="I148" s="3" t="n"/>
       <c r="J148" s="3" t="n"/>
       <c r="K148" s="3" t="n"/>
       <c r="L148" s="3" t="n"/>
@@ -52726,15 +52718,15 @@
       <c r="J1076" s="3" t="n"/>
       <c r="K1076" s="3" t="n"/>
       <c r="L1076" s="3" t="n"/>
-      <c r="M1076" s="1" t="n"/>
+      <c r="M1076" s="4" t="n"/>
       <c r="N1076" s="1" t="n"/>
       <c r="O1076" s="3" t="n"/>
       <c r="P1076" s="3" t="n"/>
-      <c r="Q1076" s="1" t="n"/>
+      <c r="Q1076" s="4" t="n"/>
       <c r="R1076" s="1" t="n"/>
       <c r="S1076" s="3" t="n"/>
       <c r="T1076" s="3" t="n"/>
-      <c r="U1076" s="1" t="n"/>
+      <c r="U1076" s="4" t="n"/>
       <c r="V1076" s="1" t="n"/>
       <c r="W1076" s="3" t="n"/>
       <c r="X1076" s="3" t="n"/>
@@ -53636,6 +53628,50 @@
       <c r="AN1096" s="1" t="n"/>
       <c r="AO1096" s="1" t="n"/>
       <c r="AP1096" s="1" t="n"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n"/>
+      <c r="B1097" s="1" t="n"/>
+      <c r="C1097" s="1" t="n"/>
+      <c r="D1097" s="1" t="n"/>
+      <c r="E1097" s="3" t="n"/>
+      <c r="F1097" s="3" t="n"/>
+      <c r="G1097" s="53" t="n"/>
+      <c r="H1097" s="3" t="n"/>
+      <c r="I1097" s="1" t="n"/>
+      <c r="J1097" s="3" t="n"/>
+      <c r="K1097" s="3" t="n"/>
+      <c r="L1097" s="3" t="n"/>
+      <c r="M1097" s="1" t="n"/>
+      <c r="N1097" s="1" t="n"/>
+      <c r="O1097" s="3" t="n"/>
+      <c r="P1097" s="3" t="n"/>
+      <c r="Q1097" s="1" t="n"/>
+      <c r="R1097" s="1" t="n"/>
+      <c r="S1097" s="3" t="n"/>
+      <c r="T1097" s="3" t="n"/>
+      <c r="U1097" s="1" t="n"/>
+      <c r="V1097" s="1" t="n"/>
+      <c r="W1097" s="3" t="n"/>
+      <c r="X1097" s="3" t="n"/>
+      <c r="Y1097" s="3" t="n"/>
+      <c r="Z1097" s="3" t="n"/>
+      <c r="AA1097" s="3" t="n"/>
+      <c r="AB1097" s="3" t="n"/>
+      <c r="AC1097" s="3" t="n"/>
+      <c r="AD1097" s="1" t="n"/>
+      <c r="AE1097" s="1" t="n"/>
+      <c r="AF1097" s="1" t="n"/>
+      <c r="AG1097" s="1" t="n"/>
+      <c r="AH1097" s="1" t="n"/>
+      <c r="AI1097" s="1" t="n"/>
+      <c r="AJ1097" s="1" t="n"/>
+      <c r="AK1097" s="1" t="n"/>
+      <c r="AL1097" s="1" t="n"/>
+      <c r="AM1097" s="1" t="n"/>
+      <c r="AN1097" s="1" t="n"/>
+      <c r="AO1097" s="1" t="n"/>
+      <c r="AP1097" s="1" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$4:$AO$1066"/>
